--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonasosterle/Documents/code/WEB/react-cintamani/cintamani-next/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oesiw\Documents\code\cintamani\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2160" windowWidth="23040" windowHeight="9640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2160" windowWidth="23040" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalog_product_bearbeitet" sheetId="1" r:id="rId1"/>
@@ -1833,9 +1833,6 @@
     <t>TBT005.JPG, TBT003.JPG</t>
   </si>
   <si>
-    <t>w Bodhisattvas - Grüne Tara (Syamatara)</t>
-  </si>
-  <si>
     <t>w Bodhisattvas - Weiße Tara (Sitatara)</t>
   </si>
   <si>
@@ -1846,6 +1843,9 @@
   </si>
   <si>
     <t>MBAva014.JPG, MBAva015.JPG, MBAva016.JPG, MBAva017.JPG, MBAva019.JPG</t>
+  </si>
+  <si>
+    <t>w Bodhisattvas - Gruene Tara (Syamatara)</t>
   </si>
 </sst>
 </file>
@@ -2715,17 +2715,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A242" sqref="A242"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B192" sqref="B192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.1640625" customWidth="1"/>
-    <col min="3" max="3" width="48.83203125" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>371</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6100,13 +6100,13 @@
         <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G148" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -6842,12 +6842,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C182" t="s">
         <v>265</v>
@@ -6865,12 +6865,12 @@
         <v>265</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C183" t="s">
         <v>274</v>
@@ -6888,12 +6888,12 @@
         <v>274</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C184" t="s">
         <v>263</v>
@@ -6911,12 +6911,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C185" t="s">
         <v>273</v>
@@ -6934,12 +6934,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C186" t="s">
         <v>272</v>
@@ -6957,12 +6957,12 @@
         <v>271</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C187" t="s">
         <v>272</v>
@@ -6980,12 +6980,12 @@
         <v>271</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C188" t="s">
         <v>264</v>
@@ -7003,12 +7003,12 @@
         <v>264</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C189" t="s">
         <v>268</v>
@@ -7026,12 +7026,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C190" t="s">
         <v>267</v>
@@ -7049,12 +7049,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C191" t="s">
         <v>262</v>
@@ -7072,12 +7072,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C192" t="s">
         <v>269</v>
@@ -7095,12 +7095,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C193" t="s">
         <v>283</v>
@@ -7118,12 +7118,12 @@
         <v>283</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C194" t="s">
         <v>281</v>
@@ -7141,12 +7141,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C195" t="s">
         <v>282</v>
@@ -7164,12 +7164,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C196" t="s">
         <v>278</v>
@@ -7187,12 +7187,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C197" t="s">
         <v>285</v>
@@ -7210,12 +7210,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C198" t="s">
         <v>286</v>
@@ -7233,12 +7233,12 @@
         <v>286</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C199" t="s">
         <v>280</v>
@@ -7256,12 +7256,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C200" t="s">
         <v>276</v>
@@ -7279,12 +7279,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C201" t="s">
         <v>284</v>
@@ -7302,12 +7302,12 @@
         <v>284</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C202" t="s">
         <v>288</v>
@@ -7325,12 +7325,12 @@
         <v>287</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C203" t="s">
         <v>290</v>
@@ -7348,7 +7348,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -7578,12 +7578,12 @@
         <v>310</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C214" t="s">
         <v>314</v>
@@ -7601,12 +7601,12 @@
         <v>314</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C215" t="s">
         <v>313</v>
@@ -7624,12 +7624,12 @@
         <v>313</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C216" t="s">
         <v>315</v>
@@ -7647,12 +7647,12 @@
         <v>315</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C217" t="s">
         <v>312</v>
@@ -7670,7 +7670,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>94</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>1</v>
       </c>
       <c r="F240" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G240" t="s">
         <v>134</v>
@@ -8215,9 +8215,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>177</v>
       </c>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2160" windowWidth="23040" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalog_product_bearbeitet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="602">
   <si>
     <t>Name</t>
   </si>
@@ -305,13 +305,6 @@
   </si>
   <si>
     <t>w Bodhisattvas - Usnisavijaya</t>
-  </si>
-  <si>
-    <t>Usnisavijaya, die Weiße Tara und Amitayus sind die drei wichtigsten Gottheiten die Langlebigkeit verkörpern._x000D_
-Usnisavijaya gilt auch als Mutter aller Buddhas.</t>
-  </si>
-  <si>
-    <t>Usnisavijaya Kupferstatue 15cm</t>
   </si>
   <si>
     <t xml:space="preserve">Buddhas - Vairocana </t>
@@ -1368,27 +1361,6 @@
     <t>BVar001.JPG</t>
   </si>
   <si>
-    <t>KS003.JPG</t>
-  </si>
-  <si>
-    <t>KS002.JPG</t>
-  </si>
-  <si>
-    <t>KS005.JPG</t>
-  </si>
-  <si>
-    <t>KS007.JPG</t>
-  </si>
-  <si>
-    <t>KS006.JPG</t>
-  </si>
-  <si>
-    <t>KS008.JPG</t>
-  </si>
-  <si>
-    <t>KS001.JPG</t>
-  </si>
-  <si>
     <t>MBAva011.JPG</t>
   </si>
   <si>
@@ -1833,6 +1805,9 @@
     <t>TBT005.JPG, TBT003.JPG</t>
   </si>
   <si>
+    <t>w Bodhisattvas - Grüne Tara (Syamatara)</t>
+  </si>
+  <si>
     <t>w Bodhisattvas - Weiße Tara (Sitatara)</t>
   </si>
   <si>
@@ -1845,7 +1820,25 @@
     <t>MBAva014.JPG, MBAva015.JPG, MBAva016.JPG, MBAva017.JPG, MBAva019.JPG</t>
   </si>
   <si>
-    <t>w Bodhisattvas - Gruene Tara (Syamatara)</t>
+    <t>KKS003.JPG</t>
+  </si>
+  <si>
+    <t>KKS002.JPG</t>
+  </si>
+  <si>
+    <t>KKS005.JPG</t>
+  </si>
+  <si>
+    <t>KKS007.JPG</t>
+  </si>
+  <si>
+    <t>KKS006.JPG</t>
+  </si>
+  <si>
+    <t>KKS008.JPG</t>
+  </si>
+  <si>
+    <t>KKS001.JPG</t>
   </si>
 </sst>
 </file>
@@ -2713,39 +2706,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G240"/>
+  <dimension ref="A1:G239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B192" sqref="B192"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" customWidth="1"/>
+    <col min="6" max="6" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F1" t="s">
         <v>373</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>374</v>
-      </c>
-      <c r="F1" t="s">
-        <v>375</v>
-      </c>
-      <c r="G1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2765,7 +2759,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2788,7 +2782,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
@@ -2811,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -2834,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
@@ -2857,7 +2851,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -2880,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -2903,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -2926,7 +2920,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -2949,7 +2943,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G10" t="s">
         <v>3</v>
@@ -2972,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -2995,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -3018,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G13" t="s">
         <v>21</v>
@@ -3041,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -3064,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -3087,7 +3081,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G16" t="s">
         <v>2</v>
@@ -3110,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G17" t="s">
         <v>2</v>
@@ -3133,7 +3127,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G18" t="s">
         <v>23</v>
@@ -3156,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G19" t="s">
         <v>23</v>
@@ -3179,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
@@ -3202,7 +3196,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -3225,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
@@ -3248,7 +3242,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G23" t="s">
         <v>31</v>
@@ -3271,7 +3265,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -3294,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>36</v>
@@ -3317,7 +3311,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -3340,7 +3334,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
@@ -3363,7 +3357,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G28" t="s">
         <v>42</v>
@@ -3386,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G29" t="s">
         <v>39</v>
@@ -3409,7 +3403,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G30" t="s">
         <v>41</v>
@@ -3432,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G31" t="s">
         <v>43</v>
@@ -3455,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3478,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3501,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G34" t="s">
         <v>47</v>
@@ -3524,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G35" t="s">
         <v>48</v>
@@ -3547,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -3570,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G37" t="s">
         <v>50</v>
@@ -3593,7 +3587,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G38" t="s">
         <v>54</v>
@@ -3616,7 +3610,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G39" t="s">
         <v>50</v>
@@ -3639,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G40" t="s">
         <v>55</v>
@@ -3662,7 +3656,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G41" t="s">
         <v>50</v>
@@ -3685,7 +3679,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G42" t="s">
         <v>57</v>
@@ -3708,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G43" t="s">
         <v>59</v>
@@ -3731,7 +3725,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G44" t="s">
         <v>61</v>
@@ -3754,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G45" t="s">
         <v>69</v>
@@ -3777,7 +3771,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G46" t="s">
         <v>66</v>
@@ -3800,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G47" t="s">
         <v>67</v>
@@ -3823,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G48" t="s">
         <v>68</v>
@@ -3846,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G49" t="s">
         <v>64</v>
@@ -3869,7 +3863,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G50" t="s">
         <v>71</v>
@@ -3892,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G51" t="s">
         <v>72</v>
@@ -3915,7 +3909,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G52" t="s">
         <v>78</v>
@@ -3938,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G53" t="s">
         <v>74</v>
@@ -3961,10 +3955,10 @@
         <v>1</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3975,7 +3969,7 @@
         <v>73</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D55" s="4">
         <v>399</v>
@@ -3984,7 +3978,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>77</v>
@@ -4007,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G56" t="s">
         <v>79</v>
@@ -4030,7 +4024,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G57" t="s">
         <v>85</v>
@@ -4053,7 +4047,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G58" t="s">
         <v>84</v>
@@ -4076,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G59" t="s">
         <v>86</v>
@@ -4099,7 +4093,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G60" t="s">
         <v>90</v>
@@ -4122,7 +4116,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G61" t="s">
         <v>88</v>
@@ -4136,7 +4130,7 @@
         <v>81</v>
       </c>
       <c r="C62" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D62" s="1">
         <v>299</v>
@@ -4145,10 +4139,10 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G62" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -4168,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G63" t="s">
         <v>87</v>
@@ -4191,7 +4185,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G64" t="s">
         <v>82</v>
@@ -4214,7 +4208,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G65" t="s">
         <v>92</v>
@@ -4222,137 +4216,137 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D66" s="1">
-        <v>399</v>
+        <v>19.5</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>439</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>95</v>
+        <v>438</v>
+      </c>
+      <c r="G66" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D67" s="1">
-        <v>19.5</v>
+        <v>49</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G67" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" t="s">
         <v>97</v>
       </c>
-      <c r="C68" t="s">
-        <v>98</v>
-      </c>
       <c r="D68" s="1">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C69" t="s">
         <v>99</v>
       </c>
       <c r="D69" s="1">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>97</v>
+        <v>368</v>
       </c>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D70" s="1">
-        <v>200</v>
+        <v>6.5</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>443</v>
+        <v>595</v>
       </c>
       <c r="G70" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C71" t="s">
         <v>119</v>
       </c>
       <c r="D71" s="1">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>444</v>
+        <v>596</v>
       </c>
       <c r="G71" t="s">
         <v>118</v>
@@ -4360,45 +4354,45 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C72" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D72" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>445</v>
+        <v>597</v>
       </c>
       <c r="G72" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C73" t="s">
         <v>109</v>
       </c>
       <c r="D73" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>446</v>
+        <v>598</v>
       </c>
       <c r="G73" t="s">
         <v>108</v>
@@ -4406,22 +4400,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C74" t="s">
         <v>111</v>
       </c>
       <c r="D74" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>447</v>
+        <v>598</v>
       </c>
       <c r="G74" t="s">
         <v>110</v>
@@ -4429,10 +4423,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C75" t="s">
         <v>113</v>
@@ -4444,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>447</v>
+        <v>599</v>
       </c>
       <c r="G75" t="s">
         <v>112</v>
@@ -4452,22 +4446,22 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C76" t="s">
         <v>115</v>
       </c>
       <c r="D76" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>448</v>
+        <v>600</v>
       </c>
       <c r="G76" t="s">
         <v>114</v>
@@ -4475,229 +4469,229 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C77" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D77" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>449</v>
+        <v>601</v>
       </c>
       <c r="G77" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C78" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D78" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>450</v>
+        <v>601</v>
       </c>
       <c r="G78" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C79" t="s">
         <v>104</v>
       </c>
       <c r="D79" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>450</v>
+        <v>601</v>
       </c>
       <c r="G79" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C80" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D80" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>450</v>
+        <v>601</v>
       </c>
       <c r="G80" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>370</v>
+        <v>120</v>
       </c>
       <c r="C81" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D81" s="1">
-        <v>300</v>
+        <v>19.5</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G81" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C82" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D82" s="1">
-        <v>19.5</v>
+        <v>59</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="G82" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C83" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D83" s="1">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G83" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C84" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D84" s="1">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="G84" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D85" s="1">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G85" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C86" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D86" s="1">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="G86" t="s">
         <v>130</v>
@@ -4705,137 +4699,137 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" t="s">
         <v>122</v>
       </c>
-      <c r="C87" t="s">
-        <v>132</v>
-      </c>
       <c r="D87" s="1">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G87" t="s">
-        <v>132</v>
+        <v>353</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C88" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D88" s="1">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="G88" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
+        <v>120</v>
+      </c>
+      <c r="C89" t="s">
         <v>122</v>
       </c>
-      <c r="C89" t="s">
-        <v>139</v>
-      </c>
       <c r="D89" s="1">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G89" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C90" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D90" s="1">
-        <v>259</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
+        <v>269</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="G90" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C91" t="s">
-        <v>128</v>
+        <v>354</v>
       </c>
       <c r="D91" s="1">
-        <v>269</v>
-      </c>
-      <c r="E91" s="2">
-        <v>0</v>
+        <v>299</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G91" t="s">
-        <v>127</v>
+        <v>354</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C92" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D92" s="1">
-        <v>299</v>
+        <v>399</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="G92" t="s">
         <v>356</v>
@@ -4843,114 +4837,114 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C93" t="s">
-        <v>357</v>
+        <v>124</v>
       </c>
       <c r="D93" s="1">
-        <v>399</v>
+        <v>999</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G93" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C94" t="s">
-        <v>126</v>
-      </c>
-      <c r="D94" s="1">
-        <v>999</v>
-      </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
-      <c r="F94" t="s">
-        <v>463</v>
-      </c>
-      <c r="G94" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95" t="s">
+        <v>142</v>
+      </c>
+      <c r="D95" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>455</v>
+      </c>
+      <c r="G95" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C96" t="s">
-        <v>144</v>
+        <v>357</v>
       </c>
       <c r="D96" s="1">
-        <v>19.5</v>
+        <v>59</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G96" t="s">
-        <v>144</v>
+        <v>357</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C97" t="s">
-        <v>359</v>
+        <v>141</v>
       </c>
       <c r="D97" s="1">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="G97" t="s">
-        <v>359</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C98" t="s">
         <v>143</v>
       </c>
       <c r="D98" s="1">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G98" t="s">
         <v>143</v>
@@ -4958,82 +4952,82 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C99" t="s">
-        <v>145</v>
+        <v>358</v>
       </c>
       <c r="D99" s="1">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="G99" t="s">
-        <v>145</v>
+        <v>358</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
+        <v>138</v>
+      </c>
+      <c r="C100" t="s">
         <v>140</v>
       </c>
-      <c r="C100" t="s">
-        <v>360</v>
-      </c>
       <c r="D100" s="1">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>468</v>
-      </c>
-      <c r="G100" t="s">
-        <v>360</v>
+        <v>460</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C101" t="s">
-        <v>142</v>
+        <v>359</v>
       </c>
       <c r="D101" s="1">
-        <v>269</v>
+        <v>399</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>469</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>141</v>
+        <v>461</v>
+      </c>
+      <c r="G101" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C102" t="s">
-        <v>361</v>
+        <v>149</v>
       </c>
       <c r="D102" s="1">
         <v>399</v>
@@ -5042,90 +5036,90 @@
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>470</v>
-      </c>
-      <c r="G102" t="s">
-        <v>362</v>
+        <v>462</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C103" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D103" s="1">
-        <v>399</v>
+        <v>999</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>471</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>150</v>
+        <v>463</v>
+      </c>
+      <c r="G103" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C104" t="s">
         <v>146</v>
       </c>
       <c r="D104" s="1">
-        <v>999</v>
+        <v>1999</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>472</v>
-      </c>
-      <c r="G104" t="s">
-        <v>146</v>
+        <v>464</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C105" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="D105" s="1">
-        <v>1999</v>
+        <v>5.9</v>
       </c>
       <c r="E105">
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>473</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>147</v>
+        <v>465</v>
+      </c>
+      <c r="G105" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C106" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D106" s="1">
         <v>5.9</v>
@@ -5134,21 +5128,21 @@
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G106" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C107" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D107" s="1">
         <v>5.9</v>
@@ -5157,21 +5151,21 @@
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="G107" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C108" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D108" s="1">
         <v>5.9</v>
@@ -5180,18 +5174,18 @@
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G108" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C109" t="s">
         <v>174</v>
@@ -5203,21 +5197,21 @@
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="G109" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C110" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D110" s="1">
         <v>5.9</v>
@@ -5226,90 +5220,90 @@
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G110" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111" t="s">
+        <v>150</v>
+      </c>
+      <c r="C111" t="s">
         <v>152</v>
       </c>
-      <c r="C111" t="s">
-        <v>177</v>
-      </c>
       <c r="D111" s="1">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G111" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C112" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="D112" s="1">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G112" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C113" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="D113" s="1">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="E113">
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="G113" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C114" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D114" s="1">
         <v>7.5</v>
@@ -5318,21 +5312,21 @@
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G114" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C115" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D115" s="1">
         <v>7.5</v>
@@ -5341,21 +5335,21 @@
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="G115" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C116" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D116" s="1">
         <v>7.5</v>
@@ -5364,90 +5358,90 @@
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="G116" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C117" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D117" s="1">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="G117" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C118" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D118" s="1">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G118" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C119" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D119" s="1">
-        <v>8.5</v>
+        <v>9.9</v>
       </c>
       <c r="E119">
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G119" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C120" t="s">
-        <v>175</v>
+        <v>367</v>
       </c>
       <c r="D120" s="1">
         <v>9.9</v>
@@ -5456,90 +5450,90 @@
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="G120" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C121" t="s">
-        <v>369</v>
+        <v>158</v>
       </c>
       <c r="D121" s="1">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="E121">
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G121" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C122" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D122" s="1">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="E122">
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="G122" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C123" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D123" s="1">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="E123">
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="G123" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C124" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D124" s="1">
         <v>12</v>
@@ -5548,21 +5542,21 @@
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G124" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C125" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D125" s="1">
         <v>12</v>
@@ -5571,44 +5565,44 @@
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="G125" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="C126" t="s">
-        <v>163</v>
+        <v>366</v>
       </c>
       <c r="D126" s="1">
-        <v>12</v>
+        <v>9.9</v>
       </c>
       <c r="E126">
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G126" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C127" t="s">
-        <v>368</v>
+        <v>190</v>
       </c>
       <c r="D127" s="1">
         <v>9.9</v>
@@ -5617,67 +5611,67 @@
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G127" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C128" t="s">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c r="D128" s="1">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="E128">
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G128" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129" t="s">
+        <v>177</v>
+      </c>
+      <c r="C129" t="s">
         <v>179</v>
       </c>
-      <c r="C129" t="s">
-        <v>291</v>
-      </c>
       <c r="D129" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E129">
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="G129" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C130" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D130" s="1">
         <v>14</v>
@@ -5686,87 +5680,87 @@
         <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G130" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C131" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D131" s="1">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="E131">
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="G131" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="C132" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="D132" s="1">
-        <v>14.5</v>
+        <v>16.8</v>
       </c>
       <c r="E132">
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G132" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="C133" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="D133" s="1">
-        <v>16.8</v>
+        <v>19.5</v>
       </c>
       <c r="E133">
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="G133" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C134" t="s">
         <v>182</v>
@@ -5778,228 +5772,228 @@
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="G134" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C135" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D135" s="1">
-        <v>19.5</v>
+        <v>24.5</v>
       </c>
       <c r="E135">
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G135" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C136" t="s">
+        <v>189</v>
+      </c>
+      <c r="D136" s="1">
+        <v>25</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136" t="s">
+        <v>493</v>
+      </c>
+      <c r="G136" t="s">
         <v>188</v>
-      </c>
-      <c r="D136" s="1">
-        <v>24.5</v>
-      </c>
-      <c r="E136">
-        <v>1</v>
-      </c>
-      <c r="F136" t="s">
-        <v>501</v>
-      </c>
-      <c r="G136" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="C137" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="D137" s="1">
-        <v>25</v>
+        <v>28.2</v>
       </c>
       <c r="E137">
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G137" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="C138" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="D138" s="1">
-        <v>28.2</v>
+        <v>29.5</v>
       </c>
       <c r="E138">
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="G138" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="C139" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="D139" s="1">
-        <v>29.5</v>
+        <v>29.9</v>
       </c>
       <c r="E139">
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G139" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="C140" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="D140" s="1">
-        <v>29.9</v>
+        <v>34</v>
       </c>
       <c r="E140">
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="G140" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C141" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D141" s="1">
-        <v>34</v>
+        <v>34.5</v>
       </c>
       <c r="E141">
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G141" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C142" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D142" s="1">
-        <v>34.5</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="E142">
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="G142" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C143" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D143" s="1">
-        <v>79.900000000000006</v>
+        <v>89.9</v>
       </c>
       <c r="E143">
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G143" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C144" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D144" s="1">
         <v>89.9</v>
@@ -6008,67 +6002,67 @@
         <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="G144" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="C145" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="D145" s="1">
-        <v>89.9</v>
+        <v>49.9</v>
       </c>
       <c r="E145">
         <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G145" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>216</v>
+        <v>582</v>
       </c>
       <c r="C146" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D146" s="1">
-        <v>49.9</v>
+        <v>89</v>
       </c>
       <c r="E146">
         <v>1</v>
       </c>
       <c r="F146" t="s">
-        <v>511</v>
+        <v>583</v>
       </c>
       <c r="G146" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="C147" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D147" s="1">
         <v>89</v>
@@ -6077,21 +6071,21 @@
         <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G147" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="C148" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D148" s="1">
         <v>89</v>
@@ -6100,44 +6094,44 @@
         <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="G148" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="C149" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D149" s="1">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E149">
         <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="G149" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="C150" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D150" s="1">
         <v>99</v>
@@ -6146,21 +6140,21 @@
         <v>1</v>
       </c>
       <c r="F150" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G150" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="C151" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D151" s="1">
         <v>99</v>
@@ -6169,18 +6163,18 @@
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="G151" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="C152" t="s">
         <v>209</v>
@@ -6192,64 +6186,64 @@
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G152" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="C153" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D153" s="1">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="E153">
         <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="G153" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>591</v>
+        <v>214</v>
       </c>
       <c r="C154" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D154" s="1">
-        <v>179</v>
+        <v>49.9</v>
       </c>
       <c r="E154">
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>598</v>
+        <v>503</v>
       </c>
       <c r="G154" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C155" t="s">
         <v>220</v>
@@ -6261,7 +6255,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G155" t="s">
         <v>219</v>
@@ -6269,10 +6263,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C156" t="s">
         <v>222</v>
@@ -6284,7 +6278,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="G156" t="s">
         <v>221</v>
@@ -6292,10 +6286,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C157" t="s">
         <v>224</v>
@@ -6307,7 +6301,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G157" t="s">
         <v>223</v>
@@ -6315,10 +6309,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C158" t="s">
         <v>226</v>
@@ -6330,7 +6324,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="G158" t="s">
         <v>225</v>
@@ -6338,10 +6332,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C159" t="s">
         <v>228</v>
@@ -6353,7 +6347,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G159" t="s">
         <v>227</v>
@@ -6361,10 +6355,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C160" t="s">
         <v>230</v>
@@ -6376,7 +6370,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="G160" t="s">
         <v>229</v>
@@ -6384,10 +6378,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C161" t="s">
         <v>232</v>
@@ -6399,7 +6393,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G161" t="s">
         <v>231</v>
@@ -6407,10 +6401,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C162" t="s">
         <v>234</v>
@@ -6422,7 +6416,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="G162" t="s">
         <v>233</v>
@@ -6430,36 +6424,36 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="C163" t="s">
+        <v>237</v>
+      </c>
+      <c r="D163" s="1">
+        <v>199</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163" t="s">
+        <v>512</v>
+      </c>
+      <c r="G163" t="s">
         <v>236</v>
-      </c>
-      <c r="D163" s="1">
-        <v>49.9</v>
-      </c>
-      <c r="E163">
-        <v>1</v>
-      </c>
-      <c r="F163" t="s">
-        <v>520</v>
-      </c>
-      <c r="G163" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C164" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D164" s="1">
         <v>199</v>
@@ -6468,21 +6462,21 @@
         <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="G164" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C165" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D165" s="1">
         <v>199</v>
@@ -6491,21 +6485,21 @@
         <v>1</v>
       </c>
       <c r="F165" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G165" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C166" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D166" s="1">
         <v>199</v>
@@ -6514,41 +6508,41 @@
         <v>1</v>
       </c>
       <c r="F166" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="G166" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C167" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D167" s="1">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="E167">
         <v>1</v>
       </c>
       <c r="F167" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G167" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C168" t="s">
         <v>243</v>
@@ -6560,7 +6554,7 @@
         <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="G168" t="s">
         <v>242</v>
@@ -6568,10 +6562,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C169" t="s">
         <v>245</v>
@@ -6583,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G169" t="s">
         <v>244</v>
@@ -6591,59 +6585,59 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C170" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D170" s="1">
-        <v>249</v>
+        <v>399</v>
       </c>
       <c r="E170">
         <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="G170" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>170</v>
-      </c>
-      <c r="B171" t="s">
-        <v>249</v>
-      </c>
-      <c r="C171" t="s">
-        <v>251</v>
-      </c>
-      <c r="D171" s="1">
+        <v>171</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D171" s="4">
         <v>399</v>
       </c>
-      <c r="E171">
-        <v>1</v>
-      </c>
-      <c r="F171" t="s">
-        <v>528</v>
-      </c>
-      <c r="G171" t="s">
-        <v>250</v>
+      <c r="E171" s="3">
+        <v>1</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D172" s="4">
         <v>399</v>
@@ -6652,21 +6646,21 @@
         <v>1</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="D173" s="4">
         <v>399</v>
@@ -6675,596 +6669,596 @@
         <v>1</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>250</v>
+        <v>362</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>173</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="D174" s="4">
-        <v>399</v>
-      </c>
-      <c r="E174" s="3">
-        <v>1</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="G174" s="3" t="s">
-        <v>364</v>
+        <v>174</v>
+      </c>
+      <c r="B174" t="s">
+        <v>247</v>
+      </c>
+      <c r="C174" t="s">
+        <v>256</v>
+      </c>
+      <c r="D174" s="1">
+        <v>499</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174" t="s">
+        <v>523</v>
+      </c>
+      <c r="G174" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>174</v>
-      </c>
-      <c r="B175" t="s">
-        <v>249</v>
-      </c>
-      <c r="C175" t="s">
-        <v>258</v>
-      </c>
-      <c r="D175" s="1">
+        <v>175</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D175" s="4">
         <v>499</v>
       </c>
-      <c r="E175">
-        <v>1</v>
-      </c>
-      <c r="F175" t="s">
-        <v>532</v>
-      </c>
-      <c r="G175" t="s">
-        <v>256</v>
+      <c r="E175" s="3">
+        <v>1</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D176" s="4">
-        <v>499</v>
+        <v>799</v>
       </c>
       <c r="E176" s="3">
         <v>1</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>176</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D177" s="4">
-        <v>799</v>
-      </c>
-      <c r="E177" s="3">
-        <v>1</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="G177" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>178</v>
+      </c>
+      <c r="B178" t="s">
+        <v>247</v>
+      </c>
+      <c r="C178" t="s">
+        <v>255</v>
+      </c>
+      <c r="D178" s="1">
+        <v>999</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178" t="s">
+        <v>527</v>
+      </c>
+      <c r="G178" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>249</v>
+        <v>94</v>
       </c>
       <c r="C179" t="s">
-        <v>257</v>
+        <v>361</v>
       </c>
       <c r="D179" s="1">
-        <v>999</v>
+        <v>499</v>
       </c>
       <c r="E179">
         <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>536</v>
+        <v>437</v>
       </c>
       <c r="G179" t="s">
-        <v>256</v>
+        <v>361</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>94</v>
+        <v>590</v>
       </c>
       <c r="C180" t="s">
-        <v>363</v>
+        <v>268</v>
       </c>
       <c r="D180" s="1">
-        <v>499</v>
+        <v>19.5</v>
       </c>
       <c r="E180">
         <v>1</v>
       </c>
       <c r="F180" t="s">
-        <v>439</v>
+        <v>528</v>
       </c>
       <c r="G180" t="s">
-        <v>363</v>
+        <v>268</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>94</v>
+        <v>590</v>
       </c>
       <c r="C181" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D181" s="1">
-        <v>19.5</v>
+        <v>59</v>
       </c>
       <c r="E181">
         <v>1</v>
       </c>
       <c r="F181" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="G181" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="C182" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D182" s="1">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E182">
         <v>1</v>
       </c>
       <c r="F182" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G182" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="C183" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D183" s="1">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="E183">
         <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="G183" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="C184" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D184" s="1">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="E184">
         <v>1</v>
       </c>
       <c r="F184" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G184" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="C185" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D185" s="1">
-        <v>229</v>
-      </c>
-      <c r="E185">
-        <v>1</v>
+        <v>269</v>
+      </c>
+      <c r="E185" s="6">
+        <v>0</v>
       </c>
       <c r="F185" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="G185" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="C186" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D186" s="1">
         <v>269</v>
       </c>
-      <c r="E186" s="6">
-        <v>0</v>
+      <c r="E186">
+        <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G186" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="C187" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D187" s="1">
-        <v>269</v>
+        <v>399</v>
       </c>
       <c r="E187">
         <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="G187" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="C188" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D188" s="1">
-        <v>399</v>
+        <v>799</v>
       </c>
       <c r="E188">
         <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>544</v>
-      </c>
-      <c r="G188" t="s">
-        <v>264</v>
+        <v>536</v>
+      </c>
+      <c r="G188" s="5" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="C189" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D189" s="1">
-        <v>799</v>
+        <v>999</v>
       </c>
       <c r="E189">
         <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="C190" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D190" s="1">
-        <v>999</v>
+        <v>1299</v>
       </c>
       <c r="E190">
         <v>1</v>
       </c>
       <c r="F190" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="C191" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D191" s="1">
-        <v>1299</v>
+        <v>1399</v>
       </c>
       <c r="E191">
         <v>1</v>
       </c>
       <c r="F191" t="s">
-        <v>547</v>
-      </c>
-      <c r="G191" s="5" t="s">
-        <v>261</v>
+        <v>539</v>
+      </c>
+      <c r="G191" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="C192" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D192" s="1">
-        <v>1399</v>
+        <v>19.5</v>
       </c>
       <c r="E192">
         <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G192" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="C193" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D193" s="1">
-        <v>19.5</v>
+        <v>59</v>
       </c>
       <c r="E193">
         <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="G193" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="C194" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D194" s="1">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E194">
         <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G194" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="C195" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D195" s="1">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="E195">
         <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="G195" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="C196" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D196" s="1">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="E196">
         <v>1</v>
       </c>
       <c r="F196" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G196" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="C197" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D197" s="1">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="E197">
         <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="G197" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="C198" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D198" s="1">
         <v>269</v>
       </c>
-      <c r="E198">
-        <v>1</v>
+      <c r="E198" s="6">
+        <v>0</v>
       </c>
       <c r="F198" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G198" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="C199" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D199" s="1">
-        <v>269</v>
-      </c>
-      <c r="E199" s="6">
-        <v>0</v>
+        <v>399</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
       </c>
       <c r="F199" t="s">
-        <v>555</v>
-      </c>
-      <c r="G199" t="s">
-        <v>279</v>
+        <v>547</v>
+      </c>
+      <c r="G199" s="5" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="C200" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D200" s="1">
         <v>399</v>
@@ -7273,99 +7267,99 @@
         <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>556</v>
-      </c>
-      <c r="G200" s="5" t="s">
-        <v>275</v>
+        <v>548</v>
+      </c>
+      <c r="G200" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B201" t="s">
+        <v>591</v>
+      </c>
+      <c r="C201" t="s">
+        <v>286</v>
+      </c>
+      <c r="D201" s="1">
         <v>599</v>
       </c>
-      <c r="C201" t="s">
-        <v>284</v>
-      </c>
-      <c r="D201" s="1">
-        <v>399</v>
-      </c>
       <c r="E201">
         <v>1</v>
       </c>
       <c r="F201" t="s">
-        <v>557</v>
-      </c>
-      <c r="G201" t="s">
-        <v>284</v>
+        <v>549</v>
+      </c>
+      <c r="G201" s="5" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="C202" t="s">
         <v>288</v>
       </c>
       <c r="D202" s="1">
-        <v>599</v>
+        <v>999</v>
       </c>
       <c r="E202">
         <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>558</v>
-      </c>
-      <c r="G202" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="G202" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>599</v>
+        <v>290</v>
       </c>
       <c r="C203" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D203" s="1">
-        <v>999</v>
+        <v>5.2</v>
       </c>
       <c r="E203">
         <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="G203" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C204" t="s">
         <v>296</v>
       </c>
       <c r="D204" s="1">
-        <v>5.2</v>
+        <v>7.15</v>
       </c>
       <c r="E204">
         <v>1</v>
       </c>
       <c r="F204" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="G204" t="s">
         <v>295</v>
@@ -7373,252 +7367,252 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C205" t="s">
+        <v>299</v>
+      </c>
+      <c r="D205" s="1">
+        <v>12.95</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205" t="s">
+        <v>552</v>
+      </c>
+      <c r="G205" t="s">
         <v>298</v>
-      </c>
-      <c r="D205" s="1">
-        <v>7.15</v>
-      </c>
-      <c r="E205">
-        <v>1</v>
-      </c>
-      <c r="F205" t="s">
-        <v>560</v>
-      </c>
-      <c r="G205" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B206" t="s">
+        <v>290</v>
+      </c>
+      <c r="C206" t="s">
         <v>292</v>
       </c>
-      <c r="C206" t="s">
-        <v>301</v>
-      </c>
       <c r="D206" s="1">
-        <v>12.95</v>
+        <v>16.25</v>
       </c>
       <c r="E206">
         <v>1</v>
       </c>
       <c r="F206" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="G206" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C207" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D207" s="1">
-        <v>16.25</v>
+        <v>25</v>
       </c>
       <c r="E207">
         <v>1</v>
       </c>
       <c r="F207" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G207" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C208" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D208" s="1">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E208">
         <v>1</v>
       </c>
       <c r="F208" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G208" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C209" t="s">
+        <v>307</v>
+      </c>
+      <c r="D209" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="F209" t="s">
+        <v>555</v>
+      </c>
+      <c r="G209" t="s">
         <v>304</v>
-      </c>
-      <c r="D209" s="1">
-        <v>100</v>
-      </c>
-      <c r="E209">
-        <v>1</v>
-      </c>
-      <c r="F209" t="s">
-        <v>563</v>
-      </c>
-      <c r="G209" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C210" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D210" s="1">
-        <v>3.9</v>
+        <v>6.9</v>
       </c>
       <c r="E210">
         <v>1</v>
       </c>
       <c r="F210" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G210" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B211" t="s">
+        <v>303</v>
+      </c>
+      <c r="C211" t="s">
         <v>305</v>
       </c>
-      <c r="C211" t="s">
-        <v>308</v>
-      </c>
       <c r="D211" s="1">
-        <v>6.9</v>
+        <v>29</v>
       </c>
       <c r="E211">
         <v>1</v>
       </c>
       <c r="F211" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="G211" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C212" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D212" s="1">
-        <v>29</v>
+        <v>39.9</v>
       </c>
       <c r="E212">
         <v>1</v>
       </c>
       <c r="F212" t="s">
-        <v>566</v>
-      </c>
-      <c r="G212" t="s">
-        <v>306</v>
+        <v>558</v>
+      </c>
+      <c r="G212" s="5" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>305</v>
+        <v>592</v>
       </c>
       <c r="C213" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D213" s="1">
-        <v>39.9</v>
+        <v>7</v>
       </c>
       <c r="E213">
         <v>1</v>
       </c>
       <c r="F213" t="s">
-        <v>567</v>
-      </c>
-      <c r="G213" s="5" t="s">
-        <v>310</v>
+        <v>559</v>
+      </c>
+      <c r="G213" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C214" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D214" s="1">
-        <v>7</v>
+        <v>12.9</v>
       </c>
       <c r="E214">
         <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G214" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C215" t="s">
         <v>313</v>
       </c>
       <c r="D215" s="1">
-        <v>12.9</v>
+        <v>34.5</v>
       </c>
       <c r="E215">
         <v>1</v>
       </c>
       <c r="F215" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="G215" t="s">
         <v>313</v>
@@ -7626,114 +7620,114 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C216" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D216" s="1">
-        <v>34.5</v>
+        <v>99</v>
       </c>
       <c r="E216">
         <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="G216" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>600</v>
+        <v>314</v>
       </c>
       <c r="C217" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="D217" s="1">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="E217">
         <v>1</v>
       </c>
       <c r="F217" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="G217" t="s">
-        <v>312</v>
+        <v>352</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C218" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="D218" s="1">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E218">
         <v>1</v>
       </c>
       <c r="F218" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G218" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C219" t="s">
         <v>317</v>
       </c>
       <c r="D219" s="1">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="E219">
         <v>1</v>
       </c>
       <c r="F219" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="G219" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C220" t="s">
         <v>319</v>
       </c>
       <c r="D220" s="1">
-        <v>100</v>
+        <v>299</v>
       </c>
       <c r="E220">
         <v>1</v>
       </c>
       <c r="F220" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G220" t="s">
         <v>318</v>
@@ -7741,36 +7735,36 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C221" t="s">
         <v>321</v>
       </c>
       <c r="D221" s="1">
-        <v>299</v>
+        <v>25</v>
       </c>
       <c r="E221">
         <v>1</v>
       </c>
       <c r="F221" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="G221" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B222" t="s">
+        <v>320</v>
+      </c>
+      <c r="C222" t="s">
         <v>322</v>
-      </c>
-      <c r="C222" t="s">
-        <v>323</v>
       </c>
       <c r="D222" s="1">
         <v>25</v>
@@ -7779,21 +7773,21 @@
         <v>1</v>
       </c>
       <c r="F222" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G222" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C223" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D223" s="1">
         <v>25</v>
@@ -7802,21 +7796,21 @@
         <v>1</v>
       </c>
       <c r="F223" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="G223" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C224" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D224" s="1">
         <v>25</v>
@@ -7825,21 +7819,21 @@
         <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G224" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C225" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D225" s="1">
         <v>25</v>
@@ -7848,30 +7842,30 @@
         <v>1</v>
       </c>
       <c r="F225" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="G225" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C226" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D226" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E226">
         <v>1</v>
       </c>
       <c r="F226" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="G226" t="s">
         <v>327</v>
@@ -7879,13 +7873,13 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C227" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D227" s="1">
         <v>19</v>
@@ -7894,21 +7888,21 @@
         <v>1</v>
       </c>
       <c r="F227" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="G227" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C228" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D228" s="1">
         <v>19</v>
@@ -7917,21 +7911,21 @@
         <v>1</v>
       </c>
       <c r="F228" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="G228" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C229" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D229" s="1">
         <v>19</v>
@@ -7940,44 +7934,44 @@
         <v>1</v>
       </c>
       <c r="F229" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="G229" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C230" t="s">
         <v>333</v>
       </c>
       <c r="D230" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E230">
         <v>1</v>
       </c>
       <c r="F230" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="G230" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C231" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D231" s="1">
         <v>6</v>
@@ -7986,44 +7980,44 @@
         <v>1</v>
       </c>
       <c r="F231" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G231" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C232" t="s">
+        <v>337</v>
+      </c>
+      <c r="D232" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232" t="s">
+        <v>575</v>
+      </c>
+      <c r="G232" t="s">
         <v>336</v>
-      </c>
-      <c r="D232" s="1">
-        <v>6</v>
-      </c>
-      <c r="E232">
-        <v>1</v>
-      </c>
-      <c r="F232" t="s">
-        <v>583</v>
-      </c>
-      <c r="G232" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C233" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D233" s="1">
         <v>9.9</v>
@@ -8032,18 +8026,18 @@
         <v>1</v>
       </c>
       <c r="F233" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G233" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C234" t="s">
         <v>340</v>
@@ -8055,21 +8049,21 @@
         <v>1</v>
       </c>
       <c r="F234" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="G234" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C235" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D235" s="1">
         <v>9.9</v>
@@ -8078,53 +8072,53 @@
         <v>1</v>
       </c>
       <c r="F235" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G235" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C236" t="s">
         <v>343</v>
       </c>
       <c r="D236" s="1">
-        <v>9.9</v>
+        <v>12</v>
       </c>
       <c r="E236">
         <v>1</v>
       </c>
       <c r="F236" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="G236" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C237" t="s">
         <v>345</v>
       </c>
       <c r="D237" s="1">
-        <v>12</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E237">
         <v>1</v>
       </c>
       <c r="F237" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G237" t="s">
         <v>344</v>
@@ -8132,10 +8126,10 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C238" t="s">
         <v>347</v>
@@ -8147,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="F238" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="G238" t="s">
         <v>346</v>
@@ -8155,60 +8149,37 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>238</v>
+        <v>94</v>
       </c>
       <c r="B239" t="s">
-        <v>337</v>
+        <v>120</v>
       </c>
       <c r="C239" t="s">
-        <v>349</v>
+        <v>133</v>
       </c>
       <c r="D239" s="1">
-        <v>18.899999999999999</v>
+        <v>999</v>
       </c>
       <c r="E239">
         <v>1</v>
       </c>
       <c r="F239" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="G239" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>94</v>
-      </c>
-      <c r="B240" t="s">
-        <v>122</v>
-      </c>
-      <c r="C240" t="s">
-        <v>135</v>
-      </c>
-      <c r="D240" s="1">
-        <v>999</v>
-      </c>
-      <c r="E240">
-        <v>1</v>
-      </c>
-      <c r="F240" t="s">
-        <v>602</v>
-      </c>
-      <c r="G240" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A218:G221">
-    <sortCondition ref="D218:D221"/>
+  <sortState ref="A217:G220">
+    <sortCondition ref="D217:D220"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95993E71-21F0-7C47-9DDC-025999E47ADB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8222,10 +8193,10 @@
         <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D1" s="1">
         <v>999</v>
@@ -8234,10 +8205,10 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="G1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oesiw\Documents\code\cintamani\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonasosterle/Documents/code/WEB/react-cintamani/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D9A39D-235B-5149-B3A6-C9649DB72AAB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="23040" windowHeight="9640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalog_product_bearbeitet" sheetId="1" r:id="rId1"/>
@@ -1805,9 +1806,6 @@
     <t>TBT005.JPG, TBT003.JPG</t>
   </si>
   <si>
-    <t>w Bodhisattvas - Grüne Tara (Syamatara)</t>
-  </si>
-  <si>
     <t>w Bodhisattvas - Weiße Tara (Sitatara)</t>
   </si>
   <si>
@@ -1839,6 +1837,9 @@
   </si>
   <si>
     <t>KKS001.JPG</t>
+  </si>
+  <si>
+    <t>w Bodhisattvas - Gruene Tara (Syamatara)</t>
   </si>
 </sst>
 </file>
@@ -2708,18 +2709,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A177" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C186" sqref="C186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" customWidth="1"/>
-    <col min="6" max="6" width="65.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" customWidth="1"/>
+    <col min="6" max="6" width="65.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>369</v>
       </c>
@@ -2742,7 +2743,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2765,7 +2766,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2788,7 +2789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2811,7 +2812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2834,7 +2835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2857,7 +2858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2880,7 +2881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2903,7 +2904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2926,7 +2927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2972,7 +2973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2995,7 +2996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3018,7 +3019,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3041,7 +3042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3064,7 +3065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3087,7 +3088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3110,7 +3111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3133,7 +3134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3156,7 +3157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3179,7 +3180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3202,7 +3203,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3225,7 +3226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3248,7 +3249,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3271,7 +3272,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3294,7 +3295,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3317,7 +3318,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3340,7 +3341,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3363,7 +3364,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3386,7 +3387,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3409,7 +3410,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3432,7 +3433,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3455,7 +3456,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3478,7 +3479,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3501,7 +3502,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3524,7 +3525,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3547,7 +3548,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3570,7 +3571,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3593,7 +3594,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3616,7 +3617,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3639,7 +3640,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3662,7 +3663,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3685,7 +3686,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3708,7 +3709,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3731,7 +3732,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3754,7 +3755,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3777,7 +3778,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3800,7 +3801,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3823,7 +3824,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3846,7 +3847,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3869,7 +3870,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3892,7 +3893,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3915,7 +3916,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3938,7 +3939,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3961,7 +3962,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3984,7 +3985,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4007,7 +4008,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4030,7 +4031,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4053,7 +4054,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4076,7 +4077,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4099,7 +4100,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4122,7 +4123,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4145,7 +4146,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4168,7 +4169,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4191,7 +4192,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4214,7 +4215,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>66</v>
       </c>
@@ -4237,7 +4238,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>67</v>
       </c>
@@ -4260,7 +4261,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>68</v>
       </c>
@@ -4283,7 +4284,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>69</v>
       </c>
@@ -4306,7 +4307,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>70</v>
       </c>
@@ -4323,13 +4324,13 @@
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G70" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>71</v>
       </c>
@@ -4346,13 +4347,13 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G71" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>72</v>
       </c>
@@ -4369,13 +4370,13 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G72" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>73</v>
       </c>
@@ -4392,13 +4393,13 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G73" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>74</v>
       </c>
@@ -4415,13 +4416,13 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G74" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>75</v>
       </c>
@@ -4438,13 +4439,13 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G75" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>76</v>
       </c>
@@ -4461,13 +4462,13 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G76" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>77</v>
       </c>
@@ -4484,13 +4485,13 @@
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G77" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>78</v>
       </c>
@@ -4507,13 +4508,13 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G78" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>79</v>
       </c>
@@ -4530,13 +4531,13 @@
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G79" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>80</v>
       </c>
@@ -4553,13 +4554,13 @@
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G80" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>81</v>
       </c>
@@ -4582,7 +4583,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>82</v>
       </c>
@@ -4605,7 +4606,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>83</v>
       </c>
@@ -4628,7 +4629,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>84</v>
       </c>
@@ -4651,7 +4652,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>85</v>
       </c>
@@ -4674,7 +4675,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>86</v>
       </c>
@@ -4697,7 +4698,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>87</v>
       </c>
@@ -4720,7 +4721,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>88</v>
       </c>
@@ -4743,7 +4744,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>89</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>90</v>
       </c>
@@ -4789,7 +4790,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>91</v>
       </c>
@@ -4812,7 +4813,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>92</v>
       </c>
@@ -4835,7 +4836,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>93</v>
       </c>
@@ -4858,7 +4859,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>95</v>
       </c>
@@ -4881,7 +4882,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>96</v>
       </c>
@@ -4904,7 +4905,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>97</v>
       </c>
@@ -4927,7 +4928,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>98</v>
       </c>
@@ -4950,7 +4951,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>99</v>
       </c>
@@ -4973,7 +4974,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>100</v>
       </c>
@@ -4996,7 +4997,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>101</v>
       </c>
@@ -5019,7 +5020,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>102</v>
       </c>
@@ -5042,7 +5043,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>103</v>
       </c>
@@ -5065,7 +5066,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>104</v>
       </c>
@@ -5088,7 +5089,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>105</v>
       </c>
@@ -5111,7 +5112,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>106</v>
       </c>
@@ -5134,7 +5135,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>107</v>
       </c>
@@ -5157,7 +5158,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>108</v>
       </c>
@@ -5180,7 +5181,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>109</v>
       </c>
@@ -5203,7 +5204,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>110</v>
       </c>
@@ -5226,7 +5227,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>111</v>
       </c>
@@ -5249,7 +5250,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>112</v>
       </c>
@@ -5272,7 +5273,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>113</v>
       </c>
@@ -5295,7 +5296,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>114</v>
       </c>
@@ -5318,7 +5319,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>115</v>
       </c>
@@ -5341,7 +5342,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>116</v>
       </c>
@@ -5364,7 +5365,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>117</v>
       </c>
@@ -5387,7 +5388,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>118</v>
       </c>
@@ -5410,7 +5411,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>119</v>
       </c>
@@ -5433,7 +5434,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>120</v>
       </c>
@@ -5456,7 +5457,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>121</v>
       </c>
@@ -5479,7 +5480,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>122</v>
       </c>
@@ -5502,7 +5503,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>123</v>
       </c>
@@ -5525,7 +5526,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>124</v>
       </c>
@@ -5548,7 +5549,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>125</v>
       </c>
@@ -5571,7 +5572,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>126</v>
       </c>
@@ -5594,7 +5595,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>127</v>
       </c>
@@ -5617,7 +5618,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>128</v>
       </c>
@@ -5640,7 +5641,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>129</v>
       </c>
@@ -5663,7 +5664,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>130</v>
       </c>
@@ -5686,7 +5687,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>131</v>
       </c>
@@ -5709,7 +5710,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>132</v>
       </c>
@@ -5732,7 +5733,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>133</v>
       </c>
@@ -5755,7 +5756,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>134</v>
       </c>
@@ -5778,7 +5779,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>135</v>
       </c>
@@ -5801,7 +5802,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>136</v>
       </c>
@@ -5824,7 +5825,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>137</v>
       </c>
@@ -5847,7 +5848,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>138</v>
       </c>
@@ -5870,7 +5871,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>139</v>
       </c>
@@ -5893,7 +5894,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>140</v>
       </c>
@@ -5916,7 +5917,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>141</v>
       </c>
@@ -5939,7 +5940,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>142</v>
       </c>
@@ -5962,7 +5963,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>143</v>
       </c>
@@ -5985,7 +5986,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>144</v>
       </c>
@@ -6008,7 +6009,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>145</v>
       </c>
@@ -6031,7 +6032,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>146</v>
       </c>
@@ -6054,7 +6055,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>147</v>
       </c>
@@ -6071,13 +6072,13 @@
         <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G147" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>148</v>
       </c>
@@ -6100,7 +6101,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>149</v>
       </c>
@@ -6123,7 +6124,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>150</v>
       </c>
@@ -6146,7 +6147,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>151</v>
       </c>
@@ -6169,7 +6170,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>152</v>
       </c>
@@ -6192,7 +6193,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>153</v>
       </c>
@@ -6215,7 +6216,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>154</v>
       </c>
@@ -6238,7 +6239,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>155</v>
       </c>
@@ -6261,7 +6262,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>156</v>
       </c>
@@ -6284,7 +6285,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>157</v>
       </c>
@@ -6307,7 +6308,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>158</v>
       </c>
@@ -6330,7 +6331,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>159</v>
       </c>
@@ -6353,7 +6354,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>160</v>
       </c>
@@ -6376,7 +6377,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>161</v>
       </c>
@@ -6399,7 +6400,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>162</v>
       </c>
@@ -6422,7 +6423,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>163</v>
       </c>
@@ -6445,7 +6446,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>164</v>
       </c>
@@ -6468,7 +6469,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>165</v>
       </c>
@@ -6491,7 +6492,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>166</v>
       </c>
@@ -6514,7 +6515,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>167</v>
       </c>
@@ -6537,7 +6538,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>168</v>
       </c>
@@ -6560,7 +6561,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>169</v>
       </c>
@@ -6583,7 +6584,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>170</v>
       </c>
@@ -6606,7 +6607,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>171</v>
       </c>
@@ -6629,7 +6630,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>172</v>
       </c>
@@ -6652,7 +6653,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>173</v>
       </c>
@@ -6675,7 +6676,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>174</v>
       </c>
@@ -6698,7 +6699,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>175</v>
       </c>
@@ -6721,7 +6722,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>176</v>
       </c>
@@ -6744,7 +6745,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>178</v>
       </c>
@@ -6767,7 +6768,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>179</v>
       </c>
@@ -6790,12 +6791,12 @@
         <v>361</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="C180" t="s">
         <v>268</v>
@@ -6813,12 +6814,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="C181" t="s">
         <v>263</v>
@@ -6836,12 +6837,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="C182" t="s">
         <v>272</v>
@@ -6859,12 +6860,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="C183" t="s">
         <v>261</v>
@@ -6882,12 +6883,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="C184" t="s">
         <v>271</v>
@@ -6905,12 +6906,12 @@
         <v>271</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="C185" t="s">
         <v>270</v>
@@ -6928,12 +6929,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="C186" t="s">
         <v>270</v>
@@ -6951,12 +6952,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="C187" t="s">
         <v>262</v>
@@ -6974,12 +6975,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="C188" t="s">
         <v>266</v>
@@ -6997,12 +6998,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="C189" t="s">
         <v>265</v>
@@ -7020,12 +7021,12 @@
         <v>264</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="C190" t="s">
         <v>260</v>
@@ -7043,12 +7044,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="C191" t="s">
         <v>267</v>
@@ -7066,12 +7067,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C192" t="s">
         <v>281</v>
@@ -7089,12 +7090,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C193" t="s">
         <v>279</v>
@@ -7112,12 +7113,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C194" t="s">
         <v>280</v>
@@ -7135,12 +7136,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C195" t="s">
         <v>276</v>
@@ -7158,12 +7159,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C196" t="s">
         <v>283</v>
@@ -7181,12 +7182,12 @@
         <v>283</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C197" t="s">
         <v>284</v>
@@ -7204,12 +7205,12 @@
         <v>284</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C198" t="s">
         <v>278</v>
@@ -7227,12 +7228,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C199" t="s">
         <v>274</v>
@@ -7250,12 +7251,12 @@
         <v>273</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C200" t="s">
         <v>282</v>
@@ -7273,12 +7274,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C201" t="s">
         <v>286</v>
@@ -7296,12 +7297,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C202" t="s">
         <v>288</v>
@@ -7319,7 +7320,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>203</v>
       </c>
@@ -7342,7 +7343,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>204</v>
       </c>
@@ -7365,7 +7366,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>205</v>
       </c>
@@ -7388,7 +7389,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>206</v>
       </c>
@@ -7411,7 +7412,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>207</v>
       </c>
@@ -7434,7 +7435,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>208</v>
       </c>
@@ -7457,7 +7458,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>209</v>
       </c>
@@ -7480,7 +7481,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>210</v>
       </c>
@@ -7503,7 +7504,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>211</v>
       </c>
@@ -7526,7 +7527,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>212</v>
       </c>
@@ -7549,12 +7550,12 @@
         <v>308</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C213" t="s">
         <v>312</v>
@@ -7572,12 +7573,12 @@
         <v>312</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C214" t="s">
         <v>311</v>
@@ -7595,12 +7596,12 @@
         <v>311</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C215" t="s">
         <v>313</v>
@@ -7618,12 +7619,12 @@
         <v>313</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C216" t="s">
         <v>310</v>
@@ -7641,7 +7642,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>217</v>
       </c>
@@ -7664,7 +7665,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>218</v>
       </c>
@@ -7687,7 +7688,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>219</v>
       </c>
@@ -7710,7 +7711,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>220</v>
       </c>
@@ -7733,7 +7734,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>221</v>
       </c>
@@ -7756,7 +7757,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>222</v>
       </c>
@@ -7779,7 +7780,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>223</v>
       </c>
@@ -7802,7 +7803,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>224</v>
       </c>
@@ -7825,7 +7826,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>225</v>
       </c>
@@ -7848,7 +7849,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>226</v>
       </c>
@@ -7871,7 +7872,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>227</v>
       </c>
@@ -7894,7 +7895,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>228</v>
       </c>
@@ -7917,7 +7918,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>229</v>
       </c>
@@ -7940,7 +7941,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>230</v>
       </c>
@@ -7963,7 +7964,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>231</v>
       </c>
@@ -7986,7 +7987,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>232</v>
       </c>
@@ -8009,7 +8010,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>233</v>
       </c>
@@ -8032,7 +8033,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>234</v>
       </c>
@@ -8055,7 +8056,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>235</v>
       </c>
@@ -8078,7 +8079,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>236</v>
       </c>
@@ -8101,7 +8102,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>237</v>
       </c>
@@ -8124,7 +8125,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>238</v>
       </c>
@@ -8147,7 +8148,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>94</v>
       </c>
@@ -8164,7 +8165,7 @@
         <v>1</v>
       </c>
       <c r="F239" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G239" t="s">
         <v>132</v>
@@ -8186,9 +8187,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>177</v>
       </c>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonasosterle/Documents/code/WEB/react-cintamani/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D9A39D-235B-5149-B3A6-C9649DB72AAB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FEEB58-B626-B149-B3D3-49247FEB9372}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="23040" windowHeight="9640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2080" yWindow="680" windowWidth="23040" windowHeight="9640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalog_product_bearbeitet" sheetId="1" r:id="rId1"/>
@@ -305,9 +305,6 @@
     <t>Die Fünf Buddhas ( Jinas )</t>
   </si>
   <si>
-    <t>w Bodhisattvas - Usnisavijaya</t>
-  </si>
-  <si>
     <t xml:space="preserve">Buddhas - Vairocana </t>
   </si>
   <si>
@@ -383,9 +380,6 @@
     <t>Schlegel Filz groß</t>
   </si>
   <si>
-    <t>m Bodhisattvas - Avalokitesvara</t>
-  </si>
-  <si>
     <t>Auf der Rückseite des Avalokitesvaras ist das Mantra OM MANI PADME HUM eingraviert.</t>
   </si>
   <si>
@@ -435,9 +429,6 @@
   </si>
   <si>
     <t>Padmapani vollvergoldete Kupferstatue 16 cm</t>
-  </si>
-  <si>
-    <t>m Bodhisattvas - Manjusri</t>
   </si>
   <si>
     <t>Auf der Rückseite der Statue ist das Manta des Manjusri eingraviert._x000D_
@@ -468,9 +459,6 @@
     <t>Manjughosa  Kupferstatue 44cm</t>
   </si>
   <si>
-    <t>m Bodhisattvas - Natha Maitreya</t>
-  </si>
-  <si>
     <t>Natha- Maitreya_x000D_
 Er ist der Buddha der Zukunft und wird das Dharma auf der Erde neu verkünden. Die Zeit bis zu seinem Erdenauftritt verbringt er im Tusita-Himmel._x000D_
 Auf der Rückseite ist das Manta OM AH HUM eingraviert.</t>
@@ -1806,9 +1794,6 @@
     <t>TBT005.JPG, TBT003.JPG</t>
   </si>
   <si>
-    <t>w Bodhisattvas - Weiße Tara (Sitatara)</t>
-  </si>
-  <si>
     <t>weiteres - Räucherzubehör</t>
   </si>
   <si>
@@ -1839,7 +1824,22 @@
     <t>KKS001.JPG</t>
   </si>
   <si>
-    <t>w Bodhisattvas - Gruene Tara (Syamatara)</t>
+    <t>Bodhisattvas - Usnisavijaya</t>
+  </si>
+  <si>
+    <t>Bodhisattvas - Gruene Tara (Syamatara)</t>
+  </si>
+  <si>
+    <t>Bodhisattvas - Weiße Tara (Sitatara)</t>
+  </si>
+  <si>
+    <t>Bodhisattvas - Avalokitesvara</t>
+  </si>
+  <si>
+    <t>Bodhisattvas - Manjusri</t>
+  </si>
+  <si>
+    <t>Bodhisattvas - Natha Maitreya</t>
   </si>
 </sst>
 </file>
@@ -2709,8 +2709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C186" sqref="C186"/>
+    <sheetView tabSelected="1" topLeftCell="A218" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2722,25 +2722,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2760,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2783,7 +2783,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
@@ -2806,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -2829,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
@@ -2852,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -2875,7 +2875,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -2921,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -2944,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G10" t="s">
         <v>3</v>
@@ -2967,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -2990,7 +2990,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G13" t="s">
         <v>21</v>
@@ -3036,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -3059,7 +3059,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -3082,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G16" t="s">
         <v>2</v>
@@ -3105,7 +3105,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G17" t="s">
         <v>2</v>
@@ -3128,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G18" t="s">
         <v>23</v>
@@ -3151,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G19" t="s">
         <v>23</v>
@@ -3174,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
@@ -3197,7 +3197,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -3220,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
@@ -3243,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G23" t="s">
         <v>31</v>
@@ -3266,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -3289,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>36</v>
@@ -3312,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -3335,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
@@ -3358,7 +3358,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G28" t="s">
         <v>42</v>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G29" t="s">
         <v>39</v>
@@ -3404,7 +3404,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G30" t="s">
         <v>41</v>
@@ -3427,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G31" t="s">
         <v>43</v>
@@ -3450,7 +3450,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3496,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G34" t="s">
         <v>47</v>
@@ -3519,7 +3519,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G35" t="s">
         <v>48</v>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -3565,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G37" t="s">
         <v>50</v>
@@ -3588,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G38" t="s">
         <v>54</v>
@@ -3611,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G39" t="s">
         <v>50</v>
@@ -3634,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G40" t="s">
         <v>55</v>
@@ -3657,7 +3657,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G41" t="s">
         <v>50</v>
@@ -3680,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G42" t="s">
         <v>57</v>
@@ -3703,7 +3703,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G43" t="s">
         <v>59</v>
@@ -3726,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G44" t="s">
         <v>61</v>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G45" t="s">
         <v>69</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G46" t="s">
         <v>66</v>
@@ -3795,7 +3795,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G47" t="s">
         <v>67</v>
@@ -3818,7 +3818,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G48" t="s">
         <v>68</v>
@@ -3841,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G49" t="s">
         <v>64</v>
@@ -3864,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G50" t="s">
         <v>71</v>
@@ -3887,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G51" t="s">
         <v>72</v>
@@ -3910,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G52" t="s">
         <v>78</v>
@@ -3933,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G53" t="s">
         <v>74</v>
@@ -3956,10 +3956,10 @@
         <v>1</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -3970,7 +3970,7 @@
         <v>73</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D55" s="4">
         <v>399</v>
@@ -3979,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>77</v>
@@ -4002,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G56" t="s">
         <v>79</v>
@@ -4025,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G57" t="s">
         <v>85</v>
@@ -4048,7 +4048,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G58" t="s">
         <v>84</v>
@@ -4071,7 +4071,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G59" t="s">
         <v>86</v>
@@ -4094,7 +4094,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G60" t="s">
         <v>90</v>
@@ -4117,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G61" t="s">
         <v>88</v>
@@ -4131,7 +4131,7 @@
         <v>81</v>
       </c>
       <c r="C62" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D62" s="1">
         <v>299</v>
@@ -4140,10 +4140,10 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G62" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G63" t="s">
         <v>87</v>
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G64" t="s">
         <v>82</v>
@@ -4209,7 +4209,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G65" t="s">
         <v>92</v>
@@ -4220,10 +4220,10 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D66" s="1">
         <v>19.5</v>
@@ -4232,10 +4232,10 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -4243,10 +4243,10 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" t="s">
         <v>95</v>
-      </c>
-      <c r="C67" t="s">
-        <v>96</v>
       </c>
       <c r="D67" s="1">
         <v>49</v>
@@ -4255,10 +4255,10 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -4266,10 +4266,10 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D68" s="1">
         <v>59</v>
@@ -4278,10 +4278,10 @@
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -4289,10 +4289,10 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D69" s="1">
         <v>200</v>
@@ -4301,10 +4301,10 @@
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -4312,10 +4312,10 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C70" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D70" s="1">
         <v>6.5</v>
@@ -4324,10 +4324,10 @@
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -4335,10 +4335,10 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D71" s="1">
         <v>10</v>
@@ -4347,10 +4347,10 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="G71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -4358,10 +4358,10 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D72" s="1">
         <v>12</v>
@@ -4370,10 +4370,10 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -4381,10 +4381,10 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D73" s="1">
         <v>14</v>
@@ -4393,10 +4393,10 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="G73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -4404,10 +4404,10 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C74" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D74" s="1">
         <v>20</v>
@@ -4416,10 +4416,10 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="G74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -4427,10 +4427,10 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C75" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D75" s="1">
         <v>20</v>
@@ -4439,10 +4439,10 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G75" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -4450,10 +4450,10 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C76" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D76" s="1">
         <v>30</v>
@@ -4462,10 +4462,10 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="G76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -4473,10 +4473,10 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D77" s="1">
         <v>50</v>
@@ -4485,10 +4485,10 @@
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -4496,10 +4496,10 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D78" s="1">
         <v>100</v>
@@ -4508,10 +4508,10 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -4519,10 +4519,10 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D79" s="1">
         <v>200</v>
@@ -4531,10 +4531,10 @@
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -4542,10 +4542,10 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D80" s="1">
         <v>300</v>
@@ -4554,10 +4554,10 @@
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -4565,10 +4565,10 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>120</v>
+        <v>599</v>
       </c>
       <c r="C81" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D81" s="1">
         <v>19.5</v>
@@ -4577,10 +4577,10 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G81" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -4588,10 +4588,10 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>120</v>
+        <v>599</v>
       </c>
       <c r="C82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D82" s="1">
         <v>59</v>
@@ -4600,10 +4600,10 @@
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -4611,10 +4611,10 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>120</v>
+        <v>599</v>
       </c>
       <c r="C83" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D83" s="1">
         <v>69</v>
@@ -4623,10 +4623,10 @@
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G83" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -4634,10 +4634,10 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>120</v>
+        <v>599</v>
       </c>
       <c r="C84" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D84" s="1">
         <v>99</v>
@@ -4646,10 +4646,10 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G84" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -4657,10 +4657,10 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>120</v>
+        <v>599</v>
       </c>
       <c r="C85" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D85" s="1">
         <v>159</v>
@@ -4669,10 +4669,10 @@
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G85" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -4680,10 +4680,10 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>120</v>
+        <v>599</v>
       </c>
       <c r="C86" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D86" s="1">
         <v>179</v>
@@ -4692,10 +4692,10 @@
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G86" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -4703,10 +4703,10 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
+        <v>599</v>
+      </c>
+      <c r="C87" t="s">
         <v>120</v>
-      </c>
-      <c r="C87" t="s">
-        <v>122</v>
       </c>
       <c r="D87" s="1">
         <v>229</v>
@@ -4715,10 +4715,10 @@
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G87" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -4726,10 +4726,10 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>120</v>
+        <v>599</v>
       </c>
       <c r="C88" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D88" s="1">
         <v>249</v>
@@ -4738,10 +4738,10 @@
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G88" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -4749,10 +4749,10 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
+        <v>599</v>
+      </c>
+      <c r="C89" t="s">
         <v>120</v>
-      </c>
-      <c r="C89" t="s">
-        <v>122</v>
       </c>
       <c r="D89" s="1">
         <v>259</v>
@@ -4761,10 +4761,10 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G89" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -4772,10 +4772,10 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>120</v>
+        <v>599</v>
       </c>
       <c r="C90" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D90" s="1">
         <v>269</v>
@@ -4784,10 +4784,10 @@
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G90" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -4795,10 +4795,10 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>120</v>
+        <v>599</v>
       </c>
       <c r="C91" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D91" s="1">
         <v>299</v>
@@ -4807,10 +4807,10 @@
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G91" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -4818,10 +4818,10 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>120</v>
+        <v>599</v>
       </c>
       <c r="C92" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D92" s="1">
         <v>399</v>
@@ -4830,10 +4830,10 @@
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G92" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -4841,10 +4841,10 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>120</v>
+        <v>599</v>
       </c>
       <c r="C93" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D93" s="1">
         <v>999</v>
@@ -4853,10 +4853,10 @@
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G93" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -4864,10 +4864,10 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>138</v>
+        <v>600</v>
       </c>
       <c r="C95" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D95" s="1">
         <v>19.5</v>
@@ -4876,10 +4876,10 @@
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G95" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -4887,10 +4887,10 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>138</v>
+        <v>600</v>
       </c>
       <c r="C96" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D96" s="1">
         <v>59</v>
@@ -4899,10 +4899,10 @@
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G96" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -4910,10 +4910,10 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
+        <v>600</v>
+      </c>
+      <c r="C97" t="s">
         <v>138</v>
-      </c>
-      <c r="C97" t="s">
-        <v>141</v>
       </c>
       <c r="D97" s="1">
         <v>69</v>
@@ -4922,10 +4922,10 @@
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G97" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -4933,10 +4933,10 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>138</v>
+        <v>600</v>
       </c>
       <c r="C98" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D98" s="1">
         <v>99</v>
@@ -4945,10 +4945,10 @@
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G98" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -4956,10 +4956,10 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>138</v>
+        <v>600</v>
       </c>
       <c r="C99" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D99" s="1">
         <v>179</v>
@@ -4968,10 +4968,10 @@
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G99" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -4979,10 +4979,10 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>138</v>
+        <v>600</v>
       </c>
       <c r="C100" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D100" s="1">
         <v>269</v>
@@ -4991,10 +4991,10 @@
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -5002,10 +5002,10 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>138</v>
+        <v>600</v>
       </c>
       <c r="C101" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D101" s="1">
         <v>399</v>
@@ -5014,10 +5014,10 @@
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G101" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -5025,10 +5025,10 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>147</v>
+        <v>601</v>
       </c>
       <c r="C102" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D102" s="1">
         <v>399</v>
@@ -5037,10 +5037,10 @@
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -5048,10 +5048,10 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>138</v>
+        <v>600</v>
       </c>
       <c r="C103" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D103" s="1">
         <v>999</v>
@@ -5060,10 +5060,10 @@
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G103" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -5071,10 +5071,10 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>138</v>
+        <v>600</v>
       </c>
       <c r="C104" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D104" s="1">
         <v>1999</v>
@@ -5083,10 +5083,10 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -5094,10 +5094,10 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C105" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D105" s="1">
         <v>5.9</v>
@@ -5106,10 +5106,10 @@
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G105" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -5117,10 +5117,10 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C106" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D106" s="1">
         <v>5.9</v>
@@ -5129,10 +5129,10 @@
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G106" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -5140,10 +5140,10 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C107" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D107" s="1">
         <v>5.9</v>
@@ -5152,10 +5152,10 @@
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G107" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -5163,10 +5163,10 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C108" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D108" s="1">
         <v>5.9</v>
@@ -5175,10 +5175,10 @@
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G108" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -5186,10 +5186,10 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C109" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D109" s="1">
         <v>5.9</v>
@@ -5198,10 +5198,10 @@
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G109" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -5209,10 +5209,10 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C110" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D110" s="1">
         <v>5.9</v>
@@ -5221,10 +5221,10 @@
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G110" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -5232,10 +5232,10 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C111" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D111" s="1">
         <v>6</v>
@@ -5244,10 +5244,10 @@
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G111" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -5255,10 +5255,10 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C112" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D112" s="1">
         <v>6.9</v>
@@ -5267,10 +5267,10 @@
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G112" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -5278,10 +5278,10 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C113" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D113" s="1">
         <v>7.5</v>
@@ -5290,10 +5290,10 @@
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G113" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -5301,10 +5301,10 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C114" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D114" s="1">
         <v>7.5</v>
@@ -5313,10 +5313,10 @@
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G114" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -5324,10 +5324,10 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C115" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D115" s="1">
         <v>7.5</v>
@@ -5336,10 +5336,10 @@
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G115" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -5347,10 +5347,10 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C116" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D116" s="1">
         <v>7.5</v>
@@ -5359,10 +5359,10 @@
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G116" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -5370,10 +5370,10 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
+        <v>146</v>
+      </c>
+      <c r="C117" t="s">
         <v>150</v>
-      </c>
-      <c r="C117" t="s">
-        <v>154</v>
       </c>
       <c r="D117" s="1">
         <v>8</v>
@@ -5382,10 +5382,10 @@
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G117" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -5393,10 +5393,10 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C118" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D118" s="1">
         <v>8.5</v>
@@ -5405,10 +5405,10 @@
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G118" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -5416,10 +5416,10 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C119" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D119" s="1">
         <v>9.9</v>
@@ -5428,10 +5428,10 @@
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G119" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -5439,10 +5439,10 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C120" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D120" s="1">
         <v>9.9</v>
@@ -5451,10 +5451,10 @@
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G120" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -5462,10 +5462,10 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C121" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D121" s="1">
         <v>10</v>
@@ -5474,10 +5474,10 @@
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G121" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -5485,10 +5485,10 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C122" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D122" s="1">
         <v>11.5</v>
@@ -5497,10 +5497,10 @@
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G122" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -5508,10 +5508,10 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C123" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D123" s="1">
         <v>12</v>
@@ -5520,10 +5520,10 @@
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G123" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -5531,10 +5531,10 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C124" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D124" s="1">
         <v>12</v>
@@ -5543,10 +5543,10 @@
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G124" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -5554,10 +5554,10 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C125" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D125" s="1">
         <v>12</v>
@@ -5566,10 +5566,10 @@
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G125" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -5577,10 +5577,10 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C126" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D126" s="1">
         <v>9.9</v>
@@ -5589,10 +5589,10 @@
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G126" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -5600,10 +5600,10 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C127" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D127" s="1">
         <v>9.9</v>
@@ -5612,10 +5612,10 @@
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G127" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -5623,10 +5623,10 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C128" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D128" s="1">
         <v>10</v>
@@ -5635,10 +5635,10 @@
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G128" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -5646,10 +5646,10 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C129" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D129" s="1">
         <v>14</v>
@@ -5658,10 +5658,10 @@
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G129" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -5669,10 +5669,10 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C130" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D130" s="1">
         <v>14</v>
@@ -5681,10 +5681,10 @@
         <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G130" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -5692,10 +5692,10 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
+        <v>173</v>
+      </c>
+      <c r="C131" t="s">
         <v>177</v>
-      </c>
-      <c r="C131" t="s">
-        <v>181</v>
       </c>
       <c r="D131" s="1">
         <v>14.5</v>
@@ -5704,10 +5704,10 @@
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G131" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -5715,10 +5715,10 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
+        <v>192</v>
+      </c>
+      <c r="C132" t="s">
         <v>196</v>
-      </c>
-      <c r="C132" t="s">
-        <v>200</v>
       </c>
       <c r="D132" s="1">
         <v>16.8</v>
@@ -5727,10 +5727,10 @@
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G132" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -5738,10 +5738,10 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C133" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D133" s="1">
         <v>19.5</v>
@@ -5750,10 +5750,10 @@
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G133" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -5761,10 +5761,10 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C134" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D134" s="1">
         <v>19.5</v>
@@ -5773,10 +5773,10 @@
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G134" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -5784,10 +5784,10 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C135" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D135" s="1">
         <v>24.5</v>
@@ -5796,10 +5796,10 @@
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G135" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -5807,10 +5807,10 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C136" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D136" s="1">
         <v>25</v>
@@ -5819,10 +5819,10 @@
         <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G136" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -5830,10 +5830,10 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
+        <v>192</v>
+      </c>
+      <c r="C137" t="s">
         <v>196</v>
-      </c>
-      <c r="C137" t="s">
-        <v>200</v>
       </c>
       <c r="D137" s="1">
         <v>28.2</v>
@@ -5842,10 +5842,10 @@
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G137" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -5853,10 +5853,10 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C138" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D138" s="1">
         <v>29.5</v>
@@ -5865,10 +5865,10 @@
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G138" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -5876,10 +5876,10 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C139" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D139" s="1">
         <v>29.9</v>
@@ -5888,10 +5888,10 @@
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G139" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -5899,10 +5899,10 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C140" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D140" s="1">
         <v>34</v>
@@ -5911,10 +5911,10 @@
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G140" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -5922,10 +5922,10 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C141" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D141" s="1">
         <v>34.5</v>
@@ -5934,10 +5934,10 @@
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G141" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -5945,10 +5945,10 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C142" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D142" s="1">
         <v>79.900000000000006</v>
@@ -5957,10 +5957,10 @@
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G142" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -5968,10 +5968,10 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C143" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D143" s="1">
         <v>89.9</v>
@@ -5980,10 +5980,10 @@
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G143" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -5991,10 +5991,10 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C144" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D144" s="1">
         <v>89.9</v>
@@ -6003,10 +6003,10 @@
         <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G144" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
@@ -6014,10 +6014,10 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C145" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D145" s="1">
         <v>49.9</v>
@@ -6026,10 +6026,10 @@
         <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G145" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -6037,10 +6037,10 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C146" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D146" s="1">
         <v>89</v>
@@ -6049,10 +6049,10 @@
         <v>1</v>
       </c>
       <c r="F146" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G146" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
@@ -6060,10 +6060,10 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C147" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D147" s="1">
         <v>89</v>
@@ -6072,10 +6072,10 @@
         <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G147" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
@@ -6083,10 +6083,10 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C148" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D148" s="1">
         <v>89</v>
@@ -6095,10 +6095,10 @@
         <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G148" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
@@ -6106,10 +6106,10 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C149" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D149" s="1">
         <v>99</v>
@@ -6118,10 +6118,10 @@
         <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G149" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
@@ -6129,10 +6129,10 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C150" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D150" s="1">
         <v>99</v>
@@ -6141,10 +6141,10 @@
         <v>1</v>
       </c>
       <c r="F150" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G150" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
@@ -6152,10 +6152,10 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C151" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D151" s="1">
         <v>99</v>
@@ -6164,10 +6164,10 @@
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="G151" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
@@ -6175,10 +6175,10 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C152" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D152" s="1">
         <v>99</v>
@@ -6187,10 +6187,10 @@
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G152" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
@@ -6198,10 +6198,10 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C153" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D153" s="1">
         <v>179</v>
@@ -6210,10 +6210,10 @@
         <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="G153" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
@@ -6221,10 +6221,10 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
+        <v>210</v>
+      </c>
+      <c r="C154" t="s">
         <v>214</v>
-      </c>
-      <c r="C154" t="s">
-        <v>218</v>
       </c>
       <c r="D154" s="1">
         <v>49.9</v>
@@ -6233,10 +6233,10 @@
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G154" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
@@ -6244,10 +6244,10 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C155" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D155" s="1">
         <v>49.9</v>
@@ -6256,10 +6256,10 @@
         <v>1</v>
       </c>
       <c r="F155" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G155" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
@@ -6267,10 +6267,10 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C156" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D156" s="1">
         <v>49.9</v>
@@ -6279,10 +6279,10 @@
         <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G156" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -6290,10 +6290,10 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C157" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D157" s="1">
         <v>49.9</v>
@@ -6302,10 +6302,10 @@
         <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G157" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
@@ -6313,10 +6313,10 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C158" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D158" s="1">
         <v>49.9</v>
@@ -6325,10 +6325,10 @@
         <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G158" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -6336,10 +6336,10 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C159" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D159" s="1">
         <v>49.9</v>
@@ -6348,10 +6348,10 @@
         <v>1</v>
       </c>
       <c r="F159" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G159" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -6359,10 +6359,10 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C160" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D160" s="1">
         <v>49.9</v>
@@ -6371,10 +6371,10 @@
         <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G160" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -6382,10 +6382,10 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C161" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D161" s="1">
         <v>49.9</v>
@@ -6394,10 +6394,10 @@
         <v>1</v>
       </c>
       <c r="F161" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G161" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -6405,10 +6405,10 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C162" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D162" s="1">
         <v>49.9</v>
@@ -6417,10 +6417,10 @@
         <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G162" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
@@ -6428,10 +6428,10 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C163" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D163" s="1">
         <v>199</v>
@@ -6440,10 +6440,10 @@
         <v>1</v>
       </c>
       <c r="F163" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G163" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
@@ -6451,10 +6451,10 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C164" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D164" s="1">
         <v>199</v>
@@ -6463,10 +6463,10 @@
         <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G164" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -6474,10 +6474,10 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
+        <v>231</v>
+      </c>
+      <c r="C165" t="s">
         <v>235</v>
-      </c>
-      <c r="C165" t="s">
-        <v>239</v>
       </c>
       <c r="D165" s="1">
         <v>199</v>
@@ -6486,10 +6486,10 @@
         <v>1</v>
       </c>
       <c r="F165" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G165" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -6497,10 +6497,10 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C166" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D166" s="1">
         <v>199</v>
@@ -6509,10 +6509,10 @@
         <v>1</v>
       </c>
       <c r="F166" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G166" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
@@ -6520,10 +6520,10 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C167" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D167" s="1">
         <v>249</v>
@@ -6532,10 +6532,10 @@
         <v>1</v>
       </c>
       <c r="F167" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G167" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -6543,10 +6543,10 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C168" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D168" s="1">
         <v>249</v>
@@ -6555,10 +6555,10 @@
         <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G168" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
@@ -6566,10 +6566,10 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C169" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D169" s="1">
         <v>249</v>
@@ -6578,10 +6578,10 @@
         <v>1</v>
       </c>
       <c r="F169" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G169" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -6589,10 +6589,10 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C170" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D170" s="1">
         <v>399</v>
@@ -6601,10 +6601,10 @@
         <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G170" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -6612,10 +6612,10 @@
         <v>171</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D171" s="4">
         <v>399</v>
@@ -6624,10 +6624,10 @@
         <v>1</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -6635,10 +6635,10 @@
         <v>172</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="D172" s="4">
         <v>399</v>
@@ -6647,10 +6647,10 @@
         <v>1</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -6658,10 +6658,10 @@
         <v>173</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D173" s="4">
         <v>399</v>
@@ -6670,10 +6670,10 @@
         <v>1</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -6681,10 +6681,10 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C174" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D174" s="1">
         <v>499</v>
@@ -6693,10 +6693,10 @@
         <v>1</v>
       </c>
       <c r="F174" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G174" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -6704,10 +6704,10 @@
         <v>175</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D175" s="4">
         <v>499</v>
@@ -6716,10 +6716,10 @@
         <v>1</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -6727,10 +6727,10 @@
         <v>176</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D176" s="4">
         <v>799</v>
@@ -6739,10 +6739,10 @@
         <v>1</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -6750,10 +6750,10 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C178" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D178" s="1">
         <v>999</v>
@@ -6762,10 +6762,10 @@
         <v>1</v>
       </c>
       <c r="F178" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G178" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
@@ -6773,10 +6773,10 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>94</v>
+        <v>596</v>
       </c>
       <c r="C179" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D179" s="1">
         <v>499</v>
@@ -6785,10 +6785,10 @@
         <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G179" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -6796,10 +6796,10 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C180" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D180" s="1">
         <v>19.5</v>
@@ -6808,10 +6808,10 @@
         <v>1</v>
       </c>
       <c r="F180" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G180" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -6819,10 +6819,10 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C181" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D181" s="1">
         <v>59</v>
@@ -6831,10 +6831,10 @@
         <v>1</v>
       </c>
       <c r="F181" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G181" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -6842,10 +6842,10 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C182" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D182" s="1">
         <v>69</v>
@@ -6854,10 +6854,10 @@
         <v>1</v>
       </c>
       <c r="F182" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G182" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
@@ -6865,10 +6865,10 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C183" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D183" s="1">
         <v>99</v>
@@ -6877,10 +6877,10 @@
         <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G183" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
@@ -6888,10 +6888,10 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C184" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D184" s="1">
         <v>229</v>
@@ -6900,10 +6900,10 @@
         <v>1</v>
       </c>
       <c r="F184" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G184" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
@@ -6911,10 +6911,10 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C185" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D185" s="1">
         <v>269</v>
@@ -6923,10 +6923,10 @@
         <v>0</v>
       </c>
       <c r="F185" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="G185" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -6934,10 +6934,10 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C186" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D186" s="1">
         <v>269</v>
@@ -6946,10 +6946,10 @@
         <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G186" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
@@ -6957,10 +6957,10 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C187" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D187" s="1">
         <v>399</v>
@@ -6969,10 +6969,10 @@
         <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G187" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
@@ -6980,10 +6980,10 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C188" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D188" s="1">
         <v>799</v>
@@ -6992,10 +6992,10 @@
         <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -7003,10 +7003,10 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C189" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D189" s="1">
         <v>999</v>
@@ -7015,10 +7015,10 @@
         <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -7026,10 +7026,10 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C190" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D190" s="1">
         <v>1299</v>
@@ -7038,10 +7038,10 @@
         <v>1</v>
       </c>
       <c r="F190" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -7049,10 +7049,10 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C191" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D191" s="1">
         <v>1399</v>
@@ -7061,10 +7061,10 @@
         <v>1</v>
       </c>
       <c r="F191" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G191" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
@@ -7072,10 +7072,10 @@
         <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="C192" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D192" s="1">
         <v>19.5</v>
@@ -7084,10 +7084,10 @@
         <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G192" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
@@ -7095,10 +7095,10 @@
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="C193" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D193" s="1">
         <v>59</v>
@@ -7107,10 +7107,10 @@
         <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="G193" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
@@ -7118,10 +7118,10 @@
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="C194" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D194" s="1">
         <v>69</v>
@@ -7130,10 +7130,10 @@
         <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G194" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
@@ -7141,10 +7141,10 @@
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="C195" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D195" s="1">
         <v>179</v>
@@ -7153,10 +7153,10 @@
         <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G195" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
@@ -7164,10 +7164,10 @@
         <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="C196" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D196" s="1">
         <v>229</v>
@@ -7176,10 +7176,10 @@
         <v>1</v>
       </c>
       <c r="F196" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G196" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
@@ -7187,10 +7187,10 @@
         <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="C197" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D197" s="1">
         <v>269</v>
@@ -7199,10 +7199,10 @@
         <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G197" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
@@ -7210,10 +7210,10 @@
         <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="C198" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D198" s="1">
         <v>269</v>
@@ -7222,10 +7222,10 @@
         <v>0</v>
       </c>
       <c r="F198" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G198" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
@@ -7233,10 +7233,10 @@
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="C199" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D199" s="1">
         <v>399</v>
@@ -7245,10 +7245,10 @@
         <v>1</v>
       </c>
       <c r="F199" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
@@ -7256,10 +7256,10 @@
         <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="C200" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D200" s="1">
         <v>399</v>
@@ -7268,10 +7268,10 @@
         <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G200" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
@@ -7279,10 +7279,10 @@
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="C201" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D201" s="1">
         <v>599</v>
@@ -7291,10 +7291,10 @@
         <v>1</v>
       </c>
       <c r="F201" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
@@ -7302,10 +7302,10 @@
         <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="C202" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D202" s="1">
         <v>999</v>
@@ -7314,10 +7314,10 @@
         <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G202" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
@@ -7325,10 +7325,10 @@
         <v>203</v>
       </c>
       <c r="B203" t="s">
+        <v>286</v>
+      </c>
+      <c r="C203" t="s">
         <v>290</v>
-      </c>
-      <c r="C203" t="s">
-        <v>294</v>
       </c>
       <c r="D203" s="1">
         <v>5.2</v>
@@ -7337,10 +7337,10 @@
         <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G203" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
@@ -7348,10 +7348,10 @@
         <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C204" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D204" s="1">
         <v>7.15</v>
@@ -7360,10 +7360,10 @@
         <v>1</v>
       </c>
       <c r="F204" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G204" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
@@ -7371,10 +7371,10 @@
         <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C205" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D205" s="1">
         <v>12.95</v>
@@ -7383,10 +7383,10 @@
         <v>1</v>
       </c>
       <c r="F205" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G205" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
@@ -7394,10 +7394,10 @@
         <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C206" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D206" s="1">
         <v>16.25</v>
@@ -7406,10 +7406,10 @@
         <v>1</v>
       </c>
       <c r="F206" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G206" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
@@ -7417,10 +7417,10 @@
         <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C207" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D207" s="1">
         <v>25</v>
@@ -7429,10 +7429,10 @@
         <v>1</v>
       </c>
       <c r="F207" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G207" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
@@ -7440,10 +7440,10 @@
         <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C208" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D208" s="1">
         <v>100</v>
@@ -7452,10 +7452,10 @@
         <v>1</v>
       </c>
       <c r="F208" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G208" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
@@ -7463,10 +7463,10 @@
         <v>209</v>
       </c>
       <c r="B209" t="s">
+        <v>299</v>
+      </c>
+      <c r="C209" t="s">
         <v>303</v>
-      </c>
-      <c r="C209" t="s">
-        <v>307</v>
       </c>
       <c r="D209" s="1">
         <v>3.9</v>
@@ -7475,10 +7475,10 @@
         <v>1</v>
       </c>
       <c r="F209" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G209" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
@@ -7486,10 +7486,10 @@
         <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C210" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D210" s="1">
         <v>6.9</v>
@@ -7498,10 +7498,10 @@
         <v>1</v>
       </c>
       <c r="F210" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G210" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
@@ -7509,10 +7509,10 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C211" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D211" s="1">
         <v>29</v>
@@ -7521,10 +7521,10 @@
         <v>1</v>
       </c>
       <c r="F211" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="G211" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
@@ -7532,10 +7532,10 @@
         <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C212" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D212" s="1">
         <v>39.9</v>
@@ -7544,10 +7544,10 @@
         <v>1</v>
       </c>
       <c r="F212" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
@@ -7555,10 +7555,10 @@
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C213" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D213" s="1">
         <v>7</v>
@@ -7567,10 +7567,10 @@
         <v>1</v>
       </c>
       <c r="F213" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G213" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
@@ -7578,10 +7578,10 @@
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C214" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D214" s="1">
         <v>12.9</v>
@@ -7590,10 +7590,10 @@
         <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G214" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
@@ -7601,10 +7601,10 @@
         <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C215" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D215" s="1">
         <v>34.5</v>
@@ -7613,10 +7613,10 @@
         <v>1</v>
       </c>
       <c r="F215" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="G215" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
@@ -7624,10 +7624,10 @@
         <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C216" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D216" s="1">
         <v>99</v>
@@ -7636,10 +7636,10 @@
         <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G216" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
@@ -7647,10 +7647,10 @@
         <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C217" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D217" s="1">
         <v>39</v>
@@ -7659,10 +7659,10 @@
         <v>1</v>
       </c>
       <c r="F217" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G217" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
@@ -7670,10 +7670,10 @@
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C218" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D218" s="1">
         <v>45</v>
@@ -7682,10 +7682,10 @@
         <v>1</v>
       </c>
       <c r="F218" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G218" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
@@ -7693,10 +7693,10 @@
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C219" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D219" s="1">
         <v>100</v>
@@ -7705,10 +7705,10 @@
         <v>1</v>
       </c>
       <c r="F219" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="G219" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
@@ -7716,10 +7716,10 @@
         <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C220" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D220" s="1">
         <v>299</v>
@@ -7728,10 +7728,10 @@
         <v>1</v>
       </c>
       <c r="F220" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G220" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
@@ -7739,10 +7739,10 @@
         <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C221" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D221" s="1">
         <v>25</v>
@@ -7751,10 +7751,10 @@
         <v>1</v>
       </c>
       <c r="F221" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G221" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
@@ -7762,10 +7762,10 @@
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C222" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D222" s="1">
         <v>25</v>
@@ -7774,10 +7774,10 @@
         <v>1</v>
       </c>
       <c r="F222" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G222" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
@@ -7785,10 +7785,10 @@
         <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C223" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D223" s="1">
         <v>25</v>
@@ -7797,10 +7797,10 @@
         <v>1</v>
       </c>
       <c r="F223" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="G223" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
@@ -7808,10 +7808,10 @@
         <v>224</v>
       </c>
       <c r="B224" t="s">
+        <v>316</v>
+      </c>
+      <c r="C224" t="s">
         <v>320</v>
-      </c>
-      <c r="C224" t="s">
-        <v>324</v>
       </c>
       <c r="D224" s="1">
         <v>25</v>
@@ -7820,10 +7820,10 @@
         <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G224" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
@@ -7831,10 +7831,10 @@
         <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C225" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D225" s="1">
         <v>25</v>
@@ -7843,10 +7843,10 @@
         <v>1</v>
       </c>
       <c r="F225" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G225" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
@@ -7854,10 +7854,10 @@
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C226" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D226" s="1">
         <v>19</v>
@@ -7866,10 +7866,10 @@
         <v>1</v>
       </c>
       <c r="F226" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G226" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
@@ -7877,10 +7877,10 @@
         <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C227" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D227" s="1">
         <v>19</v>
@@ -7889,10 +7889,10 @@
         <v>1</v>
       </c>
       <c r="F227" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G227" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
@@ -7900,10 +7900,10 @@
         <v>228</v>
       </c>
       <c r="B228" t="s">
+        <v>322</v>
+      </c>
+      <c r="C228" t="s">
         <v>326</v>
-      </c>
-      <c r="C228" t="s">
-        <v>330</v>
       </c>
       <c r="D228" s="1">
         <v>19</v>
@@ -7912,10 +7912,10 @@
         <v>1</v>
       </c>
       <c r="F228" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G228" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
@@ -7923,10 +7923,10 @@
         <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C229" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D229" s="1">
         <v>19</v>
@@ -7935,10 +7935,10 @@
         <v>1</v>
       </c>
       <c r="F229" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G229" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
@@ -7946,10 +7946,10 @@
         <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C230" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D230" s="1">
         <v>6</v>
@@ -7958,10 +7958,10 @@
         <v>1</v>
       </c>
       <c r="F230" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G230" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
@@ -7969,10 +7969,10 @@
         <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C231" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D231" s="1">
         <v>6</v>
@@ -7981,10 +7981,10 @@
         <v>1</v>
       </c>
       <c r="F231" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G231" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
@@ -7992,10 +7992,10 @@
         <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C232" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D232" s="1">
         <v>9.9</v>
@@ -8004,10 +8004,10 @@
         <v>1</v>
       </c>
       <c r="F232" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="G232" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
@@ -8015,10 +8015,10 @@
         <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C233" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D233" s="1">
         <v>9.9</v>
@@ -8027,10 +8027,10 @@
         <v>1</v>
       </c>
       <c r="F233" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G233" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
@@ -8038,10 +8038,10 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C234" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D234" s="1">
         <v>9.9</v>
@@ -8050,10 +8050,10 @@
         <v>1</v>
       </c>
       <c r="F234" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G234" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
@@ -8061,10 +8061,10 @@
         <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C235" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D235" s="1">
         <v>9.9</v>
@@ -8073,10 +8073,10 @@
         <v>1</v>
       </c>
       <c r="F235" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G235" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
@@ -8084,10 +8084,10 @@
         <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C236" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D236" s="1">
         <v>12</v>
@@ -8096,10 +8096,10 @@
         <v>1</v>
       </c>
       <c r="F236" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G236" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
@@ -8107,10 +8107,10 @@
         <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C237" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D237" s="1">
         <v>18.899999999999999</v>
@@ -8119,10 +8119,10 @@
         <v>1</v>
       </c>
       <c r="F237" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G237" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
@@ -8130,10 +8130,10 @@
         <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C238" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D238" s="1">
         <v>18.899999999999999</v>
@@ -8142,10 +8142,10 @@
         <v>1</v>
       </c>
       <c r="F238" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G238" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
@@ -8153,10 +8153,10 @@
         <v>94</v>
       </c>
       <c r="B239" t="s">
-        <v>120</v>
+        <v>599</v>
       </c>
       <c r="C239" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D239" s="1">
         <v>999</v>
@@ -8165,10 +8165,10 @@
         <v>1</v>
       </c>
       <c r="F239" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="G239" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -8194,10 +8194,10 @@
         <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D1" s="1">
         <v>999</v>
@@ -8206,10 +8206,10 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonasosterle/Documents/code/WEB/react-cintamani/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FEEB58-B626-B149-B3D3-49247FEB9372}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDCA10F-C16C-5F47-8165-4E6898526BD8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2080" yWindow="680" windowWidth="23040" windowHeight="9640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2709,8 +2709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C183" sqref="C183"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C243" sqref="C243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonasosterle/Documents/code/WEB/react-cintamani/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Cintamani\Website 2017\react-cintamani\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDCA10F-C16C-5F47-8165-4E6898526BD8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="680" windowWidth="23040" windowHeight="9640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2076" yWindow="684" windowWidth="23040" windowHeight="9636"/>
   </bookViews>
   <sheets>
     <sheet name="catalog_product_bearbeitet" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="596">
   <si>
     <t>Name</t>
   </si>
@@ -225,9 +224,6 @@
   </si>
   <si>
     <t>Medizinbuddha vollvergoldete Kupferstatue 14cm</t>
-  </si>
-  <si>
-    <t>Medizinbuddha vollvergoldete Kupferstatue 38cm</t>
   </si>
   <si>
     <t>Medizinbuddha Gießstatue 12,5cm</t>
@@ -459,14 +455,6 @@
     <t>Manjughosa  Kupferstatue 44cm</t>
   </si>
   <si>
-    <t>Natha- Maitreya_x000D_
-Er ist der Buddha der Zukunft und wird das Dharma auf der Erde neu verkünden. Die Zeit bis zu seinem Erdenauftritt verbringt er im Tusita-Himmel._x000D_
-Auf der Rückseite ist das Manta OM AH HUM eingraviert.</t>
-  </si>
-  <si>
-    <t>Natha-Maitreya Kupferstatue 20cm</t>
-  </si>
-  <si>
     <t>Malas - Arm Mala</t>
   </si>
   <si>
@@ -1281,9 +1269,6 @@
     <t>BMed003.JPG, BMed001.JPG, BMed002.JPG</t>
   </si>
   <si>
-    <t>BMed006.JPG, BMed007.JPG, BMed008.JPG, BMed009.JPG</t>
-  </si>
-  <si>
     <t>BMed010.JPG, BMed011.JPG, BMed012.JPG, BMed013.JPG, BMed014.JPG</t>
   </si>
   <si>
@@ -1410,9 +1395,6 @@
     <t>MBMan019.JPG, MBMan020.JPG, MBMan021.JPG, MBMan022.JPG</t>
   </si>
   <si>
-    <t>MBMa1001.JPG</t>
-  </si>
-  <si>
     <t>MBMan001.JPG, MBMan002.JPG, MBMan003.JPG, MBMan004.JPG, MBMan005.JPG</t>
   </si>
   <si>
@@ -1837,15 +1819,12 @@
   </si>
   <si>
     <t>Bodhisattvas - Manjusri</t>
-  </si>
-  <si>
-    <t>Bodhisattvas - Natha Maitreya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
@@ -2706,44 +2685,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G239"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C243" sqref="C243"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="38.1640625" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" customWidth="1"/>
     <col min="3" max="3" width="48.6640625" customWidth="1"/>
     <col min="6" max="6" width="65.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G1" t="s">
         <v>367</v>
       </c>
-      <c r="E1" t="s">
-        <v>368</v>
-      </c>
-      <c r="F1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2760,13 +2739,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2783,13 +2762,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2806,13 +2785,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2829,13 +2808,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2852,13 +2831,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2875,13 +2854,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2898,13 +2877,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2921,13 +2900,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2944,13 +2923,13 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2967,13 +2946,13 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2990,13 +2969,13 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3013,13 +2992,13 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3036,13 +3015,13 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3059,13 +3038,13 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3082,13 +3061,13 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3105,13 +3084,13 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3128,13 +3107,13 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3151,13 +3130,13 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3174,13 +3153,13 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3197,13 +3176,13 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3220,13 +3199,13 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3243,13 +3222,13 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3266,13 +3245,13 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3289,13 +3268,13 @@
         <v>1</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3312,13 +3291,13 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3335,13 +3314,13 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3358,13 +3337,13 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3381,13 +3360,13 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3404,13 +3383,13 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3427,13 +3406,13 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3450,13 +3429,13 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3473,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3496,13 +3475,13 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3519,13 +3498,13 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G35" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3542,13 +3521,13 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3565,13 +3544,13 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3588,13 +3567,13 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3611,13 +3590,13 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G39" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3634,13 +3613,13 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3657,13 +3636,13 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3680,13 +3659,13 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G42" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3703,13 +3682,13 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G43" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3726,13 +3705,13 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G44" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3740,7 +3719,7 @@
         <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D45" s="1">
         <v>19.5</v>
@@ -3749,13 +3728,13 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3772,13 +3751,13 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3795,159 +3774,159 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G47" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
         <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D48" s="1">
-        <v>2099</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
+        <v>3999</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D49" s="1">
-        <v>3999</v>
-      </c>
-      <c r="E49" s="2">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
         <v>71</v>
       </c>
       <c r="D50" s="1">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="1">
+        <v>25</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>415</v>
+      </c>
+      <c r="G51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="1">
         <v>70</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>416</v>
+      </c>
+      <c r="G52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D51" s="1">
-        <v>59</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51" t="s">
-        <v>418</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="C53" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="4">
+        <v>399</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" t="s">
-        <v>78</v>
-      </c>
-      <c r="D52" s="1">
-        <v>25</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52" t="s">
-        <v>419</v>
-      </c>
-      <c r="G52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="1">
-        <v>70</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
-        <v>420</v>
-      </c>
-      <c r="G53" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="C54" s="3" t="s">
-        <v>76</v>
+        <v>342</v>
       </c>
       <c r="D54" s="4">
         <v>399</v>
@@ -3956,90 +3935,90 @@
         <v>1</v>
       </c>
       <c r="F54" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" s="1">
+        <v>499</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>419</v>
+      </c>
+      <c r="G55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="1">
+        <v>59</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>420</v>
+      </c>
+      <c r="G56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="1">
+        <v>189</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
         <v>421</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D55" s="4">
-        <v>399</v>
-      </c>
-      <c r="E55" s="3">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="G57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="1">
-        <v>499</v>
-      </c>
-      <c r="E56" s="2">
-        <v>0</v>
-      </c>
-      <c r="F56" t="s">
-        <v>423</v>
-      </c>
-      <c r="G56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>85</v>
-      </c>
-      <c r="D57" s="1">
-        <v>59</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57" t="s">
-        <v>424</v>
-      </c>
-      <c r="G57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" t="s">
-        <v>84</v>
       </c>
       <c r="D58" s="1">
         <v>189</v>
@@ -4048,366 +4027,366 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
+        <v>422</v>
+      </c>
+      <c r="G58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="1">
+        <v>230</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>424</v>
+      </c>
+      <c r="G59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="1">
+        <v>280</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>423</v>
+      </c>
+      <c r="G60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" t="s">
+        <v>343</v>
+      </c>
+      <c r="D61" s="1">
+        <v>299</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
         <v>425</v>
       </c>
-      <c r="G58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="G61" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="1">
+        <v>399</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>426</v>
+      </c>
+      <c r="G62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="1">
+        <v>449</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>427</v>
+      </c>
+      <c r="G63" t="s">
         <v>81</v>
       </c>
-      <c r="C59" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="1">
-        <v>189</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59" t="s">
-        <v>426</v>
-      </c>
-      <c r="G59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" t="s">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2499</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>428</v>
+      </c>
+      <c r="G64" t="s">
         <v>91</v>
       </c>
-      <c r="D60" s="1">
-        <v>230</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60" t="s">
-        <v>428</v>
-      </c>
-      <c r="G60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" t="s">
-        <v>89</v>
-      </c>
-      <c r="D61" s="1">
-        <v>280</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61" t="s">
-        <v>427</v>
-      </c>
-      <c r="G61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" t="s">
-        <v>346</v>
-      </c>
-      <c r="D62" s="1">
-        <v>299</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62" t="s">
-        <v>429</v>
-      </c>
-      <c r="G62" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" t="s">
-        <v>87</v>
-      </c>
-      <c r="D63" s="1">
-        <v>399</v>
-      </c>
-      <c r="E63" s="2">
-        <v>0</v>
-      </c>
-      <c r="F63" t="s">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
         <v>430</v>
       </c>
-      <c r="G63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" s="1">
-        <v>449</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="G65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" s="1">
+        <v>49</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
         <v>431</v>
       </c>
-      <c r="G64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="G66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
         <v>93</v>
-      </c>
-      <c r="D65" s="1">
-        <v>2499</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65" t="s">
-        <v>432</v>
-      </c>
-      <c r="G65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>66</v>
-      </c>
-      <c r="B66" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66" t="s">
-        <v>99</v>
-      </c>
-      <c r="D66" s="1">
-        <v>19.5</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66" t="s">
-        <v>434</v>
-      </c>
-      <c r="G66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>67</v>
-      </c>
-      <c r="B67" t="s">
-        <v>94</v>
       </c>
       <c r="C67" t="s">
         <v>95</v>
       </c>
       <c r="D67" s="1">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G67" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D68" s="1">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G68" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>94</v>
+        <v>361</v>
       </c>
       <c r="C69" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D69" s="1">
-        <v>200</v>
+        <v>6.5</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>437</v>
+        <v>584</v>
       </c>
       <c r="G69" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C70" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" s="1">
+        <v>10</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>585</v>
+      </c>
+      <c r="G70" t="s">
         <v>116</v>
       </c>
-      <c r="D70" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70" t="s">
-        <v>589</v>
-      </c>
-      <c r="G70" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C71" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D71" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G71" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C72" t="s">
+        <v>107</v>
+      </c>
+      <c r="D72" s="1">
+        <v>14</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>587</v>
+      </c>
+      <c r="G72" t="s">
         <v>106</v>
       </c>
-      <c r="D72" s="1">
-        <v>12</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72" t="s">
-        <v>591</v>
-      </c>
-      <c r="G72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C73" t="s">
+        <v>109</v>
+      </c>
+      <c r="D73" s="1">
+        <v>20</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="s">
+        <v>587</v>
+      </c>
+      <c r="G73" t="s">
         <v>108</v>
       </c>
-      <c r="D73" s="1">
-        <v>14</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73" t="s">
-        <v>592</v>
-      </c>
-      <c r="G73" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C74" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D74" s="1">
         <v>20</v>
@@ -4416,685 +4395,708 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G74" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C75" t="s">
+        <v>113</v>
+      </c>
+      <c r="D75" s="1">
+        <v>30</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>589</v>
+      </c>
+      <c r="G75" t="s">
         <v>112</v>
       </c>
-      <c r="D75" s="1">
-        <v>20</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75" t="s">
-        <v>593</v>
-      </c>
-      <c r="G75" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C76" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D76" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G76" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C77" t="s">
+        <v>100</v>
+      </c>
+      <c r="D77" s="1">
+        <v>100</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>590</v>
+      </c>
+      <c r="G77" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>361</v>
+      </c>
+      <c r="C78" t="s">
         <v>102</v>
       </c>
-      <c r="D77" s="1">
-        <v>50</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77" t="s">
-        <v>595</v>
-      </c>
-      <c r="G77" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>78</v>
-      </c>
-      <c r="B78" t="s">
-        <v>364</v>
-      </c>
-      <c r="C78" t="s">
-        <v>101</v>
-      </c>
       <c r="D78" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="G78" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C79" t="s">
         <v>103</v>
       </c>
       <c r="D79" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="G79" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>364</v>
+        <v>594</v>
       </c>
       <c r="C80" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D80" s="1">
-        <v>300</v>
+        <v>19.5</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>595</v>
+        <v>434</v>
       </c>
       <c r="G80" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C81" t="s">
+        <v>132</v>
+      </c>
+      <c r="D81" s="1">
+        <v>59</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>435</v>
+      </c>
+      <c r="G81" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>594</v>
+      </c>
+      <c r="C82" t="s">
+        <v>131</v>
+      </c>
+      <c r="D82" s="1">
+        <v>69</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>436</v>
+      </c>
+      <c r="G82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>594</v>
+      </c>
+      <c r="C83" t="s">
+        <v>128</v>
+      </c>
+      <c r="D83" s="1">
+        <v>99</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>437</v>
+      </c>
+      <c r="G83" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>594</v>
+      </c>
+      <c r="C84" t="s">
+        <v>126</v>
+      </c>
+      <c r="D84" s="1">
+        <v>159</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>438</v>
+      </c>
+      <c r="G84" t="s">
         <v>125</v>
       </c>
-      <c r="D81" s="1">
-        <v>19.5</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81" t="s">
-        <v>438</v>
-      </c>
-      <c r="G81" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>82</v>
-      </c>
-      <c r="B82" t="s">
-        <v>599</v>
-      </c>
-      <c r="C82" t="s">
-        <v>133</v>
-      </c>
-      <c r="D82" s="1">
-        <v>59</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82" t="s">
-        <v>439</v>
-      </c>
-      <c r="G82" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>83</v>
-      </c>
-      <c r="B83" t="s">
-        <v>599</v>
-      </c>
-      <c r="C83" t="s">
-        <v>132</v>
-      </c>
-      <c r="D83" s="1">
-        <v>69</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83" t="s">
-        <v>440</v>
-      </c>
-      <c r="G83" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>84</v>
-      </c>
-      <c r="B84" t="s">
-        <v>599</v>
-      </c>
-      <c r="C84" t="s">
-        <v>129</v>
-      </c>
-      <c r="D84" s="1">
-        <v>99</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84" t="s">
-        <v>441</v>
-      </c>
-      <c r="G84" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C85" t="s">
         <v>127</v>
       </c>
       <c r="D85" s="1">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85" t="s">
+        <v>439</v>
+      </c>
+      <c r="G85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>594</v>
+      </c>
+      <c r="C86" t="s">
+        <v>119</v>
+      </c>
+      <c r="D86" s="1">
+        <v>229</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>440</v>
+      </c>
+      <c r="G86" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>594</v>
+      </c>
+      <c r="C87" t="s">
+        <v>134</v>
+      </c>
+      <c r="D87" s="1">
+        <v>249</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>441</v>
+      </c>
+      <c r="G87" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>594</v>
+      </c>
+      <c r="C88" t="s">
+        <v>119</v>
+      </c>
+      <c r="D88" s="1">
+        <v>259</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
         <v>442</v>
       </c>
-      <c r="G85" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>86</v>
-      </c>
-      <c r="B86" t="s">
-        <v>599</v>
-      </c>
-      <c r="C86" t="s">
-        <v>128</v>
-      </c>
-      <c r="D86" s="1">
+      <c r="G88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>594</v>
+      </c>
+      <c r="C89" t="s">
+        <v>123</v>
+      </c>
+      <c r="D89" s="1">
+        <v>269</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>443</v>
+      </c>
+      <c r="G89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>594</v>
+      </c>
+      <c r="C90" t="s">
+        <v>347</v>
+      </c>
+      <c r="D90" s="1">
+        <v>299</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>445</v>
+      </c>
+      <c r="G90" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>594</v>
+      </c>
+      <c r="C91" t="s">
+        <v>348</v>
+      </c>
+      <c r="D91" s="1">
+        <v>399</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>444</v>
+      </c>
+      <c r="G91" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>594</v>
+      </c>
+      <c r="C92" t="s">
+        <v>121</v>
+      </c>
+      <c r="D92" s="1">
+        <v>999</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" t="s">
+        <v>446</v>
+      </c>
+      <c r="G92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>595</v>
+      </c>
+      <c r="C93" t="s">
+        <v>138</v>
+      </c>
+      <c r="D93" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>447</v>
+      </c>
+      <c r="G93" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>595</v>
+      </c>
+      <c r="C94" t="s">
+        <v>350</v>
+      </c>
+      <c r="D94" s="1">
+        <v>59</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>448</v>
+      </c>
+      <c r="G94" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>595</v>
+      </c>
+      <c r="C95" t="s">
+        <v>137</v>
+      </c>
+      <c r="D95" s="1">
+        <v>69</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>449</v>
+      </c>
+      <c r="G95" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>595</v>
+      </c>
+      <c r="C96" t="s">
+        <v>139</v>
+      </c>
+      <c r="D96" s="1">
+        <v>99</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" t="s">
+        <v>450</v>
+      </c>
+      <c r="G96" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>595</v>
+      </c>
+      <c r="C97" t="s">
+        <v>351</v>
+      </c>
+      <c r="D97" s="1">
         <v>179</v>
       </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86" t="s">
-        <v>443</v>
-      </c>
-      <c r="G86" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>87</v>
-      </c>
-      <c r="B87" t="s">
-        <v>599</v>
-      </c>
-      <c r="C87" t="s">
-        <v>120</v>
-      </c>
-      <c r="D87" s="1">
-        <v>229</v>
-      </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87" t="s">
-        <v>444</v>
-      </c>
-      <c r="G87" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>88</v>
-      </c>
-      <c r="B88" t="s">
-        <v>599</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" t="s">
+        <v>451</v>
+      </c>
+      <c r="G97" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>595</v>
+      </c>
+      <c r="C98" t="s">
+        <v>136</v>
+      </c>
+      <c r="D98" s="1">
+        <v>269</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>452</v>
+      </c>
+      <c r="G98" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D88" s="1">
-        <v>249</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88" t="s">
-        <v>445</v>
-      </c>
-      <c r="G88" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>89</v>
-      </c>
-      <c r="B89" t="s">
-        <v>599</v>
-      </c>
-      <c r="C89" t="s">
-        <v>120</v>
-      </c>
-      <c r="D89" s="1">
-        <v>259</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89" t="s">
-        <v>446</v>
-      </c>
-      <c r="G89" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>90</v>
-      </c>
-      <c r="B90" t="s">
-        <v>599</v>
-      </c>
-      <c r="C90" t="s">
-        <v>124</v>
-      </c>
-      <c r="D90" s="1">
-        <v>269</v>
-      </c>
-      <c r="E90" s="2">
-        <v>0</v>
-      </c>
-      <c r="F90" t="s">
-        <v>447</v>
-      </c>
-      <c r="G90" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>91</v>
-      </c>
-      <c r="B91" t="s">
-        <v>599</v>
-      </c>
-      <c r="C91" t="s">
-        <v>350</v>
-      </c>
-      <c r="D91" s="1">
-        <v>299</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91" t="s">
-        <v>449</v>
-      </c>
-      <c r="G91" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>92</v>
-      </c>
-      <c r="B92" t="s">
-        <v>599</v>
-      </c>
-      <c r="C92" t="s">
-        <v>351</v>
-      </c>
-      <c r="D92" s="1">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>595</v>
+      </c>
+      <c r="C99" t="s">
+        <v>352</v>
+      </c>
+      <c r="D99" s="1">
         <v>399</v>
       </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92" t="s">
-        <v>448</v>
-      </c>
-      <c r="G92" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>93</v>
-      </c>
-      <c r="B93" t="s">
-        <v>599</v>
-      </c>
-      <c r="C93" t="s">
-        <v>122</v>
-      </c>
-      <c r="D93" s="1">
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>453</v>
+      </c>
+      <c r="G99" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>595</v>
+      </c>
+      <c r="C100" t="s">
+        <v>140</v>
+      </c>
+      <c r="D100" s="1">
         <v>999</v>
       </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93" t="s">
-        <v>450</v>
-      </c>
-      <c r="G93" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>95</v>
-      </c>
-      <c r="B95" t="s">
-        <v>600</v>
-      </c>
-      <c r="C95" t="s">
-        <v>139</v>
-      </c>
-      <c r="D95" s="1">
-        <v>19.5</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95" t="s">
-        <v>451</v>
-      </c>
-      <c r="G95" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>96</v>
-      </c>
-      <c r="B96" t="s">
-        <v>600</v>
-      </c>
-      <c r="C96" t="s">
-        <v>353</v>
-      </c>
-      <c r="D96" s="1">
-        <v>59</v>
-      </c>
-      <c r="E96">
-        <v>1</v>
-      </c>
-      <c r="F96" t="s">
-        <v>452</v>
-      </c>
-      <c r="G96" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>97</v>
-      </c>
-      <c r="B97" t="s">
-        <v>600</v>
-      </c>
-      <c r="C97" t="s">
-        <v>138</v>
-      </c>
-      <c r="D97" s="1">
-        <v>69</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97" t="s">
-        <v>453</v>
-      </c>
-      <c r="G97" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>98</v>
-      </c>
-      <c r="B98" t="s">
-        <v>600</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>454</v>
+      </c>
+      <c r="G100" t="s">
         <v>140</v>
       </c>
-      <c r="D98" s="1">
-        <v>99</v>
-      </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-      <c r="F98" t="s">
-        <v>454</v>
-      </c>
-      <c r="G98" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>99</v>
-      </c>
-      <c r="B99" t="s">
-        <v>600</v>
-      </c>
-      <c r="C99" t="s">
-        <v>354</v>
-      </c>
-      <c r="D99" s="1">
-        <v>179</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-      <c r="F99" t="s">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>104</v>
+      </c>
+      <c r="B101" t="s">
+        <v>595</v>
+      </c>
+      <c r="C101" t="s">
+        <v>142</v>
+      </c>
+      <c r="D101" s="1">
+        <v>1999</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
         <v>455</v>
       </c>
-      <c r="G99" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>100</v>
-      </c>
-      <c r="B100" t="s">
-        <v>600</v>
-      </c>
-      <c r="C100" t="s">
-        <v>137</v>
-      </c>
-      <c r="D100" s="1">
-        <v>269</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="G101" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>143</v>
+      </c>
+      <c r="C102" t="s">
+        <v>162</v>
+      </c>
+      <c r="D102" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
         <v>456</v>
       </c>
-      <c r="G100" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>101</v>
-      </c>
-      <c r="B101" t="s">
-        <v>600</v>
-      </c>
-      <c r="C101" t="s">
-        <v>355</v>
-      </c>
-      <c r="D101" s="1">
-        <v>399</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-      <c r="F101" t="s">
+      <c r="G102" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>106</v>
+      </c>
+      <c r="B103" t="s">
+        <v>143</v>
+      </c>
+      <c r="C103" t="s">
+        <v>163</v>
+      </c>
+      <c r="D103" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
         <v>457</v>
       </c>
-      <c r="G101" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>102</v>
-      </c>
-      <c r="B102" t="s">
-        <v>601</v>
-      </c>
-      <c r="C102" t="s">
-        <v>145</v>
-      </c>
-      <c r="D102" s="1">
-        <v>399</v>
-      </c>
-      <c r="E102">
-        <v>1</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="G103" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>143</v>
+      </c>
+      <c r="C104" t="s">
+        <v>164</v>
+      </c>
+      <c r="D104" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
         <v>458</v>
       </c>
-      <c r="G102" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>103</v>
-      </c>
-      <c r="B103" t="s">
-        <v>600</v>
-      </c>
-      <c r="C103" t="s">
-        <v>141</v>
-      </c>
-      <c r="D103" s="1">
-        <v>999</v>
-      </c>
-      <c r="E103">
-        <v>1</v>
-      </c>
-      <c r="F103" t="s">
-        <v>459</v>
-      </c>
-      <c r="G103" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>104</v>
-      </c>
-      <c r="B104" t="s">
-        <v>600</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="G104" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>108</v>
+      </c>
+      <c r="B105" t="s">
         <v>143</v>
-      </c>
-      <c r="D104" s="1">
-        <v>1999</v>
-      </c>
-      <c r="E104">
-        <v>1</v>
-      </c>
-      <c r="F104" t="s">
-        <v>460</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>105</v>
-      </c>
-      <c r="B105" t="s">
-        <v>146</v>
       </c>
       <c r="C105" t="s">
         <v>165</v>
@@ -5106,21 +5108,21 @@
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G105" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C106" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D106" s="1">
         <v>5.9</v>
@@ -5129,21 +5131,21 @@
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G106" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C107" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D107" s="1">
         <v>5.9</v>
@@ -5152,133 +5154,133 @@
         <v>1</v>
       </c>
       <c r="F107" t="s">
+        <v>461</v>
+      </c>
+      <c r="G107" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>143</v>
+      </c>
+      <c r="C108" t="s">
+        <v>145</v>
+      </c>
+      <c r="D108" s="1">
+        <v>6</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108" t="s">
+        <v>462</v>
+      </c>
+      <c r="G108" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>112</v>
+      </c>
+      <c r="B109" t="s">
+        <v>143</v>
+      </c>
+      <c r="C109" t="s">
+        <v>169</v>
+      </c>
+      <c r="D109" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109" t="s">
         <v>463</v>
       </c>
-      <c r="G107" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>108</v>
-      </c>
-      <c r="B108" t="s">
-        <v>146</v>
-      </c>
-      <c r="C108" t="s">
-        <v>168</v>
-      </c>
-      <c r="D108" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="E108">
-        <v>1</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="G109" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>143</v>
+      </c>
+      <c r="C110" t="s">
+        <v>157</v>
+      </c>
+      <c r="D110" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
         <v>464</v>
       </c>
-      <c r="G108" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>109</v>
-      </c>
-      <c r="B109" t="s">
-        <v>146</v>
-      </c>
-      <c r="C109" t="s">
-        <v>170</v>
-      </c>
-      <c r="D109" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="G110" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>114</v>
+      </c>
+      <c r="B111" t="s">
+        <v>143</v>
+      </c>
+      <c r="C111" t="s">
+        <v>158</v>
+      </c>
+      <c r="D111" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
         <v>465</v>
       </c>
-      <c r="G109" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>110</v>
-      </c>
-      <c r="B110" t="s">
-        <v>146</v>
-      </c>
-      <c r="C110" t="s">
-        <v>171</v>
-      </c>
-      <c r="D110" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="E110">
-        <v>1</v>
-      </c>
-      <c r="F110" t="s">
-        <v>466</v>
-      </c>
-      <c r="G110" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>111</v>
-      </c>
-      <c r="B111" t="s">
-        <v>146</v>
-      </c>
-      <c r="C111" t="s">
-        <v>148</v>
-      </c>
-      <c r="D111" s="1">
-        <v>6</v>
-      </c>
-      <c r="E111">
-        <v>1</v>
-      </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>143</v>
+      </c>
+      <c r="C112" t="s">
+        <v>159</v>
+      </c>
+      <c r="D112" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" t="s">
         <v>467</v>
       </c>
-      <c r="G111" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>112</v>
-      </c>
-      <c r="B112" t="s">
-        <v>146</v>
-      </c>
-      <c r="C112" t="s">
-        <v>172</v>
-      </c>
-      <c r="D112" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="E112">
-        <v>1</v>
-      </c>
-      <c r="F112" t="s">
-        <v>468</v>
-      </c>
       <c r="G112" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C113" t="s">
         <v>160</v>
@@ -5290,484 +5292,484 @@
         <v>1</v>
       </c>
       <c r="F113" t="s">
+        <v>466</v>
+      </c>
+      <c r="G113" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>143</v>
+      </c>
+      <c r="C114" t="s">
+        <v>147</v>
+      </c>
+      <c r="D114" s="1">
+        <v>8</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>462</v>
+      </c>
+      <c r="G114" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>118</v>
+      </c>
+      <c r="B115" t="s">
+        <v>143</v>
+      </c>
+      <c r="C115" t="s">
+        <v>155</v>
+      </c>
+      <c r="D115" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" t="s">
+        <v>468</v>
+      </c>
+      <c r="G115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>143</v>
+      </c>
+      <c r="C116" t="s">
+        <v>166</v>
+      </c>
+      <c r="D116" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
         <v>469</v>
       </c>
-      <c r="G113" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>114</v>
-      </c>
-      <c r="B114" t="s">
-        <v>146</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="G116" t="s">
         <v>161</v>
       </c>
-      <c r="D114" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="E114">
-        <v>1</v>
-      </c>
-      <c r="F114" t="s">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>120</v>
+      </c>
+      <c r="B117" t="s">
+        <v>143</v>
+      </c>
+      <c r="C117" t="s">
+        <v>360</v>
+      </c>
+      <c r="D117" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
         <v>470</v>
       </c>
-      <c r="G114" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>115</v>
-      </c>
-      <c r="B115" t="s">
-        <v>146</v>
-      </c>
-      <c r="C115" t="s">
-        <v>162</v>
-      </c>
-      <c r="D115" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="E115">
-        <v>1</v>
-      </c>
-      <c r="F115" t="s">
+      <c r="G117" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>121</v>
+      </c>
+      <c r="B118" t="s">
+        <v>143</v>
+      </c>
+      <c r="C118" t="s">
+        <v>151</v>
+      </c>
+      <c r="D118" s="1">
+        <v>10</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118" t="s">
+        <v>471</v>
+      </c>
+      <c r="G118" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>122</v>
+      </c>
+      <c r="B119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C119" t="s">
+        <v>149</v>
+      </c>
+      <c r="D119" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119" t="s">
+        <v>471</v>
+      </c>
+      <c r="G119" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>123</v>
+      </c>
+      <c r="B120" t="s">
+        <v>143</v>
+      </c>
+      <c r="C120" t="s">
+        <v>152</v>
+      </c>
+      <c r="D120" s="1">
+        <v>12</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120" t="s">
         <v>472</v>
       </c>
-      <c r="G115" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>116</v>
-      </c>
-      <c r="B116" t="s">
-        <v>146</v>
-      </c>
-      <c r="C116" t="s">
-        <v>163</v>
-      </c>
-      <c r="D116" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="E116">
-        <v>1</v>
-      </c>
-      <c r="F116" t="s">
-        <v>471</v>
-      </c>
-      <c r="G116" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>117</v>
-      </c>
-      <c r="B117" t="s">
-        <v>146</v>
-      </c>
-      <c r="C117" t="s">
-        <v>150</v>
-      </c>
-      <c r="D117" s="1">
-        <v>8</v>
-      </c>
-      <c r="E117">
-        <v>1</v>
-      </c>
-      <c r="F117" t="s">
-        <v>467</v>
-      </c>
-      <c r="G117" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>118</v>
-      </c>
-      <c r="B118" t="s">
-        <v>146</v>
-      </c>
-      <c r="C118" t="s">
-        <v>158</v>
-      </c>
-      <c r="D118" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="E118">
-        <v>1</v>
-      </c>
-      <c r="F118" t="s">
+      <c r="G120" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>124</v>
+      </c>
+      <c r="B121" t="s">
+        <v>143</v>
+      </c>
+      <c r="C121" t="s">
+        <v>153</v>
+      </c>
+      <c r="D121" s="1">
+        <v>12</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121" t="s">
         <v>473</v>
-      </c>
-      <c r="G118" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>119</v>
-      </c>
-      <c r="B119" t="s">
-        <v>146</v>
-      </c>
-      <c r="C119" t="s">
-        <v>169</v>
-      </c>
-      <c r="D119" s="1">
-        <v>9.9</v>
-      </c>
-      <c r="E119">
-        <v>1</v>
-      </c>
-      <c r="F119" t="s">
-        <v>474</v>
-      </c>
-      <c r="G119" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>120</v>
-      </c>
-      <c r="B120" t="s">
-        <v>146</v>
-      </c>
-      <c r="C120" t="s">
-        <v>363</v>
-      </c>
-      <c r="D120" s="1">
-        <v>9.9</v>
-      </c>
-      <c r="E120">
-        <v>1</v>
-      </c>
-      <c r="F120" t="s">
-        <v>475</v>
-      </c>
-      <c r="G120" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>121</v>
-      </c>
-      <c r="B121" t="s">
-        <v>146</v>
-      </c>
-      <c r="C121" t="s">
-        <v>154</v>
-      </c>
-      <c r="D121" s="1">
-        <v>10</v>
-      </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-      <c r="F121" t="s">
-        <v>476</v>
       </c>
       <c r="G121" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C122" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D122" s="1">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="E122">
         <v>1</v>
       </c>
       <c r="F122" t="s">
+        <v>474</v>
+      </c>
+      <c r="G122" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>126</v>
+      </c>
+      <c r="B123" t="s">
+        <v>170</v>
+      </c>
+      <c r="C123" t="s">
+        <v>359</v>
+      </c>
+      <c r="D123" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123" t="s">
+        <v>475</v>
+      </c>
+      <c r="G123" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>127</v>
+      </c>
+      <c r="B124" t="s">
+        <v>170</v>
+      </c>
+      <c r="C124" t="s">
+        <v>183</v>
+      </c>
+      <c r="D124" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124" t="s">
         <v>476</v>
       </c>
-      <c r="G122" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>123</v>
-      </c>
-      <c r="B123" t="s">
-        <v>146</v>
-      </c>
-      <c r="C123" t="s">
-        <v>155</v>
-      </c>
-      <c r="D123" s="1">
-        <v>12</v>
-      </c>
-      <c r="E123">
-        <v>1</v>
-      </c>
-      <c r="F123" t="s">
+      <c r="G124" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>128</v>
+      </c>
+      <c r="B125" t="s">
+        <v>170</v>
+      </c>
+      <c r="C125" t="s">
+        <v>282</v>
+      </c>
+      <c r="D125" s="1">
+        <v>10</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125" t="s">
         <v>477</v>
       </c>
-      <c r="G123" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>124</v>
-      </c>
-      <c r="B124" t="s">
-        <v>146</v>
-      </c>
-      <c r="C124" t="s">
-        <v>156</v>
-      </c>
-      <c r="D124" s="1">
-        <v>12</v>
-      </c>
-      <c r="E124">
-        <v>1</v>
-      </c>
-      <c r="F124" t="s">
+      <c r="G125" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>129</v>
+      </c>
+      <c r="B126" t="s">
+        <v>170</v>
+      </c>
+      <c r="C126" t="s">
+        <v>172</v>
+      </c>
+      <c r="D126" s="1">
+        <v>14</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126" t="s">
         <v>478</v>
       </c>
-      <c r="G124" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>125</v>
-      </c>
-      <c r="B125" t="s">
-        <v>146</v>
-      </c>
-      <c r="C125" t="s">
-        <v>157</v>
-      </c>
-      <c r="D125" s="1">
-        <v>12</v>
-      </c>
-      <c r="E125">
-        <v>1</v>
-      </c>
-      <c r="F125" t="s">
+      <c r="G126" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>130</v>
+      </c>
+      <c r="B127" t="s">
+        <v>170</v>
+      </c>
+      <c r="C127" t="s">
+        <v>176</v>
+      </c>
+      <c r="D127" s="1">
+        <v>14</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127" t="s">
         <v>479</v>
       </c>
-      <c r="G125" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>126</v>
-      </c>
-      <c r="B126" t="s">
+      <c r="G127" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>131</v>
+      </c>
+      <c r="B128" t="s">
+        <v>170</v>
+      </c>
+      <c r="C128" t="s">
+        <v>174</v>
+      </c>
+      <c r="D128" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128" t="s">
+        <v>480</v>
+      </c>
+      <c r="G128" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>132</v>
+      </c>
+      <c r="B129" t="s">
+        <v>189</v>
+      </c>
+      <c r="C129" t="s">
+        <v>193</v>
+      </c>
+      <c r="D129" s="1">
+        <v>16.8</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129" t="s">
+        <v>481</v>
+      </c>
+      <c r="G129" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>133</v>
+      </c>
+      <c r="B130" t="s">
+        <v>170</v>
+      </c>
+      <c r="C130" t="s">
         <v>173</v>
       </c>
-      <c r="C126" t="s">
-        <v>362</v>
-      </c>
-      <c r="D126" s="1">
-        <v>9.9</v>
-      </c>
-      <c r="E126">
-        <v>1</v>
-      </c>
-      <c r="F126" t="s">
+      <c r="D130" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130" t="s">
+        <v>482</v>
+      </c>
+      <c r="G130" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>134</v>
+      </c>
+      <c r="B131" t="s">
+        <v>170</v>
+      </c>
+      <c r="C131" t="s">
+        <v>175</v>
+      </c>
+      <c r="D131" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131" t="s">
         <v>480</v>
       </c>
-      <c r="G126" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>127</v>
-      </c>
-      <c r="B127" t="s">
-        <v>173</v>
-      </c>
-      <c r="C127" t="s">
-        <v>186</v>
-      </c>
-      <c r="D127" s="1">
-        <v>9.9</v>
-      </c>
-      <c r="E127">
-        <v>1</v>
-      </c>
-      <c r="F127" t="s">
-        <v>481</v>
-      </c>
-      <c r="G127" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>128</v>
-      </c>
-      <c r="B128" t="s">
-        <v>173</v>
-      </c>
-      <c r="C128" t="s">
-        <v>285</v>
-      </c>
-      <c r="D128" s="1">
-        <v>10</v>
-      </c>
-      <c r="E128">
-        <v>1</v>
-      </c>
-      <c r="F128" t="s">
-        <v>482</v>
-      </c>
-      <c r="G128" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>129</v>
-      </c>
-      <c r="B129" t="s">
-        <v>173</v>
-      </c>
-      <c r="C129" t="s">
-        <v>175</v>
-      </c>
-      <c r="D129" s="1">
-        <v>14</v>
-      </c>
-      <c r="E129">
-        <v>1</v>
-      </c>
-      <c r="F129" t="s">
+      <c r="G131" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>135</v>
+      </c>
+      <c r="B132" t="s">
+        <v>170</v>
+      </c>
+      <c r="C132" t="s">
+        <v>179</v>
+      </c>
+      <c r="D132" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132" t="s">
         <v>483</v>
       </c>
-      <c r="G129" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>130</v>
-      </c>
-      <c r="B130" t="s">
-        <v>173</v>
-      </c>
-      <c r="C130" t="s">
-        <v>179</v>
-      </c>
-      <c r="D130" s="1">
-        <v>14</v>
-      </c>
-      <c r="E130">
-        <v>1</v>
-      </c>
-      <c r="F130" t="s">
+      <c r="G132" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>136</v>
+      </c>
+      <c r="B133" t="s">
+        <v>170</v>
+      </c>
+      <c r="C133" t="s">
+        <v>182</v>
+      </c>
+      <c r="D133" s="1">
+        <v>25</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133" t="s">
         <v>484</v>
       </c>
-      <c r="G130" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>131</v>
-      </c>
-      <c r="B131" t="s">
-        <v>173</v>
-      </c>
-      <c r="C131" t="s">
-        <v>177</v>
-      </c>
-      <c r="D131" s="1">
-        <v>14.5</v>
-      </c>
-      <c r="E131">
-        <v>1</v>
-      </c>
-      <c r="F131" t="s">
-        <v>485</v>
-      </c>
-      <c r="G131" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>132</v>
-      </c>
-      <c r="B132" t="s">
-        <v>192</v>
-      </c>
-      <c r="C132" t="s">
-        <v>196</v>
-      </c>
-      <c r="D132" s="1">
-        <v>16.8</v>
-      </c>
-      <c r="E132">
-        <v>1</v>
-      </c>
-      <c r="F132" t="s">
-        <v>486</v>
-      </c>
-      <c r="G132" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>133</v>
-      </c>
-      <c r="B133" t="s">
-        <v>173</v>
-      </c>
-      <c r="C133" t="s">
-        <v>176</v>
-      </c>
-      <c r="D133" s="1">
-        <v>19.5</v>
-      </c>
-      <c r="E133">
-        <v>1</v>
-      </c>
-      <c r="F133" t="s">
-        <v>487</v>
-      </c>
       <c r="G133" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="C134" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="D134" s="1">
-        <v>19.5</v>
+        <v>28.2</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -5776,340 +5778,340 @@
         <v>485</v>
       </c>
       <c r="G134" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C135" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D135" s="1">
-        <v>24.5</v>
+        <v>29.5</v>
       </c>
       <c r="E135">
         <v>1</v>
       </c>
       <c r="F135" t="s">
+        <v>486</v>
+      </c>
+      <c r="G135" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>139</v>
+      </c>
+      <c r="B136" t="s">
+        <v>189</v>
+      </c>
+      <c r="C136" t="s">
+        <v>191</v>
+      </c>
+      <c r="D136" s="1">
+        <v>29.9</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136" t="s">
+        <v>487</v>
+      </c>
+      <c r="G136" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>140</v>
+      </c>
+      <c r="B137" t="s">
+        <v>170</v>
+      </c>
+      <c r="C137" t="s">
+        <v>180</v>
+      </c>
+      <c r="D137" s="1">
+        <v>34</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137" t="s">
         <v>488</v>
       </c>
-      <c r="G135" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>136</v>
-      </c>
-      <c r="B136" t="s">
-        <v>173</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="G137" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>141</v>
+      </c>
+      <c r="B138" t="s">
+        <v>170</v>
+      </c>
+      <c r="C138" t="s">
+        <v>178</v>
+      </c>
+      <c r="D138" s="1">
+        <v>34.5</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138" t="s">
+        <v>489</v>
+      </c>
+      <c r="G138" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>142</v>
+      </c>
+      <c r="B139" t="s">
+        <v>170</v>
+      </c>
+      <c r="C139" t="s">
+        <v>187</v>
+      </c>
+      <c r="D139" s="1">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139" t="s">
+        <v>490</v>
+      </c>
+      <c r="G139" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>143</v>
+      </c>
+      <c r="B140" t="s">
+        <v>170</v>
+      </c>
+      <c r="C140" t="s">
         <v>185</v>
       </c>
-      <c r="D136" s="1">
-        <v>25</v>
-      </c>
-      <c r="E136">
-        <v>1</v>
-      </c>
-      <c r="F136" t="s">
-        <v>489</v>
-      </c>
-      <c r="G136" t="s">
+      <c r="D140" s="1">
+        <v>89.9</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140" t="s">
+        <v>491</v>
+      </c>
+      <c r="G140" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>137</v>
-      </c>
-      <c r="B137" t="s">
-        <v>192</v>
-      </c>
-      <c r="C137" t="s">
-        <v>196</v>
-      </c>
-      <c r="D137" s="1">
-        <v>28.2</v>
-      </c>
-      <c r="E137">
-        <v>1</v>
-      </c>
-      <c r="F137" t="s">
-        <v>490</v>
-      </c>
-      <c r="G137" t="s">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>144</v>
+      </c>
+      <c r="B141" t="s">
+        <v>170</v>
+      </c>
+      <c r="C141" t="s">
+        <v>188</v>
+      </c>
+      <c r="D141" s="1">
+        <v>89.9</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141" t="s">
+        <v>492</v>
+      </c>
+      <c r="G141" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>145</v>
+      </c>
+      <c r="B142" t="s">
+        <v>207</v>
+      </c>
+      <c r="C142" t="s">
+        <v>209</v>
+      </c>
+      <c r="D142" s="1">
+        <v>49.9</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142" t="s">
+        <v>493</v>
+      </c>
+      <c r="G142" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>146</v>
+      </c>
+      <c r="B143" t="s">
+        <v>573</v>
+      </c>
+      <c r="C143" t="s">
+        <v>204</v>
+      </c>
+      <c r="D143" s="1">
+        <v>89</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143" t="s">
+        <v>574</v>
+      </c>
+      <c r="G143" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>147</v>
+      </c>
+      <c r="B144" t="s">
+        <v>573</v>
+      </c>
+      <c r="C144" t="s">
+        <v>205</v>
+      </c>
+      <c r="D144" s="1">
+        <v>89</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144" t="s">
+        <v>582</v>
+      </c>
+      <c r="G144" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>148</v>
+      </c>
+      <c r="B145" t="s">
+        <v>573</v>
+      </c>
+      <c r="C145" t="s">
+        <v>206</v>
+      </c>
+      <c r="D145" s="1">
+        <v>89</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145" t="s">
+        <v>575</v>
+      </c>
+      <c r="G145" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>149</v>
+      </c>
+      <c r="B146" t="s">
+        <v>573</v>
+      </c>
+      <c r="C146" t="s">
+        <v>198</v>
+      </c>
+      <c r="D146" s="1">
+        <v>99</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146" t="s">
+        <v>576</v>
+      </c>
+      <c r="G146" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>138</v>
-      </c>
-      <c r="B138" t="s">
-        <v>173</v>
-      </c>
-      <c r="C138" t="s">
-        <v>180</v>
-      </c>
-      <c r="D138" s="1">
-        <v>29.5</v>
-      </c>
-      <c r="E138">
-        <v>1</v>
-      </c>
-      <c r="F138" t="s">
-        <v>491</v>
-      </c>
-      <c r="G138" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>139</v>
-      </c>
-      <c r="B139" t="s">
-        <v>192</v>
-      </c>
-      <c r="C139" t="s">
-        <v>194</v>
-      </c>
-      <c r="D139" s="1">
-        <v>29.9</v>
-      </c>
-      <c r="E139">
-        <v>1</v>
-      </c>
-      <c r="F139" t="s">
-        <v>492</v>
-      </c>
-      <c r="G139" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>140</v>
-      </c>
-      <c r="B140" t="s">
-        <v>173</v>
-      </c>
-      <c r="C140" t="s">
-        <v>183</v>
-      </c>
-      <c r="D140" s="1">
-        <v>34</v>
-      </c>
-      <c r="E140">
-        <v>1</v>
-      </c>
-      <c r="F140" t="s">
-        <v>493</v>
-      </c>
-      <c r="G140" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>141</v>
-      </c>
-      <c r="B141" t="s">
-        <v>173</v>
-      </c>
-      <c r="C141" t="s">
-        <v>181</v>
-      </c>
-      <c r="D141" s="1">
-        <v>34.5</v>
-      </c>
-      <c r="E141">
-        <v>1</v>
-      </c>
-      <c r="F141" t="s">
-        <v>494</v>
-      </c>
-      <c r="G141" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>142</v>
-      </c>
-      <c r="B142" t="s">
-        <v>173</v>
-      </c>
-      <c r="C142" t="s">
-        <v>190</v>
-      </c>
-      <c r="D142" s="1">
-        <v>79.900000000000006</v>
-      </c>
-      <c r="E142">
-        <v>1</v>
-      </c>
-      <c r="F142" t="s">
-        <v>495</v>
-      </c>
-      <c r="G142" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>143</v>
-      </c>
-      <c r="B143" t="s">
-        <v>173</v>
-      </c>
-      <c r="C143" t="s">
-        <v>188</v>
-      </c>
-      <c r="D143" s="1">
-        <v>89.9</v>
-      </c>
-      <c r="E143">
-        <v>1</v>
-      </c>
-      <c r="F143" t="s">
-        <v>496</v>
-      </c>
-      <c r="G143" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>144</v>
-      </c>
-      <c r="B144" t="s">
-        <v>173</v>
-      </c>
-      <c r="C144" t="s">
-        <v>191</v>
-      </c>
-      <c r="D144" s="1">
-        <v>89.9</v>
-      </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-      <c r="F144" t="s">
-        <v>497</v>
-      </c>
-      <c r="G144" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>145</v>
-      </c>
-      <c r="B145" t="s">
-        <v>210</v>
-      </c>
-      <c r="C145" t="s">
-        <v>212</v>
-      </c>
-      <c r="D145" s="1">
-        <v>49.9</v>
-      </c>
-      <c r="E145">
-        <v>1</v>
-      </c>
-      <c r="F145" t="s">
-        <v>498</v>
-      </c>
-      <c r="G145" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>146</v>
-      </c>
-      <c r="B146" t="s">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>150</v>
+      </c>
+      <c r="B147" t="s">
+        <v>573</v>
+      </c>
+      <c r="C147" t="s">
+        <v>199</v>
+      </c>
+      <c r="D147" s="1">
+        <v>99</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147" t="s">
+        <v>577</v>
+      </c>
+      <c r="G147" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>151</v>
+      </c>
+      <c r="B148" t="s">
+        <v>573</v>
+      </c>
+      <c r="C148" t="s">
+        <v>200</v>
+      </c>
+      <c r="D148" s="1">
+        <v>99</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148" t="s">
         <v>578</v>
       </c>
-      <c r="C146" t="s">
-        <v>207</v>
-      </c>
-      <c r="D146" s="1">
-        <v>89</v>
-      </c>
-      <c r="E146">
-        <v>1</v>
-      </c>
-      <c r="F146" t="s">
-        <v>579</v>
-      </c>
-      <c r="G146" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>147</v>
-      </c>
-      <c r="B147" t="s">
-        <v>578</v>
-      </c>
-      <c r="C147" t="s">
-        <v>208</v>
-      </c>
-      <c r="D147" s="1">
-        <v>89</v>
-      </c>
-      <c r="E147">
-        <v>1</v>
-      </c>
-      <c r="F147" t="s">
-        <v>587</v>
-      </c>
-      <c r="G147" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>148</v>
-      </c>
-      <c r="B148" t="s">
-        <v>578</v>
-      </c>
-      <c r="C148" t="s">
-        <v>209</v>
-      </c>
-      <c r="D148" s="1">
-        <v>89</v>
-      </c>
-      <c r="E148">
-        <v>1</v>
-      </c>
-      <c r="F148" t="s">
-        <v>580</v>
-      </c>
       <c r="G148" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C149" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D149" s="1">
         <v>99</v>
@@ -6118,113 +6120,113 @@
         <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G149" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C150" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D150" s="1">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="E150">
         <v>1</v>
       </c>
       <c r="F150" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G150" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>578</v>
+        <v>207</v>
       </c>
       <c r="C151" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D151" s="1">
-        <v>99</v>
+        <v>49.9</v>
       </c>
       <c r="E151">
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>583</v>
+        <v>494</v>
       </c>
       <c r="G151" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>578</v>
+        <v>207</v>
       </c>
       <c r="C152" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D152" s="1">
-        <v>99</v>
+        <v>49.9</v>
       </c>
       <c r="E152">
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>584</v>
+        <v>495</v>
       </c>
       <c r="G152" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>578</v>
+        <v>207</v>
       </c>
       <c r="C153" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="D153" s="1">
-        <v>179</v>
+        <v>49.9</v>
       </c>
       <c r="E153">
         <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>585</v>
+        <v>496</v>
       </c>
       <c r="G153" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C154" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D154" s="1">
         <v>49.9</v>
@@ -6233,21 +6235,21 @@
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G154" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C155" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D155" s="1">
         <v>49.9</v>
@@ -6256,21 +6258,21 @@
         <v>1</v>
       </c>
       <c r="F155" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G155" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C156" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D156" s="1">
         <v>49.9</v>
@@ -6279,21 +6281,21 @@
         <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G156" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C157" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D157" s="1">
         <v>49.9</v>
@@ -6302,21 +6304,21 @@
         <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G157" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C158" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D158" s="1">
         <v>49.9</v>
@@ -6325,21 +6327,21 @@
         <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G158" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C159" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D159" s="1">
         <v>49.9</v>
@@ -6348,90 +6350,90 @@
         <v>1</v>
       </c>
       <c r="F159" t="s">
+        <v>502</v>
+      </c>
+      <c r="G159" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>163</v>
+      </c>
+      <c r="B160" t="s">
+        <v>228</v>
+      </c>
+      <c r="C160" t="s">
+        <v>230</v>
+      </c>
+      <c r="D160" s="1">
+        <v>199</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160" t="s">
+        <v>503</v>
+      </c>
+      <c r="G160" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>164</v>
+      </c>
+      <c r="B161" t="s">
+        <v>228</v>
+      </c>
+      <c r="C161" t="s">
+        <v>231</v>
+      </c>
+      <c r="D161" s="1">
+        <v>199</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161" t="s">
         <v>504</v>
       </c>
-      <c r="G159" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>160</v>
-      </c>
-      <c r="B160" t="s">
-        <v>210</v>
-      </c>
-      <c r="C160" t="s">
-        <v>226</v>
-      </c>
-      <c r="D160" s="1">
-        <v>49.9</v>
-      </c>
-      <c r="E160">
-        <v>1</v>
-      </c>
-      <c r="F160" t="s">
+      <c r="G161" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>165</v>
+      </c>
+      <c r="B162" t="s">
+        <v>228</v>
+      </c>
+      <c r="C162" t="s">
+        <v>232</v>
+      </c>
+      <c r="D162" s="1">
+        <v>199</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162" t="s">
         <v>505</v>
-      </c>
-      <c r="G160" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161">
-        <v>161</v>
-      </c>
-      <c r="B161" t="s">
-        <v>210</v>
-      </c>
-      <c r="C161" t="s">
-        <v>228</v>
-      </c>
-      <c r="D161" s="1">
-        <v>49.9</v>
-      </c>
-      <c r="E161">
-        <v>1</v>
-      </c>
-      <c r="F161" t="s">
-        <v>506</v>
-      </c>
-      <c r="G161" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162">
-        <v>162</v>
-      </c>
-      <c r="B162" t="s">
-        <v>210</v>
-      </c>
-      <c r="C162" t="s">
-        <v>230</v>
-      </c>
-      <c r="D162" s="1">
-        <v>49.9</v>
-      </c>
-      <c r="E162">
-        <v>1</v>
-      </c>
-      <c r="F162" t="s">
-        <v>507</v>
       </c>
       <c r="G162" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C163" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D163" s="1">
         <v>199</v>
@@ -6440,1004 +6442,1004 @@
         <v>1</v>
       </c>
       <c r="F163" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G163" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C164" t="s">
         <v>234</v>
       </c>
       <c r="D164" s="1">
+        <v>249</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164" t="s">
+        <v>507</v>
+      </c>
+      <c r="G164" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>168</v>
+      </c>
+      <c r="B165" t="s">
+        <v>228</v>
+      </c>
+      <c r="C165" t="s">
+        <v>236</v>
+      </c>
+      <c r="D165" s="1">
+        <v>249</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165" t="s">
+        <v>508</v>
+      </c>
+      <c r="G165" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>169</v>
+      </c>
+      <c r="B166" t="s">
+        <v>228</v>
+      </c>
+      <c r="C166" t="s">
+        <v>238</v>
+      </c>
+      <c r="D166" s="1">
+        <v>249</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166" t="s">
+        <v>509</v>
+      </c>
+      <c r="G166" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>170</v>
+      </c>
+      <c r="B167" t="s">
+        <v>240</v>
+      </c>
+      <c r="C167" t="s">
+        <v>242</v>
+      </c>
+      <c r="D167" s="1">
+        <v>399</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167" t="s">
+        <v>510</v>
+      </c>
+      <c r="G167" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>171</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D168" s="4">
+        <v>399</v>
+      </c>
+      <c r="E168" s="3">
+        <v>1</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>172</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D169" s="4">
+        <v>399</v>
+      </c>
+      <c r="E169" s="3">
+        <v>1</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>173</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D170" s="4">
+        <v>399</v>
+      </c>
+      <c r="E170" s="3">
+        <v>1</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>174</v>
+      </c>
+      <c r="B171" t="s">
+        <v>240</v>
+      </c>
+      <c r="C171" t="s">
+        <v>249</v>
+      </c>
+      <c r="D171" s="1">
+        <v>499</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171" t="s">
+        <v>514</v>
+      </c>
+      <c r="G171" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>175</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D172" s="4">
+        <v>499</v>
+      </c>
+      <c r="E172" s="3">
+        <v>1</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>176</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D173" s="4">
+        <v>799</v>
+      </c>
+      <c r="E173" s="3">
+        <v>1</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>178</v>
+      </c>
+      <c r="B175" t="s">
+        <v>240</v>
+      </c>
+      <c r="C175" t="s">
+        <v>248</v>
+      </c>
+      <c r="D175" s="1">
+        <v>999</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175" t="s">
+        <v>518</v>
+      </c>
+      <c r="G175" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>179</v>
+      </c>
+      <c r="B176" t="s">
+        <v>591</v>
+      </c>
+      <c r="C176" t="s">
+        <v>354</v>
+      </c>
+      <c r="D176" s="1">
+        <v>499</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176" t="s">
+        <v>429</v>
+      </c>
+      <c r="G176" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>180</v>
+      </c>
+      <c r="B177" t="s">
+        <v>592</v>
+      </c>
+      <c r="C177" t="s">
+        <v>261</v>
+      </c>
+      <c r="D177" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177" t="s">
+        <v>519</v>
+      </c>
+      <c r="G177" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>181</v>
+      </c>
+      <c r="B178" t="s">
+        <v>592</v>
+      </c>
+      <c r="C178" t="s">
+        <v>256</v>
+      </c>
+      <c r="D178" s="1">
+        <v>59</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178" t="s">
+        <v>520</v>
+      </c>
+      <c r="G178" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>182</v>
+      </c>
+      <c r="B179" t="s">
+        <v>592</v>
+      </c>
+      <c r="C179" t="s">
+        <v>265</v>
+      </c>
+      <c r="D179" s="1">
+        <v>69</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179" t="s">
+        <v>521</v>
+      </c>
+      <c r="G179" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>183</v>
+      </c>
+      <c r="B180" t="s">
+        <v>592</v>
+      </c>
+      <c r="C180" t="s">
+        <v>254</v>
+      </c>
+      <c r="D180" s="1">
+        <v>99</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180" t="s">
+        <v>522</v>
+      </c>
+      <c r="G180" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>184</v>
+      </c>
+      <c r="B181" t="s">
+        <v>592</v>
+      </c>
+      <c r="C181" t="s">
+        <v>264</v>
+      </c>
+      <c r="D181" s="1">
+        <v>229</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181" t="s">
+        <v>523</v>
+      </c>
+      <c r="G181" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>185</v>
+      </c>
+      <c r="B182" t="s">
+        <v>592</v>
+      </c>
+      <c r="C182" t="s">
+        <v>263</v>
+      </c>
+      <c r="D182" s="1">
+        <v>269</v>
+      </c>
+      <c r="E182" s="6">
+        <v>0</v>
+      </c>
+      <c r="F182" t="s">
+        <v>524</v>
+      </c>
+      <c r="G182" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>186</v>
+      </c>
+      <c r="B183" t="s">
+        <v>592</v>
+      </c>
+      <c r="C183" t="s">
+        <v>263</v>
+      </c>
+      <c r="D183" s="1">
+        <v>269</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183" t="s">
+        <v>525</v>
+      </c>
+      <c r="G183" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>187</v>
+      </c>
+      <c r="B184" t="s">
+        <v>592</v>
+      </c>
+      <c r="C184" t="s">
+        <v>255</v>
+      </c>
+      <c r="D184" s="1">
+        <v>399</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184" t="s">
+        <v>526</v>
+      </c>
+      <c r="G184" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>188</v>
+      </c>
+      <c r="B185" t="s">
+        <v>592</v>
+      </c>
+      <c r="C185" t="s">
+        <v>259</v>
+      </c>
+      <c r="D185" s="1">
+        <v>799</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185" t="s">
+        <v>527</v>
+      </c>
+      <c r="G185" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>189</v>
+      </c>
+      <c r="B186" t="s">
+        <v>592</v>
+      </c>
+      <c r="C186" t="s">
+        <v>258</v>
+      </c>
+      <c r="D186" s="1">
+        <v>999</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186" t="s">
+        <v>528</v>
+      </c>
+      <c r="G186" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>190</v>
+      </c>
+      <c r="B187" t="s">
+        <v>592</v>
+      </c>
+      <c r="C187" t="s">
+        <v>253</v>
+      </c>
+      <c r="D187" s="1">
+        <v>1299</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187" t="s">
+        <v>529</v>
+      </c>
+      <c r="G187" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>191</v>
+      </c>
+      <c r="B188" t="s">
+        <v>592</v>
+      </c>
+      <c r="C188" t="s">
+        <v>260</v>
+      </c>
+      <c r="D188" s="1">
+        <v>1399</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188" t="s">
+        <v>530</v>
+      </c>
+      <c r="G188" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>192</v>
+      </c>
+      <c r="B189" t="s">
+        <v>593</v>
+      </c>
+      <c r="C189" t="s">
+        <v>274</v>
+      </c>
+      <c r="D189" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189" t="s">
+        <v>531</v>
+      </c>
+      <c r="G189" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>193</v>
+      </c>
+      <c r="B190" t="s">
+        <v>593</v>
+      </c>
+      <c r="C190" t="s">
+        <v>272</v>
+      </c>
+      <c r="D190" s="1">
+        <v>59</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190" t="s">
+        <v>532</v>
+      </c>
+      <c r="G190" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>194</v>
+      </c>
+      <c r="B191" t="s">
+        <v>593</v>
+      </c>
+      <c r="C191" t="s">
+        <v>273</v>
+      </c>
+      <c r="D191" s="1">
+        <v>69</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191" t="s">
+        <v>533</v>
+      </c>
+      <c r="G191" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>195</v>
+      </c>
+      <c r="B192" t="s">
+        <v>593</v>
+      </c>
+      <c r="C192" t="s">
+        <v>269</v>
+      </c>
+      <c r="D192" s="1">
+        <v>179</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192" t="s">
+        <v>534</v>
+      </c>
+      <c r="G192" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>196</v>
+      </c>
+      <c r="B193" t="s">
+        <v>593</v>
+      </c>
+      <c r="C193" t="s">
+        <v>276</v>
+      </c>
+      <c r="D193" s="1">
+        <v>229</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193" t="s">
+        <v>535</v>
+      </c>
+      <c r="G193" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>197</v>
+      </c>
+      <c r="B194" t="s">
+        <v>593</v>
+      </c>
+      <c r="C194" t="s">
+        <v>277</v>
+      </c>
+      <c r="D194" s="1">
+        <v>269</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194" t="s">
+        <v>536</v>
+      </c>
+      <c r="G194" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>198</v>
+      </c>
+      <c r="B195" t="s">
+        <v>593</v>
+      </c>
+      <c r="C195" t="s">
+        <v>271</v>
+      </c>
+      <c r="D195" s="1">
+        <v>269</v>
+      </c>
+      <c r="E195" s="6">
+        <v>0</v>
+      </c>
+      <c r="F195" t="s">
+        <v>537</v>
+      </c>
+      <c r="G195" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196">
         <v>199</v>
       </c>
-      <c r="E164">
-        <v>1</v>
-      </c>
-      <c r="F164" t="s">
-        <v>509</v>
-      </c>
-      <c r="G164" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <v>165</v>
-      </c>
-      <c r="B165" t="s">
-        <v>231</v>
-      </c>
-      <c r="C165" t="s">
-        <v>235</v>
-      </c>
-      <c r="D165" s="1">
-        <v>199</v>
-      </c>
-      <c r="E165">
-        <v>1</v>
-      </c>
-      <c r="F165" t="s">
-        <v>510</v>
-      </c>
-      <c r="G165" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166">
-        <v>166</v>
-      </c>
-      <c r="B166" t="s">
-        <v>231</v>
-      </c>
-      <c r="C166" t="s">
-        <v>242</v>
-      </c>
-      <c r="D166" s="1">
-        <v>199</v>
-      </c>
-      <c r="E166">
-        <v>1</v>
-      </c>
-      <c r="F166" t="s">
-        <v>511</v>
-      </c>
-      <c r="G166" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167">
-        <v>167</v>
-      </c>
-      <c r="B167" t="s">
-        <v>231</v>
-      </c>
-      <c r="C167" t="s">
-        <v>237</v>
-      </c>
-      <c r="D167" s="1">
-        <v>249</v>
-      </c>
-      <c r="E167">
-        <v>1</v>
-      </c>
-      <c r="F167" t="s">
-        <v>512</v>
-      </c>
-      <c r="G167" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168">
-        <v>168</v>
-      </c>
-      <c r="B168" t="s">
-        <v>231</v>
-      </c>
-      <c r="C168" t="s">
-        <v>239</v>
-      </c>
-      <c r="D168" s="1">
-        <v>249</v>
-      </c>
-      <c r="E168">
-        <v>1</v>
-      </c>
-      <c r="F168" t="s">
-        <v>513</v>
-      </c>
-      <c r="G168" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169">
-        <v>169</v>
-      </c>
-      <c r="B169" t="s">
-        <v>231</v>
-      </c>
-      <c r="C169" t="s">
-        <v>241</v>
-      </c>
-      <c r="D169" s="1">
-        <v>249</v>
-      </c>
-      <c r="E169">
-        <v>1</v>
-      </c>
-      <c r="F169" t="s">
-        <v>514</v>
-      </c>
-      <c r="G169" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170">
-        <v>170</v>
-      </c>
-      <c r="B170" t="s">
-        <v>243</v>
-      </c>
-      <c r="C170" t="s">
-        <v>245</v>
-      </c>
-      <c r="D170" s="1">
+      <c r="B196" t="s">
+        <v>593</v>
+      </c>
+      <c r="C196" t="s">
+        <v>267</v>
+      </c>
+      <c r="D196" s="1">
         <v>399</v>
       </c>
-      <c r="E170">
-        <v>1</v>
-      </c>
-      <c r="F170" t="s">
-        <v>515</v>
-      </c>
-      <c r="G170" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171">
-        <v>171</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D171" s="4">
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196" t="s">
+        <v>538</v>
+      </c>
+      <c r="G196" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>200</v>
+      </c>
+      <c r="B197" t="s">
+        <v>593</v>
+      </c>
+      <c r="C197" t="s">
+        <v>275</v>
+      </c>
+      <c r="D197" s="1">
         <v>399</v>
       </c>
-      <c r="E171" s="3">
-        <v>1</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172">
-        <v>172</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D172" s="4">
-        <v>399</v>
-      </c>
-      <c r="E172" s="3">
-        <v>1</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="G172" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173">
-        <v>173</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="D173" s="4">
-        <v>399</v>
-      </c>
-      <c r="E173" s="3">
-        <v>1</v>
-      </c>
-      <c r="F173" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174">
-        <v>174</v>
-      </c>
-      <c r="B174" t="s">
-        <v>243</v>
-      </c>
-      <c r="C174" t="s">
-        <v>252</v>
-      </c>
-      <c r="D174" s="1">
-        <v>499</v>
-      </c>
-      <c r="E174">
-        <v>1</v>
-      </c>
-      <c r="F174" t="s">
-        <v>519</v>
-      </c>
-      <c r="G174" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175">
-        <v>175</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D175" s="4">
-        <v>499</v>
-      </c>
-      <c r="E175" s="3">
-        <v>1</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="G175" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176">
-        <v>176</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D176" s="4">
-        <v>799</v>
-      </c>
-      <c r="E176" s="3">
-        <v>1</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178">
-        <v>178</v>
-      </c>
-      <c r="B178" t="s">
-        <v>243</v>
-      </c>
-      <c r="C178" t="s">
-        <v>251</v>
-      </c>
-      <c r="D178" s="1">
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197" t="s">
+        <v>539</v>
+      </c>
+      <c r="G197" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>201</v>
+      </c>
+      <c r="B198" t="s">
+        <v>593</v>
+      </c>
+      <c r="C198" t="s">
+        <v>279</v>
+      </c>
+      <c r="D198" s="1">
+        <v>599</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198" t="s">
+        <v>540</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>202</v>
+      </c>
+      <c r="B199" t="s">
+        <v>593</v>
+      </c>
+      <c r="C199" t="s">
+        <v>281</v>
+      </c>
+      <c r="D199" s="1">
         <v>999</v>
       </c>
-      <c r="E178">
-        <v>1</v>
-      </c>
-      <c r="F178" t="s">
-        <v>523</v>
-      </c>
-      <c r="G178" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <v>179</v>
-      </c>
-      <c r="B179" t="s">
-        <v>596</v>
-      </c>
-      <c r="C179" t="s">
-        <v>357</v>
-      </c>
-      <c r="D179" s="1">
-        <v>499</v>
-      </c>
-      <c r="E179">
-        <v>1</v>
-      </c>
-      <c r="F179" t="s">
-        <v>433</v>
-      </c>
-      <c r="G179" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180">
-        <v>180</v>
-      </c>
-      <c r="B180" t="s">
-        <v>597</v>
-      </c>
-      <c r="C180" t="s">
-        <v>264</v>
-      </c>
-      <c r="D180" s="1">
-        <v>19.5</v>
-      </c>
-      <c r="E180">
-        <v>1</v>
-      </c>
-      <c r="F180" t="s">
-        <v>524</v>
-      </c>
-      <c r="G180" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181">
-        <v>181</v>
-      </c>
-      <c r="B181" t="s">
-        <v>597</v>
-      </c>
-      <c r="C181" t="s">
-        <v>259</v>
-      </c>
-      <c r="D181" s="1">
-        <v>59</v>
-      </c>
-      <c r="E181">
-        <v>1</v>
-      </c>
-      <c r="F181" t="s">
-        <v>525</v>
-      </c>
-      <c r="G181" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182">
-        <v>182</v>
-      </c>
-      <c r="B182" t="s">
-        <v>597</v>
-      </c>
-      <c r="C182" t="s">
-        <v>268</v>
-      </c>
-      <c r="D182" s="1">
-        <v>69</v>
-      </c>
-      <c r="E182">
-        <v>1</v>
-      </c>
-      <c r="F182" t="s">
-        <v>526</v>
-      </c>
-      <c r="G182" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183">
-        <v>183</v>
-      </c>
-      <c r="B183" t="s">
-        <v>597</v>
-      </c>
-      <c r="C183" t="s">
-        <v>257</v>
-      </c>
-      <c r="D183" s="1">
-        <v>99</v>
-      </c>
-      <c r="E183">
-        <v>1</v>
-      </c>
-      <c r="F183" t="s">
-        <v>527</v>
-      </c>
-      <c r="G183" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184">
-        <v>184</v>
-      </c>
-      <c r="B184" t="s">
-        <v>597</v>
-      </c>
-      <c r="C184" t="s">
-        <v>267</v>
-      </c>
-      <c r="D184" s="1">
-        <v>229</v>
-      </c>
-      <c r="E184">
-        <v>1</v>
-      </c>
-      <c r="F184" t="s">
-        <v>528</v>
-      </c>
-      <c r="G184" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185">
-        <v>185</v>
-      </c>
-      <c r="B185" t="s">
-        <v>597</v>
-      </c>
-      <c r="C185" t="s">
-        <v>266</v>
-      </c>
-      <c r="D185" s="1">
-        <v>269</v>
-      </c>
-      <c r="E185" s="6">
-        <v>0</v>
-      </c>
-      <c r="F185" t="s">
-        <v>529</v>
-      </c>
-      <c r="G185" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186">
-        <v>186</v>
-      </c>
-      <c r="B186" t="s">
-        <v>597</v>
-      </c>
-      <c r="C186" t="s">
-        <v>266</v>
-      </c>
-      <c r="D186" s="1">
-        <v>269</v>
-      </c>
-      <c r="E186">
-        <v>1</v>
-      </c>
-      <c r="F186" t="s">
-        <v>530</v>
-      </c>
-      <c r="G186" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187">
-        <v>187</v>
-      </c>
-      <c r="B187" t="s">
-        <v>597</v>
-      </c>
-      <c r="C187" t="s">
-        <v>258</v>
-      </c>
-      <c r="D187" s="1">
-        <v>399</v>
-      </c>
-      <c r="E187">
-        <v>1</v>
-      </c>
-      <c r="F187" t="s">
-        <v>531</v>
-      </c>
-      <c r="G187" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188">
-        <v>188</v>
-      </c>
-      <c r="B188" t="s">
-        <v>597</v>
-      </c>
-      <c r="C188" t="s">
-        <v>262</v>
-      </c>
-      <c r="D188" s="1">
-        <v>799</v>
-      </c>
-      <c r="E188">
-        <v>1</v>
-      </c>
-      <c r="F188" t="s">
-        <v>532</v>
-      </c>
-      <c r="G188" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <v>189</v>
-      </c>
-      <c r="B189" t="s">
-        <v>597</v>
-      </c>
-      <c r="C189" t="s">
-        <v>261</v>
-      </c>
-      <c r="D189" s="1">
-        <v>999</v>
-      </c>
-      <c r="E189">
-        <v>1</v>
-      </c>
-      <c r="F189" t="s">
-        <v>533</v>
-      </c>
-      <c r="G189" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <v>190</v>
-      </c>
-      <c r="B190" t="s">
-        <v>597</v>
-      </c>
-      <c r="C190" t="s">
-        <v>256</v>
-      </c>
-      <c r="D190" s="1">
-        <v>1299</v>
-      </c>
-      <c r="E190">
-        <v>1</v>
-      </c>
-      <c r="F190" t="s">
-        <v>534</v>
-      </c>
-      <c r="G190" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191">
-        <v>191</v>
-      </c>
-      <c r="B191" t="s">
-        <v>597</v>
-      </c>
-      <c r="C191" t="s">
-        <v>263</v>
-      </c>
-      <c r="D191" s="1">
-        <v>1399</v>
-      </c>
-      <c r="E191">
-        <v>1</v>
-      </c>
-      <c r="F191" t="s">
-        <v>535</v>
-      </c>
-      <c r="G191" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192">
-        <v>192</v>
-      </c>
-      <c r="B192" t="s">
-        <v>598</v>
-      </c>
-      <c r="C192" t="s">
-        <v>277</v>
-      </c>
-      <c r="D192" s="1">
-        <v>19.5</v>
-      </c>
-      <c r="E192">
-        <v>1</v>
-      </c>
-      <c r="F192" t="s">
-        <v>536</v>
-      </c>
-      <c r="G192" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A193">
-        <v>193</v>
-      </c>
-      <c r="B193" t="s">
-        <v>598</v>
-      </c>
-      <c r="C193" t="s">
-        <v>275</v>
-      </c>
-      <c r="D193" s="1">
-        <v>59</v>
-      </c>
-      <c r="E193">
-        <v>1</v>
-      </c>
-      <c r="F193" t="s">
-        <v>537</v>
-      </c>
-      <c r="G193" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194">
-        <v>194</v>
-      </c>
-      <c r="B194" t="s">
-        <v>598</v>
-      </c>
-      <c r="C194" t="s">
-        <v>276</v>
-      </c>
-      <c r="D194" s="1">
-        <v>69</v>
-      </c>
-      <c r="E194">
-        <v>1</v>
-      </c>
-      <c r="F194" t="s">
-        <v>538</v>
-      </c>
-      <c r="G194" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195">
-        <v>195</v>
-      </c>
-      <c r="B195" t="s">
-        <v>598</v>
-      </c>
-      <c r="C195" t="s">
-        <v>272</v>
-      </c>
-      <c r="D195" s="1">
-        <v>179</v>
-      </c>
-      <c r="E195">
-        <v>1</v>
-      </c>
-      <c r="F195" t="s">
-        <v>539</v>
-      </c>
-      <c r="G195" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196">
-        <v>196</v>
-      </c>
-      <c r="B196" t="s">
-        <v>598</v>
-      </c>
-      <c r="C196" t="s">
-        <v>279</v>
-      </c>
-      <c r="D196" s="1">
-        <v>229</v>
-      </c>
-      <c r="E196">
-        <v>1</v>
-      </c>
-      <c r="F196" t="s">
-        <v>540</v>
-      </c>
-      <c r="G196" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197">
-        <v>197</v>
-      </c>
-      <c r="B197" t="s">
-        <v>598</v>
-      </c>
-      <c r="C197" t="s">
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199" t="s">
+        <v>541</v>
+      </c>
+      <c r="G199" t="s">
         <v>280</v>
       </c>
-      <c r="D197" s="1">
-        <v>269</v>
-      </c>
-      <c r="E197">
-        <v>1</v>
-      </c>
-      <c r="F197" t="s">
-        <v>541</v>
-      </c>
-      <c r="G197" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A198">
-        <v>198</v>
-      </c>
-      <c r="B198" t="s">
-        <v>598</v>
-      </c>
-      <c r="C198" t="s">
-        <v>274</v>
-      </c>
-      <c r="D198" s="1">
-        <v>269</v>
-      </c>
-      <c r="E198" s="6">
-        <v>0</v>
-      </c>
-      <c r="F198" t="s">
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>203</v>
+      </c>
+      <c r="B200" t="s">
+        <v>283</v>
+      </c>
+      <c r="C200" t="s">
+        <v>287</v>
+      </c>
+      <c r="D200" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200" t="s">
         <v>542</v>
       </c>
-      <c r="G198" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199">
-        <v>199</v>
-      </c>
-      <c r="B199" t="s">
-        <v>598</v>
-      </c>
-      <c r="C199" t="s">
-        <v>270</v>
-      </c>
-      <c r="D199" s="1">
-        <v>399</v>
-      </c>
-      <c r="E199">
-        <v>1</v>
-      </c>
-      <c r="F199" t="s">
+      <c r="G200" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>204</v>
+      </c>
+      <c r="B201" t="s">
+        <v>283</v>
+      </c>
+      <c r="C201" t="s">
+        <v>289</v>
+      </c>
+      <c r="D201" s="1">
+        <v>7.15</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201" t="s">
+        <v>542</v>
+      </c>
+      <c r="G201" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>205</v>
+      </c>
+      <c r="B202" t="s">
+        <v>283</v>
+      </c>
+      <c r="C202" t="s">
+        <v>292</v>
+      </c>
+      <c r="D202" s="1">
+        <v>12.95</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202" t="s">
         <v>543</v>
       </c>
-      <c r="G199" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A200">
-        <v>200</v>
-      </c>
-      <c r="B200" t="s">
-        <v>598</v>
-      </c>
-      <c r="C200" t="s">
-        <v>278</v>
-      </c>
-      <c r="D200" s="1">
-        <v>399</v>
-      </c>
-      <c r="E200">
-        <v>1</v>
-      </c>
-      <c r="F200" t="s">
+      <c r="G202" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>206</v>
+      </c>
+      <c r="B203" t="s">
+        <v>283</v>
+      </c>
+      <c r="C203" t="s">
+        <v>285</v>
+      </c>
+      <c r="D203" s="1">
+        <v>16.25</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203" t="s">
+        <v>542</v>
+      </c>
+      <c r="G203" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>207</v>
+      </c>
+      <c r="B204" t="s">
+        <v>283</v>
+      </c>
+      <c r="C204" t="s">
+        <v>290</v>
+      </c>
+      <c r="D204" s="1">
+        <v>25</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204" t="s">
         <v>544</v>
       </c>
-      <c r="G200" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201">
-        <v>201</v>
-      </c>
-      <c r="B201" t="s">
-        <v>598</v>
-      </c>
-      <c r="C201" t="s">
-        <v>282</v>
-      </c>
-      <c r="D201" s="1">
-        <v>599</v>
-      </c>
-      <c r="E201">
-        <v>1</v>
-      </c>
-      <c r="F201" t="s">
-        <v>545</v>
-      </c>
-      <c r="G201" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A202">
-        <v>202</v>
-      </c>
-      <c r="B202" t="s">
-        <v>598</v>
-      </c>
-      <c r="C202" t="s">
-        <v>284</v>
-      </c>
-      <c r="D202" s="1">
-        <v>999</v>
-      </c>
-      <c r="E202">
-        <v>1</v>
-      </c>
-      <c r="F202" t="s">
-        <v>546</v>
-      </c>
-      <c r="G202" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A203">
-        <v>203</v>
-      </c>
-      <c r="B203" t="s">
-        <v>286</v>
-      </c>
-      <c r="C203" t="s">
+      <c r="G204" t="s">
         <v>290</v>
       </c>
-      <c r="D203" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="E203">
-        <v>1</v>
-      </c>
-      <c r="F203" t="s">
-        <v>547</v>
-      </c>
-      <c r="G203" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A204">
-        <v>204</v>
-      </c>
-      <c r="B204" t="s">
-        <v>286</v>
-      </c>
-      <c r="C204" t="s">
-        <v>292</v>
-      </c>
-      <c r="D204" s="1">
-        <v>7.15</v>
-      </c>
-      <c r="E204">
-        <v>1</v>
-      </c>
-      <c r="F204" t="s">
-        <v>547</v>
-      </c>
-      <c r="G204" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C205" t="s">
         <v>295</v>
       </c>
       <c r="D205" s="1">
-        <v>12.95</v>
+        <v>100</v>
       </c>
       <c r="E205">
         <v>1</v>
       </c>
       <c r="F205" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G205" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C206" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="D206" s="1">
-        <v>16.25</v>
+        <v>3.9</v>
       </c>
       <c r="E206">
         <v>1</v>
       </c>
       <c r="F206" t="s">
+        <v>546</v>
+      </c>
+      <c r="G206" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>210</v>
+      </c>
+      <c r="B207" t="s">
+        <v>296</v>
+      </c>
+      <c r="C207" t="s">
+        <v>299</v>
+      </c>
+      <c r="D207" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207" t="s">
         <v>547</v>
       </c>
-      <c r="G206" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A207">
-        <v>207</v>
-      </c>
-      <c r="B207" t="s">
-        <v>286</v>
-      </c>
-      <c r="C207" t="s">
-        <v>293</v>
-      </c>
-      <c r="D207" s="1">
-        <v>25</v>
-      </c>
-      <c r="E207">
-        <v>1</v>
-      </c>
-      <c r="F207" t="s">
-        <v>549</v>
-      </c>
       <c r="G207" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B208" t="s">
         <v>296</v>
@@ -7446,300 +7448,300 @@
         <v>298</v>
       </c>
       <c r="D208" s="1">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="E208">
         <v>1</v>
       </c>
       <c r="F208" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G208" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B209" t="s">
+        <v>296</v>
+      </c>
+      <c r="C209" t="s">
+        <v>302</v>
+      </c>
+      <c r="D209" s="1">
+        <v>39.9</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="F209" t="s">
+        <v>549</v>
+      </c>
+      <c r="G209" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>213</v>
+      </c>
+      <c r="B210" t="s">
+        <v>581</v>
+      </c>
+      <c r="C210" t="s">
+        <v>305</v>
+      </c>
+      <c r="D210" s="1">
+        <v>7</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210" t="s">
+        <v>550</v>
+      </c>
+      <c r="G210" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>214</v>
+      </c>
+      <c r="B211" t="s">
+        <v>581</v>
+      </c>
+      <c r="C211" t="s">
+        <v>304</v>
+      </c>
+      <c r="D211" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211" t="s">
+        <v>551</v>
+      </c>
+      <c r="G211" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>215</v>
+      </c>
+      <c r="B212" t="s">
+        <v>581</v>
+      </c>
+      <c r="C212" t="s">
+        <v>306</v>
+      </c>
+      <c r="D212" s="1">
+        <v>34.5</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212" t="s">
+        <v>552</v>
+      </c>
+      <c r="G212" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>216</v>
+      </c>
+      <c r="B213" t="s">
+        <v>581</v>
+      </c>
+      <c r="C213" t="s">
+        <v>303</v>
+      </c>
+      <c r="D213" s="1">
+        <v>99</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213" t="s">
+        <v>553</v>
+      </c>
+      <c r="G213" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>217</v>
+      </c>
+      <c r="B214" t="s">
+        <v>307</v>
+      </c>
+      <c r="C214" t="s">
+        <v>345</v>
+      </c>
+      <c r="D214" s="1">
+        <v>39</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214" t="s">
+        <v>554</v>
+      </c>
+      <c r="G214" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>218</v>
+      </c>
+      <c r="B215" t="s">
+        <v>307</v>
+      </c>
+      <c r="C215" t="s">
+        <v>308</v>
+      </c>
+      <c r="D215" s="1">
+        <v>45</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215" t="s">
+        <v>555</v>
+      </c>
+      <c r="G215" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>219</v>
+      </c>
+      <c r="B216" t="s">
+        <v>307</v>
+      </c>
+      <c r="C216" t="s">
+        <v>310</v>
+      </c>
+      <c r="D216" s="1">
+        <v>100</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216" t="s">
+        <v>556</v>
+      </c>
+      <c r="G216" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>220</v>
+      </c>
+      <c r="B217" t="s">
+        <v>307</v>
+      </c>
+      <c r="C217" t="s">
+        <v>312</v>
+      </c>
+      <c r="D217" s="1">
         <v>299</v>
       </c>
-      <c r="C209" t="s">
-        <v>303</v>
-      </c>
-      <c r="D209" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="E209">
-        <v>1</v>
-      </c>
-      <c r="F209" t="s">
-        <v>551</v>
-      </c>
-      <c r="G209" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A210">
-        <v>210</v>
-      </c>
-      <c r="B210" t="s">
-        <v>299</v>
-      </c>
-      <c r="C210" t="s">
-        <v>302</v>
-      </c>
-      <c r="D210" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="E210">
-        <v>1</v>
-      </c>
-      <c r="F210" t="s">
-        <v>552</v>
-      </c>
-      <c r="G210" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A211">
-        <v>211</v>
-      </c>
-      <c r="B211" t="s">
-        <v>299</v>
-      </c>
-      <c r="C211" t="s">
-        <v>301</v>
-      </c>
-      <c r="D211" s="1">
-        <v>29</v>
-      </c>
-      <c r="E211">
-        <v>1</v>
-      </c>
-      <c r="F211" t="s">
-        <v>553</v>
-      </c>
-      <c r="G211" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A212">
-        <v>212</v>
-      </c>
-      <c r="B212" t="s">
-        <v>299</v>
-      </c>
-      <c r="C212" t="s">
-        <v>305</v>
-      </c>
-      <c r="D212" s="1">
-        <v>39.9</v>
-      </c>
-      <c r="E212">
-        <v>1</v>
-      </c>
-      <c r="F212" t="s">
-        <v>554</v>
-      </c>
-      <c r="G212" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A213">
-        <v>213</v>
-      </c>
-      <c r="B213" t="s">
-        <v>586</v>
-      </c>
-      <c r="C213" t="s">
-        <v>308</v>
-      </c>
-      <c r="D213" s="1">
-        <v>7</v>
-      </c>
-      <c r="E213">
-        <v>1</v>
-      </c>
-      <c r="F213" t="s">
-        <v>555</v>
-      </c>
-      <c r="G213" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A214">
-        <v>214</v>
-      </c>
-      <c r="B214" t="s">
-        <v>586</v>
-      </c>
-      <c r="C214" t="s">
-        <v>307</v>
-      </c>
-      <c r="D214" s="1">
-        <v>12.9</v>
-      </c>
-      <c r="E214">
-        <v>1</v>
-      </c>
-      <c r="F214" t="s">
-        <v>556</v>
-      </c>
-      <c r="G214" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A215">
-        <v>215</v>
-      </c>
-      <c r="B215" t="s">
-        <v>586</v>
-      </c>
-      <c r="C215" t="s">
-        <v>309</v>
-      </c>
-      <c r="D215" s="1">
-        <v>34.5</v>
-      </c>
-      <c r="E215">
-        <v>1</v>
-      </c>
-      <c r="F215" t="s">
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217" t="s">
         <v>557</v>
       </c>
-      <c r="G215" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A216">
-        <v>216</v>
-      </c>
-      <c r="B216" t="s">
-        <v>586</v>
-      </c>
-      <c r="C216" t="s">
-        <v>306</v>
-      </c>
-      <c r="D216" s="1">
-        <v>99</v>
-      </c>
-      <c r="E216">
-        <v>1</v>
-      </c>
-      <c r="F216" t="s">
+      <c r="G217" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>221</v>
+      </c>
+      <c r="B218" t="s">
+        <v>313</v>
+      </c>
+      <c r="C218" t="s">
+        <v>314</v>
+      </c>
+      <c r="D218" s="1">
+        <v>25</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218" t="s">
         <v>558</v>
       </c>
-      <c r="G216" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A217">
-        <v>217</v>
-      </c>
-      <c r="B217" t="s">
-        <v>310</v>
-      </c>
-      <c r="C217" t="s">
-        <v>348</v>
-      </c>
-      <c r="D217" s="1">
-        <v>39</v>
-      </c>
-      <c r="E217">
-        <v>1</v>
-      </c>
-      <c r="F217" t="s">
+      <c r="G218" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>222</v>
+      </c>
+      <c r="B219" t="s">
+        <v>313</v>
+      </c>
+      <c r="C219" t="s">
+        <v>315</v>
+      </c>
+      <c r="D219" s="1">
+        <v>25</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219" t="s">
         <v>559</v>
       </c>
-      <c r="G217" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A218">
-        <v>218</v>
-      </c>
-      <c r="B218" t="s">
-        <v>310</v>
-      </c>
-      <c r="C218" t="s">
-        <v>311</v>
-      </c>
-      <c r="D218" s="1">
-        <v>45</v>
-      </c>
-      <c r="E218">
-        <v>1</v>
-      </c>
-      <c r="F218" t="s">
+      <c r="G219" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>223</v>
+      </c>
+      <c r="B220" t="s">
+        <v>313</v>
+      </c>
+      <c r="C220" t="s">
+        <v>316</v>
+      </c>
+      <c r="D220" s="1">
+        <v>25</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220" t="s">
         <v>560</v>
       </c>
-      <c r="G218" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A219">
-        <v>219</v>
-      </c>
-      <c r="B219" t="s">
-        <v>310</v>
-      </c>
-      <c r="C219" t="s">
+      <c r="G220" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>224</v>
+      </c>
+      <c r="B221" t="s">
         <v>313</v>
-      </c>
-      <c r="D219" s="1">
-        <v>100</v>
-      </c>
-      <c r="E219">
-        <v>1</v>
-      </c>
-      <c r="F219" t="s">
-        <v>561</v>
-      </c>
-      <c r="G219" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A220">
-        <v>220</v>
-      </c>
-      <c r="B220" t="s">
-        <v>310</v>
-      </c>
-      <c r="C220" t="s">
-        <v>315</v>
-      </c>
-      <c r="D220" s="1">
-        <v>299</v>
-      </c>
-      <c r="E220">
-        <v>1</v>
-      </c>
-      <c r="F220" t="s">
-        <v>562</v>
-      </c>
-      <c r="G220" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A221">
-        <v>221</v>
-      </c>
-      <c r="B221" t="s">
-        <v>316</v>
       </c>
       <c r="C221" t="s">
         <v>317</v>
@@ -7751,18 +7753,18 @@
         <v>1</v>
       </c>
       <c r="F221" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G221" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C222" t="s">
         <v>318</v>
@@ -7774,87 +7776,87 @@
         <v>1</v>
       </c>
       <c r="F222" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G222" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C223" t="s">
+        <v>321</v>
+      </c>
+      <c r="D223" s="1">
+        <v>19</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223" t="s">
+        <v>563</v>
+      </c>
+      <c r="G223" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>227</v>
+      </c>
+      <c r="B224" t="s">
         <v>319</v>
       </c>
-      <c r="D223" s="1">
-        <v>25</v>
-      </c>
-      <c r="E223">
-        <v>1</v>
-      </c>
-      <c r="F223" t="s">
-        <v>565</v>
-      </c>
-      <c r="G223" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A224">
-        <v>224</v>
-      </c>
-      <c r="B224" t="s">
-        <v>316</v>
-      </c>
       <c r="C224" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D224" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E224">
         <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G224" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C225" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D225" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E225">
         <v>1</v>
       </c>
       <c r="F225" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G225" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C226" t="s">
         <v>324</v>
@@ -7866,136 +7868,136 @@
         <v>1</v>
       </c>
       <c r="F226" t="s">
+        <v>563</v>
+      </c>
+      <c r="G226" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>230</v>
+      </c>
+      <c r="B227" t="s">
+        <v>319</v>
+      </c>
+      <c r="C227" t="s">
+        <v>326</v>
+      </c>
+      <c r="D227" s="1">
+        <v>6</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227" t="s">
+        <v>564</v>
+      </c>
+      <c r="G227" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>231</v>
+      </c>
+      <c r="B228" t="s">
+        <v>319</v>
+      </c>
+      <c r="C228" t="s">
+        <v>327</v>
+      </c>
+      <c r="D228" s="1">
+        <v>6</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228" t="s">
+        <v>565</v>
+      </c>
+      <c r="G228" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>232</v>
+      </c>
+      <c r="B229" t="s">
+        <v>328</v>
+      </c>
+      <c r="C229" t="s">
+        <v>330</v>
+      </c>
+      <c r="D229" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229" t="s">
+        <v>566</v>
+      </c>
+      <c r="G229" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>233</v>
+      </c>
+      <c r="B230" t="s">
+        <v>328</v>
+      </c>
+      <c r="C230" t="s">
+        <v>331</v>
+      </c>
+      <c r="D230" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230" t="s">
+        <v>567</v>
+      </c>
+      <c r="G230" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>234</v>
+      </c>
+      <c r="B231" t="s">
+        <v>328</v>
+      </c>
+      <c r="C231" t="s">
+        <v>333</v>
+      </c>
+      <c r="D231" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231" t="s">
         <v>568</v>
       </c>
-      <c r="G226" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A227">
-        <v>227</v>
-      </c>
-      <c r="B227" t="s">
-        <v>322</v>
-      </c>
-      <c r="C227" t="s">
-        <v>325</v>
-      </c>
-      <c r="D227" s="1">
-        <v>19</v>
-      </c>
-      <c r="E227">
-        <v>1</v>
-      </c>
-      <c r="F227" t="s">
-        <v>568</v>
-      </c>
-      <c r="G227" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A228">
-        <v>228</v>
-      </c>
-      <c r="B228" t="s">
-        <v>322</v>
-      </c>
-      <c r="C228" t="s">
-        <v>326</v>
-      </c>
-      <c r="D228" s="1">
-        <v>19</v>
-      </c>
-      <c r="E228">
-        <v>1</v>
-      </c>
-      <c r="F228" t="s">
-        <v>568</v>
-      </c>
-      <c r="G228" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A229">
-        <v>229</v>
-      </c>
-      <c r="B229" t="s">
-        <v>322</v>
-      </c>
-      <c r="C229" t="s">
-        <v>327</v>
-      </c>
-      <c r="D229" s="1">
-        <v>19</v>
-      </c>
-      <c r="E229">
-        <v>1</v>
-      </c>
-      <c r="F229" t="s">
-        <v>568</v>
-      </c>
-      <c r="G229" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A230">
-        <v>230</v>
-      </c>
-      <c r="B230" t="s">
-        <v>322</v>
-      </c>
-      <c r="C230" t="s">
-        <v>329</v>
-      </c>
-      <c r="D230" s="1">
-        <v>6</v>
-      </c>
-      <c r="E230">
-        <v>1</v>
-      </c>
-      <c r="F230" t="s">
-        <v>569</v>
-      </c>
-      <c r="G230" t="s">
+      <c r="G231" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>235</v>
+      </c>
+      <c r="B232" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A231">
-        <v>231</v>
-      </c>
-      <c r="B231" t="s">
-        <v>322</v>
-      </c>
-      <c r="C231" t="s">
-        <v>330</v>
-      </c>
-      <c r="D231" s="1">
-        <v>6</v>
-      </c>
-      <c r="E231">
-        <v>1</v>
-      </c>
-      <c r="F231" t="s">
-        <v>570</v>
-      </c>
-      <c r="G231" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A232">
-        <v>232</v>
-      </c>
-      <c r="B232" t="s">
-        <v>331</v>
-      </c>
       <c r="C232" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D232" s="1">
         <v>9.9</v>
@@ -8004,200 +8006,133 @@
         <v>1</v>
       </c>
       <c r="F232" t="s">
+        <v>569</v>
+      </c>
+      <c r="G232" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>236</v>
+      </c>
+      <c r="B233" t="s">
+        <v>328</v>
+      </c>
+      <c r="C233" t="s">
+        <v>336</v>
+      </c>
+      <c r="D233" s="1">
+        <v>12</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233" t="s">
+        <v>570</v>
+      </c>
+      <c r="G233" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>237</v>
+      </c>
+      <c r="B234" t="s">
+        <v>328</v>
+      </c>
+      <c r="C234" t="s">
+        <v>338</v>
+      </c>
+      <c r="D234" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
+      </c>
+      <c r="F234" t="s">
         <v>571</v>
       </c>
-      <c r="G232" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A233">
-        <v>233</v>
-      </c>
-      <c r="B233" t="s">
-        <v>331</v>
-      </c>
-      <c r="C233" t="s">
-        <v>334</v>
-      </c>
-      <c r="D233" s="1">
-        <v>9.9</v>
-      </c>
-      <c r="E233">
-        <v>1</v>
-      </c>
-      <c r="F233" t="s">
+      <c r="G234" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>238</v>
+      </c>
+      <c r="B235" t="s">
+        <v>328</v>
+      </c>
+      <c r="C235" t="s">
+        <v>340</v>
+      </c>
+      <c r="D235" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235" t="s">
         <v>572</v>
       </c>
-      <c r="G233" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A234">
-        <v>234</v>
-      </c>
-      <c r="B234" t="s">
-        <v>331</v>
-      </c>
-      <c r="C234" t="s">
-        <v>336</v>
-      </c>
-      <c r="D234" s="1">
-        <v>9.9</v>
-      </c>
-      <c r="E234">
-        <v>1</v>
-      </c>
-      <c r="F234" t="s">
-        <v>573</v>
-      </c>
-      <c r="G234" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A235">
-        <v>235</v>
-      </c>
-      <c r="B235" t="s">
-        <v>331</v>
-      </c>
-      <c r="C235" t="s">
-        <v>337</v>
-      </c>
-      <c r="D235" s="1">
-        <v>9.9</v>
-      </c>
-      <c r="E235">
-        <v>1</v>
-      </c>
-      <c r="F235" t="s">
-        <v>574</v>
-      </c>
       <c r="G235" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="B236" t="s">
-        <v>331</v>
+        <v>594</v>
       </c>
       <c r="C236" t="s">
-        <v>339</v>
+        <v>130</v>
       </c>
       <c r="D236" s="1">
-        <v>12</v>
+        <v>999</v>
       </c>
       <c r="E236">
         <v>1</v>
       </c>
       <c r="F236" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="G236" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A237">
-        <v>237</v>
-      </c>
-      <c r="B237" t="s">
-        <v>331</v>
-      </c>
-      <c r="C237" t="s">
-        <v>341</v>
-      </c>
-      <c r="D237" s="1">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E237">
-        <v>1</v>
-      </c>
-      <c r="F237" t="s">
-        <v>576</v>
-      </c>
-      <c r="G237" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A238">
-        <v>238</v>
-      </c>
-      <c r="B238" t="s">
-        <v>331</v>
-      </c>
-      <c r="C238" t="s">
-        <v>343</v>
-      </c>
-      <c r="D238" s="1">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E238">
-        <v>1</v>
-      </c>
-      <c r="F238" t="s">
-        <v>577</v>
-      </c>
-      <c r="G238" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A239">
-        <v>94</v>
-      </c>
-      <c r="B239" t="s">
-        <v>599</v>
-      </c>
-      <c r="C239" t="s">
-        <v>131</v>
-      </c>
-      <c r="D239" s="1">
-        <v>999</v>
-      </c>
-      <c r="E239">
-        <v>1</v>
-      </c>
-      <c r="F239" t="s">
-        <v>588</v>
-      </c>
-      <c r="G239" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A217:G220">
-    <sortCondition ref="D217:D220"/>
+  <sortState ref="A214:G217">
+    <sortCondition ref="D214:D217"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D1" s="1">
         <v>999</v>
@@ -8206,10 +8141,10 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2076" yWindow="684" windowWidth="23040" windowHeight="9636"/>
+    <workbookView xWindow="2076" yWindow="684" windowWidth="23040" windowHeight="9636" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="catalog_product_bearbeitet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="604">
   <si>
     <t>Name</t>
   </si>
@@ -1819,6 +1819,31 @@
   </si>
   <si>
     <t>Bodhisattvas - Manjusri</t>
+  </si>
+  <si>
+    <t>Aksobhya</t>
+  </si>
+  <si>
+    <t>TA250046.JPG, TA250047.JPG, TA250048.JPG</t>
+  </si>
+  <si>
+    <t>Die Thangka zeigt Aksobhya auf seinem Löwenthron. Größe : Innen:67x47 Außen:120x75</t>
+  </si>
+  <si>
+    <t>Ratnasambhava Silberstatue 5cm</t>
+  </si>
+  <si>
+    <t>BRat003.JPG</t>
+  </si>
+  <si>
+    <t>Der Silberanteil ist 90%.
+ Das Gewicht der Statue ist 80 Gramm, das bedeutet der Wert des Materials beträgt schon ca. 90 Euro( Preisbasis 100 g. Silber 120 Euro).Außerdem sollte berücksichtigt werden, dass die Verarbeitung von einer Silberstatue viel aufwendiger ist.</t>
+  </si>
+  <si>
+    <t>Die Fünf Buddhas ( Jinas ) in Silber</t>
+  </si>
+  <si>
+    <t>BTB024.JPG</t>
   </si>
 </sst>
 </file>
@@ -2323,7 +2348,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -2331,6 +2356,9 @@
     <xf numFmtId="8" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2686,10 +2714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G236"/>
+  <dimension ref="A1:G238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3826,107 +3854,107 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>50</v>
+        <v>241</v>
       </c>
       <c r="B50" t="s">
         <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>599</v>
       </c>
       <c r="D50" s="1">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>414</v>
-      </c>
-      <c r="G50" t="s">
-        <v>71</v>
+        <v>600</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D51" s="1">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G51" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>72</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D52" s="1">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G52" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>53</v>
-      </c>
-      <c r="B53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
         <v>72</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="4">
-        <v>399</v>
-      </c>
-      <c r="E53" s="3">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>341</v>
+      <c r="C53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="1">
+        <v>70</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>416</v>
+      </c>
+      <c r="G53" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>342</v>
+        <v>75</v>
       </c>
       <c r="D54" s="4">
         <v>399</v>
@@ -3935,90 +3963,90 @@
         <v>1</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>76</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C55" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" s="1">
-        <v>499</v>
-      </c>
-      <c r="E55" s="2">
-        <v>0</v>
-      </c>
-      <c r="F55" t="s">
-        <v>419</v>
-      </c>
-      <c r="G55" t="s">
-        <v>78</v>
+      <c r="C55" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D55" s="4">
+        <v>399</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D56" s="1">
-        <v>59</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
+        <v>499</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G56" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>80</v>
       </c>
       <c r="C57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D57" s="1">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>80</v>
       </c>
       <c r="C58" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D58" s="1">
         <v>189</v>
@@ -4027,461 +4055,461 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G58" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>80</v>
       </c>
       <c r="C59" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D59" s="1">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G59" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>80</v>
       </c>
       <c r="C60" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D60" s="1">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G60" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>80</v>
       </c>
       <c r="C61" t="s">
-        <v>343</v>
+        <v>88</v>
       </c>
       <c r="D61" s="1">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G61" t="s">
-        <v>344</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>80</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>343</v>
       </c>
       <c r="D62" s="1">
-        <v>399</v>
-      </c>
-      <c r="E62" s="2">
-        <v>0</v>
+        <v>299</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G62" t="s">
-        <v>86</v>
+        <v>344</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>80</v>
       </c>
       <c r="C63" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D63" s="1">
-        <v>449</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
+        <v>399</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G63" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>80</v>
       </c>
       <c r="C64" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D64" s="1">
-        <v>2499</v>
+        <v>449</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>66</v>
+        <v>240</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
+        <v>602</v>
       </c>
       <c r="D65" s="1">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>430</v>
-      </c>
-      <c r="G65" t="s">
-        <v>98</v>
+        <v>603</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D66" s="1">
-        <v>49</v>
+        <v>2499</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G66" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>93</v>
       </c>
       <c r="C67" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D67" s="1">
-        <v>59</v>
+        <v>19.5</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G67" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>93</v>
       </c>
       <c r="C68" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D68" s="1">
-        <v>200</v>
+        <v>49</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G68" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>361</v>
+        <v>93</v>
       </c>
       <c r="C69" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D69" s="1">
-        <v>6.5</v>
+        <v>59</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>584</v>
+        <v>432</v>
       </c>
       <c r="G69" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>361</v>
+        <v>93</v>
       </c>
       <c r="C70" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D70" s="1">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>585</v>
+        <v>433</v>
       </c>
       <c r="G70" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>361</v>
       </c>
       <c r="C71" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D71" s="1">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G71" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>361</v>
       </c>
       <c r="C72" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D72" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G72" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>361</v>
       </c>
       <c r="C73" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D73" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G73" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>361</v>
       </c>
       <c r="C74" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D74" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G74" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>361</v>
       </c>
       <c r="C75" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D75" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G75" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>361</v>
       </c>
       <c r="C76" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D76" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G76" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>361</v>
       </c>
       <c r="C77" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D77" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G77" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>361</v>
       </c>
       <c r="C78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D78" s="1">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -4495,16 +4523,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>361</v>
       </c>
       <c r="C79" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D79" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -4518,191 +4546,191 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>594</v>
+        <v>361</v>
       </c>
       <c r="C80" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="D80" s="1">
-        <v>19.5</v>
+        <v>200</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>434</v>
+        <v>590</v>
       </c>
       <c r="G80" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>594</v>
+        <v>361</v>
       </c>
       <c r="C81" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D81" s="1">
-        <v>59</v>
+        <v>300</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>435</v>
+        <v>590</v>
       </c>
       <c r="G81" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>594</v>
       </c>
       <c r="C82" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D82" s="1">
-        <v>69</v>
+        <v>19.5</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G82" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>594</v>
       </c>
       <c r="C83" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D83" s="1">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G83" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>594</v>
       </c>
       <c r="C84" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D84" s="1">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G84" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>594</v>
       </c>
       <c r="C85" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D85" s="1">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G85" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>594</v>
       </c>
       <c r="C86" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D86" s="1">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G86" t="s">
-        <v>346</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>594</v>
       </c>
       <c r="C87" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D87" s="1">
-        <v>249</v>
+        <v>179</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G87" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>594</v>
@@ -4711,372 +4739,372 @@
         <v>119</v>
       </c>
       <c r="D88" s="1">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G88" t="s">
-        <v>118</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>594</v>
       </c>
       <c r="C89" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D89" s="1">
-        <v>269</v>
-      </c>
-      <c r="E89" s="2">
-        <v>0</v>
+        <v>249</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G89" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>594</v>
       </c>
       <c r="C90" t="s">
-        <v>347</v>
+        <v>119</v>
       </c>
       <c r="D90" s="1">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="E90">
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G90" t="s">
-        <v>347</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>594</v>
       </c>
       <c r="C91" t="s">
-        <v>348</v>
+        <v>123</v>
       </c>
       <c r="D91" s="1">
-        <v>399</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
+        <v>269</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G91" t="s">
-        <v>349</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>594</v>
       </c>
       <c r="C92" t="s">
-        <v>121</v>
+        <v>347</v>
       </c>
       <c r="D92" s="1">
-        <v>999</v>
+        <v>299</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G92" t="s">
-        <v>120</v>
+        <v>347</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C93" t="s">
-        <v>138</v>
+        <v>348</v>
       </c>
       <c r="D93" s="1">
-        <v>19.5</v>
+        <v>399</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G93" t="s">
-        <v>138</v>
+        <v>349</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C94" t="s">
-        <v>350</v>
+        <v>121</v>
       </c>
       <c r="D94" s="1">
-        <v>59</v>
+        <v>999</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G94" t="s">
-        <v>350</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
         <v>595</v>
       </c>
       <c r="C95" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D95" s="1">
-        <v>69</v>
+        <v>19.5</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G95" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
         <v>595</v>
       </c>
       <c r="C96" t="s">
-        <v>139</v>
+        <v>350</v>
       </c>
       <c r="D96" s="1">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G96" t="s">
-        <v>139</v>
+        <v>350</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
         <v>595</v>
       </c>
       <c r="C97" t="s">
-        <v>351</v>
+        <v>137</v>
       </c>
       <c r="D97" s="1">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G97" t="s">
-        <v>351</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
         <v>595</v>
       </c>
       <c r="C98" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D98" s="1">
-        <v>269</v>
+        <v>99</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>452</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>135</v>
+        <v>450</v>
+      </c>
+      <c r="G98" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B99" t="s">
         <v>595</v>
       </c>
       <c r="C99" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D99" s="1">
-        <v>399</v>
+        <v>179</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G99" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
         <v>595</v>
       </c>
       <c r="C100" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D100" s="1">
-        <v>999</v>
+        <v>269</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>454</v>
-      </c>
-      <c r="G100" t="s">
-        <v>140</v>
+        <v>452</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B101" t="s">
         <v>595</v>
       </c>
       <c r="C101" t="s">
-        <v>142</v>
+        <v>352</v>
       </c>
       <c r="D101" s="1">
-        <v>1999</v>
+        <v>399</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>455</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>141</v>
+        <v>453</v>
+      </c>
+      <c r="G101" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>143</v>
+        <v>595</v>
       </c>
       <c r="C102" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="D102" s="1">
-        <v>5.9</v>
+        <v>999</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G102" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>143</v>
+        <v>595</v>
       </c>
       <c r="C103" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D103" s="1">
-        <v>5.9</v>
+        <v>1999</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>457</v>
-      </c>
-      <c r="G103" t="s">
-        <v>161</v>
+        <v>455</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B104" t="s">
         <v>143</v>
       </c>
       <c r="C104" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D104" s="1">
         <v>5.9</v>
@@ -5085,7 +5113,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G104" t="s">
         <v>161</v>
@@ -5093,13 +5121,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B105" t="s">
         <v>143</v>
       </c>
       <c r="C105" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D105" s="1">
         <v>5.9</v>
@@ -5108,7 +5136,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G105" t="s">
         <v>161</v>
@@ -5116,13 +5144,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B106" t="s">
         <v>143</v>
       </c>
       <c r="C106" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D106" s="1">
         <v>5.9</v>
@@ -5131,7 +5159,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G106" t="s">
         <v>161</v>
@@ -5139,13 +5167,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B107" t="s">
         <v>143</v>
       </c>
       <c r="C107" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D107" s="1">
         <v>5.9</v>
@@ -5154,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G107" t="s">
         <v>161</v>
@@ -5162,105 +5190,105 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B108" t="s">
         <v>143</v>
       </c>
       <c r="C108" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="D108" s="1">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="E108">
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G108" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B109" t="s">
         <v>143</v>
       </c>
       <c r="C109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D109" s="1">
-        <v>6.9</v>
+        <v>5.9</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G109" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B110" t="s">
         <v>143</v>
       </c>
       <c r="C110" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D110" s="1">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G110" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B111" t="s">
         <v>143</v>
       </c>
       <c r="C111" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="D111" s="1">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G111" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B112" t="s">
         <v>143</v>
       </c>
       <c r="C112" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D112" s="1">
         <v>7.5</v>
@@ -5269,21 +5297,21 @@
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G112" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B113" t="s">
         <v>143</v>
       </c>
       <c r="C113" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D113" s="1">
         <v>7.5</v>
@@ -5292,7 +5320,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G113" t="s">
         <v>156</v>
@@ -5300,197 +5328,197 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B114" t="s">
         <v>143</v>
       </c>
       <c r="C114" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D114" s="1">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="E114">
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="G114" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B115" t="s">
         <v>143</v>
       </c>
       <c r="C115" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D115" s="1">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="E115">
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G115" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B116" t="s">
         <v>143</v>
       </c>
       <c r="C116" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D116" s="1">
-        <v>9.9</v>
+        <v>8</v>
       </c>
       <c r="E116">
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="G116" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B117" t="s">
         <v>143</v>
       </c>
       <c r="C117" t="s">
-        <v>360</v>
+        <v>155</v>
       </c>
       <c r="D117" s="1">
-        <v>9.9</v>
+        <v>8.5</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G117" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B118" t="s">
         <v>143</v>
       </c>
       <c r="C118" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="D118" s="1">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G118" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B119" t="s">
         <v>143</v>
       </c>
       <c r="C119" t="s">
-        <v>149</v>
+        <v>360</v>
       </c>
       <c r="D119" s="1">
-        <v>11.5</v>
+        <v>9.9</v>
       </c>
       <c r="E119">
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G119" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B120" t="s">
         <v>143</v>
       </c>
       <c r="C120" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D120" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E120">
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G120" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B121" t="s">
         <v>143</v>
       </c>
       <c r="C121" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D121" s="1">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="E121">
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G121" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B122" t="s">
         <v>143</v>
       </c>
       <c r="C122" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D122" s="1">
         <v>12</v>
@@ -5499,76 +5527,76 @@
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G122" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="C123" t="s">
-        <v>359</v>
+        <v>153</v>
       </c>
       <c r="D123" s="1">
-        <v>9.9</v>
+        <v>12</v>
       </c>
       <c r="E123">
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G123" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="C124" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="D124" s="1">
-        <v>9.9</v>
+        <v>12</v>
       </c>
       <c r="E124">
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G124" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B125" t="s">
         <v>170</v>
       </c>
       <c r="C125" t="s">
-        <v>282</v>
+        <v>359</v>
       </c>
       <c r="D125" s="1">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="E125">
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G125" t="s">
         <v>171</v>
@@ -5576,22 +5604,22 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B126" t="s">
         <v>170</v>
       </c>
       <c r="C126" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D126" s="1">
-        <v>14</v>
+        <v>9.9</v>
       </c>
       <c r="E126">
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G126" t="s">
         <v>171</v>
@@ -5599,22 +5627,22 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B127" t="s">
         <v>170</v>
       </c>
       <c r="C127" t="s">
-        <v>176</v>
+        <v>282</v>
       </c>
       <c r="D127" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E127">
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G127" t="s">
         <v>171</v>
@@ -5622,22 +5650,22 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B128" t="s">
         <v>170</v>
       </c>
       <c r="C128" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D128" s="1">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="E128">
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G128" t="s">
         <v>171</v>
@@ -5645,45 +5673,45 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C129" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="D129" s="1">
-        <v>16.8</v>
+        <v>14</v>
       </c>
       <c r="E129">
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G129" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B130" t="s">
         <v>170</v>
       </c>
       <c r="C130" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D130" s="1">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="E130">
         <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G130" t="s">
         <v>171</v>
@@ -5691,45 +5719,45 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="C131" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="D131" s="1">
-        <v>19.5</v>
+        <v>16.8</v>
       </c>
       <c r="E131">
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G131" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B132" t="s">
         <v>170</v>
       </c>
       <c r="C132" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D132" s="1">
-        <v>24.5</v>
+        <v>19.5</v>
       </c>
       <c r="E132">
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G132" t="s">
         <v>171</v>
@@ -5737,114 +5765,114 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B133" t="s">
         <v>170</v>
       </c>
       <c r="C133" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D133" s="1">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="E133">
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G133" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C134" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D134" s="1">
-        <v>28.2</v>
+        <v>24.5</v>
       </c>
       <c r="E134">
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G134" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B135" t="s">
         <v>170</v>
       </c>
       <c r="C135" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D135" s="1">
-        <v>29.5</v>
+        <v>25</v>
       </c>
       <c r="E135">
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G135" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B136" t="s">
         <v>189</v>
       </c>
       <c r="C136" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D136" s="1">
-        <v>29.9</v>
+        <v>28.2</v>
       </c>
       <c r="E136">
         <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G136" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B137" t="s">
         <v>170</v>
       </c>
       <c r="C137" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D137" s="1">
-        <v>34</v>
+        <v>29.5</v>
       </c>
       <c r="E137">
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G137" t="s">
         <v>171</v>
@@ -5852,174 +5880,174 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B138" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="C138" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D138" s="1">
-        <v>34.5</v>
+        <v>29.9</v>
       </c>
       <c r="E138">
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G138" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B139" t="s">
         <v>170</v>
       </c>
       <c r="C139" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D139" s="1">
-        <v>79.900000000000006</v>
+        <v>34</v>
       </c>
       <c r="E139">
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G139" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B140" t="s">
         <v>170</v>
       </c>
       <c r="C140" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D140" s="1">
-        <v>89.9</v>
+        <v>34.5</v>
       </c>
       <c r="E140">
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G140" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B141" t="s">
         <v>170</v>
       </c>
       <c r="C141" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D141" s="1">
-        <v>89.9</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="E141">
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G141" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="C142" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="D142" s="1">
-        <v>49.9</v>
+        <v>89.9</v>
       </c>
       <c r="E142">
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G142" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B143" t="s">
-        <v>573</v>
+        <v>170</v>
       </c>
       <c r="C143" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D143" s="1">
-        <v>89</v>
+        <v>89.9</v>
       </c>
       <c r="E143">
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>574</v>
+        <v>492</v>
       </c>
       <c r="G143" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>573</v>
+        <v>207</v>
       </c>
       <c r="C144" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D144" s="1">
-        <v>89</v>
+        <v>49.9</v>
       </c>
       <c r="E144">
         <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>582</v>
+        <v>493</v>
       </c>
       <c r="G144" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B145" t="s">
         <v>573</v>
       </c>
       <c r="C145" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D145" s="1">
         <v>89</v>
@@ -6028,7 +6056,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G145" t="s">
         <v>203</v>
@@ -6036,59 +6064,59 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B146" t="s">
         <v>573</v>
       </c>
       <c r="C146" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D146" s="1">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E146">
         <v>1</v>
       </c>
       <c r="F146" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="G146" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B147" t="s">
         <v>573</v>
       </c>
       <c r="C147" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D147" s="1">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E147">
         <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G147" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B148" t="s">
         <v>573</v>
       </c>
       <c r="C148" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D148" s="1">
         <v>99</v>
@@ -6097,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G148" t="s">
         <v>197</v>
@@ -6105,13 +6133,13 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B149" t="s">
         <v>573</v>
       </c>
       <c r="C149" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D149" s="1">
         <v>99</v>
@@ -6120,90 +6148,90 @@
         <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G149" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B150" t="s">
         <v>573</v>
       </c>
       <c r="C150" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D150" s="1">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="E150">
         <v>1</v>
       </c>
       <c r="F150" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G150" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>207</v>
+        <v>573</v>
       </c>
       <c r="C151" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D151" s="1">
-        <v>49.9</v>
+        <v>99</v>
       </c>
       <c r="E151">
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>494</v>
+        <v>579</v>
       </c>
       <c r="G151" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>207</v>
+        <v>573</v>
       </c>
       <c r="C152" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="D152" s="1">
-        <v>49.9</v>
+        <v>179</v>
       </c>
       <c r="E152">
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>495</v>
+        <v>580</v>
       </c>
       <c r="G152" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B153" t="s">
         <v>207</v>
       </c>
       <c r="C153" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D153" s="1">
         <v>49.9</v>
@@ -6212,21 +6240,21 @@
         <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G153" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B154" t="s">
         <v>207</v>
       </c>
       <c r="C154" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D154" s="1">
         <v>49.9</v>
@@ -6235,21 +6263,21 @@
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G154" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B155" t="s">
         <v>207</v>
       </c>
       <c r="C155" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D155" s="1">
         <v>49.9</v>
@@ -6258,21 +6286,21 @@
         <v>1</v>
       </c>
       <c r="F155" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G155" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B156" t="s">
         <v>207</v>
       </c>
       <c r="C156" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D156" s="1">
         <v>49.9</v>
@@ -6281,21 +6309,21 @@
         <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G156" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B157" t="s">
         <v>207</v>
       </c>
       <c r="C157" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D157" s="1">
         <v>49.9</v>
@@ -6304,21 +6332,21 @@
         <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G157" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B158" t="s">
         <v>207</v>
       </c>
       <c r="C158" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D158" s="1">
         <v>49.9</v>
@@ -6327,21 +6355,21 @@
         <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G158" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B159" t="s">
         <v>207</v>
       </c>
       <c r="C159" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D159" s="1">
         <v>49.9</v>
@@ -6350,67 +6378,67 @@
         <v>1</v>
       </c>
       <c r="F159" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G159" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B160" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="C160" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D160" s="1">
-        <v>199</v>
+        <v>49.9</v>
       </c>
       <c r="E160">
         <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G160" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B161" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="C161" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D161" s="1">
-        <v>199</v>
+        <v>49.9</v>
       </c>
       <c r="E161">
         <v>1</v>
       </c>
       <c r="F161" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G161" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B162" t="s">
         <v>228</v>
       </c>
       <c r="C162" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D162" s="1">
         <v>199</v>
@@ -6419,7 +6447,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G162" t="s">
         <v>229</v>
@@ -6427,13 +6455,13 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B163" t="s">
         <v>228</v>
       </c>
       <c r="C163" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D163" s="1">
         <v>199</v>
@@ -6442,67 +6470,67 @@
         <v>1</v>
       </c>
       <c r="F163" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G163" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B164" t="s">
         <v>228</v>
       </c>
       <c r="C164" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D164" s="1">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E164">
         <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G164" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B165" t="s">
         <v>228</v>
       </c>
       <c r="C165" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D165" s="1">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E165">
         <v>1</v>
       </c>
       <c r="F165" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G165" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B166" t="s">
         <v>228</v>
       </c>
       <c r="C166" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D166" s="1">
         <v>249</v>
@@ -6511,90 +6539,90 @@
         <v>1</v>
       </c>
       <c r="F166" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G166" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B167" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C167" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D167" s="1">
-        <v>399</v>
+        <v>249</v>
       </c>
       <c r="E167">
         <v>1</v>
       </c>
       <c r="F167" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G167" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>171</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D168" s="4">
-        <v>399</v>
-      </c>
-      <c r="E168" s="3">
-        <v>1</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>241</v>
+        <v>169</v>
+      </c>
+      <c r="B168" t="s">
+        <v>228</v>
+      </c>
+      <c r="C168" t="s">
+        <v>238</v>
+      </c>
+      <c r="D168" s="1">
+        <v>249</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168" t="s">
+        <v>509</v>
+      </c>
+      <c r="G168" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>172</v>
-      </c>
-      <c r="B169" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169" t="s">
         <v>240</v>
       </c>
-      <c r="C169" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D169" s="4">
+      <c r="C169" t="s">
+        <v>242</v>
+      </c>
+      <c r="D169" s="1">
         <v>399</v>
       </c>
-      <c r="E169" s="3">
-        <v>1</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="G169" s="3" t="s">
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169" t="s">
+        <v>510</v>
+      </c>
+      <c r="G169" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>356</v>
+        <v>243</v>
       </c>
       <c r="D170" s="4">
         <v>399</v>
@@ -6603,375 +6631,398 @@
         <v>1</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>355</v>
+        <v>241</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>174</v>
-      </c>
-      <c r="B171" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C171" t="s">
-        <v>249</v>
-      </c>
-      <c r="D171" s="1">
-        <v>499</v>
-      </c>
-      <c r="E171">
-        <v>1</v>
-      </c>
-      <c r="F171" t="s">
-        <v>514</v>
-      </c>
-      <c r="G171" t="s">
-        <v>247</v>
+      <c r="C171" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D171" s="4">
+        <v>399</v>
+      </c>
+      <c r="E171" s="3">
+        <v>1</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D172" s="4">
-        <v>499</v>
+        <v>399</v>
       </c>
       <c r="E172" s="3">
         <v>1</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>250</v>
+        <v>355</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>176</v>
-      </c>
-      <c r="B173" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" t="s">
         <v>240</v>
       </c>
-      <c r="C173" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D173" s="4">
-        <v>799</v>
-      </c>
-      <c r="E173" s="3">
-        <v>1</v>
-      </c>
-      <c r="F173" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>251</v>
+      <c r="C173" t="s">
+        <v>249</v>
+      </c>
+      <c r="D173" s="1">
+        <v>499</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173" t="s">
+        <v>514</v>
+      </c>
+      <c r="G173" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>175</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D174" s="4">
+        <v>499</v>
+      </c>
+      <c r="E174" s="3">
+        <v>1</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>178</v>
-      </c>
-      <c r="B175" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C175" t="s">
-        <v>248</v>
-      </c>
-      <c r="D175" s="1">
-        <v>999</v>
-      </c>
-      <c r="E175">
-        <v>1</v>
-      </c>
-      <c r="F175" t="s">
-        <v>518</v>
-      </c>
-      <c r="G175" t="s">
-        <v>247</v>
+      <c r="C175" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D175" s="4">
+        <v>799</v>
+      </c>
+      <c r="E175" s="3">
+        <v>1</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>179</v>
-      </c>
-      <c r="B176" t="s">
-        <v>591</v>
-      </c>
-      <c r="C176" t="s">
-        <v>354</v>
-      </c>
-      <c r="D176" s="1">
-        <v>499</v>
-      </c>
-      <c r="E176">
-        <v>1</v>
-      </c>
-      <c r="F176" t="s">
-        <v>429</v>
+        <v>239</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D176" s="4">
+        <v>400</v>
+      </c>
+      <c r="E176" s="3">
+        <v>1</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>597</v>
       </c>
       <c r="G176" t="s">
-        <v>354</v>
+        <v>598</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B177" t="s">
-        <v>592</v>
+        <v>240</v>
       </c>
       <c r="C177" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="D177" s="1">
-        <v>19.5</v>
+        <v>999</v>
       </c>
       <c r="E177">
         <v>1</v>
       </c>
       <c r="F177" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G177" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B178" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C178" t="s">
-        <v>256</v>
+        <v>354</v>
       </c>
       <c r="D178" s="1">
-        <v>59</v>
+        <v>499</v>
       </c>
       <c r="E178">
         <v>1</v>
       </c>
       <c r="F178" t="s">
-        <v>520</v>
+        <v>429</v>
       </c>
       <c r="G178" t="s">
-        <v>256</v>
+        <v>354</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B179" t="s">
         <v>592</v>
       </c>
       <c r="C179" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D179" s="1">
-        <v>69</v>
+        <v>19.5</v>
       </c>
       <c r="E179">
         <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G179" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B180" t="s">
         <v>592</v>
       </c>
       <c r="C180" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D180" s="1">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="E180">
         <v>1</v>
       </c>
       <c r="F180" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G180" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B181" t="s">
         <v>592</v>
       </c>
       <c r="C181" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D181" s="1">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="E181">
         <v>1</v>
       </c>
       <c r="F181" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G181" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B182" t="s">
         <v>592</v>
       </c>
       <c r="C182" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D182" s="1">
-        <v>269</v>
-      </c>
-      <c r="E182" s="6">
-        <v>0</v>
+        <v>99</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
       </c>
       <c r="F182" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G182" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B183" t="s">
         <v>592</v>
       </c>
       <c r="C183" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D183" s="1">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="E183">
         <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G183" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B184" t="s">
         <v>592</v>
       </c>
       <c r="C184" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D184" s="1">
-        <v>399</v>
-      </c>
-      <c r="E184">
-        <v>1</v>
+        <v>269</v>
+      </c>
+      <c r="E184" s="6">
+        <v>0</v>
       </c>
       <c r="F184" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G184" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B185" t="s">
         <v>592</v>
       </c>
       <c r="C185" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D185" s="1">
-        <v>799</v>
+        <v>269</v>
       </c>
       <c r="E185">
         <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>527</v>
-      </c>
-      <c r="G185" s="5" t="s">
-        <v>252</v>
+        <v>525</v>
+      </c>
+      <c r="G185" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B186" t="s">
         <v>592</v>
       </c>
       <c r="C186" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D186" s="1">
-        <v>999</v>
+        <v>399</v>
       </c>
       <c r="E186">
         <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>528</v>
-      </c>
-      <c r="G186" s="5" t="s">
-        <v>257</v>
+        <v>526</v>
+      </c>
+      <c r="G186" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B187" t="s">
         <v>592</v>
       </c>
       <c r="C187" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D187" s="1">
-        <v>1299</v>
+        <v>799</v>
       </c>
       <c r="E187">
         <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>252</v>
@@ -6979,361 +7030,361 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B188" t="s">
         <v>592</v>
       </c>
       <c r="C188" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D188" s="1">
-        <v>1399</v>
+        <v>999</v>
       </c>
       <c r="E188">
         <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>530</v>
-      </c>
-      <c r="G188" t="s">
-        <v>260</v>
+        <v>528</v>
+      </c>
+      <c r="G188" s="5" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C189" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="D189" s="1">
-        <v>19.5</v>
+        <v>1299</v>
       </c>
       <c r="E189">
         <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>531</v>
-      </c>
-      <c r="G189" t="s">
-        <v>274</v>
+        <v>529</v>
+      </c>
+      <c r="G189" s="5" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C190" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D190" s="1">
-        <v>59</v>
+        <v>1399</v>
       </c>
       <c r="E190">
         <v>1</v>
       </c>
       <c r="F190" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G190" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B191" t="s">
         <v>593</v>
       </c>
       <c r="C191" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D191" s="1">
-        <v>69</v>
+        <v>19.5</v>
       </c>
       <c r="E191">
         <v>1</v>
       </c>
       <c r="F191" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G191" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B192" t="s">
         <v>593</v>
       </c>
       <c r="C192" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D192" s="1">
-        <v>179</v>
+        <v>59</v>
       </c>
       <c r="E192">
         <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G192" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B193" t="s">
         <v>593</v>
       </c>
       <c r="C193" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D193" s="1">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="E193">
         <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G193" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B194" t="s">
         <v>593</v>
       </c>
       <c r="C194" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D194" s="1">
-        <v>269</v>
+        <v>179</v>
       </c>
       <c r="E194">
         <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G194" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B195" t="s">
         <v>593</v>
       </c>
       <c r="C195" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D195" s="1">
-        <v>269</v>
-      </c>
-      <c r="E195" s="6">
-        <v>0</v>
+        <v>229</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G195" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B196" t="s">
         <v>593</v>
       </c>
       <c r="C196" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="D196" s="1">
-        <v>399</v>
+        <v>269</v>
       </c>
       <c r="E196">
         <v>1</v>
       </c>
       <c r="F196" t="s">
-        <v>538</v>
-      </c>
-      <c r="G196" s="5" t="s">
-        <v>266</v>
+        <v>536</v>
+      </c>
+      <c r="G196" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B197" t="s">
         <v>593</v>
       </c>
       <c r="C197" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D197" s="1">
-        <v>399</v>
-      </c>
-      <c r="E197">
-        <v>1</v>
+        <v>269</v>
+      </c>
+      <c r="E197" s="6">
+        <v>0</v>
       </c>
       <c r="F197" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G197" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B198" t="s">
         <v>593</v>
       </c>
       <c r="C198" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D198" s="1">
-        <v>599</v>
+        <v>399</v>
       </c>
       <c r="E198">
         <v>1</v>
       </c>
       <c r="F198" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B199" t="s">
         <v>593</v>
       </c>
       <c r="C199" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D199" s="1">
-        <v>999</v>
+        <v>399</v>
       </c>
       <c r="E199">
         <v>1</v>
       </c>
       <c r="F199" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G199" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B200" t="s">
-        <v>283</v>
+        <v>593</v>
       </c>
       <c r="C200" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D200" s="1">
-        <v>5.2</v>
+        <v>599</v>
       </c>
       <c r="E200">
         <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>542</v>
-      </c>
-      <c r="G200" t="s">
-        <v>286</v>
+        <v>540</v>
+      </c>
+      <c r="G200" s="5" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B201" t="s">
-        <v>283</v>
+        <v>593</v>
       </c>
       <c r="C201" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D201" s="1">
-        <v>7.15</v>
+        <v>999</v>
       </c>
       <c r="E201">
         <v>1</v>
       </c>
       <c r="F201" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G201" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B202" t="s">
         <v>283</v>
       </c>
       <c r="C202" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D202" s="1">
-        <v>12.95</v>
+        <v>5.2</v>
       </c>
       <c r="E202">
         <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G202" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B203" t="s">
         <v>283</v>
       </c>
       <c r="C203" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D203" s="1">
-        <v>16.25</v>
+        <v>7.15</v>
       </c>
       <c r="E203">
         <v>1</v>
@@ -7342,119 +7393,119 @@
         <v>542</v>
       </c>
       <c r="G203" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B204" t="s">
         <v>283</v>
       </c>
       <c r="C204" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D204" s="1">
-        <v>25</v>
+        <v>12.95</v>
       </c>
       <c r="E204">
         <v>1</v>
       </c>
       <c r="F204" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G204" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B205" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C205" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D205" s="1">
-        <v>100</v>
+        <v>16.25</v>
       </c>
       <c r="E205">
         <v>1</v>
       </c>
       <c r="F205" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="G205" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B206" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="C206" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D206" s="1">
-        <v>3.9</v>
+        <v>25</v>
       </c>
       <c r="E206">
         <v>1</v>
       </c>
       <c r="F206" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G206" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B207" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C207" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D207" s="1">
-        <v>6.9</v>
+        <v>100</v>
       </c>
       <c r="E207">
         <v>1</v>
       </c>
       <c r="F207" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G207" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B208" t="s">
         <v>296</v>
       </c>
       <c r="C208" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D208" s="1">
-        <v>29</v>
+        <v>3.9</v>
       </c>
       <c r="E208">
         <v>1</v>
       </c>
       <c r="F208" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G208" t="s">
         <v>297</v>
@@ -7462,266 +7513,266 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B209" t="s">
         <v>296</v>
       </c>
       <c r="C209" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D209" s="1">
-        <v>39.9</v>
+        <v>6.9</v>
       </c>
       <c r="E209">
         <v>1</v>
       </c>
       <c r="F209" t="s">
-        <v>549</v>
-      </c>
-      <c r="G209" s="5" t="s">
-        <v>301</v>
+        <v>547</v>
+      </c>
+      <c r="G209" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B210" t="s">
-        <v>581</v>
+        <v>296</v>
       </c>
       <c r="C210" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D210" s="1">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E210">
         <v>1</v>
       </c>
       <c r="F210" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G210" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B211" t="s">
-        <v>581</v>
+        <v>296</v>
       </c>
       <c r="C211" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D211" s="1">
-        <v>12.9</v>
+        <v>39.9</v>
       </c>
       <c r="E211">
         <v>1</v>
       </c>
       <c r="F211" t="s">
-        <v>551</v>
-      </c>
-      <c r="G211" t="s">
-        <v>304</v>
+        <v>549</v>
+      </c>
+      <c r="G211" s="5" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B212" t="s">
         <v>581</v>
       </c>
       <c r="C212" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D212" s="1">
-        <v>34.5</v>
+        <v>7</v>
       </c>
       <c r="E212">
         <v>1</v>
       </c>
       <c r="F212" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G212" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B213" t="s">
         <v>581</v>
       </c>
       <c r="C213" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D213" s="1">
-        <v>99</v>
+        <v>12.9</v>
       </c>
       <c r="E213">
         <v>1</v>
       </c>
       <c r="F213" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G213" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B214" t="s">
-        <v>307</v>
+        <v>581</v>
       </c>
       <c r="C214" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="D214" s="1">
-        <v>39</v>
+        <v>34.5</v>
       </c>
       <c r="E214">
         <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G214" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B215" t="s">
-        <v>307</v>
+        <v>581</v>
       </c>
       <c r="C215" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D215" s="1">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="E215">
         <v>1</v>
       </c>
       <c r="F215" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G215" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B216" t="s">
         <v>307</v>
       </c>
       <c r="C216" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="D216" s="1">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="E216">
         <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G216" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B217" t="s">
         <v>307</v>
       </c>
       <c r="C217" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D217" s="1">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="E217">
         <v>1</v>
       </c>
       <c r="F217" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G217" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B218" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C218" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D218" s="1">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E218">
         <v>1</v>
       </c>
       <c r="F218" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G218" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B219" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C219" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D219" s="1">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="E219">
         <v>1</v>
       </c>
       <c r="F219" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G219" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B220" t="s">
         <v>313</v>
       </c>
       <c r="C220" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D220" s="1">
         <v>25</v>
@@ -7730,21 +7781,21 @@
         <v>1</v>
       </c>
       <c r="F220" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G220" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B221" t="s">
         <v>313</v>
       </c>
       <c r="C221" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D221" s="1">
         <v>25</v>
@@ -7753,21 +7804,21 @@
         <v>1</v>
       </c>
       <c r="F221" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G221" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B222" t="s">
         <v>313</v>
       </c>
       <c r="C222" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D222" s="1">
         <v>25</v>
@@ -7776,67 +7827,67 @@
         <v>1</v>
       </c>
       <c r="F222" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G222" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B223" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C223" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D223" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E223">
         <v>1</v>
       </c>
       <c r="F223" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G223" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B224" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C224" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D224" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E224">
         <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G224" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B225" t="s">
         <v>319</v>
       </c>
       <c r="C225" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D225" s="1">
         <v>19</v>
@@ -7853,13 +7904,13 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B226" t="s">
         <v>319</v>
       </c>
       <c r="C226" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D226" s="1">
         <v>19</v>
@@ -7876,105 +7927,105 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B227" t="s">
         <v>319</v>
       </c>
       <c r="C227" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D227" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E227">
         <v>1</v>
       </c>
       <c r="F227" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G227" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B228" t="s">
         <v>319</v>
       </c>
       <c r="C228" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D228" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E228">
         <v>1</v>
       </c>
       <c r="F228" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G228" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B229" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C229" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D229" s="1">
-        <v>9.9</v>
+        <v>6</v>
       </c>
       <c r="E229">
         <v>1</v>
       </c>
       <c r="F229" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G229" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B230" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C230" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D230" s="1">
-        <v>9.9</v>
+        <v>6</v>
       </c>
       <c r="E230">
         <v>1</v>
       </c>
       <c r="F230" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G230" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B231" t="s">
         <v>328</v>
       </c>
       <c r="C231" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D231" s="1">
         <v>9.9</v>
@@ -7983,21 +8034,21 @@
         <v>1</v>
       </c>
       <c r="F231" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G231" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B232" t="s">
         <v>328</v>
       </c>
       <c r="C232" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D232" s="1">
         <v>9.9</v>
@@ -8006,7 +8057,7 @@
         <v>1</v>
       </c>
       <c r="F232" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G232" t="s">
         <v>329</v>
@@ -8014,99 +8065,145 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B233" t="s">
         <v>328</v>
       </c>
       <c r="C233" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D233" s="1">
-        <v>12</v>
+        <v>9.9</v>
       </c>
       <c r="E233">
         <v>1</v>
       </c>
       <c r="F233" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G233" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B234" t="s">
         <v>328</v>
       </c>
       <c r="C234" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D234" s="1">
-        <v>18.899999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="E234">
         <v>1</v>
       </c>
       <c r="F234" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G234" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B235" t="s">
         <v>328</v>
       </c>
       <c r="C235" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D235" s="1">
-        <v>18.899999999999999</v>
+        <v>12</v>
       </c>
       <c r="E235">
         <v>1</v>
       </c>
       <c r="F235" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G235" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
+        <v>237</v>
+      </c>
+      <c r="B236" t="s">
+        <v>328</v>
+      </c>
+      <c r="C236" t="s">
+        <v>338</v>
+      </c>
+      <c r="D236" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236" t="s">
+        <v>571</v>
+      </c>
+      <c r="G236" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>238</v>
+      </c>
+      <c r="B237" t="s">
+        <v>328</v>
+      </c>
+      <c r="C237" t="s">
+        <v>340</v>
+      </c>
+      <c r="D237" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237" t="s">
+        <v>572</v>
+      </c>
+      <c r="G237" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238">
         <v>94</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B238" t="s">
         <v>594</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C238" t="s">
         <v>130</v>
       </c>
-      <c r="D236" s="1">
+      <c r="D238" s="1">
         <v>999</v>
       </c>
-      <c r="E236">
-        <v>1</v>
-      </c>
-      <c r="F236" t="s">
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238" t="s">
         <v>583</v>
       </c>
-      <c r="G236" t="s">
+      <c r="G238" t="s">
         <v>129</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A214:G217">
-    <sortCondition ref="D214:D217"/>
+  <sortState ref="A216:G219">
+    <sortCondition ref="D216:D219"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8116,7 +8213,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2076" yWindow="684" windowWidth="23040" windowHeight="9636" activeTab="1"/>
+    <workbookView xWindow="2076" yWindow="684" windowWidth="23040" windowHeight="9636"/>
   </bookViews>
   <sheets>
     <sheet name="catalog_product_bearbeitet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="604">
   <si>
     <t>Name</t>
   </si>
@@ -764,9 +764,6 @@
     <t>Größe: Innen: 63x44 Außen: 125x69</t>
   </si>
   <si>
-    <t>Grüne Tara,21 Taras</t>
-  </si>
-  <si>
     <t>Größe : Innen:52x37 Außen:115x62</t>
   </si>
   <si>
@@ -1844,6 +1841,9 @@
   </si>
   <si>
     <t>BTB024.JPG</t>
+  </si>
+  <si>
+    <t>Gruene Tara,21 Taras</t>
   </si>
 </sst>
 </file>
@@ -2714,10 +2714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G238"/>
+  <dimension ref="A1:K239"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2729,25 +2729,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1" t="s">
         <v>362</v>
-      </c>
-      <c r="B1" t="s">
-        <v>363</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E1" t="s">
         <v>364</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>365</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>366</v>
-      </c>
-      <c r="G1" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2767,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2790,7 +2790,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
@@ -2813,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -2836,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
@@ -2859,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -2876,13 +2876,13 @@
         <v>16</v>
       </c>
       <c r="D7" s="1">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -2928,7 +2928,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -2945,13 +2945,13 @@
         <v>10</v>
       </c>
       <c r="D10" s="1">
-        <v>159</v>
+        <v>249</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G10" t="s">
         <v>3</v>
@@ -2968,13 +2968,13 @@
         <v>15</v>
       </c>
       <c r="D11" s="1">
-        <v>179</v>
+        <v>249</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -2991,13 +2991,13 @@
         <v>14</v>
       </c>
       <c r="D12" s="1">
-        <v>199</v>
+        <v>299</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -3014,13 +3014,13 @@
         <v>22</v>
       </c>
       <c r="D13" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G13" t="s">
         <v>21</v>
@@ -3043,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -3089,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G16" t="s">
         <v>2</v>
@@ -3112,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G17" t="s">
         <v>2</v>
@@ -3135,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G18" t="s">
         <v>23</v>
@@ -3158,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G19" t="s">
         <v>23</v>
@@ -3181,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
@@ -3204,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
@@ -3250,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G23" t="s">
         <v>31</v>
@@ -3273,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -3296,7 +3296,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>36</v>
@@ -3313,13 +3313,13 @@
         <v>35</v>
       </c>
       <c r="D26" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -3342,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
@@ -3365,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G28" t="s">
         <v>42</v>
@@ -3388,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G29" t="s">
         <v>39</v>
@@ -3411,7 +3411,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G30" t="s">
         <v>41</v>
@@ -3428,13 +3428,13 @@
         <v>43</v>
       </c>
       <c r="D31" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G31" t="s">
         <v>43</v>
@@ -3457,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3480,7 +3480,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3503,7 +3503,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G34" t="s">
         <v>47</v>
@@ -3526,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G35" t="s">
         <v>48</v>
@@ -3549,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -3572,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G37" t="s">
         <v>50</v>
@@ -3595,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G38" t="s">
         <v>54</v>
@@ -3618,7 +3618,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G39" t="s">
         <v>50</v>
@@ -3641,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G40" t="s">
         <v>55</v>
@@ -3664,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G41" t="s">
         <v>50</v>
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G42" t="s">
         <v>57</v>
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G43" t="s">
         <v>59</v>
@@ -3733,7 +3733,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G44" t="s">
         <v>61</v>
@@ -3756,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G45" t="s">
         <v>68</v>
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G46" t="s">
         <v>66</v>
@@ -3802,7 +3802,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G47" t="s">
         <v>67</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G48" t="s">
         <v>64</v>
@@ -3848,7 +3848,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G49" t="s">
         <v>70</v>
@@ -3862,19 +3862,19 @@
         <v>69</v>
       </c>
       <c r="C50" t="s">
+        <v>598</v>
+      </c>
+      <c r="D50" s="1">
+        <v>250</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
         <v>599</v>
       </c>
-      <c r="D50" s="1">
-        <v>200</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="G50" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -3894,7 +3894,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G51" t="s">
         <v>71</v>
@@ -3917,7 +3917,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G52" t="s">
         <v>77</v>
@@ -3934,13 +3934,13 @@
         <v>74</v>
       </c>
       <c r="D53" s="1">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G53" t="s">
         <v>73</v>
@@ -3963,10 +3963,10 @@
         <v>1</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -3977,7 +3977,7 @@
         <v>72</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D55" s="4">
         <v>399</v>
@@ -3986,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>76</v>
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G56" t="s">
         <v>78</v>
@@ -4032,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G57" t="s">
         <v>84</v>
@@ -4055,7 +4055,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G58" t="s">
         <v>83</v>
@@ -4078,7 +4078,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G59" t="s">
         <v>85</v>
@@ -4101,7 +4101,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G60" t="s">
         <v>89</v>
@@ -4124,7 +4124,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G61" t="s">
         <v>87</v>
@@ -4138,19 +4138,19 @@
         <v>80</v>
       </c>
       <c r="C62" t="s">
+        <v>342</v>
+      </c>
+      <c r="D62" s="1">
+        <v>499</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>424</v>
+      </c>
+      <c r="G62" t="s">
         <v>343</v>
-      </c>
-      <c r="D62" s="1">
-        <v>299</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62" t="s">
-        <v>425</v>
-      </c>
-      <c r="G62" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -4170,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G63" t="s">
         <v>86</v>
@@ -4193,7 +4193,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G64" t="s">
         <v>81</v>
@@ -4207,7 +4207,7 @@
         <v>80</v>
       </c>
       <c r="C65" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D65" s="1">
         <v>1000</v>
@@ -4216,10 +4216,10 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -4239,7 +4239,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G66" t="s">
         <v>91</v>
@@ -4262,7 +4262,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G67" t="s">
         <v>98</v>
@@ -4285,7 +4285,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G68" t="s">
         <v>94</v>
@@ -4308,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G69" t="s">
         <v>95</v>
@@ -4325,13 +4325,13 @@
         <v>97</v>
       </c>
       <c r="D70" s="1">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G70" t="s">
         <v>96</v>
@@ -4342,7 +4342,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C71" t="s">
         <v>115</v>
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G71" t="s">
         <v>114</v>
@@ -4365,7 +4365,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C72" t="s">
         <v>117</v>
@@ -4377,7 +4377,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G72" t="s">
         <v>116</v>
@@ -4388,7 +4388,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C73" t="s">
         <v>105</v>
@@ -4400,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G73" t="s">
         <v>104</v>
@@ -4411,7 +4411,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C74" t="s">
         <v>107</v>
@@ -4423,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G74" t="s">
         <v>106</v>
@@ -4434,7 +4434,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C75" t="s">
         <v>109</v>
@@ -4446,7 +4446,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G75" t="s">
         <v>108</v>
@@ -4457,7 +4457,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C76" t="s">
         <v>111</v>
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G76" t="s">
         <v>110</v>
@@ -4480,7 +4480,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C77" t="s">
         <v>113</v>
@@ -4492,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G77" t="s">
         <v>112</v>
@@ -4503,7 +4503,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C78" t="s">
         <v>101</v>
@@ -4515,7 +4515,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G78" t="s">
         <v>99</v>
@@ -4526,7 +4526,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C79" t="s">
         <v>100</v>
@@ -4538,7 +4538,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G79" t="s">
         <v>99</v>
@@ -4549,7 +4549,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C80" t="s">
         <v>102</v>
@@ -4561,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G80" t="s">
         <v>99</v>
@@ -4572,7 +4572,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C81" t="s">
         <v>103</v>
@@ -4584,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G81" t="s">
         <v>99</v>
@@ -4595,7 +4595,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C82" t="s">
         <v>124</v>
@@ -4607,7 +4607,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G82" t="s">
         <v>124</v>
@@ -4618,7 +4618,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C83" t="s">
         <v>132</v>
@@ -4630,7 +4630,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G83" t="s">
         <v>132</v>
@@ -4641,7 +4641,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C84" t="s">
         <v>131</v>
@@ -4653,7 +4653,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G84" t="s">
         <v>131</v>
@@ -4664,7 +4664,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C85" t="s">
         <v>128</v>
@@ -4676,7 +4676,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G85" t="s">
         <v>128</v>
@@ -4687,19 +4687,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C86" t="s">
         <v>126</v>
       </c>
       <c r="D86" s="1">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G86" t="s">
         <v>125</v>
@@ -4710,7 +4710,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C87" t="s">
         <v>127</v>
@@ -4722,7 +4722,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G87" t="s">
         <v>127</v>
@@ -4733,7 +4733,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C88" t="s">
         <v>119</v>
@@ -4745,10 +4745,10 @@
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G88" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -4756,7 +4756,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C89" t="s">
         <v>134</v>
@@ -4768,7 +4768,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G89" t="s">
         <v>133</v>
@@ -4779,7 +4779,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C90" t="s">
         <v>119</v>
@@ -4791,7 +4791,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G90" t="s">
         <v>118</v>
@@ -4802,7 +4802,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C91" t="s">
         <v>123</v>
@@ -4814,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G91" t="s">
         <v>122</v>
@@ -4825,10 +4825,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C92" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D92" s="1">
         <v>299</v>
@@ -4837,10 +4837,10 @@
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G92" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -4848,10 +4848,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C93" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D93" s="1">
         <v>399</v>
@@ -4860,10 +4860,10 @@
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G93" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -4871,7 +4871,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C94" t="s">
         <v>121</v>
@@ -4883,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G94" t="s">
         <v>120</v>
@@ -4894,7 +4894,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C95" t="s">
         <v>138</v>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G95" t="s">
         <v>138</v>
@@ -4917,10 +4917,10 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C96" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D96" s="1">
         <v>59</v>
@@ -4929,18 +4929,18 @@
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G96" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C97" t="s">
         <v>137</v>
@@ -4952,18 +4952,18 @@
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G97" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C98" t="s">
         <v>139</v>
@@ -4975,21 +4975,21 @@
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G98" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C99" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D99" s="1">
         <v>179</v>
@@ -4998,18 +4998,18 @@
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G99" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C100" t="s">
         <v>136</v>
@@ -5021,21 +5021,21 @@
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C101" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D101" s="1">
         <v>399</v>
@@ -5044,41 +5044,45 @@
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G101" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>595</v>
-      </c>
-      <c r="C102" t="s">
+        <v>594</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="4">
         <v>999</v>
       </c>
-      <c r="E102">
-        <v>1</v>
-      </c>
-      <c r="F102" t="s">
-        <v>454</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="E102" s="3">
+        <v>1</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="G102" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C103" t="s">
         <v>142</v>
@@ -5090,13 +5094,13 @@
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>105</v>
       </c>
@@ -5113,13 +5117,13 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G104" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>106</v>
       </c>
@@ -5136,13 +5140,13 @@
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G105" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>107</v>
       </c>
@@ -5159,13 +5163,13 @@
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G106" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>108</v>
       </c>
@@ -5182,13 +5186,13 @@
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G107" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>109</v>
       </c>
@@ -5205,13 +5209,13 @@
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G108" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>110</v>
       </c>
@@ -5228,13 +5232,13 @@
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G109" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>111</v>
       </c>
@@ -5251,13 +5255,13 @@
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G110" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>112</v>
       </c>
@@ -5274,13 +5278,13 @@
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G111" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>113</v>
       </c>
@@ -5297,7 +5301,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G112" t="s">
         <v>156</v>
@@ -5320,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G113" t="s">
         <v>156</v>
@@ -5343,7 +5347,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G114" t="s">
         <v>159</v>
@@ -5366,7 +5370,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G115" t="s">
         <v>156</v>
@@ -5389,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G116" t="s">
         <v>146</v>
@@ -5412,7 +5416,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G117" t="s">
         <v>155</v>
@@ -5435,7 +5439,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G118" t="s">
         <v>161</v>
@@ -5449,7 +5453,7 @@
         <v>143</v>
       </c>
       <c r="C119" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D119" s="1">
         <v>9.9</v>
@@ -5458,7 +5462,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G119" t="s">
         <v>161</v>
@@ -5481,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G120" t="s">
         <v>150</v>
@@ -5504,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G121" t="s">
         <v>148</v>
@@ -5527,7 +5531,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G122" t="s">
         <v>152</v>
@@ -5550,7 +5554,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G123" t="s">
         <v>153</v>
@@ -5573,7 +5577,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G124" t="s">
         <v>154</v>
@@ -5587,7 +5591,7 @@
         <v>170</v>
       </c>
       <c r="C125" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D125" s="1">
         <v>9.9</v>
@@ -5596,7 +5600,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G125" t="s">
         <v>171</v>
@@ -5619,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G126" t="s">
         <v>171</v>
@@ -5633,7 +5637,7 @@
         <v>170</v>
       </c>
       <c r="C127" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D127" s="1">
         <v>10</v>
@@ -5642,7 +5646,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G127" t="s">
         <v>171</v>
@@ -5665,7 +5669,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G128" t="s">
         <v>171</v>
@@ -5688,7 +5692,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G129" t="s">
         <v>171</v>
@@ -5711,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G130" t="s">
         <v>171</v>
@@ -5734,7 +5738,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G131" t="s">
         <v>192</v>
@@ -5757,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G132" t="s">
         <v>171</v>
@@ -5780,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G133" t="s">
         <v>171</v>
@@ -5803,7 +5807,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G134" t="s">
         <v>171</v>
@@ -5826,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G135" t="s">
         <v>181</v>
@@ -5849,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G136" t="s">
         <v>194</v>
@@ -5872,7 +5876,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G137" t="s">
         <v>171</v>
@@ -5895,7 +5899,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G138" t="s">
         <v>190</v>
@@ -5918,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G139" t="s">
         <v>171</v>
@@ -5941,7 +5945,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G140" t="s">
         <v>171</v>
@@ -5964,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G141" t="s">
         <v>186</v>
@@ -5987,7 +5991,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G142" t="s">
         <v>184</v>
@@ -6010,7 +6014,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G143" t="s">
         <v>184</v>
@@ -6033,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G144" t="s">
         <v>208</v>
@@ -6044,7 +6048,7 @@
         <v>146</v>
       </c>
       <c r="B145" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C145" t="s">
         <v>204</v>
@@ -6056,7 +6060,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G145" t="s">
         <v>203</v>
@@ -6067,7 +6071,7 @@
         <v>147</v>
       </c>
       <c r="B146" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C146" t="s">
         <v>205</v>
@@ -6079,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G146" t="s">
         <v>203</v>
@@ -6090,7 +6094,7 @@
         <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C147" t="s">
         <v>206</v>
@@ -6102,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G147" t="s">
         <v>203</v>
@@ -6113,7 +6117,7 @@
         <v>149</v>
       </c>
       <c r="B148" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C148" t="s">
         <v>198</v>
@@ -6125,7 +6129,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G148" t="s">
         <v>197</v>
@@ -6136,7 +6140,7 @@
         <v>150</v>
       </c>
       <c r="B149" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C149" t="s">
         <v>199</v>
@@ -6148,7 +6152,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G149" t="s">
         <v>197</v>
@@ -6159,7 +6163,7 @@
         <v>151</v>
       </c>
       <c r="B150" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C150" t="s">
         <v>200</v>
@@ -6171,7 +6175,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G150" t="s">
         <v>197</v>
@@ -6182,7 +6186,7 @@
         <v>152</v>
       </c>
       <c r="B151" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C151" t="s">
         <v>202</v>
@@ -6194,7 +6198,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G151" t="s">
         <v>201</v>
@@ -6205,7 +6209,7 @@
         <v>153</v>
       </c>
       <c r="B152" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C152" t="s">
         <v>196</v>
@@ -6217,7 +6221,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G152" t="s">
         <v>195</v>
@@ -6240,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G153" t="s">
         <v>210</v>
@@ -6263,7 +6267,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G154" t="s">
         <v>212</v>
@@ -6286,7 +6290,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G155" t="s">
         <v>214</v>
@@ -6309,7 +6313,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G156" t="s">
         <v>216</v>
@@ -6332,7 +6336,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G157" t="s">
         <v>218</v>
@@ -6355,7 +6359,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G158" t="s">
         <v>220</v>
@@ -6378,7 +6382,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G159" t="s">
         <v>222</v>
@@ -6401,7 +6405,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G160" t="s">
         <v>224</v>
@@ -6424,7 +6428,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G161" t="s">
         <v>226</v>
@@ -6447,7 +6451,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G162" t="s">
         <v>229</v>
@@ -6470,7 +6474,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G163" t="s">
         <v>229</v>
@@ -6493,7 +6497,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G164" t="s">
         <v>229</v>
@@ -6516,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G165" t="s">
         <v>233</v>
@@ -6539,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G166" t="s">
         <v>233</v>
@@ -6562,7 +6566,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G167" t="s">
         <v>235</v>
@@ -6585,7 +6589,7 @@
         <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G168" t="s">
         <v>237</v>
@@ -6608,7 +6612,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G169" t="s">
         <v>241</v>
@@ -6631,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>241</v>
@@ -6654,7 +6658,7 @@
         <v>1</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>241</v>
@@ -6668,7 +6672,7 @@
         <v>240</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D172" s="4">
         <v>399</v>
@@ -6677,10 +6681,10 @@
         <v>1</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -6691,7 +6695,7 @@
         <v>240</v>
       </c>
       <c r="C173" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D173" s="1">
         <v>499</v>
@@ -6700,10 +6704,10 @@
         <v>1</v>
       </c>
       <c r="F173" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G173" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -6714,7 +6718,7 @@
         <v>240</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D174" s="4">
         <v>499</v>
@@ -6723,10 +6727,10 @@
         <v>1</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -6737,7 +6741,7 @@
         <v>240</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D175" s="4">
         <v>799</v>
@@ -6746,550 +6750,550 @@
         <v>1</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>239</v>
-      </c>
-      <c r="B176" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176" t="s">
         <v>240</v>
       </c>
-      <c r="C176" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="D176" s="4">
-        <v>400</v>
-      </c>
-      <c r="E176" s="3">
-        <v>1</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>597</v>
+      <c r="C176" t="s">
+        <v>603</v>
+      </c>
+      <c r="D176" s="1">
+        <v>999</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176" t="s">
+        <v>516</v>
       </c>
       <c r="G176" t="s">
-        <v>598</v>
+        <v>245</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>178</v>
-      </c>
-      <c r="B177" t="s">
+        <v>239</v>
+      </c>
+      <c r="B177" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C177" t="s">
-        <v>248</v>
-      </c>
-      <c r="D177" s="1">
-        <v>999</v>
-      </c>
-      <c r="E177">
-        <v>1</v>
-      </c>
-      <c r="F177" t="s">
-        <v>518</v>
+      <c r="C177" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="D177" s="4">
+        <v>400</v>
+      </c>
+      <c r="E177" s="3">
+        <v>1</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>596</v>
       </c>
       <c r="G177" t="s">
-        <v>247</v>
+        <v>597</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>591</v>
+        <v>240</v>
       </c>
       <c r="C178" t="s">
-        <v>354</v>
+        <v>247</v>
       </c>
       <c r="D178" s="1">
-        <v>499</v>
+        <v>999</v>
       </c>
       <c r="E178">
         <v>1</v>
       </c>
       <c r="F178" t="s">
-        <v>429</v>
+        <v>517</v>
       </c>
       <c r="G178" t="s">
-        <v>354</v>
+        <v>246</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C179" t="s">
-        <v>261</v>
+        <v>353</v>
       </c>
       <c r="D179" s="1">
-        <v>19.5</v>
+        <v>499</v>
       </c>
       <c r="E179">
         <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>519</v>
+        <v>428</v>
       </c>
       <c r="G179" t="s">
-        <v>261</v>
+        <v>353</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C180" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D180" s="1">
-        <v>59</v>
+        <v>19.5</v>
       </c>
       <c r="E180">
         <v>1</v>
       </c>
       <c r="F180" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G180" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C181" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D181" s="1">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E181">
         <v>1</v>
       </c>
       <c r="F181" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G181" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C182" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="D182" s="1">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="E182">
         <v>1</v>
       </c>
       <c r="F182" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G182" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C183" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D183" s="1">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c r="E183">
         <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G183" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C184" t="s">
         <v>263</v>
       </c>
       <c r="D184" s="1">
-        <v>269</v>
-      </c>
-      <c r="E184" s="6">
-        <v>0</v>
+        <v>229</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
       </c>
       <c r="F184" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G184" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C185" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D185" s="1">
         <v>269</v>
       </c>
-      <c r="E185">
-        <v>1</v>
+      <c r="E185" s="6">
+        <v>0</v>
       </c>
       <c r="F185" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G185" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C186" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D186" s="1">
-        <v>399</v>
+        <v>269</v>
       </c>
       <c r="E186">
         <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G186" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C187" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D187" s="1">
-        <v>799</v>
+        <v>399</v>
       </c>
       <c r="E187">
         <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>527</v>
-      </c>
-      <c r="G187" s="5" t="s">
-        <v>252</v>
+        <v>525</v>
+      </c>
+      <c r="G187" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C188" t="s">
         <v>258</v>
       </c>
       <c r="D188" s="1">
-        <v>999</v>
+        <v>799</v>
       </c>
       <c r="E188">
         <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C189" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D189" s="1">
-        <v>1299</v>
+        <v>999</v>
       </c>
       <c r="E189">
         <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C190" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D190" s="1">
-        <v>1399</v>
+        <v>1299</v>
       </c>
       <c r="E190">
         <v>1</v>
       </c>
       <c r="F190" t="s">
-        <v>530</v>
-      </c>
-      <c r="G190" t="s">
-        <v>260</v>
+        <v>528</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C191" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D191" s="1">
-        <v>19.5</v>
+        <v>1399</v>
       </c>
       <c r="E191">
         <v>1</v>
       </c>
       <c r="F191" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G191" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C192" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D192" s="1">
-        <v>59</v>
+        <v>19.5</v>
       </c>
       <c r="E192">
         <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G192" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C193" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D193" s="1">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E193">
         <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G193" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C194" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D194" s="1">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="E194">
         <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G194" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C195" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D195" s="1">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="E195">
         <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G195" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C196" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D196" s="1">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="E196">
         <v>1</v>
       </c>
       <c r="F196" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G196" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C197" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D197" s="1">
         <v>269</v>
       </c>
-      <c r="E197" s="6">
-        <v>0</v>
+      <c r="E197">
+        <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G197" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C198" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D198" s="1">
-        <v>399</v>
-      </c>
-      <c r="E198">
-        <v>1</v>
+        <v>269</v>
+      </c>
+      <c r="E198" s="6">
+        <v>0</v>
       </c>
       <c r="F198" t="s">
-        <v>538</v>
-      </c>
-      <c r="G198" s="5" t="s">
-        <v>266</v>
+        <v>536</v>
+      </c>
+      <c r="G198" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C199" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D199" s="1">
         <v>399</v>
@@ -7298,139 +7302,139 @@
         <v>1</v>
       </c>
       <c r="F199" t="s">
-        <v>539</v>
-      </c>
-      <c r="G199" t="s">
-        <v>275</v>
+        <v>537</v>
+      </c>
+      <c r="G199" s="5" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C200" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D200" s="1">
-        <v>599</v>
+        <v>399</v>
       </c>
       <c r="E200">
         <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>540</v>
-      </c>
-      <c r="G200" s="5" t="s">
-        <v>278</v>
+        <v>538</v>
+      </c>
+      <c r="G200" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C201" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D201" s="1">
-        <v>999</v>
+        <v>599</v>
       </c>
       <c r="E201">
         <v>1</v>
       </c>
       <c r="F201" t="s">
-        <v>541</v>
-      </c>
-      <c r="G201" t="s">
-        <v>280</v>
+        <v>539</v>
+      </c>
+      <c r="G201" s="5" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>283</v>
+        <v>592</v>
       </c>
       <c r="C202" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D202" s="1">
-        <v>5.2</v>
+        <v>999</v>
       </c>
       <c r="E202">
         <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G202" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C203" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D203" s="1">
-        <v>7.15</v>
+        <v>5.2</v>
       </c>
       <c r="E203">
         <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G203" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C204" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D204" s="1">
-        <v>12.95</v>
+        <v>7.15</v>
       </c>
       <c r="E204">
         <v>1</v>
       </c>
       <c r="F204" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G204" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C205" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D205" s="1">
-        <v>16.25</v>
+        <v>12.95</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -7439,188 +7443,188 @@
         <v>542</v>
       </c>
       <c r="G205" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B206" t="s">
+        <v>282</v>
+      </c>
+      <c r="C206" t="s">
+        <v>284</v>
+      </c>
+      <c r="D206" s="1">
+        <v>16.25</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206" t="s">
+        <v>541</v>
+      </c>
+      <c r="G206" t="s">
         <v>283</v>
-      </c>
-      <c r="C206" t="s">
-        <v>290</v>
-      </c>
-      <c r="D206" s="1">
-        <v>25</v>
-      </c>
-      <c r="E206">
-        <v>1</v>
-      </c>
-      <c r="F206" t="s">
-        <v>544</v>
-      </c>
-      <c r="G206" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C207" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D207" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E207">
         <v>1</v>
       </c>
       <c r="F207" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G207" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C208" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D208" s="1">
-        <v>3.9</v>
+        <v>100</v>
       </c>
       <c r="E208">
         <v>1</v>
       </c>
       <c r="F208" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G208" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C209" t="s">
         <v>299</v>
       </c>
       <c r="D209" s="1">
-        <v>6.9</v>
+        <v>3.9</v>
       </c>
       <c r="E209">
         <v>1</v>
       </c>
       <c r="F209" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G209" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C210" t="s">
         <v>298</v>
       </c>
       <c r="D210" s="1">
-        <v>29</v>
+        <v>6.9</v>
       </c>
       <c r="E210">
         <v>1</v>
       </c>
       <c r="F210" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G210" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B211" t="s">
+        <v>295</v>
+      </c>
+      <c r="C211" t="s">
+        <v>297</v>
+      </c>
+      <c r="D211" s="1">
+        <v>39</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211" t="s">
+        <v>547</v>
+      </c>
+      <c r="G211" t="s">
         <v>296</v>
-      </c>
-      <c r="C211" t="s">
-        <v>302</v>
-      </c>
-      <c r="D211" s="1">
-        <v>39.9</v>
-      </c>
-      <c r="E211">
-        <v>1</v>
-      </c>
-      <c r="F211" t="s">
-        <v>549</v>
-      </c>
-      <c r="G211" s="5" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>581</v>
+        <v>295</v>
       </c>
       <c r="C212" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D212" s="1">
-        <v>7</v>
+        <v>39.9</v>
       </c>
       <c r="E212">
         <v>1</v>
       </c>
       <c r="F212" t="s">
-        <v>550</v>
-      </c>
-      <c r="G212" t="s">
-        <v>305</v>
+        <v>548</v>
+      </c>
+      <c r="G212" s="5" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C213" t="s">
         <v>304</v>
       </c>
       <c r="D213" s="1">
-        <v>12.9</v>
+        <v>7</v>
       </c>
       <c r="E213">
         <v>1</v>
       </c>
       <c r="F213" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G213" t="s">
         <v>304</v>
@@ -7628,174 +7632,174 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C214" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D214" s="1">
-        <v>34.5</v>
+        <v>12.9</v>
       </c>
       <c r="E214">
         <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G214" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C215" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D215" s="1">
-        <v>99</v>
+        <v>34.5</v>
       </c>
       <c r="E215">
         <v>1</v>
       </c>
       <c r="F215" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G215" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>307</v>
+        <v>580</v>
       </c>
       <c r="C216" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="D216" s="1">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E216">
         <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G216" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C217" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="D217" s="1">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E217">
         <v>1</v>
       </c>
       <c r="F217" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G217" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B218" t="s">
+        <v>306</v>
+      </c>
+      <c r="C218" t="s">
         <v>307</v>
       </c>
-      <c r="C218" t="s">
-        <v>310</v>
-      </c>
       <c r="D218" s="1">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="E218">
         <v>1</v>
       </c>
       <c r="F218" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G218" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C219" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D219" s="1">
-        <v>299</v>
+        <v>100</v>
       </c>
       <c r="E219">
         <v>1</v>
       </c>
       <c r="F219" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G219" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C220" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D220" s="1">
-        <v>25</v>
+        <v>399</v>
       </c>
       <c r="E220">
         <v>1</v>
       </c>
       <c r="F220" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G220" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B221" t="s">
+        <v>312</v>
+      </c>
+      <c r="C221" t="s">
         <v>313</v>
-      </c>
-      <c r="C221" t="s">
-        <v>315</v>
       </c>
       <c r="D221" s="1">
         <v>25</v>
@@ -7804,21 +7808,21 @@
         <v>1</v>
       </c>
       <c r="F221" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G221" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C222" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D222" s="1">
         <v>25</v>
@@ -7827,21 +7831,21 @@
         <v>1</v>
       </c>
       <c r="F222" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G222" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C223" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D223" s="1">
         <v>25</v>
@@ -7850,21 +7854,21 @@
         <v>1</v>
       </c>
       <c r="F223" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G223" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C224" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D224" s="1">
         <v>25</v>
@@ -7873,44 +7877,44 @@
         <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G224" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C225" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D225" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E225">
         <v>1</v>
       </c>
       <c r="F225" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G225" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C226" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D226" s="1">
         <v>19</v>
@@ -7919,21 +7923,21 @@
         <v>1</v>
       </c>
       <c r="F226" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G226" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C227" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D227" s="1">
         <v>19</v>
@@ -7942,21 +7946,21 @@
         <v>1</v>
       </c>
       <c r="F227" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G227" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C228" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D228" s="1">
         <v>19</v>
@@ -7965,44 +7969,44 @@
         <v>1</v>
       </c>
       <c r="F228" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G228" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B229" t="s">
+        <v>318</v>
+      </c>
+      <c r="C229" t="s">
+        <v>323</v>
+      </c>
+      <c r="D229" s="1">
+        <v>19</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229" t="s">
+        <v>562</v>
+      </c>
+      <c r="G229" t="s">
         <v>319</v>
-      </c>
-      <c r="C229" t="s">
-        <v>326</v>
-      </c>
-      <c r="D229" s="1">
-        <v>6</v>
-      </c>
-      <c r="E229">
-        <v>1</v>
-      </c>
-      <c r="F229" t="s">
-        <v>564</v>
-      </c>
-      <c r="G229" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C230" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D230" s="1">
         <v>6</v>
@@ -8011,44 +8015,44 @@
         <v>1</v>
       </c>
       <c r="F230" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G230" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C231" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D231" s="1">
-        <v>9.9</v>
+        <v>6</v>
       </c>
       <c r="E231">
         <v>1</v>
       </c>
       <c r="F231" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G231" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C232" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D232" s="1">
         <v>9.9</v>
@@ -8057,21 +8061,21 @@
         <v>1</v>
       </c>
       <c r="F232" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G232" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C233" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D233" s="1">
         <v>9.9</v>
@@ -8080,21 +8084,21 @@
         <v>1</v>
       </c>
       <c r="F233" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G233" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C234" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D234" s="1">
         <v>9.9</v>
@@ -8103,67 +8107,67 @@
         <v>1</v>
       </c>
       <c r="F234" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G234" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B235" t="s">
+        <v>327</v>
+      </c>
+      <c r="C235" t="s">
+        <v>333</v>
+      </c>
+      <c r="D235" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235" t="s">
+        <v>568</v>
+      </c>
+      <c r="G235" t="s">
         <v>328</v>
-      </c>
-      <c r="C235" t="s">
-        <v>336</v>
-      </c>
-      <c r="D235" s="1">
-        <v>12</v>
-      </c>
-      <c r="E235">
-        <v>1</v>
-      </c>
-      <c r="F235" t="s">
-        <v>570</v>
-      </c>
-      <c r="G235" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C236" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D236" s="1">
-        <v>18.899999999999999</v>
+        <v>12</v>
       </c>
       <c r="E236">
         <v>1</v>
       </c>
       <c r="F236" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G236" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C237" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D237" s="1">
         <v>18.899999999999999</v>
@@ -8172,38 +8176,61 @@
         <v>1</v>
       </c>
       <c r="F237" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G237" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
+        <v>238</v>
+      </c>
+      <c r="B238" t="s">
+        <v>327</v>
+      </c>
+      <c r="C238" t="s">
+        <v>339</v>
+      </c>
+      <c r="D238" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238" t="s">
+        <v>571</v>
+      </c>
+      <c r="G238" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A239">
         <v>94</v>
       </c>
-      <c r="B238" t="s">
-        <v>594</v>
-      </c>
-      <c r="C238" t="s">
+      <c r="B239" t="s">
+        <v>593</v>
+      </c>
+      <c r="C239" t="s">
         <v>130</v>
       </c>
-      <c r="D238" s="1">
+      <c r="D239" s="1">
         <v>999</v>
       </c>
-      <c r="E238">
-        <v>1</v>
-      </c>
-      <c r="F238" t="s">
-        <v>583</v>
-      </c>
-      <c r="G238" t="s">
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239" t="s">
+        <v>582</v>
+      </c>
+      <c r="G239" t="s">
         <v>129</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A216:G219">
-    <sortCondition ref="D216:D219"/>
+  <sortState ref="A217:G220">
+    <sortCondition ref="D217:D220"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8213,8 +8240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8231,7 +8258,7 @@
         <v>240</v>
       </c>
       <c r="C1" t="s">
-        <v>246</v>
+        <v>603</v>
       </c>
       <c r="D1" s="1">
         <v>999</v>
@@ -8240,7 +8267,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G1" t="s">
         <v>245</v>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="601">
   <si>
     <t>Name</t>
   </si>
@@ -1074,12 +1074,6 @@
     <t>Sahasra Bhuja Lokeshvara Avalokitesvara 18cm</t>
   </si>
   <si>
-    <t>Sahasra Bhuja Lokeshvara Avalokitesvara 21cm</t>
-  </si>
-  <si>
-    <t>Sahasra Bhuja Lokeshvara Avalokitesvara 21cm halbvergoldete Kupferstatue</t>
-  </si>
-  <si>
     <t>Arapacana-Manjusri Kupferstatue 8cm</t>
   </si>
   <si>
@@ -1360,9 +1354,6 @@
   </si>
   <si>
     <t>MBAva008.JPG</t>
-  </si>
-  <si>
-    <t>MBAva050.JPG, MBAva051.JPG</t>
   </si>
   <si>
     <t>MBAva022.JPG, MBAva023.JPG</t>
@@ -2714,10 +2705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K239"/>
+  <dimension ref="A1:K238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:XFD93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2729,25 +2720,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F1" t="s">
         <v>363</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>364</v>
-      </c>
-      <c r="F1" t="s">
-        <v>365</v>
-      </c>
-      <c r="G1" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2767,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2790,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
@@ -2813,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -2836,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
@@ -2859,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -2882,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -2905,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -2928,7 +2919,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -2951,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G10" t="s">
         <v>3</v>
@@ -2974,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -2997,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -3020,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G13" t="s">
         <v>21</v>
@@ -3043,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -3066,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -3089,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G16" t="s">
         <v>2</v>
@@ -3112,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G17" t="s">
         <v>2</v>
@@ -3135,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G18" t="s">
         <v>23</v>
@@ -3158,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G19" t="s">
         <v>23</v>
@@ -3181,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
@@ -3204,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -3227,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
@@ -3250,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G23" t="s">
         <v>31</v>
@@ -3273,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -3296,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>36</v>
@@ -3319,7 +3310,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -3342,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
@@ -3365,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G28" t="s">
         <v>42</v>
@@ -3388,7 +3379,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G29" t="s">
         <v>39</v>
@@ -3411,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G30" t="s">
         <v>41</v>
@@ -3434,7 +3425,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G31" t="s">
         <v>43</v>
@@ -3457,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3480,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3503,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G34" t="s">
         <v>47</v>
@@ -3526,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G35" t="s">
         <v>48</v>
@@ -3549,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -3572,7 +3563,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G37" t="s">
         <v>50</v>
@@ -3595,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G38" t="s">
         <v>54</v>
@@ -3618,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G39" t="s">
         <v>50</v>
@@ -3641,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G40" t="s">
         <v>55</v>
@@ -3664,7 +3655,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G41" t="s">
         <v>50</v>
@@ -3687,7 +3678,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G42" t="s">
         <v>57</v>
@@ -3710,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G43" t="s">
         <v>59</v>
@@ -3733,7 +3724,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G44" t="s">
         <v>61</v>
@@ -3756,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G45" t="s">
         <v>68</v>
@@ -3779,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G46" t="s">
         <v>66</v>
@@ -3802,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G47" t="s">
         <v>67</v>
@@ -3825,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G48" t="s">
         <v>64</v>
@@ -3848,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G49" t="s">
         <v>70</v>
@@ -3862,7 +3853,7 @@
         <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D50" s="1">
         <v>250</v>
@@ -3871,10 +3862,10 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -3894,7 +3885,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G51" t="s">
         <v>71</v>
@@ -3917,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G52" t="s">
         <v>77</v>
@@ -3940,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G53" t="s">
         <v>73</v>
@@ -3963,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>340</v>
@@ -3986,7 +3977,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>76</v>
@@ -4009,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G56" t="s">
         <v>78</v>
@@ -4032,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G57" t="s">
         <v>84</v>
@@ -4055,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G58" t="s">
         <v>83</v>
@@ -4078,7 +4069,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G59" t="s">
         <v>85</v>
@@ -4101,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G60" t="s">
         <v>89</v>
@@ -4124,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G61" t="s">
         <v>87</v>
@@ -4147,7 +4138,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G62" t="s">
         <v>343</v>
@@ -4170,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G63" t="s">
         <v>86</v>
@@ -4193,7 +4184,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G64" t="s">
         <v>81</v>
@@ -4207,7 +4198,7 @@
         <v>80</v>
       </c>
       <c r="C65" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D65" s="1">
         <v>1000</v>
@@ -4216,10 +4207,10 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -4239,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G66" t="s">
         <v>91</v>
@@ -4262,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G67" t="s">
         <v>98</v>
@@ -4285,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G68" t="s">
         <v>94</v>
@@ -4308,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G69" t="s">
         <v>95</v>
@@ -4331,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G70" t="s">
         <v>96</v>
@@ -4342,7 +4333,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C71" t="s">
         <v>115</v>
@@ -4354,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G71" t="s">
         <v>114</v>
@@ -4365,7 +4356,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C72" t="s">
         <v>117</v>
@@ -4377,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G72" t="s">
         <v>116</v>
@@ -4388,7 +4379,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C73" t="s">
         <v>105</v>
@@ -4400,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G73" t="s">
         <v>104</v>
@@ -4411,7 +4402,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C74" t="s">
         <v>107</v>
@@ -4423,7 +4414,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G74" t="s">
         <v>106</v>
@@ -4434,7 +4425,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C75" t="s">
         <v>109</v>
@@ -4446,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G75" t="s">
         <v>108</v>
@@ -4457,7 +4448,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C76" t="s">
         <v>111</v>
@@ -4469,7 +4460,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G76" t="s">
         <v>110</v>
@@ -4480,7 +4471,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C77" t="s">
         <v>113</v>
@@ -4492,7 +4483,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G77" t="s">
         <v>112</v>
@@ -4503,7 +4494,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C78" t="s">
         <v>101</v>
@@ -4515,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G78" t="s">
         <v>99</v>
@@ -4526,7 +4517,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C79" t="s">
         <v>100</v>
@@ -4538,7 +4529,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G79" t="s">
         <v>99</v>
@@ -4549,7 +4540,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C80" t="s">
         <v>102</v>
@@ -4561,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G80" t="s">
         <v>99</v>
@@ -4572,7 +4563,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C81" t="s">
         <v>103</v>
@@ -4584,7 +4575,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G81" t="s">
         <v>99</v>
@@ -4595,7 +4586,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C82" t="s">
         <v>124</v>
@@ -4607,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G82" t="s">
         <v>124</v>
@@ -4618,7 +4609,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C83" t="s">
         <v>132</v>
@@ -4630,7 +4621,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G83" t="s">
         <v>132</v>
@@ -4641,7 +4632,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C84" t="s">
         <v>131</v>
@@ -4653,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G84" t="s">
         <v>131</v>
@@ -4664,7 +4655,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C85" t="s">
         <v>128</v>
@@ -4676,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G85" t="s">
         <v>128</v>
@@ -4687,7 +4678,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C86" t="s">
         <v>126</v>
@@ -4699,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G86" t="s">
         <v>125</v>
@@ -4710,7 +4701,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C87" t="s">
         <v>127</v>
@@ -4722,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G87" t="s">
         <v>127</v>
@@ -4733,7 +4724,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C88" t="s">
         <v>119</v>
@@ -4745,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G88" t="s">
         <v>345</v>
@@ -4756,7 +4747,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C89" t="s">
         <v>134</v>
@@ -4768,7 +4759,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G89" t="s">
         <v>133</v>
@@ -4779,7 +4770,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C90" t="s">
         <v>119</v>
@@ -4791,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G90" t="s">
         <v>118</v>
@@ -4802,7 +4793,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C91" t="s">
         <v>123</v>
@@ -4814,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G91" t="s">
         <v>122</v>
@@ -4825,7 +4816,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C92" t="s">
         <v>346</v>
@@ -4837,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G92" t="s">
         <v>346</v>
@@ -4845,270 +4836,270 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C93" t="s">
-        <v>347</v>
+        <v>121</v>
       </c>
       <c r="D93" s="1">
-        <v>399</v>
+        <v>999</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G93" t="s">
-        <v>348</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C94" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D94" s="1">
-        <v>999</v>
+        <v>19.5</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G94" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C95" t="s">
-        <v>138</v>
+        <v>347</v>
       </c>
       <c r="D95" s="1">
-        <v>19.5</v>
+        <v>59</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G95" t="s">
-        <v>138</v>
+        <v>347</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C96" t="s">
-        <v>349</v>
+        <v>137</v>
       </c>
       <c r="D96" s="1">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G96" t="s">
-        <v>349</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C97" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D97" s="1">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G97" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C98" t="s">
-        <v>139</v>
+        <v>348</v>
       </c>
       <c r="D98" s="1">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G98" t="s">
-        <v>139</v>
+        <v>348</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C99" t="s">
-        <v>350</v>
+        <v>136</v>
       </c>
       <c r="D99" s="1">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>450</v>
-      </c>
-      <c r="G99" t="s">
-        <v>350</v>
+        <v>448</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C100" t="s">
-        <v>136</v>
+        <v>349</v>
       </c>
       <c r="D100" s="1">
-        <v>269</v>
+        <v>399</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>451</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>135</v>
+        <v>449</v>
+      </c>
+      <c r="G100" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>594</v>
-      </c>
-      <c r="C101" t="s">
-        <v>351</v>
-      </c>
-      <c r="D101" s="1">
-        <v>399</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-      <c r="F101" t="s">
-        <v>452</v>
-      </c>
-      <c r="G101" t="s">
-        <v>352</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D101" s="4">
+        <v>999</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>594</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D102" s="4">
-        <v>999</v>
-      </c>
-      <c r="E102" s="3">
-        <v>1</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
+        <v>591</v>
+      </c>
+      <c r="C102" t="s">
+        <v>142</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1999</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>451</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>594</v>
+        <v>143</v>
       </c>
       <c r="C103" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="D103" s="1">
-        <v>1999</v>
+        <v>5.9</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>454</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>141</v>
+        <v>452</v>
+      </c>
+      <c r="G103" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B104" t="s">
         <v>143</v>
       </c>
       <c r="C104" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D104" s="1">
         <v>5.9</v>
@@ -5117,7 +5108,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G104" t="s">
         <v>161</v>
@@ -5125,13 +5116,13 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B105" t="s">
         <v>143</v>
       </c>
       <c r="C105" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D105" s="1">
         <v>5.9</v>
@@ -5140,7 +5131,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G105" t="s">
         <v>161</v>
@@ -5148,13 +5139,13 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B106" t="s">
         <v>143</v>
       </c>
       <c r="C106" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D106" s="1">
         <v>5.9</v>
@@ -5163,7 +5154,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G106" t="s">
         <v>161</v>
@@ -5171,13 +5162,13 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B107" t="s">
         <v>143</v>
       </c>
       <c r="C107" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D107" s="1">
         <v>5.9</v>
@@ -5186,7 +5177,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G107" t="s">
         <v>161</v>
@@ -5194,13 +5185,13 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B108" t="s">
         <v>143</v>
       </c>
       <c r="C108" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D108" s="1">
         <v>5.9</v>
@@ -5209,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G108" t="s">
         <v>161</v>
@@ -5217,82 +5208,82 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B109" t="s">
         <v>143</v>
       </c>
       <c r="C109" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="D109" s="1">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G109" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B110" t="s">
         <v>143</v>
       </c>
       <c r="C110" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="D110" s="1">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G110" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B111" t="s">
         <v>143</v>
       </c>
       <c r="C111" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D111" s="1">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G111" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B112" t="s">
         <v>143</v>
       </c>
       <c r="C112" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D112" s="1">
         <v>7.5</v>
@@ -5301,7 +5292,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G112" t="s">
         <v>156</v>
@@ -5309,13 +5300,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B113" t="s">
         <v>143</v>
       </c>
       <c r="C113" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D113" s="1">
         <v>7.5</v>
@@ -5324,21 +5315,21 @@
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G113" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B114" t="s">
         <v>143</v>
       </c>
       <c r="C114" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D114" s="1">
         <v>7.5</v>
@@ -5347,90 +5338,90 @@
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G114" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B115" t="s">
         <v>143</v>
       </c>
       <c r="C115" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="D115" s="1">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="E115">
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G115" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B116" t="s">
         <v>143</v>
       </c>
       <c r="C116" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D116" s="1">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="E116">
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G116" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B117" t="s">
         <v>143</v>
       </c>
       <c r="C117" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D117" s="1">
-        <v>8.5</v>
+        <v>9.9</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G117" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B118" t="s">
         <v>143</v>
       </c>
       <c r="C118" t="s">
-        <v>166</v>
+        <v>357</v>
       </c>
       <c r="D118" s="1">
         <v>9.9</v>
@@ -5439,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G118" t="s">
         <v>161</v>
@@ -5447,82 +5438,82 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B119" t="s">
         <v>143</v>
       </c>
       <c r="C119" t="s">
-        <v>359</v>
+        <v>151</v>
       </c>
       <c r="D119" s="1">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="E119">
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G119" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B120" t="s">
         <v>143</v>
       </c>
       <c r="C120" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D120" s="1">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="E120">
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G120" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B121" t="s">
         <v>143</v>
       </c>
       <c r="C121" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D121" s="1">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="E121">
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G121" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B122" t="s">
         <v>143</v>
       </c>
       <c r="C122" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D122" s="1">
         <v>12</v>
@@ -5531,21 +5522,21 @@
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G122" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B123" t="s">
         <v>143</v>
       </c>
       <c r="C123" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D123" s="1">
         <v>12</v>
@@ -5554,44 +5545,44 @@
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G123" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="C124" t="s">
-        <v>154</v>
+        <v>356</v>
       </c>
       <c r="D124" s="1">
-        <v>12</v>
+        <v>9.9</v>
       </c>
       <c r="E124">
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G124" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B125" t="s">
         <v>170</v>
       </c>
       <c r="C125" t="s">
-        <v>358</v>
+        <v>183</v>
       </c>
       <c r="D125" s="1">
         <v>9.9</v>
@@ -5600,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G125" t="s">
         <v>171</v>
@@ -5608,22 +5599,22 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B126" t="s">
         <v>170</v>
       </c>
       <c r="C126" t="s">
-        <v>183</v>
+        <v>281</v>
       </c>
       <c r="D126" s="1">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="E126">
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G126" t="s">
         <v>171</v>
@@ -5631,22 +5622,22 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B127" t="s">
         <v>170</v>
       </c>
       <c r="C127" t="s">
-        <v>281</v>
+        <v>172</v>
       </c>
       <c r="D127" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E127">
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G127" t="s">
         <v>171</v>
@@ -5654,13 +5645,13 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B128" t="s">
         <v>170</v>
       </c>
       <c r="C128" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D128" s="1">
         <v>14</v>
@@ -5669,7 +5660,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G128" t="s">
         <v>171</v>
@@ -5677,22 +5668,22 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B129" t="s">
         <v>170</v>
       </c>
       <c r="C129" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D129" s="1">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="E129">
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G129" t="s">
         <v>171</v>
@@ -5700,59 +5691,59 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="C130" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="D130" s="1">
-        <v>14.5</v>
+        <v>16.8</v>
       </c>
       <c r="E130">
         <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G130" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C131" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="D131" s="1">
-        <v>16.8</v>
+        <v>19.5</v>
       </c>
       <c r="E131">
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G131" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B132" t="s">
         <v>170</v>
       </c>
       <c r="C132" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D132" s="1">
         <v>19.5</v>
@@ -5761,7 +5752,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G132" t="s">
         <v>171</v>
@@ -5769,16 +5760,16 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B133" t="s">
         <v>170</v>
       </c>
       <c r="C133" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D133" s="1">
-        <v>19.5</v>
+        <v>24.5</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -5792,137 +5783,137 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B134" t="s">
         <v>170</v>
       </c>
       <c r="C134" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D134" s="1">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="E134">
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G134" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="C135" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="D135" s="1">
-        <v>25</v>
+        <v>28.2</v>
       </c>
       <c r="E135">
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G135" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C136" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D136" s="1">
-        <v>28.2</v>
+        <v>29.5</v>
       </c>
       <c r="E136">
         <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G136" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="C137" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="D137" s="1">
-        <v>29.5</v>
+        <v>29.9</v>
       </c>
       <c r="E137">
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G137" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C138" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D138" s="1">
-        <v>29.9</v>
+        <v>34</v>
       </c>
       <c r="E138">
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G138" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B139" t="s">
         <v>170</v>
       </c>
       <c r="C139" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D139" s="1">
-        <v>34</v>
+        <v>34.5</v>
       </c>
       <c r="E139">
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G139" t="s">
         <v>171</v>
@@ -5930,59 +5921,59 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B140" t="s">
         <v>170</v>
       </c>
       <c r="C140" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D140" s="1">
-        <v>34.5</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="E140">
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G140" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B141" t="s">
         <v>170</v>
       </c>
       <c r="C141" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D141" s="1">
-        <v>79.900000000000006</v>
+        <v>89.9</v>
       </c>
       <c r="E141">
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G141" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B142" t="s">
         <v>170</v>
       </c>
       <c r="C142" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D142" s="1">
         <v>89.9</v>
@@ -5991,7 +5982,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G142" t="s">
         <v>184</v>
@@ -5999,59 +5990,59 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="C143" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="D143" s="1">
-        <v>89.9</v>
+        <v>49.9</v>
       </c>
       <c r="E143">
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G143" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>207</v>
+        <v>569</v>
       </c>
       <c r="C144" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D144" s="1">
-        <v>49.9</v>
+        <v>89</v>
       </c>
       <c r="E144">
         <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>492</v>
+        <v>570</v>
       </c>
       <c r="G144" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C145" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D145" s="1">
         <v>89</v>
@@ -6060,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="G145" t="s">
         <v>203</v>
@@ -6068,13 +6059,13 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C146" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D146" s="1">
         <v>89</v>
@@ -6083,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="G146" t="s">
         <v>203</v>
@@ -6091,36 +6082,36 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B147" t="s">
+        <v>569</v>
+      </c>
+      <c r="C147" t="s">
+        <v>198</v>
+      </c>
+      <c r="D147" s="1">
+        <v>99</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147" t="s">
         <v>572</v>
       </c>
-      <c r="C147" t="s">
-        <v>206</v>
-      </c>
-      <c r="D147" s="1">
-        <v>89</v>
-      </c>
-      <c r="E147">
-        <v>1</v>
-      </c>
-      <c r="F147" t="s">
-        <v>574</v>
-      </c>
       <c r="G147" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C148" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D148" s="1">
         <v>99</v>
@@ -6129,7 +6120,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G148" t="s">
         <v>197</v>
@@ -6137,13 +6128,13 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C149" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D149" s="1">
         <v>99</v>
@@ -6152,7 +6143,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G149" t="s">
         <v>197</v>
@@ -6160,13 +6151,13 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B150" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C150" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D150" s="1">
         <v>99</v>
@@ -6175,67 +6166,67 @@
         <v>1</v>
       </c>
       <c r="F150" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G150" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B151" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C151" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D151" s="1">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="E151">
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G151" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>572</v>
+        <v>207</v>
       </c>
       <c r="C152" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D152" s="1">
-        <v>179</v>
+        <v>49.9</v>
       </c>
       <c r="E152">
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>579</v>
+        <v>490</v>
       </c>
       <c r="G152" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B153" t="s">
         <v>207</v>
       </c>
       <c r="C153" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D153" s="1">
         <v>49.9</v>
@@ -6244,21 +6235,21 @@
         <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G153" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B154" t="s">
         <v>207</v>
       </c>
       <c r="C154" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D154" s="1">
         <v>49.9</v>
@@ -6267,21 +6258,21 @@
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G154" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B155" t="s">
         <v>207</v>
       </c>
       <c r="C155" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D155" s="1">
         <v>49.9</v>
@@ -6290,21 +6281,21 @@
         <v>1</v>
       </c>
       <c r="F155" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G155" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B156" t="s">
         <v>207</v>
       </c>
       <c r="C156" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D156" s="1">
         <v>49.9</v>
@@ -6313,21 +6304,21 @@
         <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G156" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B157" t="s">
         <v>207</v>
       </c>
       <c r="C157" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D157" s="1">
         <v>49.9</v>
@@ -6336,21 +6327,21 @@
         <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G157" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B158" t="s">
         <v>207</v>
       </c>
       <c r="C158" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D158" s="1">
         <v>49.9</v>
@@ -6359,21 +6350,21 @@
         <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G158" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B159" t="s">
         <v>207</v>
       </c>
       <c r="C159" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D159" s="1">
         <v>49.9</v>
@@ -6382,21 +6373,21 @@
         <v>1</v>
       </c>
       <c r="F159" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G159" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B160" t="s">
         <v>207</v>
       </c>
       <c r="C160" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D160" s="1">
         <v>49.9</v>
@@ -6405,44 +6396,44 @@
         <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G160" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B161" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="C161" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D161" s="1">
-        <v>49.9</v>
+        <v>199</v>
       </c>
       <c r="E161">
         <v>1</v>
       </c>
       <c r="F161" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G161" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B162" t="s">
         <v>228</v>
       </c>
       <c r="C162" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D162" s="1">
         <v>199</v>
@@ -6451,7 +6442,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G162" t="s">
         <v>229</v>
@@ -6459,13 +6450,13 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B163" t="s">
         <v>228</v>
       </c>
       <c r="C163" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D163" s="1">
         <v>199</v>
@@ -6474,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G163" t="s">
         <v>229</v>
@@ -6482,13 +6473,13 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B164" t="s">
         <v>228</v>
       </c>
       <c r="C164" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D164" s="1">
         <v>199</v>
@@ -6497,30 +6488,30 @@
         <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G164" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B165" t="s">
         <v>228</v>
       </c>
       <c r="C165" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D165" s="1">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="E165">
         <v>1</v>
       </c>
       <c r="F165" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G165" t="s">
         <v>233</v>
@@ -6528,13 +6519,13 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B166" t="s">
         <v>228</v>
       </c>
       <c r="C166" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D166" s="1">
         <v>249</v>
@@ -6543,21 +6534,21 @@
         <v>1</v>
       </c>
       <c r="F166" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G166" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B167" t="s">
         <v>228</v>
       </c>
       <c r="C167" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D167" s="1">
         <v>249</v>
@@ -6566,67 +6557,67 @@
         <v>1</v>
       </c>
       <c r="F167" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G167" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B168" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C168" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D168" s="1">
-        <v>249</v>
+        <v>399</v>
       </c>
       <c r="E168">
         <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G168" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>170</v>
-      </c>
-      <c r="B169" t="s">
+        <v>171</v>
+      </c>
+      <c r="B169" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C169" t="s">
-        <v>242</v>
-      </c>
-      <c r="D169" s="1">
+      <c r="C169" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D169" s="4">
         <v>399</v>
       </c>
-      <c r="E169">
-        <v>1</v>
-      </c>
-      <c r="F169" t="s">
-        <v>509</v>
-      </c>
-      <c r="G169" t="s">
+      <c r="E169" s="3">
+        <v>1</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="G169" s="3" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D170" s="4">
         <v>399</v>
@@ -6635,7 +6626,7 @@
         <v>1</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>241</v>
@@ -6643,13 +6634,13 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>244</v>
+        <v>353</v>
       </c>
       <c r="D171" s="4">
         <v>399</v>
@@ -6658,317 +6649,317 @@
         <v>1</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>241</v>
+        <v>352</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>173</v>
-      </c>
-      <c r="B172" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B172" t="s">
         <v>240</v>
       </c>
-      <c r="C172" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D172" s="4">
-        <v>399</v>
-      </c>
-      <c r="E172" s="3">
-        <v>1</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="G172" s="3" t="s">
-        <v>354</v>
+      <c r="C172" t="s">
+        <v>248</v>
+      </c>
+      <c r="D172" s="1">
+        <v>499</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172" t="s">
+        <v>510</v>
+      </c>
+      <c r="G172" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>174</v>
-      </c>
-      <c r="B173" t="s">
+        <v>175</v>
+      </c>
+      <c r="B173" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C173" t="s">
-        <v>248</v>
-      </c>
-      <c r="D173" s="1">
+      <c r="C173" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D173" s="4">
         <v>499</v>
       </c>
-      <c r="E173">
-        <v>1</v>
-      </c>
-      <c r="F173" t="s">
-        <v>513</v>
-      </c>
-      <c r="G173" t="s">
-        <v>246</v>
+      <c r="E173" s="3">
+        <v>1</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D174" s="4">
-        <v>499</v>
+        <v>799</v>
       </c>
       <c r="E174" s="3">
         <v>1</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>176</v>
-      </c>
-      <c r="B175" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B175" t="s">
         <v>240</v>
       </c>
-      <c r="C175" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D175" s="4">
-        <v>799</v>
-      </c>
-      <c r="E175" s="3">
-        <v>1</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="G175" s="3" t="s">
-        <v>250</v>
+      <c r="C175" t="s">
+        <v>600</v>
+      </c>
+      <c r="D175" s="1">
+        <v>999</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175" t="s">
+        <v>513</v>
+      </c>
+      <c r="G175" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>177</v>
-      </c>
-      <c r="B176" t="s">
+        <v>239</v>
+      </c>
+      <c r="B176" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C176" t="s">
-        <v>603</v>
-      </c>
-      <c r="D176" s="1">
-        <v>999</v>
-      </c>
-      <c r="E176">
-        <v>1</v>
-      </c>
-      <c r="F176" t="s">
-        <v>516</v>
+      <c r="C176" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D176" s="4">
+        <v>400</v>
+      </c>
+      <c r="E176" s="3">
+        <v>1</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>593</v>
       </c>
       <c r="G176" t="s">
-        <v>245</v>
+        <v>594</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>239</v>
-      </c>
-      <c r="B177" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177" t="s">
         <v>240</v>
       </c>
-      <c r="C177" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="D177" s="4">
-        <v>400</v>
-      </c>
-      <c r="E177" s="3">
-        <v>1</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>596</v>
+      <c r="C177" t="s">
+        <v>247</v>
+      </c>
+      <c r="D177" s="1">
+        <v>999</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177" t="s">
+        <v>514</v>
       </c>
       <c r="G177" t="s">
-        <v>597</v>
+        <v>246</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B178" t="s">
-        <v>240</v>
+        <v>587</v>
       </c>
       <c r="C178" t="s">
-        <v>247</v>
+        <v>351</v>
       </c>
       <c r="D178" s="1">
-        <v>999</v>
+        <v>499</v>
       </c>
       <c r="E178">
         <v>1</v>
       </c>
       <c r="F178" t="s">
-        <v>517</v>
+        <v>426</v>
       </c>
       <c r="G178" t="s">
-        <v>246</v>
+        <v>351</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B179" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C179" t="s">
-        <v>353</v>
+        <v>260</v>
       </c>
       <c r="D179" s="1">
-        <v>499</v>
+        <v>19.5</v>
       </c>
       <c r="E179">
         <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>428</v>
+        <v>515</v>
       </c>
       <c r="G179" t="s">
-        <v>353</v>
+        <v>260</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B180" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C180" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D180" s="1">
-        <v>19.5</v>
+        <v>59</v>
       </c>
       <c r="E180">
         <v>1</v>
       </c>
       <c r="F180" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G180" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C181" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="D181" s="1">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E181">
         <v>1</v>
       </c>
       <c r="F181" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G181" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C182" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D182" s="1">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="E182">
         <v>1</v>
       </c>
       <c r="F182" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G182" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B183" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C183" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="D183" s="1">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="E183">
         <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G183" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C184" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D184" s="1">
-        <v>229</v>
-      </c>
-      <c r="E184">
-        <v>1</v>
+        <v>269</v>
+      </c>
+      <c r="E184" s="6">
+        <v>0</v>
       </c>
       <c r="F184" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G184" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B185" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C185" t="s">
         <v>262</v>
@@ -6976,11 +6967,11 @@
       <c r="D185" s="1">
         <v>269</v>
       </c>
-      <c r="E185" s="6">
-        <v>0</v>
+      <c r="E185">
+        <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G185" t="s">
         <v>261</v>
@@ -6988,312 +6979,312 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B186" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C186" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D186" s="1">
-        <v>269</v>
+        <v>399</v>
       </c>
       <c r="E186">
         <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G186" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B187" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C187" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D187" s="1">
-        <v>399</v>
+        <v>799</v>
       </c>
       <c r="E187">
         <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>525</v>
-      </c>
-      <c r="G187" t="s">
-        <v>254</v>
+        <v>523</v>
+      </c>
+      <c r="G187" s="5" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B188" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C188" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D188" s="1">
-        <v>799</v>
+        <v>999</v>
       </c>
       <c r="E188">
         <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B189" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C189" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D189" s="1">
-        <v>999</v>
+        <v>1299</v>
       </c>
       <c r="E189">
         <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B190" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C190" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D190" s="1">
-        <v>1299</v>
+        <v>1399</v>
       </c>
       <c r="E190">
         <v>1</v>
       </c>
       <c r="F190" t="s">
-        <v>528</v>
-      </c>
-      <c r="G190" s="5" t="s">
-        <v>251</v>
+        <v>526</v>
+      </c>
+      <c r="G190" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B191" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C191" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="D191" s="1">
-        <v>1399</v>
+        <v>19.5</v>
       </c>
       <c r="E191">
         <v>1</v>
       </c>
       <c r="F191" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G191" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B192" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C192" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D192" s="1">
-        <v>19.5</v>
+        <v>59</v>
       </c>
       <c r="E192">
         <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G192" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B193" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C193" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D193" s="1">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E193">
         <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G193" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B194" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C194" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D194" s="1">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="E194">
         <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G194" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B195" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C195" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D195" s="1">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="E195">
         <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G195" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B196" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C196" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D196" s="1">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="E196">
         <v>1</v>
       </c>
       <c r="F196" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G196" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B197" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C197" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D197" s="1">
         <v>269</v>
       </c>
-      <c r="E197">
-        <v>1</v>
+      <c r="E197" s="6">
+        <v>0</v>
       </c>
       <c r="F197" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G197" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B198" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C198" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D198" s="1">
-        <v>269</v>
-      </c>
-      <c r="E198" s="6">
-        <v>0</v>
+        <v>399</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
       </c>
       <c r="F198" t="s">
-        <v>536</v>
-      </c>
-      <c r="G198" t="s">
-        <v>269</v>
+        <v>534</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B199" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C199" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="D199" s="1">
         <v>399</v>
@@ -7302,237 +7293,237 @@
         <v>1</v>
       </c>
       <c r="F199" t="s">
-        <v>537</v>
-      </c>
-      <c r="G199" s="5" t="s">
-        <v>265</v>
+        <v>535</v>
+      </c>
+      <c r="G199" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B200" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C200" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D200" s="1">
-        <v>399</v>
+        <v>599</v>
       </c>
       <c r="E200">
         <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>538</v>
-      </c>
-      <c r="G200" t="s">
-        <v>274</v>
+        <v>536</v>
+      </c>
+      <c r="G200" s="5" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B201" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C201" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D201" s="1">
-        <v>599</v>
+        <v>999</v>
       </c>
       <c r="E201">
         <v>1</v>
       </c>
       <c r="F201" t="s">
-        <v>539</v>
-      </c>
-      <c r="G201" s="5" t="s">
-        <v>277</v>
+        <v>537</v>
+      </c>
+      <c r="G201" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B202" t="s">
-        <v>592</v>
+        <v>282</v>
       </c>
       <c r="C202" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D202" s="1">
-        <v>999</v>
+        <v>5.2</v>
       </c>
       <c r="E202">
         <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G202" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B203" t="s">
         <v>282</v>
       </c>
       <c r="C203" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D203" s="1">
-        <v>5.2</v>
+        <v>7.15</v>
       </c>
       <c r="E203">
         <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G203" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B204" t="s">
         <v>282</v>
       </c>
       <c r="C204" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D204" s="1">
-        <v>7.15</v>
+        <v>12.95</v>
       </c>
       <c r="E204">
         <v>1</v>
       </c>
       <c r="F204" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G204" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B205" t="s">
         <v>282</v>
       </c>
       <c r="C205" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D205" s="1">
-        <v>12.95</v>
+        <v>16.25</v>
       </c>
       <c r="E205">
         <v>1</v>
       </c>
       <c r="F205" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G205" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B206" t="s">
         <v>282</v>
       </c>
       <c r="C206" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D206" s="1">
-        <v>16.25</v>
+        <v>25</v>
       </c>
       <c r="E206">
         <v>1</v>
       </c>
       <c r="F206" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G206" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B207" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="C207" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D207" s="1">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E207">
         <v>1</v>
       </c>
       <c r="F207" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G207" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B208" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C208" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D208" s="1">
-        <v>100</v>
+        <v>3.9</v>
       </c>
       <c r="E208">
         <v>1</v>
       </c>
       <c r="F208" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G208" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B209" t="s">
         <v>295</v>
       </c>
       <c r="C209" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D209" s="1">
-        <v>3.9</v>
+        <v>6.9</v>
       </c>
       <c r="E209">
         <v>1</v>
       </c>
       <c r="F209" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G209" t="s">
         <v>296</v>
@@ -7540,22 +7531,22 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B210" t="s">
         <v>295</v>
       </c>
       <c r="C210" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D210" s="1">
-        <v>6.9</v>
+        <v>39</v>
       </c>
       <c r="E210">
         <v>1</v>
       </c>
       <c r="F210" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G210" t="s">
         <v>296</v>
@@ -7563,243 +7554,243 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B211" t="s">
         <v>295</v>
       </c>
       <c r="C211" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D211" s="1">
-        <v>39</v>
+        <v>39.9</v>
       </c>
       <c r="E211">
         <v>1</v>
       </c>
       <c r="F211" t="s">
-        <v>547</v>
-      </c>
-      <c r="G211" t="s">
-        <v>296</v>
+        <v>545</v>
+      </c>
+      <c r="G211" s="5" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B212" t="s">
-        <v>295</v>
+        <v>577</v>
       </c>
       <c r="C212" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D212" s="1">
-        <v>39.9</v>
+        <v>7</v>
       </c>
       <c r="E212">
         <v>1</v>
       </c>
       <c r="F212" t="s">
-        <v>548</v>
-      </c>
-      <c r="G212" s="5" t="s">
-        <v>300</v>
+        <v>546</v>
+      </c>
+      <c r="G212" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B213" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C213" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D213" s="1">
-        <v>7</v>
+        <v>12.9</v>
       </c>
       <c r="E213">
         <v>1</v>
       </c>
       <c r="F213" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G213" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B214" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C214" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D214" s="1">
-        <v>12.9</v>
+        <v>34.5</v>
       </c>
       <c r="E214">
         <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G214" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B215" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C215" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D215" s="1">
-        <v>34.5</v>
+        <v>99</v>
       </c>
       <c r="E215">
         <v>1</v>
       </c>
       <c r="F215" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G215" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B216" t="s">
-        <v>580</v>
+        <v>306</v>
       </c>
       <c r="C216" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="D216" s="1">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="E216">
         <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G216" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B217" t="s">
         <v>306</v>
       </c>
       <c r="C217" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="D217" s="1">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E217">
         <v>1</v>
       </c>
       <c r="F217" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G217" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B218" t="s">
         <v>306</v>
       </c>
       <c r="C218" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D218" s="1">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="E218">
         <v>1</v>
       </c>
       <c r="F218" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G218" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B219" t="s">
         <v>306</v>
       </c>
       <c r="C219" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D219" s="1">
-        <v>100</v>
+        <v>399</v>
       </c>
       <c r="E219">
         <v>1</v>
       </c>
       <c r="F219" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G219" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B220" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C220" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D220" s="1">
-        <v>399</v>
+        <v>25</v>
       </c>
       <c r="E220">
         <v>1</v>
       </c>
       <c r="F220" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G220" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B221" t="s">
         <v>312</v>
       </c>
       <c r="C221" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D221" s="1">
         <v>25</v>
@@ -7808,21 +7799,21 @@
         <v>1</v>
       </c>
       <c r="F221" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G221" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B222" t="s">
         <v>312</v>
       </c>
       <c r="C222" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D222" s="1">
         <v>25</v>
@@ -7831,21 +7822,21 @@
         <v>1</v>
       </c>
       <c r="F222" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G222" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B223" t="s">
         <v>312</v>
       </c>
       <c r="C223" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D223" s="1">
         <v>25</v>
@@ -7854,21 +7845,21 @@
         <v>1</v>
       </c>
       <c r="F223" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G223" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B224" t="s">
         <v>312</v>
       </c>
       <c r="C224" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D224" s="1">
         <v>25</v>
@@ -7877,44 +7868,44 @@
         <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G224" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B225" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C225" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D225" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E225">
         <v>1</v>
       </c>
       <c r="F225" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G225" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B226" t="s">
         <v>318</v>
       </c>
       <c r="C226" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D226" s="1">
         <v>19</v>
@@ -7923,7 +7914,7 @@
         <v>1</v>
       </c>
       <c r="F226" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G226" t="s">
         <v>319</v>
@@ -7931,13 +7922,13 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B227" t="s">
         <v>318</v>
       </c>
       <c r="C227" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D227" s="1">
         <v>19</v>
@@ -7946,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="F227" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G227" t="s">
         <v>319</v>
@@ -7954,13 +7945,13 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B228" t="s">
         <v>318</v>
       </c>
       <c r="C228" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D228" s="1">
         <v>19</v>
@@ -7969,7 +7960,7 @@
         <v>1</v>
       </c>
       <c r="F228" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G228" t="s">
         <v>319</v>
@@ -7977,36 +7968,36 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B229" t="s">
         <v>318</v>
       </c>
       <c r="C229" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D229" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E229">
         <v>1</v>
       </c>
       <c r="F229" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G229" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B230" t="s">
         <v>318</v>
       </c>
       <c r="C230" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D230" s="1">
         <v>6</v>
@@ -8015,7 +8006,7 @@
         <v>1</v>
       </c>
       <c r="F230" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G230" t="s">
         <v>324</v>
@@ -8023,36 +8014,36 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B231" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="C231" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D231" s="1">
-        <v>6</v>
+        <v>9.9</v>
       </c>
       <c r="E231">
         <v>1</v>
       </c>
       <c r="F231" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G231" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B232" t="s">
         <v>327</v>
       </c>
       <c r="C232" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D232" s="1">
         <v>9.9</v>
@@ -8061,7 +8052,7 @@
         <v>1</v>
       </c>
       <c r="F232" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G232" t="s">
         <v>328</v>
@@ -8069,13 +8060,13 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B233" t="s">
         <v>327</v>
       </c>
       <c r="C233" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D233" s="1">
         <v>9.9</v>
@@ -8084,21 +8075,21 @@
         <v>1</v>
       </c>
       <c r="F233" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G233" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B234" t="s">
         <v>327</v>
       </c>
       <c r="C234" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D234" s="1">
         <v>9.9</v>
@@ -8107,67 +8098,67 @@
         <v>1</v>
       </c>
       <c r="F234" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G234" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B235" t="s">
         <v>327</v>
       </c>
       <c r="C235" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D235" s="1">
-        <v>9.9</v>
+        <v>12</v>
       </c>
       <c r="E235">
         <v>1</v>
       </c>
       <c r="F235" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G235" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B236" t="s">
         <v>327</v>
       </c>
       <c r="C236" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D236" s="1">
-        <v>12</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E236">
         <v>1</v>
       </c>
       <c r="F236" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G236" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B237" t="s">
         <v>327</v>
       </c>
       <c r="C237" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D237" s="1">
         <v>18.899999999999999</v>
@@ -8176,61 +8167,38 @@
         <v>1</v>
       </c>
       <c r="F237" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G237" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>238</v>
+        <v>94</v>
       </c>
       <c r="B238" t="s">
-        <v>327</v>
+        <v>590</v>
       </c>
       <c r="C238" t="s">
-        <v>339</v>
+        <v>130</v>
       </c>
       <c r="D238" s="1">
-        <v>18.899999999999999</v>
+        <v>999</v>
       </c>
       <c r="E238">
         <v>1</v>
       </c>
       <c r="F238" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="G238" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A239">
-        <v>94</v>
-      </c>
-      <c r="B239" t="s">
-        <v>593</v>
-      </c>
-      <c r="C239" t="s">
-        <v>130</v>
-      </c>
-      <c r="D239" s="1">
-        <v>999</v>
-      </c>
-      <c r="E239">
-        <v>1</v>
-      </c>
-      <c r="F239" t="s">
-        <v>582</v>
-      </c>
-      <c r="G239" t="s">
         <v>129</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A217:G220">
-    <sortCondition ref="D217:D220"/>
+  <sortState ref="A216:G219">
+    <sortCondition ref="D216:D219"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8258,7 +8226,7 @@
         <v>240</v>
       </c>
       <c r="C1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D1" s="1">
         <v>999</v>
@@ -8267,7 +8235,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G1" t="s">
         <v>245</v>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="594">
   <si>
     <t>Name</t>
   </si>
@@ -386,12 +386,6 @@
   </si>
   <si>
     <t>Dschenresi Silberstatue 14cm</t>
-  </si>
-  <si>
-    <t>Auf der Rückseite ist das Mantra OM MANI PADME HUM eingearbeitet.</t>
-  </si>
-  <si>
-    <t>Dschenresi Kupferstatue mit Mantra 22cm</t>
   </si>
   <si>
     <t>Dschenresi Gießstatue 12,5cm</t>
@@ -837,12 +831,6 @@
     <t>Weiße Tara Kupferstatue  14cm</t>
   </si>
   <si>
-    <t>Weiße Tara Kupferstatue 22cm hoch mit Mantra Auf der Rückseite der Weißen-Tara ist ihr Mantra OM TARE TUTTARE TURE MAMA AYUR-PUNYE JINANA PUSTIM KURU SWAHA eingearbeitet.</t>
-  </si>
-  <si>
-    <t>Weiße Tara Kupferstatue mit Mantra 22cm</t>
-  </si>
-  <si>
     <t>Weiße Tara Kupferstatue 8cm</t>
   </si>
   <si>
@@ -1353,9 +1341,6 @@
     <t>MBAva004.JPG, MBAva005.JPG</t>
   </si>
   <si>
-    <t>MBAva008.JPG</t>
-  </si>
-  <si>
     <t>MBAva022.JPG, MBAva023.JPG</t>
   </si>
   <si>
@@ -1593,9 +1578,6 @@
     <t>WBGT003.JPG</t>
   </si>
   <si>
-    <t>WBGT014.JPG</t>
-  </si>
-  <si>
     <t>WBGT011.JPG</t>
   </si>
   <si>
@@ -1630,9 +1612,6 @@
   </si>
   <si>
     <t>WBWT005.JPG</t>
-  </si>
-  <si>
-    <t>WBWT007.JPG</t>
   </si>
   <si>
     <t>WBWT022.JPG, WBWT023.JPG, WBWT024.JPG, WBWT025.JPG, WBWT026.JPG, WBWT027.JPG,</t>
@@ -1980,7 +1959,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2172,12 +2151,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2339,14 +2312,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2705,10 +2677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K238"/>
+  <dimension ref="A1:K235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:XFD93"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A195" sqref="A195:XFD195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2720,25 +2692,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2758,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2781,7 +2753,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
@@ -2804,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -2827,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
@@ -2850,7 +2822,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -2873,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -2896,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -2919,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
@@ -2942,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G10" t="s">
         <v>3</v>
@@ -2965,7 +2937,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -2988,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -3011,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G13" t="s">
         <v>21</v>
@@ -3034,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -3057,7 +3029,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -3080,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G16" t="s">
         <v>2</v>
@@ -3103,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G17" t="s">
         <v>2</v>
@@ -3126,7 +3098,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G18" t="s">
         <v>23</v>
@@ -3149,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G19" t="s">
         <v>23</v>
@@ -3169,10 +3141,10 @@
         <v>1999</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
@@ -3195,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
@@ -3218,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
@@ -3241,7 +3213,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G23" t="s">
         <v>31</v>
@@ -3264,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -3287,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>36</v>
@@ -3310,7 +3282,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -3333,7 +3305,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
@@ -3356,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G28" t="s">
         <v>42</v>
@@ -3379,7 +3351,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G29" t="s">
         <v>39</v>
@@ -3402,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G30" t="s">
         <v>41</v>
@@ -3425,7 +3397,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G31" t="s">
         <v>43</v>
@@ -3448,7 +3420,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3471,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3494,7 +3466,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G34" t="s">
         <v>47</v>
@@ -3517,7 +3489,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G35" t="s">
         <v>48</v>
@@ -3540,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -3563,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G37" t="s">
         <v>50</v>
@@ -3586,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G38" t="s">
         <v>54</v>
@@ -3609,7 +3581,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G39" t="s">
         <v>50</v>
@@ -3632,7 +3604,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G40" t="s">
         <v>55</v>
@@ -3655,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G41" t="s">
         <v>50</v>
@@ -3678,7 +3650,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G42" t="s">
         <v>57</v>
@@ -3701,7 +3673,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G43" t="s">
         <v>59</v>
@@ -3724,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G44" t="s">
         <v>61</v>
@@ -3747,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G45" t="s">
         <v>68</v>
@@ -3770,7 +3742,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G46" t="s">
         <v>66</v>
@@ -3793,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G47" t="s">
         <v>67</v>
@@ -3816,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G48" t="s">
         <v>64</v>
@@ -3839,7 +3811,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G49" t="s">
         <v>70</v>
@@ -3853,7 +3825,7 @@
         <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="D50" s="1">
         <v>250</v>
@@ -3862,10 +3834,10 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>596</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>597</v>
+        <v>589</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -3885,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G51" t="s">
         <v>71</v>
@@ -3908,7 +3880,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G52" t="s">
         <v>77</v>
@@ -3931,7 +3903,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G53" t="s">
         <v>73</v>
@@ -3954,10 +3926,10 @@
         <v>1</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -3968,7 +3940,7 @@
         <v>72</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D55" s="4">
         <v>399</v>
@@ -3977,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>76</v>
@@ -4000,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G56" t="s">
         <v>78</v>
@@ -4023,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G57" t="s">
         <v>84</v>
@@ -4046,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G58" t="s">
         <v>83</v>
@@ -4069,7 +4041,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G59" t="s">
         <v>85</v>
@@ -4092,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G60" t="s">
         <v>89</v>
@@ -4115,7 +4087,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G61" t="s">
         <v>87</v>
@@ -4129,7 +4101,7 @@
         <v>80</v>
       </c>
       <c r="C62" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D62" s="1">
         <v>499</v>
@@ -4138,10 +4110,10 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G62" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -4161,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G63" t="s">
         <v>86</v>
@@ -4184,7 +4156,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G64" t="s">
         <v>81</v>
@@ -4198,7 +4170,7 @@
         <v>80</v>
       </c>
       <c r="C65" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="D65" s="1">
         <v>1000</v>
@@ -4207,10 +4179,10 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>599</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -4230,7 +4202,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G66" t="s">
         <v>91</v>
@@ -4253,7 +4225,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G67" t="s">
         <v>98</v>
@@ -4276,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G68" t="s">
         <v>94</v>
@@ -4299,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G69" t="s">
         <v>95</v>
@@ -4322,7 +4294,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G70" t="s">
         <v>96</v>
@@ -4333,7 +4305,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C71" t="s">
         <v>115</v>
@@ -4345,7 +4317,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G71" t="s">
         <v>114</v>
@@ -4356,7 +4328,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C72" t="s">
         <v>117</v>
@@ -4368,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="G72" t="s">
         <v>116</v>
@@ -4379,7 +4351,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C73" t="s">
         <v>105</v>
@@ -4391,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G73" t="s">
         <v>104</v>
@@ -4402,7 +4374,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C74" t="s">
         <v>107</v>
@@ -4414,7 +4386,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="G74" t="s">
         <v>106</v>
@@ -4425,7 +4397,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C75" t="s">
         <v>109</v>
@@ -4437,7 +4409,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="G75" t="s">
         <v>108</v>
@@ -4448,7 +4420,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C76" t="s">
         <v>111</v>
@@ -4460,7 +4432,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="G76" t="s">
         <v>110</v>
@@ -4471,7 +4443,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C77" t="s">
         <v>113</v>
@@ -4483,7 +4455,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="G77" t="s">
         <v>112</v>
@@ -4494,7 +4466,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C78" t="s">
         <v>101</v>
@@ -4506,7 +4478,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G78" t="s">
         <v>99</v>
@@ -4517,7 +4489,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C79" t="s">
         <v>100</v>
@@ -4529,7 +4501,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G79" t="s">
         <v>99</v>
@@ -4540,7 +4512,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C80" t="s">
         <v>102</v>
@@ -4552,7 +4524,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G80" t="s">
         <v>99</v>
@@ -4563,7 +4535,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C81" t="s">
         <v>103</v>
@@ -4575,7 +4547,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G81" t="s">
         <v>99</v>
@@ -4586,10 +4558,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C82" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D82" s="1">
         <v>19.5</v>
@@ -4598,10 +4570,10 @@
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G82" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -4609,10 +4581,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C83" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D83" s="1">
         <v>59</v>
@@ -4621,10 +4593,10 @@
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G83" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -4632,10 +4604,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C84" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D84" s="1">
         <v>69</v>
@@ -4644,10 +4616,10 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G84" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -4655,10 +4627,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C85" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D85" s="1">
         <v>99</v>
@@ -4667,10 +4639,10 @@
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G85" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -4678,10 +4650,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C86" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D86" s="1">
         <v>199</v>
@@ -4690,10 +4662,10 @@
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G86" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -4701,10 +4673,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C87" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D87" s="1">
         <v>179</v>
@@ -4713,10 +4685,10 @@
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G87" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -4724,7 +4696,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C88" t="s">
         <v>119</v>
@@ -4736,10 +4708,10 @@
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G88" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -4747,10 +4719,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C89" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D89" s="1">
         <v>249</v>
@@ -4759,10 +4731,10 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G89" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -4770,7 +4742,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C90" t="s">
         <v>119</v>
@@ -4782,7 +4754,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G90" t="s">
         <v>118</v>
@@ -4790,137 +4762,137 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C91" t="s">
-        <v>123</v>
+        <v>342</v>
       </c>
       <c r="D91" s="1">
-        <v>269</v>
-      </c>
-      <c r="E91" s="2">
-        <v>0</v>
+        <v>299</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G91" t="s">
-        <v>122</v>
+        <v>342</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C92" t="s">
-        <v>346</v>
+        <v>121</v>
       </c>
       <c r="D92" s="1">
-        <v>299</v>
+        <v>999</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G92" t="s">
-        <v>346</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C93" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D93" s="1">
-        <v>999</v>
+        <v>19.5</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G93" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C94" t="s">
-        <v>138</v>
+        <v>343</v>
       </c>
       <c r="D94" s="1">
-        <v>19.5</v>
+        <v>59</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G94" t="s">
-        <v>138</v>
+        <v>343</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C95" t="s">
-        <v>347</v>
+        <v>135</v>
       </c>
       <c r="D95" s="1">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G95" t="s">
-        <v>347</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C96" t="s">
         <v>137</v>
       </c>
       <c r="D96" s="1">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G96" t="s">
         <v>137</v>
@@ -4928,155 +4900,155 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C97" t="s">
-        <v>139</v>
+        <v>344</v>
       </c>
       <c r="D97" s="1">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G97" t="s">
-        <v>139</v>
+        <v>344</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C98" t="s">
-        <v>348</v>
+        <v>134</v>
       </c>
       <c r="D98" s="1">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>447</v>
-      </c>
-      <c r="G98" t="s">
-        <v>348</v>
+        <v>443</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C99" t="s">
-        <v>136</v>
+        <v>345</v>
       </c>
       <c r="D99" s="1">
-        <v>269</v>
+        <v>399</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>448</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>135</v>
+        <v>444</v>
+      </c>
+      <c r="G99" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>591</v>
-      </c>
-      <c r="C100" t="s">
-        <v>349</v>
-      </c>
-      <c r="D100" s="1">
-        <v>399</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100" t="s">
-        <v>449</v>
-      </c>
-      <c r="G100" t="s">
-        <v>350</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D100" s="4">
+        <v>999</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>591</v>
-      </c>
-      <c r="C101" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C101" t="s">
         <v>140</v>
       </c>
-      <c r="D101" s="4">
-        <v>999</v>
-      </c>
-      <c r="E101" s="3">
-        <v>1</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
+      <c r="D101" s="1">
+        <v>1999</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>446</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>591</v>
+        <v>141</v>
       </c>
       <c r="C102" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="D102" s="1">
-        <v>1999</v>
+        <v>5.9</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>451</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>141</v>
+        <v>447</v>
+      </c>
+      <c r="G102" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D103" s="1">
         <v>5.9</v>
@@ -5085,21 +5057,21 @@
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G103" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D104" s="1">
         <v>5.9</v>
@@ -5108,21 +5080,21 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G104" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C105" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D105" s="1">
         <v>5.9</v>
@@ -5131,18 +5103,18 @@
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G105" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C106" t="s">
         <v>165</v>
@@ -5154,21 +5126,21 @@
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G106" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C107" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D107" s="1">
         <v>5.9</v>
@@ -5177,90 +5149,90 @@
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G107" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B108" t="s">
+        <v>141</v>
+      </c>
+      <c r="C108" t="s">
         <v>143</v>
       </c>
-      <c r="C108" t="s">
-        <v>168</v>
-      </c>
       <c r="D108" s="1">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="E108">
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G108" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C109" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="D109" s="1">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G109" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C110" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="D110" s="1">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G110" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D111" s="1">
         <v>7.5</v>
@@ -5269,21 +5241,21 @@
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G111" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D112" s="1">
         <v>7.5</v>
@@ -5292,21 +5264,21 @@
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G112" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D113" s="1">
         <v>7.5</v>
@@ -5315,90 +5287,90 @@
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="G113" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C114" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D114" s="1">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="E114">
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G114" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C115" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D115" s="1">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="E115">
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G115" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C116" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="D116" s="1">
-        <v>8.5</v>
+        <v>9.9</v>
       </c>
       <c r="E116">
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G116" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C117" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="D117" s="1">
         <v>9.9</v>
@@ -5407,90 +5379,90 @@
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G117" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C118" t="s">
-        <v>357</v>
+        <v>149</v>
       </c>
       <c r="D118" s="1">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G118" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C119" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D119" s="1">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="E119">
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="G119" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C120" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D120" s="1">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="E120">
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G120" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D121" s="1">
         <v>12</v>
@@ -5499,21 +5471,21 @@
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C122" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D122" s="1">
         <v>12</v>
@@ -5522,44 +5494,44 @@
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G122" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="C123" t="s">
-        <v>154</v>
+        <v>352</v>
       </c>
       <c r="D123" s="1">
-        <v>12</v>
+        <v>9.9</v>
       </c>
       <c r="E123">
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G123" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C124" t="s">
-        <v>356</v>
+        <v>181</v>
       </c>
       <c r="D124" s="1">
         <v>9.9</v>
@@ -5568,67 +5540,67 @@
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G124" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C125" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="D125" s="1">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="E125">
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G125" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B126" t="s">
+        <v>168</v>
+      </c>
+      <c r="C126" t="s">
         <v>170</v>
       </c>
-      <c r="C126" t="s">
-        <v>281</v>
-      </c>
       <c r="D126" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E126">
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G126" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C127" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D127" s="1">
         <v>14</v>
@@ -5637,87 +5609,87 @@
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G127" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C128" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D128" s="1">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="E128">
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G128" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C129" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="D129" s="1">
-        <v>14.5</v>
+        <v>16.8</v>
       </c>
       <c r="E129">
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G129" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="C130" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="D130" s="1">
-        <v>16.8</v>
+        <v>19.5</v>
       </c>
       <c r="E130">
         <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G130" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C131" t="s">
         <v>173</v>
@@ -5729,228 +5701,228 @@
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G131" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C132" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D132" s="1">
-        <v>19.5</v>
+        <v>24.5</v>
       </c>
       <c r="E132">
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G132" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C133" t="s">
+        <v>180</v>
+      </c>
+      <c r="D133" s="1">
+        <v>25</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133" t="s">
+        <v>475</v>
+      </c>
+      <c r="G133" t="s">
         <v>179</v>
-      </c>
-      <c r="D133" s="1">
-        <v>24.5</v>
-      </c>
-      <c r="E133">
-        <v>1</v>
-      </c>
-      <c r="F133" t="s">
-        <v>479</v>
-      </c>
-      <c r="G133" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C134" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D134" s="1">
-        <v>25</v>
+        <v>28.2</v>
       </c>
       <c r="E134">
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G134" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="C135" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D135" s="1">
-        <v>28.2</v>
+        <v>29.5</v>
       </c>
       <c r="E135">
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G135" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C136" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D136" s="1">
-        <v>29.5</v>
+        <v>29.9</v>
       </c>
       <c r="E136">
         <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G136" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="C137" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D137" s="1">
-        <v>29.9</v>
+        <v>34</v>
       </c>
       <c r="E137">
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G137" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C138" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D138" s="1">
-        <v>34</v>
+        <v>34.5</v>
       </c>
       <c r="E138">
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G138" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C139" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D139" s="1">
-        <v>34.5</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="E139">
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G139" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C140" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D140" s="1">
-        <v>79.900000000000006</v>
+        <v>89.9</v>
       </c>
       <c r="E140">
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G140" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C141" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D141" s="1">
         <v>89.9</v>
@@ -5959,67 +5931,67 @@
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G141" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="C142" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="D142" s="1">
-        <v>89.9</v>
+        <v>49.9</v>
       </c>
       <c r="E142">
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G142" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>207</v>
+        <v>562</v>
       </c>
       <c r="C143" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D143" s="1">
-        <v>49.9</v>
+        <v>89</v>
       </c>
       <c r="E143">
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>489</v>
+        <v>563</v>
       </c>
       <c r="G143" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="C144" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D144" s="1">
         <v>89</v>
@@ -6028,21 +6000,21 @@
         <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G144" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="C145" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D145" s="1">
         <v>89</v>
@@ -6051,44 +6023,44 @@
         <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="G145" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="C146" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D146" s="1">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E146">
         <v>1</v>
       </c>
       <c r="F146" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="G146" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="C147" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D147" s="1">
         <v>99</v>
@@ -6097,21 +6069,21 @@
         <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G147" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="C148" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D148" s="1">
         <v>99</v>
@@ -6120,18 +6092,18 @@
         <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="G148" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="C149" t="s">
         <v>200</v>
@@ -6143,64 +6115,64 @@
         <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="G149" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B150" t="s">
+        <v>562</v>
+      </c>
+      <c r="C150" t="s">
+        <v>194</v>
+      </c>
+      <c r="D150" s="1">
+        <v>179</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150" t="s">
         <v>569</v>
       </c>
-      <c r="C150" t="s">
-        <v>202</v>
-      </c>
-      <c r="D150" s="1">
-        <v>99</v>
-      </c>
-      <c r="E150">
-        <v>1</v>
-      </c>
-      <c r="F150" t="s">
-        <v>575</v>
-      </c>
       <c r="G150" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>569</v>
+        <v>205</v>
       </c>
       <c r="C151" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="D151" s="1">
-        <v>179</v>
+        <v>49.9</v>
       </c>
       <c r="E151">
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>576</v>
+        <v>485</v>
       </c>
       <c r="G151" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C152" t="s">
         <v>211</v>
@@ -6212,7 +6184,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G152" t="s">
         <v>210</v>
@@ -6220,10 +6192,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C153" t="s">
         <v>213</v>
@@ -6235,7 +6207,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G153" t="s">
         <v>212</v>
@@ -6243,10 +6215,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C154" t="s">
         <v>215</v>
@@ -6258,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G154" t="s">
         <v>214</v>
@@ -6266,10 +6238,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C155" t="s">
         <v>217</v>
@@ -6281,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G155" t="s">
         <v>216</v>
@@ -6289,10 +6261,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C156" t="s">
         <v>219</v>
@@ -6304,7 +6276,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G156" t="s">
         <v>218</v>
@@ -6312,10 +6284,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C157" t="s">
         <v>221</v>
@@ -6327,7 +6299,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G157" t="s">
         <v>220</v>
@@ -6335,10 +6307,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C158" t="s">
         <v>223</v>
@@ -6350,7 +6322,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G158" t="s">
         <v>222</v>
@@ -6358,10 +6330,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C159" t="s">
         <v>225</v>
@@ -6373,7 +6345,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G159" t="s">
         <v>224</v>
@@ -6381,36 +6353,36 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="C160" t="s">
+        <v>228</v>
+      </c>
+      <c r="D160" s="1">
+        <v>199</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160" t="s">
+        <v>494</v>
+      </c>
+      <c r="G160" t="s">
         <v>227</v>
-      </c>
-      <c r="D160" s="1">
-        <v>49.9</v>
-      </c>
-      <c r="E160">
-        <v>1</v>
-      </c>
-      <c r="F160" t="s">
-        <v>498</v>
-      </c>
-      <c r="G160" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C161" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D161" s="1">
         <v>199</v>
@@ -6419,21 +6391,21 @@
         <v>1</v>
       </c>
       <c r="F161" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G161" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C162" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D162" s="1">
         <v>199</v>
@@ -6442,21 +6414,21 @@
         <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G162" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C163" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D163" s="1">
         <v>199</v>
@@ -6465,41 +6437,41 @@
         <v>1</v>
       </c>
       <c r="F163" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G163" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C164" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D164" s="1">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="E164">
         <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G164" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C165" t="s">
         <v>234</v>
@@ -6511,7 +6483,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G165" t="s">
         <v>233</v>
@@ -6519,10 +6491,10 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C166" t="s">
         <v>236</v>
@@ -6534,7 +6506,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G166" t="s">
         <v>235</v>
@@ -6542,59 +6514,59 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C167" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D167" s="1">
-        <v>249</v>
+        <v>399</v>
       </c>
       <c r="E167">
         <v>1</v>
       </c>
       <c r="F167" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G167" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>170</v>
-      </c>
-      <c r="B168" t="s">
-        <v>240</v>
-      </c>
-      <c r="C168" t="s">
-        <v>242</v>
-      </c>
-      <c r="D168" s="1">
+        <v>171</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D168" s="4">
         <v>399</v>
       </c>
-      <c r="E168">
-        <v>1</v>
-      </c>
-      <c r="F168" t="s">
-        <v>506</v>
-      </c>
-      <c r="G168" t="s">
-        <v>241</v>
+      <c r="E168" s="3">
+        <v>1</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D169" s="4">
         <v>399</v>
@@ -6603,21 +6575,21 @@
         <v>1</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>244</v>
+        <v>349</v>
       </c>
       <c r="D170" s="4">
         <v>399</v>
@@ -6626,1148 +6598,1148 @@
         <v>1</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>241</v>
+        <v>348</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>173</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D171" s="4">
-        <v>399</v>
-      </c>
-      <c r="E171" s="3">
-        <v>1</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>352</v>
+        <v>174</v>
+      </c>
+      <c r="B171" t="s">
+        <v>238</v>
+      </c>
+      <c r="C171" t="s">
+        <v>246</v>
+      </c>
+      <c r="D171" s="1">
+        <v>499</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171" t="s">
+        <v>505</v>
+      </c>
+      <c r="G171" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>174</v>
-      </c>
-      <c r="B172" t="s">
-        <v>240</v>
-      </c>
-      <c r="C172" t="s">
-        <v>248</v>
-      </c>
-      <c r="D172" s="1">
+        <v>175</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D172" s="4">
         <v>499</v>
       </c>
-      <c r="E172">
-        <v>1</v>
-      </c>
-      <c r="F172" t="s">
-        <v>510</v>
-      </c>
-      <c r="G172" t="s">
-        <v>246</v>
+      <c r="E172" s="3">
+        <v>1</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D173" s="4">
-        <v>499</v>
+        <v>799</v>
       </c>
       <c r="E173" s="3">
         <v>1</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>176</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D174" s="4">
-        <v>799</v>
-      </c>
-      <c r="E174" s="3">
-        <v>1</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="G174" s="3" t="s">
-        <v>250</v>
+        <v>177</v>
+      </c>
+      <c r="B174" t="s">
+        <v>238</v>
+      </c>
+      <c r="C174" t="s">
+        <v>593</v>
+      </c>
+      <c r="D174" s="1">
+        <v>999</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174" t="s">
+        <v>508</v>
+      </c>
+      <c r="G174" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>177</v>
-      </c>
-      <c r="B175" t="s">
-        <v>240</v>
-      </c>
-      <c r="C175" t="s">
-        <v>600</v>
-      </c>
-      <c r="D175" s="1">
-        <v>999</v>
-      </c>
-      <c r="E175">
-        <v>1</v>
-      </c>
-      <c r="F175" t="s">
-        <v>513</v>
+        <v>239</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="D175" s="4">
+        <v>400</v>
+      </c>
+      <c r="E175" s="3">
+        <v>1</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>586</v>
       </c>
       <c r="G175" t="s">
-        <v>245</v>
+        <v>587</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>239</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="D176" s="4">
-        <v>400</v>
-      </c>
-      <c r="E176" s="3">
-        <v>1</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>593</v>
+        <v>178</v>
+      </c>
+      <c r="B176" t="s">
+        <v>238</v>
+      </c>
+      <c r="C176" t="s">
+        <v>245</v>
+      </c>
+      <c r="D176" s="1">
+        <v>999</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176" t="s">
+        <v>509</v>
       </c>
       <c r="G176" t="s">
-        <v>594</v>
+        <v>244</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>240</v>
+        <v>580</v>
       </c>
       <c r="C177" t="s">
-        <v>247</v>
+        <v>347</v>
       </c>
       <c r="D177" s="1">
-        <v>999</v>
+        <v>499</v>
       </c>
       <c r="E177">
         <v>1</v>
       </c>
       <c r="F177" t="s">
-        <v>514</v>
+        <v>422</v>
       </c>
       <c r="G177" t="s">
-        <v>246</v>
+        <v>347</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C178" t="s">
-        <v>351</v>
+        <v>258</v>
       </c>
       <c r="D178" s="1">
-        <v>499</v>
+        <v>19.5</v>
       </c>
       <c r="E178">
         <v>1</v>
       </c>
       <c r="F178" t="s">
-        <v>426</v>
+        <v>510</v>
       </c>
       <c r="G178" t="s">
-        <v>351</v>
+        <v>258</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C179" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D179" s="1">
-        <v>19.5</v>
+        <v>59</v>
       </c>
       <c r="E179">
         <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G179" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C180" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D180" s="1">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E180">
         <v>1</v>
       </c>
       <c r="F180" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G180" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C181" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="D181" s="1">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="E181">
         <v>1</v>
       </c>
       <c r="F181" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G181" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C182" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D182" s="1">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="E182">
         <v>1</v>
       </c>
       <c r="F182" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G182" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C183" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D183" s="1">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="E183">
         <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G183" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C184" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D184" s="1">
-        <v>269</v>
-      </c>
-      <c r="E184" s="6">
-        <v>0</v>
+        <v>399</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
       </c>
       <c r="F184" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G184" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C185" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D185" s="1">
-        <v>269</v>
+        <v>799</v>
       </c>
       <c r="E185">
         <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>521</v>
-      </c>
-      <c r="G185" t="s">
-        <v>261</v>
+        <v>517</v>
+      </c>
+      <c r="G185" s="5" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C186" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D186" s="1">
-        <v>399</v>
+        <v>999</v>
       </c>
       <c r="E186">
         <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>522</v>
-      </c>
-      <c r="G186" t="s">
+        <v>518</v>
+      </c>
+      <c r="G186" s="5" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C187" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D187" s="1">
-        <v>799</v>
+        <v>1299</v>
       </c>
       <c r="E187">
         <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C188" t="s">
         <v>257</v>
       </c>
       <c r="D188" s="1">
-        <v>999</v>
+        <v>1399</v>
       </c>
       <c r="E188">
         <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>524</v>
-      </c>
-      <c r="G188" s="5" t="s">
-        <v>256</v>
+        <v>520</v>
+      </c>
+      <c r="G188" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C189" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="D189" s="1">
-        <v>1299</v>
+        <v>19.5</v>
       </c>
       <c r="E189">
         <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>525</v>
-      </c>
-      <c r="G189" s="5" t="s">
-        <v>251</v>
+        <v>521</v>
+      </c>
+      <c r="G189" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C190" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D190" s="1">
-        <v>1399</v>
+        <v>59</v>
       </c>
       <c r="E190">
         <v>1</v>
       </c>
       <c r="F190" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G190" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C191" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D191" s="1">
-        <v>19.5</v>
+        <v>69</v>
       </c>
       <c r="E191">
         <v>1</v>
       </c>
       <c r="F191" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G191" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C192" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D192" s="1">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="E192">
         <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G192" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C193" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D193" s="1">
-        <v>69</v>
+        <v>229</v>
       </c>
       <c r="E193">
         <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G193" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C194" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D194" s="1">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="E194">
         <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G194" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B195" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C195" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D195" s="1">
-        <v>229</v>
+        <v>399</v>
       </c>
       <c r="E195">
         <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>531</v>
-      </c>
-      <c r="G195" t="s">
-        <v>275</v>
+        <v>527</v>
+      </c>
+      <c r="G195" s="5" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B196" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C196" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D196" s="1">
-        <v>269</v>
+        <v>399</v>
       </c>
       <c r="E196">
         <v>1</v>
       </c>
       <c r="F196" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G196" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B197" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C197" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D197" s="1">
-        <v>269</v>
-      </c>
-      <c r="E197" s="6">
-        <v>0</v>
+        <v>599</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>533</v>
-      </c>
-      <c r="G197" t="s">
-        <v>269</v>
+        <v>529</v>
+      </c>
+      <c r="G197" s="5" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B198" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C198" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="D198" s="1">
-        <v>399</v>
+        <v>999</v>
       </c>
       <c r="E198">
         <v>1</v>
       </c>
       <c r="F198" t="s">
-        <v>534</v>
-      </c>
-      <c r="G198" s="5" t="s">
-        <v>265</v>
+        <v>530</v>
+      </c>
+      <c r="G198" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B199" t="s">
-        <v>589</v>
+        <v>278</v>
       </c>
       <c r="C199" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D199" s="1">
-        <v>399</v>
+        <v>5.2</v>
       </c>
       <c r="E199">
         <v>1</v>
       </c>
       <c r="F199" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G199" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B200" t="s">
-        <v>589</v>
+        <v>278</v>
       </c>
       <c r="C200" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D200" s="1">
-        <v>599</v>
+        <v>7.15</v>
       </c>
       <c r="E200">
         <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>536</v>
-      </c>
-      <c r="G200" s="5" t="s">
-        <v>277</v>
+        <v>531</v>
+      </c>
+      <c r="G200" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B201" t="s">
-        <v>589</v>
+        <v>278</v>
       </c>
       <c r="C201" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D201" s="1">
-        <v>999</v>
+        <v>12.95</v>
       </c>
       <c r="E201">
         <v>1</v>
       </c>
       <c r="F201" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="G201" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B202" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C202" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D202" s="1">
-        <v>5.2</v>
+        <v>16.25</v>
       </c>
       <c r="E202">
         <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G202" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B203" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C203" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D203" s="1">
-        <v>7.15</v>
+        <v>25</v>
       </c>
       <c r="E203">
         <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G203" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B204" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C204" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D204" s="1">
-        <v>12.95</v>
+        <v>100</v>
       </c>
       <c r="E204">
         <v>1</v>
       </c>
       <c r="F204" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="G204" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B205" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="C205" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D205" s="1">
-        <v>16.25</v>
+        <v>3.9</v>
       </c>
       <c r="E205">
         <v>1</v>
       </c>
       <c r="F205" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G205" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B206" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="C206" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D206" s="1">
-        <v>25</v>
+        <v>6.9</v>
       </c>
       <c r="E206">
         <v>1</v>
       </c>
       <c r="F206" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G206" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B207" t="s">
+        <v>291</v>
+      </c>
+      <c r="C207" t="s">
+        <v>293</v>
+      </c>
+      <c r="D207" s="1">
+        <v>39</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207" t="s">
+        <v>537</v>
+      </c>
+      <c r="G207" t="s">
         <v>292</v>
-      </c>
-      <c r="C207" t="s">
-        <v>294</v>
-      </c>
-      <c r="D207" s="1">
-        <v>100</v>
-      </c>
-      <c r="E207">
-        <v>1</v>
-      </c>
-      <c r="F207" t="s">
-        <v>541</v>
-      </c>
-      <c r="G207" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B208" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C208" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D208" s="1">
-        <v>3.9</v>
+        <v>39.9</v>
       </c>
       <c r="E208">
         <v>1</v>
       </c>
       <c r="F208" t="s">
-        <v>542</v>
-      </c>
-      <c r="G208" t="s">
+        <v>538</v>
+      </c>
+      <c r="G208" s="5" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B209" t="s">
-        <v>295</v>
+        <v>570</v>
       </c>
       <c r="C209" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D209" s="1">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="E209">
         <v>1</v>
       </c>
       <c r="F209" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G209" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B210" t="s">
-        <v>295</v>
+        <v>570</v>
       </c>
       <c r="C210" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D210" s="1">
-        <v>39</v>
+        <v>12.9</v>
       </c>
       <c r="E210">
         <v>1</v>
       </c>
       <c r="F210" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G210" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B211" t="s">
-        <v>295</v>
+        <v>570</v>
       </c>
       <c r="C211" t="s">
         <v>301</v>
       </c>
       <c r="D211" s="1">
-        <v>39.9</v>
+        <v>34.5</v>
       </c>
       <c r="E211">
         <v>1</v>
       </c>
       <c r="F211" t="s">
-        <v>545</v>
-      </c>
-      <c r="G211" s="5" t="s">
-        <v>300</v>
+        <v>541</v>
+      </c>
+      <c r="G211" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B212" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="C212" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D212" s="1">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="E212">
         <v>1</v>
       </c>
       <c r="F212" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G212" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B213" t="s">
-        <v>577</v>
+        <v>302</v>
       </c>
       <c r="C213" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="D213" s="1">
-        <v>12.9</v>
+        <v>39</v>
       </c>
       <c r="E213">
         <v>1</v>
       </c>
       <c r="F213" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="G213" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B214" t="s">
-        <v>577</v>
+        <v>302</v>
       </c>
       <c r="C214" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D214" s="1">
-        <v>34.5</v>
+        <v>45</v>
       </c>
       <c r="E214">
         <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G214" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B215" t="s">
-        <v>577</v>
+        <v>302</v>
       </c>
       <c r="C215" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D215" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E215">
         <v>1</v>
       </c>
       <c r="F215" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G215" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B216" t="s">
+        <v>302</v>
+      </c>
+      <c r="C216" t="s">
+        <v>307</v>
+      </c>
+      <c r="D216" s="1">
+        <v>399</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216" t="s">
+        <v>546</v>
+      </c>
+      <c r="G216" t="s">
         <v>306</v>
-      </c>
-      <c r="C216" t="s">
-        <v>344</v>
-      </c>
-      <c r="D216" s="1">
-        <v>39</v>
-      </c>
-      <c r="E216">
-        <v>1</v>
-      </c>
-      <c r="F216" t="s">
-        <v>550</v>
-      </c>
-      <c r="G216" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B217" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C217" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D217" s="1">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E217">
         <v>1</v>
       </c>
       <c r="F217" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G217" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B218" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C218" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D218" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E218">
         <v>1</v>
       </c>
       <c r="F218" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G218" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B219" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C219" t="s">
         <v>311</v>
       </c>
       <c r="D219" s="1">
-        <v>399</v>
+        <v>25</v>
       </c>
       <c r="E219">
         <v>1</v>
       </c>
       <c r="F219" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G219" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B220" t="s">
+        <v>308</v>
+      </c>
+      <c r="C220" t="s">
         <v>312</v>
-      </c>
-      <c r="C220" t="s">
-        <v>313</v>
       </c>
       <c r="D220" s="1">
         <v>25</v>
@@ -7776,21 +7748,21 @@
         <v>1</v>
       </c>
       <c r="F220" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G220" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B221" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C221" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D221" s="1">
         <v>25</v>
@@ -7799,30 +7771,30 @@
         <v>1</v>
       </c>
       <c r="F221" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G221" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B222" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C222" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D222" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E222">
         <v>1</v>
       </c>
       <c r="F222" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G222" t="s">
         <v>315</v>
@@ -7830,59 +7802,59 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B223" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C223" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D223" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E223">
         <v>1</v>
       </c>
       <c r="F223" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="G223" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B224" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C224" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D224" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E224">
         <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="G224" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B225" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C225" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D225" s="1">
         <v>19</v>
@@ -7891,99 +7863,99 @@
         <v>1</v>
       </c>
       <c r="F225" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="G225" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B226" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C226" t="s">
         <v>321</v>
       </c>
       <c r="D226" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E226">
         <v>1</v>
       </c>
       <c r="F226" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="G226" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B227" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C227" t="s">
         <v>322</v>
       </c>
       <c r="D227" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E227">
         <v>1</v>
       </c>
       <c r="F227" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="G227" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B228" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C228" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D228" s="1">
-        <v>19</v>
+        <v>9.9</v>
       </c>
       <c r="E228">
         <v>1</v>
       </c>
       <c r="F228" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G228" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B229" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C229" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D229" s="1">
-        <v>6</v>
+        <v>9.9</v>
       </c>
       <c r="E229">
         <v>1</v>
       </c>
       <c r="F229" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G229" t="s">
         <v>324</v>
@@ -7991,33 +7963,33 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B230" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C230" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D230" s="1">
-        <v>6</v>
+        <v>9.9</v>
       </c>
       <c r="E230">
         <v>1</v>
       </c>
       <c r="F230" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="G230" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B231" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C231" t="s">
         <v>329</v>
@@ -8029,176 +8001,107 @@
         <v>1</v>
       </c>
       <c r="F231" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G231" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B232" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C232" t="s">
+        <v>331</v>
+      </c>
+      <c r="D232" s="1">
+        <v>12</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232" t="s">
+        <v>559</v>
+      </c>
+      <c r="G232" t="s">
         <v>330</v>
-      </c>
-      <c r="D232" s="1">
-        <v>9.9</v>
-      </c>
-      <c r="E232">
-        <v>1</v>
-      </c>
-      <c r="F232" t="s">
-        <v>563</v>
-      </c>
-      <c r="G232" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B233" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C233" t="s">
+        <v>333</v>
+      </c>
+      <c r="D233" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233" t="s">
+        <v>560</v>
+      </c>
+      <c r="G233" t="s">
         <v>332</v>
-      </c>
-      <c r="D233" s="1">
-        <v>9.9</v>
-      </c>
-      <c r="E233">
-        <v>1</v>
-      </c>
-      <c r="F233" t="s">
-        <v>564</v>
-      </c>
-      <c r="G233" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B234" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C234" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D234" s="1">
-        <v>9.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E234">
         <v>1</v>
       </c>
       <c r="F234" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="G234" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="B235" t="s">
-        <v>327</v>
+        <v>583</v>
       </c>
       <c r="C235" t="s">
-        <v>335</v>
+        <v>128</v>
       </c>
       <c r="D235" s="1">
-        <v>12</v>
+        <v>999</v>
       </c>
       <c r="E235">
         <v>1</v>
       </c>
       <c r="F235" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="G235" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A236">
-        <v>237</v>
-      </c>
-      <c r="B236" t="s">
-        <v>327</v>
-      </c>
-      <c r="C236" t="s">
-        <v>337</v>
-      </c>
-      <c r="D236" s="1">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E236">
-        <v>1</v>
-      </c>
-      <c r="F236" t="s">
-        <v>567</v>
-      </c>
-      <c r="G236" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A237">
-        <v>238</v>
-      </c>
-      <c r="B237" t="s">
-        <v>327</v>
-      </c>
-      <c r="C237" t="s">
-        <v>339</v>
-      </c>
-      <c r="D237" s="1">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E237">
-        <v>1</v>
-      </c>
-      <c r="F237" t="s">
-        <v>568</v>
-      </c>
-      <c r="G237" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A238">
-        <v>94</v>
-      </c>
-      <c r="B238" t="s">
-        <v>590</v>
-      </c>
-      <c r="C238" t="s">
-        <v>130</v>
-      </c>
-      <c r="D238" s="1">
-        <v>999</v>
-      </c>
-      <c r="E238">
-        <v>1</v>
-      </c>
-      <c r="F238" t="s">
-        <v>579</v>
-      </c>
-      <c r="G238" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A216:G219">
-    <sortCondition ref="D216:D219"/>
+  <sortState ref="A213:G216">
+    <sortCondition ref="D213:D216"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8223,10 +8126,10 @@
         <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C1" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="D1" s="1">
         <v>999</v>
@@ -8235,10 +8138,10 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="G1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Cintamani\Website 2017\react-cintamani\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\code\react-cintamani\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2795B2C4-0B6B-476B-8944-3D64AB9331FA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2076" yWindow="684" windowWidth="23040" windowHeight="9636"/>
+    <workbookView xWindow="2078" yWindow="683" windowWidth="23040" windowHeight="9638" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalog_product_bearbeitet" sheetId="1" r:id="rId1"/>
@@ -1819,7 +1820,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
@@ -2676,21 +2677,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A195" sqref="A195:XFD195"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="38.109375" customWidth="1"/>
+    <col min="2" max="2" width="38.1328125" customWidth="1"/>
     <col min="3" max="3" width="48.6640625" customWidth="1"/>
     <col min="6" max="6" width="65.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>355</v>
       </c>
@@ -2713,7 +2714,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2736,7 +2737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2759,7 +2760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2782,7 +2783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2805,7 +2806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2828,7 +2829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2851,7 +2852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2874,7 +2875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2897,7 +2898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2920,7 +2921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2943,7 +2944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2966,7 +2967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2989,7 +2990,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3012,7 +3013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3035,7 +3036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3058,7 +3059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3081,7 +3082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3104,7 +3105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3127,7 +3128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3150,7 +3151,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3173,7 +3174,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3196,7 +3197,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3219,7 +3220,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3242,7 +3243,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3265,7 +3266,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3288,7 +3289,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3311,7 +3312,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3334,7 +3335,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3357,7 +3358,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3380,7 +3381,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3403,7 +3404,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3472,7 +3473,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3495,7 +3496,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3518,7 +3519,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3541,7 +3542,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3564,7 +3565,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3587,7 +3588,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3610,7 +3611,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3633,7 +3634,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3656,7 +3657,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3679,7 +3680,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3702,7 +3703,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3725,7 +3726,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3748,7 +3749,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3771,7 +3772,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>48</v>
       </c>
@@ -3794,7 +3795,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>49</v>
       </c>
@@ -3817,7 +3818,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="399" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>241</v>
       </c>
@@ -3840,7 +3841,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3863,7 +3864,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3886,7 +3887,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3909,7 +3910,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3932,7 +3933,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3955,7 +3956,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3978,7 +3979,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4001,7 +4002,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4024,7 +4025,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4047,7 +4048,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4070,7 +4071,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4093,7 +4094,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4116,7 +4117,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4139,7 +4140,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4162,7 +4163,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="399" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>240</v>
       </c>
@@ -4185,7 +4186,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4208,7 +4209,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4231,7 +4232,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4254,7 +4255,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4277,7 +4278,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4300,7 +4301,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4323,7 +4324,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4346,7 +4347,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4369,7 +4370,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4392,7 +4393,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4415,7 +4416,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4438,7 +4439,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4461,7 +4462,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4484,7 +4485,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4507,7 +4508,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4530,7 +4531,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4553,7 +4554,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4576,7 +4577,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4599,7 +4600,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4622,7 +4623,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4645,7 +4646,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4668,7 +4669,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4691,7 +4692,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4714,7 +4715,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4737,7 +4738,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4760,7 +4761,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>91</v>
       </c>
@@ -4783,7 +4784,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>93</v>
       </c>
@@ -4806,7 +4807,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>95</v>
       </c>
@@ -4829,7 +4830,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>96</v>
       </c>
@@ -4852,7 +4853,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>97</v>
       </c>
@@ -4875,7 +4876,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>98</v>
       </c>
@@ -4898,7 +4899,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>99</v>
       </c>
@@ -4921,7 +4922,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>100</v>
       </c>
@@ -4944,7 +4945,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>101</v>
       </c>
@@ -4967,7 +4968,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>103</v>
       </c>
@@ -4994,7 +4995,7 @@
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>104</v>
       </c>
@@ -5017,7 +5018,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>105</v>
       </c>
@@ -5040,7 +5041,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>106</v>
       </c>
@@ -5063,7 +5064,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>107</v>
       </c>
@@ -5086,7 +5087,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>108</v>
       </c>
@@ -5109,7 +5110,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>109</v>
       </c>
@@ -5132,7 +5133,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>110</v>
       </c>
@@ -5155,7 +5156,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>111</v>
       </c>
@@ -5178,7 +5179,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>112</v>
       </c>
@@ -5201,7 +5202,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>113</v>
       </c>
@@ -5224,7 +5225,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>114</v>
       </c>
@@ -5247,7 +5248,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>115</v>
       </c>
@@ -5270,7 +5271,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>116</v>
       </c>
@@ -5293,7 +5294,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>117</v>
       </c>
@@ -5316,7 +5317,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>118</v>
       </c>
@@ -5339,7 +5340,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>119</v>
       </c>
@@ -5362,7 +5363,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>120</v>
       </c>
@@ -5385,7 +5386,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>121</v>
       </c>
@@ -5408,7 +5409,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>122</v>
       </c>
@@ -5431,7 +5432,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>123</v>
       </c>
@@ -5454,7 +5455,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>124</v>
       </c>
@@ -5477,7 +5478,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>125</v>
       </c>
@@ -5500,7 +5501,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>126</v>
       </c>
@@ -5523,7 +5524,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>127</v>
       </c>
@@ -5546,7 +5547,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>128</v>
       </c>
@@ -5569,7 +5570,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>129</v>
       </c>
@@ -5592,7 +5593,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>130</v>
       </c>
@@ -5615,7 +5616,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>131</v>
       </c>
@@ -5638,7 +5639,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>132</v>
       </c>
@@ -5661,7 +5662,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>133</v>
       </c>
@@ -5684,7 +5685,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>134</v>
       </c>
@@ -5707,7 +5708,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>135</v>
       </c>
@@ -5730,7 +5731,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>136</v>
       </c>
@@ -5753,7 +5754,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>137</v>
       </c>
@@ -5776,7 +5777,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>138</v>
       </c>
@@ -5799,7 +5800,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>139</v>
       </c>
@@ -5822,7 +5823,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>140</v>
       </c>
@@ -5845,7 +5846,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>141</v>
       </c>
@@ -5868,7 +5869,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>142</v>
       </c>
@@ -5891,7 +5892,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>143</v>
       </c>
@@ -5914,7 +5915,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>144</v>
       </c>
@@ -5937,7 +5938,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>145</v>
       </c>
@@ -5960,7 +5961,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>146</v>
       </c>
@@ -5983,7 +5984,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>147</v>
       </c>
@@ -6006,7 +6007,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>148</v>
       </c>
@@ -6029,7 +6030,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>149</v>
       </c>
@@ -6052,7 +6053,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>150</v>
       </c>
@@ -6075,7 +6076,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>151</v>
       </c>
@@ -6098,7 +6099,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>152</v>
       </c>
@@ -6121,7 +6122,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>153</v>
       </c>
@@ -6144,7 +6145,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>154</v>
       </c>
@@ -6167,7 +6168,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>155</v>
       </c>
@@ -6190,7 +6191,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>156</v>
       </c>
@@ -6213,7 +6214,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>157</v>
       </c>
@@ -6236,7 +6237,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>158</v>
       </c>
@@ -6259,7 +6260,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>159</v>
       </c>
@@ -6282,7 +6283,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>160</v>
       </c>
@@ -6305,7 +6306,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>161</v>
       </c>
@@ -6328,7 +6329,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>162</v>
       </c>
@@ -6351,7 +6352,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>163</v>
       </c>
@@ -6374,7 +6375,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>164</v>
       </c>
@@ -6397,7 +6398,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>165</v>
       </c>
@@ -6420,7 +6421,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>166</v>
       </c>
@@ -6443,7 +6444,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>167</v>
       </c>
@@ -6466,7 +6467,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>168</v>
       </c>
@@ -6489,7 +6490,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>169</v>
       </c>
@@ -6512,7 +6513,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>170</v>
       </c>
@@ -6535,7 +6536,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>171</v>
       </c>
@@ -6558,7 +6559,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>172</v>
       </c>
@@ -6581,7 +6582,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>173</v>
       </c>
@@ -6604,7 +6605,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>174</v>
       </c>
@@ -6627,7 +6628,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>175</v>
       </c>
@@ -6650,7 +6651,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>176</v>
       </c>
@@ -6673,7 +6674,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>177</v>
       </c>
@@ -6696,7 +6697,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>239</v>
       </c>
@@ -6719,7 +6720,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>178</v>
       </c>
@@ -6742,7 +6743,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>179</v>
       </c>
@@ -6765,7 +6766,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>180</v>
       </c>
@@ -6788,7 +6789,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>181</v>
       </c>
@@ -6811,7 +6812,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>182</v>
       </c>
@@ -6834,7 +6835,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>183</v>
       </c>
@@ -6857,7 +6858,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>184</v>
       </c>
@@ -6880,7 +6881,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>186</v>
       </c>
@@ -6903,7 +6904,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>187</v>
       </c>
@@ -6926,7 +6927,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>188</v>
       </c>
@@ -6949,7 +6950,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>189</v>
       </c>
@@ -6972,7 +6973,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>190</v>
       </c>
@@ -6995,7 +6996,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>191</v>
       </c>
@@ -7018,7 +7019,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>192</v>
       </c>
@@ -7041,7 +7042,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>193</v>
       </c>
@@ -7064,7 +7065,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>194</v>
       </c>
@@ -7087,7 +7088,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>195</v>
       </c>
@@ -7110,7 +7111,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>196</v>
       </c>
@@ -7133,7 +7134,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>197</v>
       </c>
@@ -7156,7 +7157,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>199</v>
       </c>
@@ -7179,7 +7180,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>200</v>
       </c>
@@ -7202,7 +7203,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>201</v>
       </c>
@@ -7225,7 +7226,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>202</v>
       </c>
@@ -7248,7 +7249,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>203</v>
       </c>
@@ -7271,7 +7272,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>204</v>
       </c>
@@ -7294,7 +7295,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>205</v>
       </c>
@@ -7317,7 +7318,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>206</v>
       </c>
@@ -7340,7 +7341,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>207</v>
       </c>
@@ -7363,7 +7364,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>208</v>
       </c>
@@ -7386,7 +7387,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>209</v>
       </c>
@@ -7409,7 +7410,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>210</v>
       </c>
@@ -7432,7 +7433,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>211</v>
       </c>
@@ -7455,7 +7456,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>212</v>
       </c>
@@ -7478,7 +7479,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>213</v>
       </c>
@@ -7501,7 +7502,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>214</v>
       </c>
@@ -7524,7 +7525,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>215</v>
       </c>
@@ -7547,7 +7548,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>216</v>
       </c>
@@ -7570,7 +7571,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>217</v>
       </c>
@@ -7593,7 +7594,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>218</v>
       </c>
@@ -7616,7 +7617,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>219</v>
       </c>
@@ -7639,7 +7640,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>220</v>
       </c>
@@ -7662,7 +7663,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>221</v>
       </c>
@@ -7685,7 +7686,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>222</v>
       </c>
@@ -7708,7 +7709,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>223</v>
       </c>
@@ -7731,7 +7732,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>224</v>
       </c>
@@ -7754,7 +7755,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>225</v>
       </c>
@@ -7777,7 +7778,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>226</v>
       </c>
@@ -7800,7 +7801,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>227</v>
       </c>
@@ -7823,7 +7824,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>228</v>
       </c>
@@ -7846,7 +7847,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>229</v>
       </c>
@@ -7869,7 +7870,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>230</v>
       </c>
@@ -7892,7 +7893,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>231</v>
       </c>
@@ -7915,7 +7916,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>232</v>
       </c>
@@ -7938,7 +7939,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>233</v>
       </c>
@@ -7961,7 +7962,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>234</v>
       </c>
@@ -7984,7 +7985,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>235</v>
       </c>
@@ -8007,7 +8008,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>236</v>
       </c>
@@ -8030,7 +8031,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>237</v>
       </c>
@@ -8053,7 +8054,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>238</v>
       </c>
@@ -8076,7 +8077,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>94</v>
       </c>
@@ -8108,20 +8109,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>177</v>
       </c>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\code\react-cintamani\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Cintamani\Website 2017\react-cintamani\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2795B2C4-0B6B-476B-8944-3D64AB9331FA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9C1B64BC-DDE5-45F3-AC78-6B4AF04A251C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2078" yWindow="683" windowWidth="23040" windowHeight="9638" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2076" yWindow="684" windowWidth="23040" windowHeight="9636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalog_product_bearbeitet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="593">
   <si>
     <t>Name</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Aksobhya vollvergoldete Kupferstatue 7,5cm</t>
-  </si>
-  <si>
-    <t>Aksobhya vollvergoldete Kupferstatue 38cm</t>
   </si>
   <si>
     <t>Aksobhya Kupferstatue 8cm</t>
@@ -1171,9 +1168,6 @@
     <t>BAkso035.JPG, BAkso032.JPG, BAkso036.JPG, BAkso037.JPG, BAkso038.JPG, BAkso039.JPG, BAkso040.JPG</t>
   </si>
   <si>
-    <t>BAkso018.JPG, BAkso017.JPG, BAkso016.JPG, BAkso015.JPG, BAkso014.JPG</t>
-  </si>
-  <si>
     <t>BAmi005.JPG</t>
   </si>
   <si>
@@ -1815,6 +1809,9 @@
   </si>
   <si>
     <t>Gruene Tara,21 Taras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stupa Stein 27cm </t>
   </si>
 </sst>
 </file>
@@ -1824,7 +1821,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1955,6 +1952,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2313,7 +2316,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -2323,6 +2326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2680,41 +2684,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="38.1328125" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" customWidth="1"/>
     <col min="3" max="3" width="48.6640625" customWidth="1"/>
     <col min="6" max="6" width="65.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1" t="s">
         <v>355</v>
-      </c>
-      <c r="B1" t="s">
-        <v>356</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E1" t="s">
         <v>357</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>358</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>359</v>
       </c>
-      <c r="G1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2722,7 +2726,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1">
         <v>19.5</v>
@@ -2731,13 +2735,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2754,13 +2758,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2768,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1">
         <v>49</v>
@@ -2777,13 +2781,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2800,13 +2804,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2814,7 +2818,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1">
         <v>59</v>
@@ -2823,13 +2827,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2846,13 +2850,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2869,13 +2873,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2892,13 +2896,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2915,13 +2919,13 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2938,13 +2942,13 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2961,13 +2965,13 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2975,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1">
         <v>250</v>
@@ -2984,13 +2988,13 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3007,13 +3011,13 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3030,13 +3034,13 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3053,13 +3057,13 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3076,13 +3080,13 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3090,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1">
         <v>699</v>
@@ -3099,13 +3103,13 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3113,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1">
         <v>899</v>
@@ -3122,44 +3126,30 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1999</v>
-      </c>
+      <c r="D20" s="1"/>
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" t="s">
-        <v>379</v>
-      </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="1">
         <v>19.5</v>
@@ -3168,21 +3158,21 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="1">
         <v>49</v>
@@ -3191,21 +3181,21 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1">
         <v>59</v>
@@ -3214,21 +3204,21 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
         <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
       </c>
       <c r="D24" s="1">
         <v>139</v>
@@ -3237,21 +3227,21 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="4">
         <v>179</v>
@@ -3260,21 +3250,21 @@
         <v>1</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1">
         <v>250</v>
@@ -3283,21 +3273,21 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" s="1">
         <v>269</v>
@@ -3306,21 +3296,21 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="1">
         <v>19.5</v>
@@ -3329,21 +3319,21 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
         <v>38</v>
-      </c>
-      <c r="C29" t="s">
-        <v>39</v>
       </c>
       <c r="D29" s="1">
         <v>35</v>
@@ -3352,21 +3342,21 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="1">
         <v>49</v>
@@ -3375,21 +3365,21 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="1">
         <v>250</v>
@@ -3398,21 +3388,21 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="1">
         <v>250</v>
@@ -3421,21 +3411,21 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="1">
         <v>199</v>
@@ -3444,21 +3434,21 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" s="1">
         <v>199</v>
@@ -3467,21 +3457,21 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35" s="1">
         <v>269</v>
@@ -3490,21 +3480,21 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
         <v>44</v>
-      </c>
-      <c r="C36" t="s">
-        <v>45</v>
       </c>
       <c r="D36" s="1">
         <v>299</v>
@@ -3513,21 +3503,21 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" s="1">
         <v>18</v>
@@ -3536,21 +3526,21 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38" s="1">
         <v>25</v>
@@ -3559,21 +3549,21 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D39" s="1">
         <v>29</v>
@@ -3582,21 +3572,21 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" s="1">
         <v>39</v>
@@ -3605,21 +3595,21 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41" s="1">
         <v>59</v>
@@ -3628,21 +3618,21 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42" s="1">
         <v>59.9</v>
@@ -3651,21 +3641,21 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" s="1">
         <v>399</v>
@@ -3674,21 +3664,21 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D44" s="1">
         <v>499</v>
@@ -3697,21 +3687,21 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G44" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D45" s="1">
         <v>19.5</v>
@@ -3720,21 +3710,21 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D46" s="1">
         <v>39.9</v>
@@ -3743,21 +3733,21 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D47" s="1">
         <v>299</v>
@@ -3766,21 +3756,21 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D48" s="1">
         <v>3999</v>
@@ -3789,21 +3779,21 @@
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>49</v>
       </c>
       <c r="B49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" t="s">
         <v>69</v>
-      </c>
-      <c r="C49" t="s">
-        <v>70</v>
       </c>
       <c r="D49" s="1">
         <v>49</v>
@@ -3812,21 +3802,21 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="399" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>241</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D50" s="1">
         <v>250</v>
@@ -3835,21 +3825,21 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D51" s="1">
         <v>59</v>
@@ -3858,21 +3848,21 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D52" s="1">
         <v>25</v>
@@ -3881,21 +3871,21 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D53" s="1">
         <v>99</v>
@@ -3904,21 +3894,21 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D54" s="4">
         <v>399</v>
@@ -3927,21 +3917,21 @@
         <v>1</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D55" s="4">
         <v>399</v>
@@ -3950,21 +3940,21 @@
         <v>1</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D56" s="1">
         <v>499</v>
@@ -3973,21 +3963,21 @@
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D57" s="1">
         <v>59</v>
@@ -3996,21 +3986,21 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D58" s="1">
         <v>189</v>
@@ -4019,21 +4009,21 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D59" s="1">
         <v>189</v>
@@ -4042,21 +4032,21 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D60" s="1">
         <v>230</v>
@@ -4065,21 +4055,21 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D61" s="1">
         <v>280</v>
@@ -4088,21 +4078,21 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C62" t="s">
-        <v>338</v>
+        <v>592</v>
       </c>
       <c r="D62" s="1">
         <v>499</v>
@@ -4111,44 +4101,44 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G62" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C63" t="s">
-        <v>86</v>
+        <v>337</v>
       </c>
       <c r="D63" s="1">
-        <v>399</v>
+        <v>599</v>
       </c>
       <c r="E63" s="2">
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D64" s="1">
         <v>449</v>
@@ -4157,21 +4147,21 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="399" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>240</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C65" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D65" s="1">
         <v>1000</v>
@@ -4180,44 +4170,44 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1">
         <v>2499</v>
       </c>
-      <c r="E66">
-        <v>1</v>
+      <c r="E66" s="7">
+        <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D67" s="1">
         <v>19.5</v>
@@ -4226,21 +4216,21 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G67" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" t="s">
         <v>93</v>
-      </c>
-      <c r="C68" t="s">
-        <v>94</v>
       </c>
       <c r="D68" s="1">
         <v>49</v>
@@ -4249,21 +4239,21 @@
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G68" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D69" s="1">
         <v>59</v>
@@ -4272,21 +4262,21 @@
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D70" s="1">
         <v>250</v>
@@ -4295,21 +4285,21 @@
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G70" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D71" s="1">
         <v>6.5</v>
@@ -4318,21 +4308,21 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G71" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D72" s="1">
         <v>10</v>
@@ -4341,21 +4331,21 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G72" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D73" s="1">
         <v>12</v>
@@ -4364,21 +4354,21 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G73" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D74" s="1">
         <v>14</v>
@@ -4387,21 +4377,21 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G74" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C75" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D75" s="1">
         <v>20</v>
@@ -4410,21 +4400,21 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D76" s="1">
         <v>20</v>
@@ -4433,21 +4423,21 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G76" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C77" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D77" s="1">
         <v>30</v>
@@ -4456,21 +4446,21 @@
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G77" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D78" s="1">
         <v>50</v>
@@ -4479,21 +4469,21 @@
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G78" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D79" s="1">
         <v>100</v>
@@ -4502,21 +4492,21 @@
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G79" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D80" s="1">
         <v>200</v>
@@ -4525,21 +4515,21 @@
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C81" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D81" s="1">
         <v>300</v>
@@ -4548,21 +4538,21 @@
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G81" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D82" s="1">
         <v>19.5</v>
@@ -4571,21 +4561,21 @@
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G82" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D83" s="1">
         <v>59</v>
@@ -4594,21 +4584,21 @@
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G83" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C84" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D84" s="1">
         <v>69</v>
@@ -4617,21 +4607,21 @@
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G84" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C85" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D85" s="1">
         <v>99</v>
@@ -4640,21 +4630,21 @@
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G85" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C86" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D86" s="1">
         <v>199</v>
@@ -4663,21 +4653,21 @@
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G86" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D87" s="1">
         <v>179</v>
@@ -4686,21 +4676,21 @@
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G87" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C88" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D88" s="1">
         <v>229</v>
@@ -4709,21 +4699,21 @@
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G88" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D89" s="1">
         <v>249</v>
@@ -4732,21 +4722,21 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G89" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C90" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D90" s="1">
         <v>259</v>
@@ -4755,21 +4745,21 @@
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G90" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C91" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D91" s="1">
         <v>299</v>
@@ -4778,21 +4768,21 @@
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G91" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C92" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D92" s="1">
         <v>999</v>
@@ -4801,21 +4791,21 @@
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G92" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D93" s="1">
         <v>19.5</v>
@@ -4824,21 +4814,21 @@
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G93" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C94" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D94" s="1">
         <v>59</v>
@@ -4847,21 +4837,21 @@
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G94" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C95" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D95" s="1">
         <v>69</v>
@@ -4870,21 +4860,21 @@
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G95" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D96" s="1">
         <v>99</v>
@@ -4893,21 +4883,21 @@
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G96" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C97" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D97" s="1">
         <v>179</v>
@@ -4916,21 +4906,21 @@
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G97" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D98" s="1">
         <v>269</v>
@@ -4939,21 +4929,21 @@
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C99" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D99" s="1">
         <v>399</v>
@@ -4962,21 +4952,21 @@
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G99" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D100" s="4">
         <v>999</v>
@@ -4985,25 +4975,25 @@
         <v>1</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D101" s="1">
         <v>1999</v>
@@ -5012,21 +5002,21 @@
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D102" s="1">
         <v>5.9</v>
@@ -5035,21 +5025,21 @@
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G102" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D103" s="1">
         <v>5.9</v>
@@ -5058,21 +5048,21 @@
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G103" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D104" s="1">
         <v>5.9</v>
@@ -5081,21 +5071,21 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G104" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C105" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D105" s="1">
         <v>5.9</v>
@@ -5104,21 +5094,21 @@
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G105" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C106" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D106" s="1">
         <v>5.9</v>
@@ -5127,21 +5117,21 @@
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G106" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C107" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D107" s="1">
         <v>5.9</v>
@@ -5150,21 +5140,21 @@
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G107" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C108" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D108" s="1">
         <v>6</v>
@@ -5173,21 +5163,21 @@
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G108" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D109" s="1">
         <v>6.9</v>
@@ -5196,21 +5186,21 @@
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G109" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C110" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D110" s="1">
         <v>7.5</v>
@@ -5219,21 +5209,21 @@
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G110" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C111" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D111" s="1">
         <v>7.5</v>
@@ -5242,21 +5232,21 @@
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G111" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C112" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D112" s="1">
         <v>7.5</v>
@@ -5265,21 +5255,21 @@
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G112" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D113" s="1">
         <v>7.5</v>
@@ -5288,21 +5278,21 @@
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G113" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C114" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D114" s="1">
         <v>8</v>
@@ -5311,21 +5301,21 @@
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G114" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C115" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D115" s="1">
         <v>8.5</v>
@@ -5334,21 +5324,21 @@
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G115" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C116" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D116" s="1">
         <v>9.9</v>
@@ -5357,21 +5347,21 @@
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G116" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C117" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D117" s="1">
         <v>9.9</v>
@@ -5380,21 +5370,21 @@
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G117" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C118" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D118" s="1">
         <v>10</v>
@@ -5403,21 +5393,21 @@
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G118" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C119" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D119" s="1">
         <v>11.5</v>
@@ -5426,21 +5416,21 @@
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G119" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C120" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D120" s="1">
         <v>12</v>
@@ -5449,21 +5439,21 @@
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G120" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C121" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D121" s="1">
         <v>12</v>
@@ -5472,21 +5462,21 @@
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G121" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C122" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D122" s="1">
         <v>12</v>
@@ -5495,21 +5485,21 @@
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G122" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C123" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D123" s="1">
         <v>9.9</v>
@@ -5518,21 +5508,21 @@
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G123" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C124" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D124" s="1">
         <v>9.9</v>
@@ -5541,21 +5531,21 @@
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G124" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C125" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D125" s="1">
         <v>10</v>
@@ -5564,21 +5554,21 @@
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G125" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C126" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D126" s="1">
         <v>14</v>
@@ -5587,21 +5577,21 @@
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G126" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C127" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D127" s="1">
         <v>14</v>
@@ -5610,21 +5600,21 @@
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G127" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C128" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D128" s="1">
         <v>14.5</v>
@@ -5633,21 +5623,21 @@
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G128" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C129" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D129" s="1">
         <v>16.8</v>
@@ -5656,21 +5646,21 @@
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G129" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C130" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D130" s="1">
         <v>19.5</v>
@@ -5679,21 +5669,21 @@
         <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G130" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C131" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D131" s="1">
         <v>19.5</v>
@@ -5702,21 +5692,21 @@
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G131" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C132" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D132" s="1">
         <v>24.5</v>
@@ -5725,21 +5715,21 @@
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G132" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C133" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D133" s="1">
         <v>25</v>
@@ -5748,21 +5738,21 @@
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G133" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C134" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D134" s="1">
         <v>28.2</v>
@@ -5771,21 +5761,21 @@
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G134" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C135" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D135" s="1">
         <v>29.5</v>
@@ -5794,21 +5784,21 @@
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G135" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D136" s="1">
         <v>29.9</v>
@@ -5817,21 +5807,21 @@
         <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G136" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C137" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D137" s="1">
         <v>34</v>
@@ -5840,21 +5830,21 @@
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G137" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C138" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D138" s="1">
         <v>34.5</v>
@@ -5863,21 +5853,21 @@
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G138" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C139" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D139" s="1">
         <v>79.900000000000006</v>
@@ -5886,21 +5876,21 @@
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G139" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C140" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D140" s="1">
         <v>89.9</v>
@@ -5909,21 +5899,21 @@
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G140" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C141" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D141" s="1">
         <v>89.9</v>
@@ -5932,21 +5922,21 @@
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G141" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C142" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D142" s="1">
         <v>49.9</v>
@@ -5955,21 +5945,21 @@
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G142" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C143" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D143" s="1">
         <v>89</v>
@@ -5978,21 +5968,21 @@
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G143" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C144" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D144" s="1">
         <v>89</v>
@@ -6001,21 +5991,21 @@
         <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G144" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C145" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D145" s="1">
         <v>89</v>
@@ -6024,21 +6014,21 @@
         <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G145" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C146" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D146" s="1">
         <v>99</v>
@@ -6047,21 +6037,21 @@
         <v>1</v>
       </c>
       <c r="F146" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G146" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C147" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D147" s="1">
         <v>99</v>
@@ -6070,21 +6060,21 @@
         <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G147" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C148" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D148" s="1">
         <v>99</v>
@@ -6093,21 +6083,21 @@
         <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G148" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D149" s="1">
         <v>99</v>
@@ -6116,21 +6106,21 @@
         <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G149" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C150" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D150" s="1">
         <v>179</v>
@@ -6139,21 +6129,21 @@
         <v>1</v>
       </c>
       <c r="F150" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G150" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C151" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D151" s="1">
         <v>49.9</v>
@@ -6162,21 +6152,21 @@
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G151" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C152" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D152" s="1">
         <v>49.9</v>
@@ -6185,21 +6175,21 @@
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G152" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C153" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D153" s="1">
         <v>49.9</v>
@@ -6208,21 +6198,21 @@
         <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G153" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C154" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D154" s="1">
         <v>49.9</v>
@@ -6231,21 +6221,21 @@
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G154" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C155" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D155" s="1">
         <v>49.9</v>
@@ -6254,21 +6244,21 @@
         <v>1</v>
       </c>
       <c r="F155" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G155" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C156" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D156" s="1">
         <v>49.9</v>
@@ -6277,21 +6267,21 @@
         <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G156" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C157" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D157" s="1">
         <v>49.9</v>
@@ -6300,21 +6290,21 @@
         <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G157" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C158" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D158" s="1">
         <v>49.9</v>
@@ -6323,21 +6313,21 @@
         <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G158" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C159" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D159" s="1">
         <v>49.9</v>
@@ -6346,21 +6336,21 @@
         <v>1</v>
       </c>
       <c r="F159" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G159" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C160" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D160" s="1">
         <v>199</v>
@@ -6369,21 +6359,21 @@
         <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G160" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C161" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D161" s="1">
         <v>199</v>
@@ -6392,21 +6382,21 @@
         <v>1</v>
       </c>
       <c r="F161" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G161" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C162" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D162" s="1">
         <v>199</v>
@@ -6415,21 +6405,21 @@
         <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G162" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C163" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D163" s="1">
         <v>199</v>
@@ -6438,21 +6428,21 @@
         <v>1</v>
       </c>
       <c r="F163" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G163" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C164" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D164" s="1">
         <v>249</v>
@@ -6461,21 +6451,21 @@
         <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G164" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C165" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D165" s="1">
         <v>249</v>
@@ -6484,21 +6474,21 @@
         <v>1</v>
       </c>
       <c r="F165" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G165" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C166" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D166" s="1">
         <v>249</v>
@@ -6507,21 +6497,21 @@
         <v>1</v>
       </c>
       <c r="F166" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G166" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C167" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D167" s="1">
         <v>399</v>
@@ -6530,21 +6520,21 @@
         <v>1</v>
       </c>
       <c r="F167" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G167" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>171</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D168" s="4">
         <v>399</v>
@@ -6553,21 +6543,21 @@
         <v>1</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>172</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D169" s="4">
         <v>399</v>
@@ -6576,21 +6566,21 @@
         <v>1</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>173</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D170" s="4">
         <v>399</v>
@@ -6599,21 +6589,21 @@
         <v>1</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C171" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D171" s="1">
         <v>499</v>
@@ -6622,21 +6612,21 @@
         <v>1</v>
       </c>
       <c r="F171" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G171" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>175</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D172" s="4">
         <v>499</v>
@@ -6645,21 +6635,21 @@
         <v>1</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>176</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D173" s="4">
         <v>799</v>
@@ -6668,21 +6658,21 @@
         <v>1</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C174" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D174" s="1">
         <v>999</v>
@@ -6691,21 +6681,21 @@
         <v>1</v>
       </c>
       <c r="F174" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G174" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>239</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D175" s="4">
         <v>400</v>
@@ -6714,21 +6704,21 @@
         <v>1</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G175" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>178</v>
       </c>
       <c r="B176" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C176" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D176" s="1">
         <v>999</v>
@@ -6737,21 +6727,21 @@
         <v>1</v>
       </c>
       <c r="F176" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G176" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>179</v>
       </c>
       <c r="B177" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C177" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D177" s="1">
         <v>499</v>
@@ -6760,21 +6750,21 @@
         <v>1</v>
       </c>
       <c r="F177" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G177" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>180</v>
       </c>
       <c r="B178" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C178" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D178" s="1">
         <v>19.5</v>
@@ -6783,21 +6773,21 @@
         <v>1</v>
       </c>
       <c r="F178" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G178" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>181</v>
       </c>
       <c r="B179" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C179" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D179" s="1">
         <v>59</v>
@@ -6806,21 +6796,21 @@
         <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G179" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>182</v>
       </c>
       <c r="B180" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C180" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D180" s="1">
         <v>69</v>
@@ -6829,21 +6819,21 @@
         <v>1</v>
       </c>
       <c r="F180" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G180" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>183</v>
       </c>
       <c r="B181" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C181" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D181" s="1">
         <v>99</v>
@@ -6852,21 +6842,21 @@
         <v>1</v>
       </c>
       <c r="F181" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G181" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>184</v>
       </c>
       <c r="B182" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C182" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D182" s="1">
         <v>229</v>
@@ -6875,21 +6865,21 @@
         <v>1</v>
       </c>
       <c r="F182" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G182" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C183" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D183" s="1">
         <v>269</v>
@@ -6898,21 +6888,21 @@
         <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G183" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C184" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D184" s="1">
         <v>399</v>
@@ -6921,21 +6911,21 @@
         <v>1</v>
       </c>
       <c r="F184" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G184" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C185" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D185" s="1">
         <v>799</v>
@@ -6944,21 +6934,21 @@
         <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C186" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D186" s="1">
         <v>999</v>
@@ -6967,21 +6957,21 @@
         <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C187" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D187" s="1">
         <v>1299</v>
@@ -6990,21 +6980,21 @@
         <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C188" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D188" s="1">
         <v>1399</v>
@@ -7013,21 +7003,21 @@
         <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G188" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C189" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D189" s="1">
         <v>19.5</v>
@@ -7036,21 +7026,21 @@
         <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G189" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C190" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D190" s="1">
         <v>59</v>
@@ -7059,21 +7049,21 @@
         <v>1</v>
       </c>
       <c r="F190" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G190" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C191" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D191" s="1">
         <v>69</v>
@@ -7082,21 +7072,21 @@
         <v>1</v>
       </c>
       <c r="F191" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G191" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C192" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D192" s="1">
         <v>179</v>
@@ -7105,21 +7095,21 @@
         <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G192" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C193" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D193" s="1">
         <v>229</v>
@@ -7128,21 +7118,21 @@
         <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="G193" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C194" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D194" s="1">
         <v>269</v>
@@ -7151,21 +7141,21 @@
         <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G194" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>199</v>
       </c>
       <c r="B195" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C195" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D195" s="1">
         <v>399</v>
@@ -7174,21 +7164,21 @@
         <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>200</v>
       </c>
       <c r="B196" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C196" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D196" s="1">
         <v>399</v>
@@ -7197,21 +7187,21 @@
         <v>1</v>
       </c>
       <c r="F196" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G196" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>201</v>
       </c>
       <c r="B197" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C197" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D197" s="1">
         <v>599</v>
@@ -7220,21 +7210,21 @@
         <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>202</v>
       </c>
       <c r="B198" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C198" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D198" s="1">
         <v>999</v>
@@ -7243,21 +7233,21 @@
         <v>1</v>
       </c>
       <c r="F198" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G198" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>203</v>
       </c>
       <c r="B199" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C199" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D199" s="1">
         <v>5.2</v>
@@ -7266,21 +7256,21 @@
         <v>1</v>
       </c>
       <c r="F199" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G199" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>204</v>
       </c>
       <c r="B200" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C200" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D200" s="1">
         <v>7.15</v>
@@ -7289,21 +7279,21 @@
         <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G200" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>205</v>
       </c>
       <c r="B201" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C201" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D201" s="1">
         <v>12.95</v>
@@ -7312,21 +7302,21 @@
         <v>1</v>
       </c>
       <c r="F201" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G201" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>206</v>
       </c>
       <c r="B202" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C202" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D202" s="1">
         <v>16.25</v>
@@ -7335,21 +7325,21 @@
         <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G202" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>207</v>
       </c>
       <c r="B203" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C203" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D203" s="1">
         <v>25</v>
@@ -7358,21 +7348,21 @@
         <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G203" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>208</v>
       </c>
       <c r="B204" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C204" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D204" s="1">
         <v>100</v>
@@ -7381,21 +7371,21 @@
         <v>1</v>
       </c>
       <c r="F204" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G204" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>209</v>
       </c>
       <c r="B205" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C205" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D205" s="1">
         <v>3.9</v>
@@ -7404,21 +7394,21 @@
         <v>1</v>
       </c>
       <c r="F205" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G205" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>210</v>
       </c>
       <c r="B206" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C206" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D206" s="1">
         <v>6.9</v>
@@ -7427,21 +7417,21 @@
         <v>1</v>
       </c>
       <c r="F206" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G206" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>211</v>
       </c>
       <c r="B207" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C207" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D207" s="1">
         <v>39</v>
@@ -7450,21 +7440,21 @@
         <v>1</v>
       </c>
       <c r="F207" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G207" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>212</v>
       </c>
       <c r="B208" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C208" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D208" s="1">
         <v>39.9</v>
@@ -7473,21 +7463,21 @@
         <v>1</v>
       </c>
       <c r="F208" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>213</v>
       </c>
       <c r="B209" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C209" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D209" s="1">
         <v>7</v>
@@ -7496,21 +7486,21 @@
         <v>1</v>
       </c>
       <c r="F209" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G209" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>214</v>
       </c>
       <c r="B210" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C210" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D210" s="1">
         <v>12.9</v>
@@ -7519,21 +7509,21 @@
         <v>1</v>
       </c>
       <c r="F210" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G210" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>215</v>
       </c>
       <c r="B211" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C211" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D211" s="1">
         <v>34.5</v>
@@ -7542,21 +7532,21 @@
         <v>1</v>
       </c>
       <c r="F211" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G211" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>216</v>
       </c>
       <c r="B212" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C212" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D212" s="1">
         <v>99</v>
@@ -7565,21 +7555,21 @@
         <v>1</v>
       </c>
       <c r="F212" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G212" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>217</v>
       </c>
       <c r="B213" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C213" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D213" s="1">
         <v>39</v>
@@ -7588,21 +7578,21 @@
         <v>1</v>
       </c>
       <c r="F213" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G213" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>218</v>
       </c>
       <c r="B214" t="s">
+        <v>301</v>
+      </c>
+      <c r="C214" t="s">
         <v>302</v>
-      </c>
-      <c r="C214" t="s">
-        <v>303</v>
       </c>
       <c r="D214" s="1">
         <v>45</v>
@@ -7611,21 +7601,21 @@
         <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G214" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>219</v>
       </c>
       <c r="B215" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C215" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D215" s="1">
         <v>100</v>
@@ -7634,21 +7624,21 @@
         <v>1</v>
       </c>
       <c r="F215" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="G215" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>220</v>
       </c>
       <c r="B216" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C216" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D216" s="1">
         <v>399</v>
@@ -7657,21 +7647,21 @@
         <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G216" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>221</v>
       </c>
       <c r="B217" t="s">
+        <v>307</v>
+      </c>
+      <c r="C217" t="s">
         <v>308</v>
-      </c>
-      <c r="C217" t="s">
-        <v>309</v>
       </c>
       <c r="D217" s="1">
         <v>25</v>
@@ -7680,21 +7670,21 @@
         <v>1</v>
       </c>
       <c r="F217" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G217" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>222</v>
       </c>
       <c r="B218" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C218" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D218" s="1">
         <v>25</v>
@@ -7703,21 +7693,21 @@
         <v>1</v>
       </c>
       <c r="F218" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G218" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>223</v>
       </c>
       <c r="B219" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C219" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D219" s="1">
         <v>25</v>
@@ -7726,21 +7716,21 @@
         <v>1</v>
       </c>
       <c r="F219" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G219" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>224</v>
       </c>
       <c r="B220" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C220" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D220" s="1">
         <v>25</v>
@@ -7749,21 +7739,21 @@
         <v>1</v>
       </c>
       <c r="F220" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G220" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>225</v>
       </c>
       <c r="B221" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C221" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D221" s="1">
         <v>25</v>
@@ -7772,21 +7762,21 @@
         <v>1</v>
       </c>
       <c r="F221" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G221" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>226</v>
       </c>
       <c r="B222" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C222" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D222" s="1">
         <v>19</v>
@@ -7795,21 +7785,21 @@
         <v>1</v>
       </c>
       <c r="F222" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G222" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>227</v>
       </c>
       <c r="B223" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C223" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D223" s="1">
         <v>19</v>
@@ -7818,21 +7808,21 @@
         <v>1</v>
       </c>
       <c r="F223" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G223" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>228</v>
       </c>
       <c r="B224" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C224" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D224" s="1">
         <v>19</v>
@@ -7841,21 +7831,21 @@
         <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G224" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>229</v>
       </c>
       <c r="B225" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C225" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D225" s="1">
         <v>19</v>
@@ -7864,21 +7854,21 @@
         <v>1</v>
       </c>
       <c r="F225" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G225" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>230</v>
       </c>
       <c r="B226" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C226" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D226" s="1">
         <v>6</v>
@@ -7887,21 +7877,21 @@
         <v>1</v>
       </c>
       <c r="F226" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G226" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>231</v>
       </c>
       <c r="B227" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C227" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D227" s="1">
         <v>6</v>
@@ -7910,21 +7900,21 @@
         <v>1</v>
       </c>
       <c r="F227" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G227" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>232</v>
       </c>
       <c r="B228" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C228" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D228" s="1">
         <v>9.9</v>
@@ -7933,21 +7923,21 @@
         <v>1</v>
       </c>
       <c r="F228" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G228" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>233</v>
       </c>
       <c r="B229" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C229" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D229" s="1">
         <v>9.9</v>
@@ -7956,21 +7946,21 @@
         <v>1</v>
       </c>
       <c r="F229" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G229" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>234</v>
       </c>
       <c r="B230" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C230" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D230" s="1">
         <v>9.9</v>
@@ -7979,21 +7969,21 @@
         <v>1</v>
       </c>
       <c r="F230" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G230" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>235</v>
       </c>
       <c r="B231" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C231" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D231" s="1">
         <v>9.9</v>
@@ -8002,21 +7992,21 @@
         <v>1</v>
       </c>
       <c r="F231" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G231" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>236</v>
       </c>
       <c r="B232" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C232" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D232" s="1">
         <v>12</v>
@@ -8025,21 +8015,21 @@
         <v>1</v>
       </c>
       <c r="F232" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G232" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>237</v>
       </c>
       <c r="B233" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C233" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D233" s="1">
         <v>18.899999999999999</v>
@@ -8048,21 +8038,21 @@
         <v>1</v>
       </c>
       <c r="F233" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G233" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>238</v>
       </c>
       <c r="B234" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C234" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D234" s="1">
         <v>18.899999999999999</v>
@@ -8071,21 +8061,21 @@
         <v>1</v>
       </c>
       <c r="F234" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G234" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>94</v>
       </c>
       <c r="B235" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C235" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D235" s="1">
         <v>999</v>
@@ -8094,10 +8084,10 @@
         <v>1</v>
       </c>
       <c r="F235" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G235" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -8105,6 +8095,7 @@
     <sortCondition ref="D213:D216"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8116,21 +8107,21 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>177</v>
       </c>
       <c r="B1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D1" s="1">
         <v>999</v>
@@ -8139,10 +8130,10 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Cintamani\Website 2017\react-cintamani\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9C1B64BC-DDE5-45F3-AC78-6B4AF04A251C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BAEA79EA-FE27-4834-B0EA-EAD709D05AB6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2076" yWindow="684" windowWidth="23040" windowHeight="9636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2684,8 +2684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6608,8 +6608,8 @@
       <c r="D171" s="1">
         <v>499</v>
       </c>
-      <c r="E171">
-        <v>1</v>
+      <c r="E171" s="2">
+        <v>0</v>
       </c>
       <c r="F171" t="s">
         <v>503</v>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Cintamani\Website 2017\react-cintamani\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BAEA79EA-FE27-4834-B0EA-EAD709D05AB6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{40B24DD8-B8A6-47BA-8E14-5F82EB225855}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2076" yWindow="684" windowWidth="23040" windowHeight="9636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="catalog_product_bearbeitet" sheetId="1" r:id="rId1"/>
     <sheet name="catalog_not_found" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -2682,10 +2682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K235"/>
+  <dimension ref="A1:K237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D238" sqref="D238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7643,8 +7643,8 @@
       <c r="D216" s="1">
         <v>399</v>
       </c>
-      <c r="E216">
-        <v>1</v>
+      <c r="E216" s="2">
+        <v>0</v>
       </c>
       <c r="F216" t="s">
         <v>544</v>
@@ -8089,6 +8089,9 @@
       <c r="G235" t="s">
         <v>126</v>
       </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D237" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A213:G216">

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Cintamani\Website 2017\react-cintamani\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{40B24DD8-B8A6-47BA-8E14-5F82EB225855}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4B3AB992-2461-4223-A453-0E118997AA10}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2076" yWindow="684" windowWidth="23040" windowHeight="9636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2682,10 +2682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K237"/>
+  <dimension ref="A1:K236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D238" sqref="D238"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3134,252 +3134,266 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1">
+        <v>19.5</v>
+      </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>378</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1">
-        <v>19.5</v>
+        <v>49</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="1">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="1">
-        <v>139</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>381</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="4">
+        <v>179</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="4">
-        <v>179</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>35</v>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="1">
+        <v>250</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>383</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D26" s="1">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D27" s="1">
-        <v>269</v>
+        <v>19.5</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D28" s="1">
-        <v>19.5</v>
+        <v>35</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D29" s="1">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D30" s="1">
-        <v>49</v>
+        <v>250</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D31" s="1">
         <v>250</v>
@@ -3388,44 +3402,44 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D32" s="1">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33" s="1">
         <v>199</v>
@@ -3434,481 +3448,481 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D34" s="1">
-        <v>199</v>
+        <v>269</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D35" s="1">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D36" s="1">
-        <v>299</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G36" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D37" s="1">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G37" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D39" s="1">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G39" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D40" s="1">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G40" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D41" s="1">
-        <v>59</v>
+        <v>59.9</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G41" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D42" s="1">
-        <v>59.9</v>
+        <v>399</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D43" s="1">
+        <v>499</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
         <v>399</v>
       </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" t="s">
-        <v>398</v>
-      </c>
       <c r="G43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D44" s="1">
-        <v>499</v>
+        <v>19.5</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G44" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D45" s="1">
-        <v>19.5</v>
+        <v>39.9</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D46" s="1">
-        <v>39.9</v>
+        <v>299</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
         <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D47" s="1">
-        <v>299</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
+        <v>3999</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G47" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D48" s="1">
-        <v>3999</v>
-      </c>
-      <c r="E48" s="2">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="B49" t="s">
         <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>586</v>
       </c>
       <c r="D49" s="1">
-        <v>49</v>
+        <v>250</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>404</v>
-      </c>
-      <c r="G49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>241</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>586</v>
+        <v>70</v>
       </c>
       <c r="D50" s="1">
-        <v>250</v>
+        <v>59</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>587</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>588</v>
+        <v>405</v>
+      </c>
+      <c r="G50" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D51" s="1">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G51" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
         <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D52" s="1">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G52" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C53" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" s="1">
-        <v>99</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
-        <v>407</v>
-      </c>
-      <c r="G53" t="s">
-        <v>72</v>
+      <c r="C53" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="4">
+        <v>399</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>74</v>
+        <v>336</v>
       </c>
       <c r="D54" s="4">
         <v>399</v>
@@ -3917,90 +3931,90 @@
         <v>1</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>335</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D55" s="4">
-        <v>399</v>
-      </c>
-      <c r="E55" s="3">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>75</v>
+      <c r="C55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="1">
+        <v>499</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G55" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C56" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D56" s="1">
-        <v>499</v>
-      </c>
-      <c r="E56" s="2">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G56" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
         <v>79</v>
       </c>
       <c r="C57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D57" s="1">
-        <v>59</v>
+        <v>189</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
         <v>79</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D58" s="1">
         <v>189</v>
@@ -4009,369 +4023,369 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G58" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
         <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D59" s="1">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G59" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
         <v>79</v>
       </c>
       <c r="C60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D60" s="1">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G60" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
         <v>79</v>
       </c>
       <c r="C61" t="s">
-        <v>87</v>
+        <v>592</v>
       </c>
       <c r="D61" s="1">
-        <v>280</v>
+        <v>499</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G61" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
         <v>79</v>
       </c>
       <c r="C62" t="s">
-        <v>592</v>
+        <v>337</v>
       </c>
       <c r="D62" s="1">
-        <v>499</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
+        <v>599</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G62" t="s">
-        <v>338</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
         <v>79</v>
       </c>
       <c r="C63" t="s">
-        <v>337</v>
+        <v>81</v>
       </c>
       <c r="D63" s="1">
-        <v>599</v>
-      </c>
-      <c r="E63" s="2">
-        <v>0</v>
+        <v>449</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G63" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>63</v>
+        <v>240</v>
       </c>
       <c r="B64" t="s">
         <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>81</v>
+        <v>589</v>
       </c>
       <c r="D64" s="1">
-        <v>449</v>
+        <v>1000</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>418</v>
-      </c>
-      <c r="G64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
+        <v>590</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>240</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>79</v>
       </c>
       <c r="C65" t="s">
-        <v>589</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
+        <v>2499</v>
+      </c>
+      <c r="E65" s="7">
+        <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>590</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>588</v>
+        <v>419</v>
+      </c>
+      <c r="G65" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C66" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D66" s="1">
-        <v>2499</v>
-      </c>
-      <c r="E66" s="7">
-        <v>0</v>
+        <v>19.5</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G66" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
         <v>92</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D67" s="1">
-        <v>19.5</v>
+        <v>49</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G67" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
         <v>92</v>
       </c>
       <c r="C68" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D68" s="1">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G68" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
         <v>92</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D69" s="1">
-        <v>59</v>
+        <v>250</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G69" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>92</v>
+        <v>353</v>
       </c>
       <c r="C70" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="D70" s="1">
-        <v>250</v>
+        <v>6.5</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>424</v>
+        <v>571</v>
       </c>
       <c r="G70" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
         <v>353</v>
       </c>
       <c r="C71" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D71" s="1">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G71" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
         <v>353</v>
       </c>
       <c r="C72" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D72" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G72" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
         <v>353</v>
       </c>
       <c r="C73" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D73" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G73" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
         <v>353</v>
       </c>
       <c r="C74" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D74" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4380,18 +4394,18 @@
         <v>574</v>
       </c>
       <c r="G74" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
         <v>353</v>
       </c>
       <c r="C75" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D75" s="1">
         <v>20</v>
@@ -4400,70 +4414,70 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G75" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
         <v>353</v>
       </c>
       <c r="C76" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D76" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G76" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
         <v>353</v>
       </c>
       <c r="C77" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D77" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G77" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
         <v>353</v>
       </c>
       <c r="C78" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" s="1">
         <v>100</v>
-      </c>
-      <c r="D78" s="1">
-        <v>50</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -4477,16 +4491,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
         <v>353</v>
       </c>
       <c r="C79" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D79" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -4500,16 +4514,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
         <v>353</v>
       </c>
       <c r="C80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D80" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -4523,500 +4537,500 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>353</v>
+        <v>581</v>
       </c>
       <c r="C81" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="D81" s="1">
-        <v>300</v>
+        <v>19.5</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>577</v>
+        <v>425</v>
       </c>
       <c r="G81" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
         <v>581</v>
       </c>
       <c r="C82" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D82" s="1">
-        <v>19.5</v>
+        <v>59</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G82" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
         <v>581</v>
       </c>
       <c r="C83" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D83" s="1">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G83" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
         <v>581</v>
       </c>
       <c r="C84" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D84" s="1">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G84" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
         <v>581</v>
       </c>
       <c r="C85" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D85" s="1">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G85" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
         <v>581</v>
       </c>
       <c r="C86" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D86" s="1">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G86" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
         <v>581</v>
       </c>
       <c r="C87" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D87" s="1">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G87" t="s">
-        <v>124</v>
+        <v>340</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
         <v>581</v>
       </c>
       <c r="C88" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D88" s="1">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G88" t="s">
-        <v>340</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
         <v>581</v>
       </c>
       <c r="C89" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D89" s="1">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G89" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s">
         <v>581</v>
       </c>
       <c r="C90" t="s">
-        <v>118</v>
+        <v>341</v>
       </c>
       <c r="D90" s="1">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="E90">
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G90" t="s">
-        <v>117</v>
+        <v>341</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
         <v>581</v>
       </c>
       <c r="C91" t="s">
-        <v>341</v>
+        <v>120</v>
       </c>
       <c r="D91" s="1">
-        <v>299</v>
+        <v>999</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G91" t="s">
-        <v>341</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C92" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D92" s="1">
-        <v>999</v>
+        <v>19.5</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G92" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93" t="s">
         <v>582</v>
       </c>
       <c r="C93" t="s">
-        <v>135</v>
+        <v>342</v>
       </c>
       <c r="D93" s="1">
-        <v>19.5</v>
+        <v>59</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G93" t="s">
-        <v>135</v>
+        <v>342</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94" t="s">
         <v>582</v>
       </c>
       <c r="C94" t="s">
-        <v>342</v>
+        <v>134</v>
       </c>
       <c r="D94" s="1">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G94" t="s">
-        <v>342</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95" t="s">
         <v>582</v>
       </c>
       <c r="C95" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D95" s="1">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G95" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96" t="s">
         <v>582</v>
       </c>
       <c r="C96" t="s">
-        <v>136</v>
+        <v>343</v>
       </c>
       <c r="D96" s="1">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G96" t="s">
-        <v>136</v>
+        <v>343</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97" t="s">
         <v>582</v>
       </c>
       <c r="C97" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="D97" s="1">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>440</v>
-      </c>
-      <c r="G97" t="s">
-        <v>343</v>
+        <v>441</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98" t="s">
         <v>582</v>
       </c>
       <c r="C98" t="s">
-        <v>133</v>
+        <v>344</v>
       </c>
       <c r="D98" s="1">
-        <v>269</v>
+        <v>399</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>441</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>132</v>
+        <v>442</v>
+      </c>
+      <c r="G98" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99" t="s">
         <v>582</v>
       </c>
-      <c r="C99" t="s">
-        <v>344</v>
-      </c>
-      <c r="D99" s="1">
-        <v>399</v>
-      </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-      <c r="F99" t="s">
-        <v>442</v>
-      </c>
-      <c r="G99" t="s">
-        <v>345</v>
-      </c>
+      <c r="C99" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D99" s="4">
+        <v>999</v>
+      </c>
+      <c r="E99" s="3">
+        <v>1</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B100" t="s">
         <v>582</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D100" s="4">
-        <v>999</v>
-      </c>
-      <c r="E100" s="3">
-        <v>1</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
+      <c r="C100" t="s">
+        <v>139</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1999</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>444</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B101" t="s">
-        <v>582</v>
+        <v>140</v>
       </c>
       <c r="C101" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="D101" s="1">
-        <v>1999</v>
+        <v>5.9</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>444</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>138</v>
+        <v>445</v>
+      </c>
+      <c r="G101" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B102" t="s">
         <v>140</v>
       </c>
       <c r="C102" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D102" s="1">
         <v>5.9</v>
@@ -5025,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G102" t="s">
         <v>158</v>
@@ -5033,13 +5047,13 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B103" t="s">
         <v>140</v>
       </c>
       <c r="C103" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D103" s="1">
         <v>5.9</v>
@@ -5048,7 +5062,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G103" t="s">
         <v>158</v>
@@ -5056,13 +5070,13 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B104" t="s">
         <v>140</v>
       </c>
       <c r="C104" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D104" s="1">
         <v>5.9</v>
@@ -5071,7 +5085,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G104" t="s">
         <v>158</v>
@@ -5079,13 +5093,13 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B105" t="s">
         <v>140</v>
       </c>
       <c r="C105" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D105" s="1">
         <v>5.9</v>
@@ -5094,7 +5108,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G105" t="s">
         <v>158</v>
@@ -5102,13 +5116,13 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B106" t="s">
         <v>140</v>
       </c>
       <c r="C106" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D106" s="1">
         <v>5.9</v>
@@ -5117,7 +5131,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G106" t="s">
         <v>158</v>
@@ -5125,82 +5139,82 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B107" t="s">
         <v>140</v>
       </c>
       <c r="C107" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="D107" s="1">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="E107">
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G107" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B108" t="s">
         <v>140</v>
       </c>
       <c r="C108" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="D108" s="1">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="E108">
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G108" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B109" t="s">
         <v>140</v>
       </c>
       <c r="C109" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D109" s="1">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G109" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B110" t="s">
         <v>140</v>
       </c>
       <c r="C110" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D110" s="1">
         <v>7.5</v>
@@ -5209,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G110" t="s">
         <v>153</v>
@@ -5217,13 +5231,13 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B111" t="s">
         <v>140</v>
       </c>
       <c r="C111" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D111" s="1">
         <v>7.5</v>
@@ -5232,21 +5246,21 @@
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G111" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B112" t="s">
         <v>140</v>
       </c>
       <c r="C112" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D112" s="1">
         <v>7.5</v>
@@ -5255,90 +5269,90 @@
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G112" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B113" t="s">
         <v>140</v>
       </c>
       <c r="C113" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D113" s="1">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="E113">
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G113" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B114" t="s">
         <v>140</v>
       </c>
       <c r="C114" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D114" s="1">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="E114">
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="G114" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B115" t="s">
         <v>140</v>
       </c>
       <c r="C115" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D115" s="1">
-        <v>8.5</v>
+        <v>9.9</v>
       </c>
       <c r="E115">
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G115" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B116" t="s">
         <v>140</v>
       </c>
       <c r="C116" t="s">
-        <v>163</v>
+        <v>352</v>
       </c>
       <c r="D116" s="1">
         <v>9.9</v>
@@ -5347,7 +5361,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G116" t="s">
         <v>158</v>
@@ -5355,39 +5369,39 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B117" t="s">
         <v>140</v>
       </c>
       <c r="C117" t="s">
-        <v>352</v>
+        <v>148</v>
       </c>
       <c r="D117" s="1">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G117" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B118" t="s">
         <v>140</v>
       </c>
       <c r="C118" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D118" s="1">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -5396,41 +5410,41 @@
         <v>460</v>
       </c>
       <c r="G118" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B119" t="s">
         <v>140</v>
       </c>
       <c r="C119" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D119" s="1">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="E119">
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G119" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B120" t="s">
         <v>140</v>
       </c>
       <c r="C120" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D120" s="1">
         <v>12</v>
@@ -5439,21 +5453,21 @@
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="G120" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B121" t="s">
         <v>140</v>
       </c>
       <c r="C121" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D121" s="1">
         <v>12</v>
@@ -5462,44 +5476,44 @@
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G121" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B122" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="C122" t="s">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="D122" s="1">
-        <v>12</v>
+        <v>9.9</v>
       </c>
       <c r="E122">
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G122" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B123" t="s">
         <v>167</v>
       </c>
       <c r="C123" t="s">
-        <v>351</v>
+        <v>180</v>
       </c>
       <c r="D123" s="1">
         <v>9.9</v>
@@ -5508,7 +5522,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G123" t="s">
         <v>168</v>
@@ -5516,22 +5530,22 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B124" t="s">
         <v>167</v>
       </c>
       <c r="C124" t="s">
-        <v>180</v>
+        <v>276</v>
       </c>
       <c r="D124" s="1">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="E124">
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G124" t="s">
         <v>168</v>
@@ -5539,22 +5553,22 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B125" t="s">
         <v>167</v>
       </c>
       <c r="C125" t="s">
-        <v>276</v>
+        <v>169</v>
       </c>
       <c r="D125" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E125">
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G125" t="s">
         <v>168</v>
@@ -5562,13 +5576,13 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B126" t="s">
         <v>167</v>
       </c>
       <c r="C126" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D126" s="1">
         <v>14</v>
@@ -5577,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G126" t="s">
         <v>168</v>
@@ -5585,22 +5599,22 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B127" t="s">
         <v>167</v>
       </c>
       <c r="C127" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D127" s="1">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="E127">
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G127" t="s">
         <v>168</v>
@@ -5608,59 +5622,59 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B128" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C128" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="D128" s="1">
-        <v>14.5</v>
+        <v>16.8</v>
       </c>
       <c r="E128">
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G128" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B129" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C129" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="D129" s="1">
-        <v>16.8</v>
+        <v>19.5</v>
       </c>
       <c r="E129">
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G129" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B130" t="s">
         <v>167</v>
       </c>
       <c r="C130" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D130" s="1">
         <v>19.5</v>
@@ -5669,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G130" t="s">
         <v>168</v>
@@ -5677,22 +5691,22 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B131" t="s">
         <v>167</v>
       </c>
       <c r="C131" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D131" s="1">
-        <v>19.5</v>
+        <v>24.5</v>
       </c>
       <c r="E131">
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="G131" t="s">
         <v>168</v>
@@ -5700,137 +5714,137 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B132" t="s">
         <v>167</v>
       </c>
       <c r="C132" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D132" s="1">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="E132">
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G132" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B133" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C133" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="D133" s="1">
-        <v>25</v>
+        <v>28.2</v>
       </c>
       <c r="E133">
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G133" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B134" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C134" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D134" s="1">
-        <v>28.2</v>
+        <v>29.5</v>
       </c>
       <c r="E134">
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G134" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B135" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C135" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="D135" s="1">
-        <v>29.5</v>
+        <v>29.9</v>
       </c>
       <c r="E135">
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G135" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B136" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C136" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D136" s="1">
-        <v>29.9</v>
+        <v>34</v>
       </c>
       <c r="E136">
         <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G136" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B137" t="s">
         <v>167</v>
       </c>
       <c r="C137" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D137" s="1">
-        <v>34</v>
+        <v>34.5</v>
       </c>
       <c r="E137">
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G137" t="s">
         <v>168</v>
@@ -5838,59 +5852,59 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B138" t="s">
         <v>167</v>
       </c>
       <c r="C138" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D138" s="1">
-        <v>34.5</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="E138">
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G138" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B139" t="s">
         <v>167</v>
       </c>
       <c r="C139" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D139" s="1">
-        <v>79.900000000000006</v>
+        <v>89.9</v>
       </c>
       <c r="E139">
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G139" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B140" t="s">
         <v>167</v>
       </c>
       <c r="C140" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D140" s="1">
         <v>89.9</v>
@@ -5899,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G140" t="s">
         <v>181</v>
@@ -5907,59 +5921,59 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B141" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="C141" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="D141" s="1">
-        <v>89.9</v>
+        <v>49.9</v>
       </c>
       <c r="E141">
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G141" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B142" t="s">
-        <v>204</v>
+        <v>560</v>
       </c>
       <c r="C142" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D142" s="1">
-        <v>49.9</v>
+        <v>89</v>
       </c>
       <c r="E142">
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>482</v>
+        <v>561</v>
       </c>
       <c r="G142" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B143" t="s">
         <v>560</v>
       </c>
       <c r="C143" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D143" s="1">
         <v>89</v>
@@ -5968,7 +5982,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="G143" t="s">
         <v>200</v>
@@ -5976,13 +5990,13 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B144" t="s">
         <v>560</v>
       </c>
       <c r="C144" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D144" s="1">
         <v>89</v>
@@ -5991,7 +6005,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="G144" t="s">
         <v>200</v>
@@ -5999,36 +6013,36 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B145" t="s">
         <v>560</v>
       </c>
       <c r="C145" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D145" s="1">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E145">
         <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G145" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B146" t="s">
         <v>560</v>
       </c>
       <c r="C146" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D146" s="1">
         <v>99</v>
@@ -6037,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G146" t="s">
         <v>194</v>
@@ -6045,13 +6059,13 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B147" t="s">
         <v>560</v>
       </c>
       <c r="C147" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D147" s="1">
         <v>99</v>
@@ -6060,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G147" t="s">
         <v>194</v>
@@ -6068,13 +6082,13 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B148" t="s">
         <v>560</v>
       </c>
       <c r="C148" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D148" s="1">
         <v>99</v>
@@ -6083,67 +6097,67 @@
         <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G148" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B149" t="s">
         <v>560</v>
       </c>
       <c r="C149" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D149" s="1">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="E149">
         <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G149" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B150" t="s">
-        <v>560</v>
+        <v>204</v>
       </c>
       <c r="C150" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="D150" s="1">
-        <v>179</v>
+        <v>49.9</v>
       </c>
       <c r="E150">
         <v>1</v>
       </c>
       <c r="F150" t="s">
-        <v>567</v>
+        <v>483</v>
       </c>
       <c r="G150" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B151" t="s">
         <v>204</v>
       </c>
       <c r="C151" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D151" s="1">
         <v>49.9</v>
@@ -6152,21 +6166,21 @@
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G151" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B152" t="s">
         <v>204</v>
       </c>
       <c r="C152" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D152" s="1">
         <v>49.9</v>
@@ -6175,21 +6189,21 @@
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G152" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B153" t="s">
         <v>204</v>
       </c>
       <c r="C153" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D153" s="1">
         <v>49.9</v>
@@ -6198,21 +6212,21 @@
         <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G153" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B154" t="s">
         <v>204</v>
       </c>
       <c r="C154" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D154" s="1">
         <v>49.9</v>
@@ -6221,21 +6235,21 @@
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G154" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B155" t="s">
         <v>204</v>
       </c>
       <c r="C155" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D155" s="1">
         <v>49.9</v>
@@ -6244,21 +6258,21 @@
         <v>1</v>
       </c>
       <c r="F155" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G155" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B156" t="s">
         <v>204</v>
       </c>
       <c r="C156" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D156" s="1">
         <v>49.9</v>
@@ -6267,21 +6281,21 @@
         <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G156" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B157" t="s">
         <v>204</v>
       </c>
       <c r="C157" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D157" s="1">
         <v>49.9</v>
@@ -6290,21 +6304,21 @@
         <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G157" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B158" t="s">
         <v>204</v>
       </c>
       <c r="C158" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D158" s="1">
         <v>49.9</v>
@@ -6313,44 +6327,44 @@
         <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G158" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B159" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="C159" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D159" s="1">
-        <v>49.9</v>
+        <v>199</v>
       </c>
       <c r="E159">
         <v>1</v>
       </c>
       <c r="F159" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G159" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B160" t="s">
         <v>225</v>
       </c>
       <c r="C160" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D160" s="1">
         <v>199</v>
@@ -6359,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G160" t="s">
         <v>226</v>
@@ -6367,13 +6381,13 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B161" t="s">
         <v>225</v>
       </c>
       <c r="C161" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D161" s="1">
         <v>199</v>
@@ -6382,7 +6396,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G161" t="s">
         <v>226</v>
@@ -6390,13 +6404,13 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B162" t="s">
         <v>225</v>
       </c>
       <c r="C162" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="D162" s="1">
         <v>199</v>
@@ -6405,30 +6419,30 @@
         <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G162" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B163" t="s">
         <v>225</v>
       </c>
       <c r="C163" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D163" s="1">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="E163">
         <v>1</v>
       </c>
       <c r="F163" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G163" t="s">
         <v>230</v>
@@ -6436,13 +6450,13 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B164" t="s">
         <v>225</v>
       </c>
       <c r="C164" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D164" s="1">
         <v>249</v>
@@ -6451,21 +6465,21 @@
         <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G164" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B165" t="s">
         <v>225</v>
       </c>
       <c r="C165" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D165" s="1">
         <v>249</v>
@@ -6474,67 +6488,67 @@
         <v>1</v>
       </c>
       <c r="F165" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G165" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B166" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="C166" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D166" s="1">
-        <v>249</v>
+        <v>399</v>
       </c>
       <c r="E166">
         <v>1</v>
       </c>
       <c r="F166" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G166" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>170</v>
-      </c>
-      <c r="B167" t="s">
+        <v>171</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C167" t="s">
-        <v>239</v>
-      </c>
-      <c r="D167" s="1">
+      <c r="C167" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D167" s="4">
         <v>399</v>
       </c>
-      <c r="E167">
-        <v>1</v>
-      </c>
-      <c r="F167" t="s">
-        <v>499</v>
-      </c>
-      <c r="G167" t="s">
+      <c r="E167" s="3">
+        <v>1</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="G167" s="3" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D168" s="4">
         <v>399</v>
@@ -6543,7 +6557,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>238</v>
@@ -6551,13 +6565,13 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>241</v>
+        <v>348</v>
       </c>
       <c r="D169" s="4">
         <v>399</v>
@@ -6566,596 +6580,596 @@
         <v>1</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>238</v>
+        <v>347</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>173</v>
-      </c>
-      <c r="B170" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B170" t="s">
         <v>237</v>
       </c>
-      <c r="C170" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="D170" s="4">
-        <v>399</v>
-      </c>
-      <c r="E170" s="3">
-        <v>1</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="G170" s="3" t="s">
-        <v>347</v>
+      <c r="C170" t="s">
+        <v>245</v>
+      </c>
+      <c r="D170" s="1">
+        <v>499</v>
+      </c>
+      <c r="E170" s="2">
+        <v>0</v>
+      </c>
+      <c r="F170" t="s">
+        <v>503</v>
+      </c>
+      <c r="G170" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>174</v>
-      </c>
-      <c r="B171" t="s">
+        <v>175</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C171" t="s">
-        <v>245</v>
-      </c>
-      <c r="D171" s="1">
+      <c r="C171" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D171" s="4">
         <v>499</v>
       </c>
-      <c r="E171" s="2">
-        <v>0</v>
-      </c>
-      <c r="F171" t="s">
-        <v>503</v>
-      </c>
-      <c r="G171" t="s">
-        <v>243</v>
+      <c r="E171" s="3">
+        <v>1</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D172" s="4">
-        <v>499</v>
+        <v>799</v>
       </c>
       <c r="E172" s="3">
         <v>1</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>176</v>
-      </c>
-      <c r="B173" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B173" t="s">
         <v>237</v>
       </c>
-      <c r="C173" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D173" s="4">
-        <v>799</v>
-      </c>
-      <c r="E173" s="3">
-        <v>1</v>
-      </c>
-      <c r="F173" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>247</v>
+      <c r="C173" t="s">
+        <v>591</v>
+      </c>
+      <c r="D173" s="1">
+        <v>999</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173" t="s">
+        <v>506</v>
+      </c>
+      <c r="G173" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>177</v>
-      </c>
-      <c r="B174" t="s">
+        <v>239</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C174" t="s">
-        <v>591</v>
-      </c>
-      <c r="D174" s="1">
-        <v>999</v>
-      </c>
-      <c r="E174">
-        <v>1</v>
-      </c>
-      <c r="F174" t="s">
-        <v>506</v>
+      <c r="C174" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D174" s="4">
+        <v>400</v>
+      </c>
+      <c r="E174" s="3">
+        <v>1</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>584</v>
       </c>
       <c r="G174" t="s">
-        <v>242</v>
+        <v>585</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>239</v>
-      </c>
-      <c r="B175" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B175" t="s">
         <v>237</v>
       </c>
-      <c r="C175" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D175" s="4">
-        <v>400</v>
-      </c>
-      <c r="E175" s="3">
-        <v>1</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>584</v>
+      <c r="C175" t="s">
+        <v>244</v>
+      </c>
+      <c r="D175" s="1">
+        <v>999</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175" t="s">
+        <v>507</v>
       </c>
       <c r="G175" t="s">
-        <v>585</v>
+        <v>243</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>237</v>
+        <v>578</v>
       </c>
       <c r="C176" t="s">
-        <v>244</v>
+        <v>346</v>
       </c>
       <c r="D176" s="1">
-        <v>999</v>
+        <v>499</v>
       </c>
       <c r="E176">
         <v>1</v>
       </c>
       <c r="F176" t="s">
-        <v>507</v>
+        <v>420</v>
       </c>
       <c r="G176" t="s">
-        <v>243</v>
+        <v>346</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C177" t="s">
-        <v>346</v>
+        <v>257</v>
       </c>
       <c r="D177" s="1">
-        <v>499</v>
+        <v>19.5</v>
       </c>
       <c r="E177">
         <v>1</v>
       </c>
       <c r="F177" t="s">
-        <v>420</v>
+        <v>508</v>
       </c>
       <c r="G177" t="s">
-        <v>346</v>
+        <v>257</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B178" t="s">
         <v>579</v>
       </c>
       <c r="C178" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D178" s="1">
-        <v>19.5</v>
+        <v>59</v>
       </c>
       <c r="E178">
         <v>1</v>
       </c>
       <c r="F178" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G178" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B179" t="s">
         <v>579</v>
       </c>
       <c r="C179" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="D179" s="1">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E179">
         <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G179" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B180" t="s">
         <v>579</v>
       </c>
       <c r="C180" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D180" s="1">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="E180">
         <v>1</v>
       </c>
       <c r="F180" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G180" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B181" t="s">
         <v>579</v>
       </c>
       <c r="C181" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D181" s="1">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="E181">
         <v>1</v>
       </c>
       <c r="F181" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G181" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B182" t="s">
         <v>579</v>
       </c>
       <c r="C182" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D182" s="1">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="E182">
         <v>1</v>
       </c>
       <c r="F182" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G182" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B183" t="s">
         <v>579</v>
       </c>
       <c r="C183" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D183" s="1">
-        <v>269</v>
+        <v>399</v>
       </c>
       <c r="E183">
         <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G183" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B184" t="s">
         <v>579</v>
       </c>
       <c r="C184" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D184" s="1">
-        <v>399</v>
+        <v>799</v>
       </c>
       <c r="E184">
         <v>1</v>
       </c>
       <c r="F184" t="s">
-        <v>514</v>
-      </c>
-      <c r="G184" t="s">
-        <v>251</v>
+        <v>515</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B185" t="s">
         <v>579</v>
       </c>
       <c r="C185" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D185" s="1">
-        <v>799</v>
+        <v>999</v>
       </c>
       <c r="E185">
         <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B186" t="s">
         <v>579</v>
       </c>
       <c r="C186" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D186" s="1">
-        <v>999</v>
+        <v>1299</v>
       </c>
       <c r="E186">
         <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B187" t="s">
         <v>579</v>
       </c>
       <c r="C187" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D187" s="1">
-        <v>1299</v>
+        <v>1399</v>
       </c>
       <c r="E187">
         <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>517</v>
-      </c>
-      <c r="G187" s="5" t="s">
-        <v>248</v>
+        <v>518</v>
+      </c>
+      <c r="G187" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B188" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C188" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D188" s="1">
-        <v>1399</v>
+        <v>19.5</v>
       </c>
       <c r="E188">
         <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G188" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B189" t="s">
         <v>580</v>
       </c>
       <c r="C189" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D189" s="1">
-        <v>19.5</v>
+        <v>59</v>
       </c>
       <c r="E189">
         <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G189" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B190" t="s">
         <v>580</v>
       </c>
       <c r="C190" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D190" s="1">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E190">
         <v>1</v>
       </c>
       <c r="F190" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G190" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B191" t="s">
         <v>580</v>
       </c>
       <c r="C191" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D191" s="1">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="E191">
         <v>1</v>
       </c>
       <c r="F191" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G191" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B192" t="s">
         <v>580</v>
       </c>
       <c r="C192" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D192" s="1">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="E192">
         <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G192" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B193" t="s">
         <v>580</v>
       </c>
       <c r="C193" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D193" s="1">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="E193">
         <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G193" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B194" t="s">
         <v>580</v>
       </c>
       <c r="C194" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D194" s="1">
-        <v>269</v>
+        <v>399</v>
       </c>
       <c r="E194">
         <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>524</v>
-      </c>
-      <c r="G194" t="s">
-        <v>271</v>
+        <v>525</v>
+      </c>
+      <c r="G194" s="5" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B195" t="s">
         <v>580</v>
       </c>
       <c r="C195" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D195" s="1">
         <v>399</v>
@@ -7164,93 +7178,93 @@
         <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>525</v>
-      </c>
-      <c r="G195" s="5" t="s">
-        <v>262</v>
+        <v>526</v>
+      </c>
+      <c r="G195" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B196" t="s">
         <v>580</v>
       </c>
       <c r="C196" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D196" s="1">
-        <v>399</v>
+        <v>599</v>
       </c>
       <c r="E196">
         <v>1</v>
       </c>
       <c r="F196" t="s">
-        <v>526</v>
-      </c>
-      <c r="G196" t="s">
-        <v>269</v>
+        <v>527</v>
+      </c>
+      <c r="G196" s="5" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B197" t="s">
         <v>580</v>
       </c>
       <c r="C197" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D197" s="1">
-        <v>599</v>
+        <v>999</v>
       </c>
       <c r="E197">
         <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>527</v>
-      </c>
-      <c r="G197" s="5" t="s">
-        <v>272</v>
+        <v>528</v>
+      </c>
+      <c r="G197" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B198" t="s">
-        <v>580</v>
+        <v>277</v>
       </c>
       <c r="C198" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D198" s="1">
-        <v>999</v>
+        <v>5.2</v>
       </c>
       <c r="E198">
         <v>1</v>
       </c>
       <c r="F198" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G198" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B199" t="s">
         <v>277</v>
       </c>
       <c r="C199" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D199" s="1">
-        <v>5.2</v>
+        <v>7.15</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -7259,142 +7273,142 @@
         <v>529</v>
       </c>
       <c r="G199" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B200" t="s">
         <v>277</v>
       </c>
       <c r="C200" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D200" s="1">
-        <v>7.15</v>
+        <v>12.95</v>
       </c>
       <c r="E200">
         <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G200" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B201" t="s">
         <v>277</v>
       </c>
       <c r="C201" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D201" s="1">
-        <v>12.95</v>
+        <v>16.25</v>
       </c>
       <c r="E201">
         <v>1</v>
       </c>
       <c r="F201" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G201" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B202" t="s">
         <v>277</v>
       </c>
       <c r="C202" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D202" s="1">
-        <v>16.25</v>
+        <v>25</v>
       </c>
       <c r="E202">
         <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G202" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B203" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C203" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D203" s="1">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E203">
         <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G203" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B204" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C204" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D204" s="1">
-        <v>100</v>
+        <v>3.9</v>
       </c>
       <c r="E204">
         <v>1</v>
       </c>
       <c r="F204" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G204" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B205" t="s">
         <v>290</v>
       </c>
       <c r="C205" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D205" s="1">
-        <v>3.9</v>
+        <v>6.9</v>
       </c>
       <c r="E205">
         <v>1</v>
       </c>
       <c r="F205" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G205" t="s">
         <v>291</v>
@@ -7402,22 +7416,22 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B206" t="s">
         <v>290</v>
       </c>
       <c r="C206" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D206" s="1">
-        <v>6.9</v>
+        <v>39</v>
       </c>
       <c r="E206">
         <v>1</v>
       </c>
       <c r="F206" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G206" t="s">
         <v>291</v>
@@ -7425,243 +7439,243 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B207" t="s">
         <v>290</v>
       </c>
       <c r="C207" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D207" s="1">
-        <v>39</v>
+        <v>39.9</v>
       </c>
       <c r="E207">
         <v>1</v>
       </c>
       <c r="F207" t="s">
-        <v>535</v>
-      </c>
-      <c r="G207" t="s">
-        <v>291</v>
+        <v>536</v>
+      </c>
+      <c r="G207" s="5" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B208" t="s">
-        <v>290</v>
+        <v>568</v>
       </c>
       <c r="C208" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D208" s="1">
-        <v>39.9</v>
+        <v>7</v>
       </c>
       <c r="E208">
         <v>1</v>
       </c>
       <c r="F208" t="s">
-        <v>536</v>
-      </c>
-      <c r="G208" s="5" t="s">
-        <v>295</v>
+        <v>537</v>
+      </c>
+      <c r="G208" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B209" t="s">
         <v>568</v>
       </c>
       <c r="C209" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D209" s="1">
-        <v>7</v>
+        <v>12.9</v>
       </c>
       <c r="E209">
         <v>1</v>
       </c>
       <c r="F209" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G209" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B210" t="s">
         <v>568</v>
       </c>
       <c r="C210" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D210" s="1">
-        <v>12.9</v>
+        <v>34.5</v>
       </c>
       <c r="E210">
         <v>1</v>
       </c>
       <c r="F210" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G210" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B211" t="s">
         <v>568</v>
       </c>
       <c r="C211" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D211" s="1">
-        <v>34.5</v>
+        <v>99</v>
       </c>
       <c r="E211">
         <v>1</v>
       </c>
       <c r="F211" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G211" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B212" t="s">
-        <v>568</v>
+        <v>301</v>
       </c>
       <c r="C212" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="D212" s="1">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="E212">
         <v>1</v>
       </c>
       <c r="F212" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G212" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B213" t="s">
         <v>301</v>
       </c>
       <c r="C213" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="D213" s="1">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E213">
         <v>1</v>
       </c>
       <c r="F213" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G213" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B214" t="s">
         <v>301</v>
       </c>
       <c r="C214" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D214" s="1">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="E214">
         <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G214" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B215" t="s">
         <v>301</v>
       </c>
       <c r="C215" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D215" s="1">
-        <v>100</v>
-      </c>
-      <c r="E215">
-        <v>1</v>
+        <v>399</v>
+      </c>
+      <c r="E215" s="2">
+        <v>0</v>
       </c>
       <c r="F215" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G215" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B216" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C216" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D216" s="1">
-        <v>399</v>
-      </c>
-      <c r="E216" s="2">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G216" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B217" t="s">
         <v>307</v>
       </c>
       <c r="C217" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D217" s="1">
         <v>25</v>
@@ -7670,21 +7684,21 @@
         <v>1</v>
       </c>
       <c r="F217" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G217" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B218" t="s">
         <v>307</v>
       </c>
       <c r="C218" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D218" s="1">
         <v>25</v>
@@ -7693,21 +7707,21 @@
         <v>1</v>
       </c>
       <c r="F218" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G218" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B219" t="s">
         <v>307</v>
       </c>
       <c r="C219" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D219" s="1">
         <v>25</v>
@@ -7716,21 +7730,21 @@
         <v>1</v>
       </c>
       <c r="F219" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G219" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B220" t="s">
         <v>307</v>
       </c>
       <c r="C220" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D220" s="1">
         <v>25</v>
@@ -7739,44 +7753,44 @@
         <v>1</v>
       </c>
       <c r="F220" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G220" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B221" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C221" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D221" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E221">
         <v>1</v>
       </c>
       <c r="F221" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G221" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B222" t="s">
         <v>313</v>
       </c>
       <c r="C222" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D222" s="1">
         <v>19</v>
@@ -7793,13 +7807,13 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B223" t="s">
         <v>313</v>
       </c>
       <c r="C223" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D223" s="1">
         <v>19</v>
@@ -7816,13 +7830,13 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B224" t="s">
         <v>313</v>
       </c>
       <c r="C224" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D224" s="1">
         <v>19</v>
@@ -7839,36 +7853,36 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B225" t="s">
         <v>313</v>
       </c>
       <c r="C225" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D225" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E225">
         <v>1</v>
       </c>
       <c r="F225" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G225" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B226" t="s">
         <v>313</v>
       </c>
       <c r="C226" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D226" s="1">
         <v>6</v>
@@ -7877,7 +7891,7 @@
         <v>1</v>
       </c>
       <c r="F226" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G226" t="s">
         <v>319</v>
@@ -7885,36 +7899,36 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B227" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C227" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D227" s="1">
-        <v>6</v>
+        <v>9.9</v>
       </c>
       <c r="E227">
         <v>1</v>
       </c>
       <c r="F227" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G227" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B228" t="s">
         <v>322</v>
       </c>
       <c r="C228" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D228" s="1">
         <v>9.9</v>
@@ -7923,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="F228" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G228" t="s">
         <v>323</v>
@@ -7931,13 +7945,13 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B229" t="s">
         <v>322</v>
       </c>
       <c r="C229" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D229" s="1">
         <v>9.9</v>
@@ -7946,21 +7960,21 @@
         <v>1</v>
       </c>
       <c r="F229" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G229" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B230" t="s">
         <v>322</v>
       </c>
       <c r="C230" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D230" s="1">
         <v>9.9</v>
@@ -7969,67 +7983,67 @@
         <v>1</v>
       </c>
       <c r="F230" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G230" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B231" t="s">
         <v>322</v>
       </c>
       <c r="C231" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D231" s="1">
-        <v>9.9</v>
+        <v>12</v>
       </c>
       <c r="E231">
         <v>1</v>
       </c>
       <c r="F231" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G231" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B232" t="s">
         <v>322</v>
       </c>
       <c r="C232" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D232" s="1">
-        <v>12</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E232">
         <v>1</v>
       </c>
       <c r="F232" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G232" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B233" t="s">
         <v>322</v>
       </c>
       <c r="C233" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D233" s="1">
         <v>18.899999999999999</v>
@@ -8038,64 +8052,41 @@
         <v>1</v>
       </c>
       <c r="F233" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G233" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>238</v>
+        <v>94</v>
       </c>
       <c r="B234" t="s">
-        <v>322</v>
+        <v>581</v>
       </c>
       <c r="C234" t="s">
-        <v>334</v>
+        <v>127</v>
       </c>
       <c r="D234" s="1">
-        <v>18.899999999999999</v>
+        <v>999</v>
       </c>
       <c r="E234">
         <v>1</v>
       </c>
       <c r="F234" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="G234" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A235">
-        <v>94</v>
-      </c>
-      <c r="B235" t="s">
-        <v>581</v>
-      </c>
-      <c r="C235" t="s">
-        <v>127</v>
-      </c>
-      <c r="D235" s="1">
-        <v>999</v>
-      </c>
-      <c r="E235">
-        <v>1</v>
-      </c>
-      <c r="F235" t="s">
-        <v>570</v>
-      </c>
-      <c r="G235" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D237" s="1"/>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D236" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A213:G216">
-    <sortCondition ref="D213:D216"/>
+  <sortState ref="A212:G215">
+    <sortCondition ref="D212:D215"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Cintamani\Website 2017\react-cintamani\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4B3AB992-2461-4223-A453-0E118997AA10}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E8267210-1CA4-4BBC-AD78-5ECBBDE01FC7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2076" yWindow="684" windowWidth="23040" windowHeight="9636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2682,10 +2682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K236"/>
+  <dimension ref="A1:K229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A209" sqref="A209:XFD209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3755,151 +3755,151 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D47" s="1">
-        <v>3999</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="B48" t="s">
         <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>586</v>
       </c>
       <c r="D48" s="1">
-        <v>49</v>
+        <v>250</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>404</v>
-      </c>
-      <c r="G48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>241</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
         <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>586</v>
+        <v>70</v>
       </c>
       <c r="D49" s="1">
-        <v>250</v>
+        <v>59</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>587</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>588</v>
+        <v>405</v>
+      </c>
+      <c r="G49" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D50" s="1">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G50" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
         <v>71</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D51" s="1">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G51" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="1">
-        <v>99</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52" t="s">
-        <v>407</v>
-      </c>
-      <c r="G52" t="s">
-        <v>72</v>
+      <c r="C52" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="4">
+        <v>399</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>74</v>
+        <v>336</v>
       </c>
       <c r="D53" s="4">
         <v>399</v>
@@ -3908,1106 +3908,1106 @@
         <v>1</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>335</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>54</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D54" s="4">
-        <v>399</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>75</v>
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="1">
+        <v>59</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>411</v>
+      </c>
+      <c r="G54" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D55" s="1">
-        <v>499</v>
-      </c>
-      <c r="E55" s="2">
-        <v>0</v>
+        <v>189</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G55" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
         <v>79</v>
       </c>
       <c r="C56" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D56" s="1">
-        <v>59</v>
+        <v>189</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G56" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
         <v>79</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D57" s="1">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="G57" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
         <v>79</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D58" s="1">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G58" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
         <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>89</v>
+        <v>592</v>
       </c>
       <c r="D59" s="1">
-        <v>230</v>
+        <v>499</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G59" t="s">
-        <v>88</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B60" t="s">
         <v>79</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D60" s="1">
-        <v>280</v>
+        <v>449</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="G60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>61</v>
+        <v>240</v>
       </c>
       <c r="B61" t="s">
         <v>79</v>
       </c>
       <c r="C61" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D61" s="1">
-        <v>499</v>
+        <v>1000</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>416</v>
-      </c>
-      <c r="G61" t="s">
-        <v>338</v>
+        <v>590</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C62" t="s">
-        <v>337</v>
+        <v>97</v>
       </c>
       <c r="D62" s="1">
-        <v>599</v>
-      </c>
-      <c r="E62" s="2">
-        <v>0</v>
+        <v>19.5</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G62" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C63" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D63" s="1">
-        <v>449</v>
+        <v>49</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="G63" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>240</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>589</v>
+        <v>94</v>
       </c>
       <c r="D64" s="1">
-        <v>1000</v>
+        <v>59</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>590</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>588</v>
+        <v>423</v>
+      </c>
+      <c r="G64" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D65" s="1">
-        <v>2499</v>
-      </c>
-      <c r="E65" s="7">
-        <v>0</v>
+        <v>250</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="G65" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>353</v>
       </c>
       <c r="C66" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D66" s="1">
-        <v>19.5</v>
+        <v>6.5</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>421</v>
+        <v>571</v>
       </c>
       <c r="G66" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>353</v>
       </c>
       <c r="C67" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="D67" s="1">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>422</v>
+        <v>572</v>
       </c>
       <c r="G67" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>353</v>
       </c>
       <c r="C68" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D68" s="1">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>423</v>
+        <v>573</v>
       </c>
       <c r="G68" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>353</v>
       </c>
       <c r="C69" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D69" s="1">
-        <v>250</v>
+        <v>14</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>424</v>
+        <v>574</v>
       </c>
       <c r="G69" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
         <v>353</v>
       </c>
       <c r="C70" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D70" s="1">
-        <v>6.5</v>
+        <v>20</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="G70" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
         <v>353</v>
       </c>
       <c r="C71" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D71" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G71" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
         <v>353</v>
       </c>
       <c r="C72" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D72" s="1">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="G72" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73" t="s">
         <v>353</v>
       </c>
       <c r="C73" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D73" s="1">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="G73" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
         <v>353</v>
       </c>
       <c r="C74" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D74" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="G74" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
         <v>353</v>
       </c>
       <c r="C75" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D75" s="1">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G75" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76" t="s">
         <v>353</v>
       </c>
       <c r="C76" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D76" s="1">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G76" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>353</v>
+        <v>581</v>
       </c>
       <c r="C77" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="D77" s="1">
-        <v>50</v>
+        <v>19.5</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>577</v>
+        <v>425</v>
       </c>
       <c r="G77" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>353</v>
+        <v>581</v>
       </c>
       <c r="C78" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="D78" s="1">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>577</v>
+        <v>426</v>
       </c>
       <c r="G78" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>353</v>
+        <v>581</v>
       </c>
       <c r="C79" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="D79" s="1">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>577</v>
+        <v>427</v>
       </c>
       <c r="G79" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>353</v>
+        <v>581</v>
       </c>
       <c r="C80" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="D80" s="1">
-        <v>300</v>
+        <v>99</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>577</v>
+        <v>428</v>
       </c>
       <c r="G80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81" t="s">
         <v>581</v>
       </c>
       <c r="C81" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D81" s="1">
-        <v>19.5</v>
+        <v>199</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G81" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82" t="s">
         <v>581</v>
       </c>
       <c r="C82" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D82" s="1">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="G82" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83" t="s">
         <v>581</v>
       </c>
       <c r="C83" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D83" s="1">
-        <v>69</v>
+        <v>229</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="G83" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84" t="s">
         <v>581</v>
       </c>
       <c r="C84" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D84" s="1">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G84" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85" t="s">
         <v>581</v>
       </c>
       <c r="C85" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D85" s="1">
-        <v>199</v>
+        <v>259</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G85" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86" t="s">
         <v>581</v>
       </c>
       <c r="C86" t="s">
-        <v>124</v>
+        <v>341</v>
       </c>
       <c r="D86" s="1">
-        <v>179</v>
+        <v>299</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="G86" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B87" t="s">
         <v>581</v>
       </c>
       <c r="C87" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D87" s="1">
-        <v>229</v>
+        <v>999</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="G87" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C88" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D88" s="1">
-        <v>249</v>
+        <v>19.5</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="G88" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C89" t="s">
-        <v>118</v>
+        <v>342</v>
       </c>
       <c r="D89" s="1">
-        <v>259</v>
+        <v>59</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="G89" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C90" t="s">
-        <v>341</v>
+        <v>134</v>
       </c>
       <c r="D90" s="1">
-        <v>299</v>
+        <v>69</v>
       </c>
       <c r="E90">
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G90" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C91" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="D91" s="1">
-        <v>999</v>
+        <v>99</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="G91" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B92" t="s">
         <v>582</v>
       </c>
       <c r="C92" t="s">
-        <v>135</v>
+        <v>343</v>
       </c>
       <c r="D92" s="1">
-        <v>19.5</v>
+        <v>179</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="G92" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B93" t="s">
         <v>582</v>
       </c>
       <c r="C93" t="s">
-        <v>342</v>
+        <v>133</v>
       </c>
       <c r="D93" s="1">
-        <v>59</v>
+        <v>269</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>437</v>
-      </c>
-      <c r="G93" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B94" t="s">
         <v>582</v>
       </c>
       <c r="C94" t="s">
-        <v>134</v>
+        <v>344</v>
       </c>
       <c r="D94" s="1">
-        <v>69</v>
+        <v>399</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G94" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95" t="s">
         <v>582</v>
       </c>
-      <c r="C95" t="s">
-        <v>136</v>
-      </c>
-      <c r="D95" s="1">
-        <v>99</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95" t="s">
-        <v>439</v>
-      </c>
-      <c r="G95" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C95" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D95" s="4">
+        <v>999</v>
+      </c>
+      <c r="E95" s="3">
+        <v>1</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96" t="s">
         <v>582</v>
       </c>
       <c r="C96" t="s">
-        <v>343</v>
+        <v>139</v>
       </c>
       <c r="D96" s="1">
-        <v>179</v>
+        <v>1999</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>440</v>
-      </c>
-      <c r="G96" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>582</v>
+        <v>140</v>
       </c>
       <c r="C97" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="D97" s="1">
-        <v>269</v>
+        <v>5.9</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>441</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="G97" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>582</v>
+        <v>140</v>
       </c>
       <c r="C98" t="s">
-        <v>344</v>
+        <v>160</v>
       </c>
       <c r="D98" s="1">
-        <v>399</v>
+        <v>5.9</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="G98" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>582</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D99" s="4">
-        <v>999</v>
-      </c>
-      <c r="E99" s="3">
-        <v>1</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="C99" t="s">
+        <v>161</v>
+      </c>
+      <c r="D99" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>447</v>
+      </c>
+      <c r="G99" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>582</v>
+        <v>140</v>
       </c>
       <c r="C100" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="D100" s="1">
-        <v>1999</v>
+        <v>5.9</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>444</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+      <c r="G100" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101" t="s">
         <v>140</v>
       </c>
       <c r="C101" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D101" s="1">
         <v>5.9</v>
@@ -5016,21 +5016,21 @@
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G101" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102" t="s">
         <v>140</v>
       </c>
       <c r="C102" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D102" s="1">
         <v>5.9</v>
@@ -5039,467 +5039,467 @@
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="G102" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103" t="s">
         <v>140</v>
       </c>
       <c r="C103" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="D103" s="1">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G103" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104" t="s">
         <v>140</v>
       </c>
       <c r="C104" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D104" s="1">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G104" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B105" t="s">
         <v>140</v>
       </c>
       <c r="C105" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D105" s="1">
-        <v>5.9</v>
+        <v>7.5</v>
       </c>
       <c r="E105">
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="G105" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B106" t="s">
         <v>140</v>
       </c>
       <c r="C106" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D106" s="1">
-        <v>5.9</v>
+        <v>7.5</v>
       </c>
       <c r="E106">
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="G106" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B107" t="s">
         <v>140</v>
       </c>
       <c r="C107" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D107" s="1">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="E107">
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="G107" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B108" t="s">
         <v>140</v>
       </c>
       <c r="C108" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D108" s="1">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="E108">
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="G108" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B109" t="s">
         <v>140</v>
       </c>
       <c r="C109" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D109" s="1">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G109" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B110" t="s">
         <v>140</v>
       </c>
       <c r="C110" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D110" s="1">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="G110" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B111" t="s">
         <v>140</v>
       </c>
       <c r="C111" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D111" s="1">
-        <v>7.5</v>
+        <v>9.9</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G111" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B112" t="s">
         <v>140</v>
       </c>
       <c r="C112" t="s">
-        <v>157</v>
+        <v>352</v>
       </c>
       <c r="D112" s="1">
-        <v>7.5</v>
+        <v>9.9</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G112" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B113" t="s">
         <v>140</v>
       </c>
       <c r="C113" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D113" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E113">
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="G113" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B114" t="s">
         <v>140</v>
       </c>
       <c r="C114" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D114" s="1">
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="E114">
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="G114" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B115" t="s">
         <v>140</v>
       </c>
       <c r="C115" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D115" s="1">
-        <v>9.9</v>
+        <v>12</v>
       </c>
       <c r="E115">
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="G115" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B116" t="s">
         <v>140</v>
       </c>
       <c r="C116" t="s">
-        <v>352</v>
+        <v>150</v>
       </c>
       <c r="D116" s="1">
-        <v>9.9</v>
+        <v>12</v>
       </c>
       <c r="E116">
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="G116" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B117" t="s">
         <v>140</v>
       </c>
       <c r="C117" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D117" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="G117" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B118" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="C118" t="s">
-        <v>146</v>
+        <v>351</v>
       </c>
       <c r="D118" s="1">
-        <v>11.5</v>
+        <v>9.9</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G118" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="C119" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="D119" s="1">
-        <v>12</v>
+        <v>9.9</v>
       </c>
       <c r="E119">
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="G119" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B120" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="C120" t="s">
-        <v>150</v>
+        <v>276</v>
       </c>
       <c r="D120" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E120">
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="G120" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B121" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="C121" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="D121" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E121">
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G121" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B122" t="s">
         <v>167</v>
       </c>
       <c r="C122" t="s">
-        <v>351</v>
+        <v>173</v>
       </c>
       <c r="D122" s="1">
-        <v>9.9</v>
+        <v>14</v>
       </c>
       <c r="E122">
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="G122" t="s">
         <v>168</v>
@@ -5507,22 +5507,22 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B123" t="s">
         <v>167</v>
       </c>
       <c r="C123" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D123" s="1">
-        <v>9.9</v>
+        <v>14.5</v>
       </c>
       <c r="E123">
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="G123" t="s">
         <v>168</v>
@@ -5530,45 +5530,45 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B124" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C124" t="s">
-        <v>276</v>
+        <v>190</v>
       </c>
       <c r="D124" s="1">
-        <v>10</v>
+        <v>16.8</v>
       </c>
       <c r="E124">
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="G124" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B125" t="s">
         <v>167</v>
       </c>
       <c r="C125" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D125" s="1">
-        <v>14</v>
+        <v>19.5</v>
       </c>
       <c r="E125">
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G125" t="s">
         <v>168</v>
@@ -5576,22 +5576,22 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B126" t="s">
         <v>167</v>
       </c>
       <c r="C126" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D126" s="1">
-        <v>14</v>
+        <v>19.5</v>
       </c>
       <c r="E126">
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G126" t="s">
         <v>168</v>
@@ -5599,22 +5599,22 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B127" t="s">
         <v>167</v>
       </c>
       <c r="C127" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D127" s="1">
-        <v>14.5</v>
+        <v>24.5</v>
       </c>
       <c r="E127">
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="G127" t="s">
         <v>168</v>
@@ -5622,68 +5622,68 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B128" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C128" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D128" s="1">
-        <v>16.8</v>
+        <v>25</v>
       </c>
       <c r="E128">
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="G128" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C129" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="D129" s="1">
-        <v>19.5</v>
+        <v>28.2</v>
       </c>
       <c r="E129">
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="G129" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B130" t="s">
         <v>167</v>
       </c>
       <c r="C130" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D130" s="1">
-        <v>19.5</v>
+        <v>29.5</v>
       </c>
       <c r="E130">
         <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="G130" t="s">
         <v>168</v>
@@ -5691,450 +5691,450 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C131" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D131" s="1">
-        <v>24.5</v>
+        <v>29.9</v>
       </c>
       <c r="E131">
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G131" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B132" t="s">
         <v>167</v>
       </c>
       <c r="C132" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D132" s="1">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E132">
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="G132" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B133" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C133" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D133" s="1">
-        <v>28.2</v>
+        <v>34.5</v>
       </c>
       <c r="E133">
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G133" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B134" t="s">
         <v>167</v>
       </c>
       <c r="C134" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D134" s="1">
-        <v>29.5</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="E134">
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="G134" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B135" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C135" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D135" s="1">
-        <v>29.9</v>
+        <v>89.9</v>
       </c>
       <c r="E135">
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="G135" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B136" t="s">
         <v>167</v>
       </c>
       <c r="C136" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D136" s="1">
-        <v>34</v>
+        <v>89.9</v>
       </c>
       <c r="E136">
         <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="G136" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B137" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="C137" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="D137" s="1">
-        <v>34.5</v>
+        <v>49.9</v>
       </c>
       <c r="E137">
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="G137" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B138" t="s">
-        <v>167</v>
+        <v>560</v>
       </c>
       <c r="C138" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="D138" s="1">
-        <v>79.900000000000006</v>
+        <v>89</v>
       </c>
       <c r="E138">
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>479</v>
+        <v>561</v>
       </c>
       <c r="G138" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B139" t="s">
-        <v>167</v>
+        <v>560</v>
       </c>
       <c r="C139" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="D139" s="1">
-        <v>89.9</v>
+        <v>89</v>
       </c>
       <c r="E139">
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>480</v>
+        <v>569</v>
       </c>
       <c r="G139" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B140" t="s">
-        <v>167</v>
+        <v>560</v>
       </c>
       <c r="C140" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="D140" s="1">
-        <v>89.9</v>
+        <v>89</v>
       </c>
       <c r="E140">
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>481</v>
+        <v>562</v>
       </c>
       <c r="G140" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B141" t="s">
-        <v>204</v>
+        <v>560</v>
       </c>
       <c r="C141" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D141" s="1">
-        <v>49.9</v>
+        <v>99</v>
       </c>
       <c r="E141">
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>482</v>
+        <v>563</v>
       </c>
       <c r="G141" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B142" t="s">
         <v>560</v>
       </c>
       <c r="C142" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D142" s="1">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E142">
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="G142" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B143" t="s">
         <v>560</v>
       </c>
       <c r="C143" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D143" s="1">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E143">
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="G143" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B144" t="s">
         <v>560</v>
       </c>
       <c r="C144" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D144" s="1">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E144">
         <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="G144" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B145" t="s">
         <v>560</v>
       </c>
       <c r="C145" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D145" s="1">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="E145">
         <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="G145" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B146" t="s">
-        <v>560</v>
+        <v>204</v>
       </c>
       <c r="C146" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D146" s="1">
-        <v>99</v>
+        <v>49.9</v>
       </c>
       <c r="E146">
         <v>1</v>
       </c>
       <c r="F146" t="s">
-        <v>564</v>
+        <v>483</v>
       </c>
       <c r="G146" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B147" t="s">
-        <v>560</v>
+        <v>204</v>
       </c>
       <c r="C147" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="D147" s="1">
-        <v>99</v>
+        <v>49.9</v>
       </c>
       <c r="E147">
         <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>565</v>
+        <v>484</v>
       </c>
       <c r="G147" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B148" t="s">
-        <v>560</v>
+        <v>204</v>
       </c>
       <c r="C148" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D148" s="1">
-        <v>99</v>
+        <v>49.9</v>
       </c>
       <c r="E148">
         <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>566</v>
+        <v>485</v>
       </c>
       <c r="G148" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B149" t="s">
-        <v>560</v>
+        <v>204</v>
       </c>
       <c r="C149" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="D149" s="1">
-        <v>179</v>
+        <v>49.9</v>
       </c>
       <c r="E149">
         <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>567</v>
+        <v>486</v>
       </c>
       <c r="G149" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B150" t="s">
         <v>204</v>
       </c>
       <c r="C150" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D150" s="1">
         <v>49.9</v>
@@ -6143,21 +6143,21 @@
         <v>1</v>
       </c>
       <c r="F150" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="G150" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B151" t="s">
         <v>204</v>
       </c>
       <c r="C151" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D151" s="1">
         <v>49.9</v>
@@ -6166,21 +6166,21 @@
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="G151" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B152" t="s">
         <v>204</v>
       </c>
       <c r="C152" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D152" s="1">
         <v>49.9</v>
@@ -6189,21 +6189,21 @@
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="G152" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B153" t="s">
         <v>204</v>
       </c>
       <c r="C153" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D153" s="1">
         <v>49.9</v>
@@ -6212,21 +6212,21 @@
         <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G153" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B154" t="s">
         <v>204</v>
       </c>
       <c r="C154" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D154" s="1">
         <v>49.9</v>
@@ -6235,1194 +6235,1194 @@
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="G154" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B155" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="C155" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D155" s="1">
-        <v>49.9</v>
+        <v>199</v>
       </c>
       <c r="E155">
         <v>1</v>
       </c>
       <c r="F155" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="G155" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B156" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="C156" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D156" s="1">
-        <v>49.9</v>
+        <v>199</v>
       </c>
       <c r="E156">
         <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="G156" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B157" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="C157" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="D157" s="1">
-        <v>49.9</v>
+        <v>199</v>
       </c>
       <c r="E157">
         <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G157" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B158" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="C158" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="D158" s="1">
-        <v>49.9</v>
+        <v>199</v>
       </c>
       <c r="E158">
         <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="G158" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B159" t="s">
         <v>225</v>
       </c>
       <c r="C159" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D159" s="1">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="E159">
         <v>1</v>
       </c>
       <c r="F159" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="G159" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B160" t="s">
         <v>225</v>
       </c>
       <c r="C160" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D160" s="1">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="E160">
         <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G160" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B161" t="s">
         <v>225</v>
       </c>
       <c r="C161" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D161" s="1">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="E161">
         <v>1</v>
       </c>
       <c r="F161" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="G161" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B162" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="C162" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D162" s="1">
-        <v>199</v>
+        <v>399</v>
       </c>
       <c r="E162">
         <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="G162" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>167</v>
-      </c>
-      <c r="B163" t="s">
-        <v>225</v>
-      </c>
-      <c r="C163" t="s">
-        <v>231</v>
-      </c>
-      <c r="D163" s="1">
-        <v>249</v>
-      </c>
-      <c r="E163">
-        <v>1</v>
-      </c>
-      <c r="F163" t="s">
-        <v>496</v>
-      </c>
-      <c r="G163" t="s">
-        <v>230</v>
+        <v>171</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D163" s="4">
+        <v>399</v>
+      </c>
+      <c r="E163" s="3">
+        <v>1</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>168</v>
-      </c>
-      <c r="B164" t="s">
-        <v>225</v>
-      </c>
-      <c r="C164" t="s">
-        <v>233</v>
-      </c>
-      <c r="D164" s="1">
-        <v>249</v>
-      </c>
-      <c r="E164">
-        <v>1</v>
-      </c>
-      <c r="F164" t="s">
-        <v>497</v>
-      </c>
-      <c r="G164" t="s">
-        <v>232</v>
+        <v>172</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D164" s="4">
+        <v>399</v>
+      </c>
+      <c r="E164" s="3">
+        <v>1</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>169</v>
-      </c>
-      <c r="B165" t="s">
-        <v>225</v>
-      </c>
-      <c r="C165" t="s">
-        <v>235</v>
-      </c>
-      <c r="D165" s="1">
-        <v>249</v>
-      </c>
-      <c r="E165">
-        <v>1</v>
-      </c>
-      <c r="F165" t="s">
-        <v>498</v>
-      </c>
-      <c r="G165" t="s">
-        <v>234</v>
+        <v>173</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D165" s="4">
+        <v>399</v>
+      </c>
+      <c r="E165" s="3">
+        <v>1</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>170</v>
-      </c>
-      <c r="B166" t="s">
+        <v>175</v>
+      </c>
+      <c r="B166" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C166" t="s">
-        <v>239</v>
-      </c>
-      <c r="D166" s="1">
-        <v>399</v>
-      </c>
-      <c r="E166">
-        <v>1</v>
-      </c>
-      <c r="F166" t="s">
+      <c r="C166" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D166" s="4">
         <v>499</v>
       </c>
-      <c r="G166" t="s">
-        <v>238</v>
+      <c r="E166" s="3">
+        <v>1</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="D167" s="4">
-        <v>399</v>
+        <v>799</v>
       </c>
       <c r="E167" s="3">
         <v>1</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>172</v>
+        <v>239</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>241</v>
+        <v>583</v>
       </c>
       <c r="D168" s="4">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E168" s="3">
         <v>1</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>238</v>
+        <v>584</v>
+      </c>
+      <c r="G168" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>173</v>
-      </c>
-      <c r="B169" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B169" t="s">
         <v>237</v>
       </c>
-      <c r="C169" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="D169" s="4">
-        <v>399</v>
-      </c>
-      <c r="E169" s="3">
-        <v>1</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="G169" s="3" t="s">
-        <v>347</v>
+      <c r="C169" t="s">
+        <v>244</v>
+      </c>
+      <c r="D169" s="1">
+        <v>999</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169" t="s">
+        <v>507</v>
+      </c>
+      <c r="G169" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B170" t="s">
-        <v>237</v>
+        <v>578</v>
       </c>
       <c r="C170" t="s">
-        <v>245</v>
+        <v>346</v>
       </c>
       <c r="D170" s="1">
         <v>499</v>
       </c>
-      <c r="E170" s="2">
-        <v>0</v>
+      <c r="E170">
+        <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>503</v>
+        <v>420</v>
       </c>
       <c r="G170" t="s">
-        <v>243</v>
+        <v>346</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>175</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D171" s="4">
-        <v>499</v>
-      </c>
-      <c r="E171" s="3">
-        <v>1</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>246</v>
+        <v>180</v>
+      </c>
+      <c r="B171" t="s">
+        <v>579</v>
+      </c>
+      <c r="C171" t="s">
+        <v>257</v>
+      </c>
+      <c r="D171" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171" t="s">
+        <v>508</v>
+      </c>
+      <c r="G171" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>176</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D172" s="4">
-        <v>799</v>
-      </c>
-      <c r="E172" s="3">
-        <v>1</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="G172" s="3" t="s">
-        <v>247</v>
+        <v>181</v>
+      </c>
+      <c r="B172" t="s">
+        <v>579</v>
+      </c>
+      <c r="C172" t="s">
+        <v>252</v>
+      </c>
+      <c r="D172" s="1">
+        <v>59</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172" t="s">
+        <v>509</v>
+      </c>
+      <c r="G172" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B173" t="s">
-        <v>237</v>
+        <v>579</v>
       </c>
       <c r="C173" t="s">
-        <v>591</v>
+        <v>261</v>
       </c>
       <c r="D173" s="1">
-        <v>999</v>
+        <v>69</v>
       </c>
       <c r="E173">
         <v>1</v>
       </c>
       <c r="F173" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="G173" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>239</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D174" s="4">
-        <v>400</v>
-      </c>
-      <c r="E174" s="3">
-        <v>1</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>584</v>
+        <v>183</v>
+      </c>
+      <c r="B174" t="s">
+        <v>579</v>
+      </c>
+      <c r="C174" t="s">
+        <v>250</v>
+      </c>
+      <c r="D174" s="1">
+        <v>99</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174" t="s">
+        <v>511</v>
       </c>
       <c r="G174" t="s">
-        <v>585</v>
+        <v>250</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B175" t="s">
-        <v>237</v>
+        <v>579</v>
       </c>
       <c r="C175" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="D175" s="1">
-        <v>999</v>
+        <v>229</v>
       </c>
       <c r="E175">
         <v>1</v>
       </c>
       <c r="F175" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="G175" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B176" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C176" t="s">
-        <v>346</v>
+        <v>259</v>
       </c>
       <c r="D176" s="1">
-        <v>499</v>
+        <v>269</v>
       </c>
       <c r="E176">
         <v>1</v>
       </c>
       <c r="F176" t="s">
-        <v>420</v>
+        <v>513</v>
       </c>
       <c r="G176" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B177" t="s">
         <v>579</v>
       </c>
       <c r="C177" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D177" s="1">
-        <v>19.5</v>
+        <v>399</v>
       </c>
       <c r="E177">
         <v>1</v>
       </c>
       <c r="F177" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="G177" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B178" t="s">
         <v>579</v>
       </c>
       <c r="C178" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D178" s="1">
-        <v>59</v>
+        <v>799</v>
       </c>
       <c r="E178">
         <v>1</v>
       </c>
       <c r="F178" t="s">
-        <v>509</v>
-      </c>
-      <c r="G178" t="s">
-        <v>252</v>
+        <v>515</v>
+      </c>
+      <c r="G178" s="5" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B179" t="s">
         <v>579</v>
       </c>
       <c r="C179" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D179" s="1">
-        <v>69</v>
+        <v>999</v>
       </c>
       <c r="E179">
         <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>510</v>
-      </c>
-      <c r="G179" t="s">
-        <v>261</v>
+        <v>516</v>
+      </c>
+      <c r="G179" s="5" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B180" t="s">
         <v>579</v>
       </c>
       <c r="C180" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D180" s="1">
-        <v>99</v>
+        <v>1299</v>
       </c>
       <c r="E180">
         <v>1</v>
       </c>
       <c r="F180" t="s">
-        <v>511</v>
-      </c>
-      <c r="G180" t="s">
-        <v>250</v>
+        <v>517</v>
+      </c>
+      <c r="G180" s="5" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B181" t="s">
         <v>579</v>
       </c>
       <c r="C181" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D181" s="1">
-        <v>229</v>
+        <v>1399</v>
       </c>
       <c r="E181">
         <v>1</v>
       </c>
       <c r="F181" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="G181" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B182" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C182" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="D182" s="1">
-        <v>269</v>
+        <v>19.5</v>
       </c>
       <c r="E182">
         <v>1</v>
       </c>
       <c r="F182" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="G182" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B183" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C183" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="D183" s="1">
-        <v>399</v>
+        <v>59</v>
       </c>
       <c r="E183">
         <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="G183" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B184" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C184" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="D184" s="1">
-        <v>799</v>
+        <v>69</v>
       </c>
       <c r="E184">
         <v>1</v>
       </c>
       <c r="F184" t="s">
-        <v>515</v>
-      </c>
-      <c r="G184" s="5" t="s">
-        <v>248</v>
+        <v>521</v>
+      </c>
+      <c r="G184" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B185" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C185" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="D185" s="1">
-        <v>999</v>
+        <v>179</v>
       </c>
       <c r="E185">
         <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>516</v>
-      </c>
-      <c r="G185" s="5" t="s">
-        <v>253</v>
+        <v>522</v>
+      </c>
+      <c r="G185" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B186" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C186" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="D186" s="1">
-        <v>1299</v>
+        <v>229</v>
       </c>
       <c r="E186">
         <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>517</v>
-      </c>
-      <c r="G186" s="5" t="s">
-        <v>248</v>
+        <v>523</v>
+      </c>
+      <c r="G186" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B187" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C187" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="D187" s="1">
-        <v>1399</v>
+        <v>269</v>
       </c>
       <c r="E187">
         <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G187" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B188" t="s">
         <v>580</v>
       </c>
       <c r="C188" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D188" s="1">
-        <v>19.5</v>
+        <v>399</v>
       </c>
       <c r="E188">
         <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>519</v>
-      </c>
-      <c r="G188" t="s">
-        <v>268</v>
+        <v>525</v>
+      </c>
+      <c r="G188" s="5" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B189" t="s">
         <v>580</v>
       </c>
       <c r="C189" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D189" s="1">
-        <v>59</v>
+        <v>399</v>
       </c>
       <c r="E189">
         <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="G189" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B190" t="s">
         <v>580</v>
       </c>
       <c r="C190" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D190" s="1">
-        <v>69</v>
+        <v>599</v>
       </c>
       <c r="E190">
         <v>1</v>
       </c>
       <c r="F190" t="s">
-        <v>521</v>
-      </c>
-      <c r="G190" t="s">
-        <v>267</v>
+        <v>527</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B191" t="s">
         <v>580</v>
       </c>
       <c r="C191" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D191" s="1">
-        <v>179</v>
+        <v>999</v>
       </c>
       <c r="E191">
         <v>1</v>
       </c>
       <c r="F191" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="G191" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B192" t="s">
-        <v>580</v>
+        <v>277</v>
       </c>
       <c r="C192" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="D192" s="1">
-        <v>229</v>
+        <v>5.2</v>
       </c>
       <c r="E192">
         <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="G192" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B193" t="s">
-        <v>580</v>
+        <v>277</v>
       </c>
       <c r="C193" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="D193" s="1">
-        <v>269</v>
+        <v>7.15</v>
       </c>
       <c r="E193">
         <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="G193" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B194" t="s">
-        <v>580</v>
+        <v>277</v>
       </c>
       <c r="C194" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="D194" s="1">
-        <v>399</v>
+        <v>12.95</v>
       </c>
       <c r="E194">
         <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>525</v>
-      </c>
-      <c r="G194" s="5" t="s">
-        <v>262</v>
+        <v>530</v>
+      </c>
+      <c r="G194" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B195" t="s">
-        <v>580</v>
+        <v>277</v>
       </c>
       <c r="C195" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="D195" s="1">
-        <v>399</v>
+        <v>16.25</v>
       </c>
       <c r="E195">
         <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="G195" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B196" t="s">
-        <v>580</v>
+        <v>277</v>
       </c>
       <c r="C196" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="D196" s="1">
-        <v>599</v>
+        <v>25</v>
       </c>
       <c r="E196">
         <v>1</v>
       </c>
       <c r="F196" t="s">
-        <v>527</v>
-      </c>
-      <c r="G196" s="5" t="s">
-        <v>272</v>
+        <v>531</v>
+      </c>
+      <c r="G196" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B197" t="s">
-        <v>580</v>
+        <v>287</v>
       </c>
       <c r="C197" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="D197" s="1">
-        <v>999</v>
+        <v>100</v>
       </c>
       <c r="E197">
         <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="G197" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B198" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C198" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="D198" s="1">
-        <v>5.2</v>
+        <v>3.9</v>
       </c>
       <c r="E198">
         <v>1</v>
       </c>
       <c r="F198" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="G198" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B199" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C199" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="D199" s="1">
-        <v>7.15</v>
+        <v>6.9</v>
       </c>
       <c r="E199">
         <v>1</v>
       </c>
       <c r="F199" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="G199" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B200" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C200" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D200" s="1">
-        <v>12.95</v>
+        <v>39</v>
       </c>
       <c r="E200">
         <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="G200" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B201" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C201" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="D201" s="1">
-        <v>16.25</v>
+        <v>39.9</v>
       </c>
       <c r="E201">
         <v>1</v>
       </c>
       <c r="F201" t="s">
-        <v>529</v>
-      </c>
-      <c r="G201" t="s">
-        <v>278</v>
+        <v>536</v>
+      </c>
+      <c r="G201" s="5" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B202" t="s">
-        <v>277</v>
+        <v>568</v>
       </c>
       <c r="C202" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="D202" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E202">
         <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="G202" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B203" t="s">
-        <v>287</v>
+        <v>568</v>
       </c>
       <c r="C203" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="D203" s="1">
-        <v>100</v>
+        <v>12.9</v>
       </c>
       <c r="E203">
         <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="G203" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B204" t="s">
-        <v>290</v>
+        <v>568</v>
       </c>
       <c r="C204" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D204" s="1">
-        <v>3.9</v>
+        <v>34.5</v>
       </c>
       <c r="E204">
         <v>1</v>
       </c>
       <c r="F204" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="G204" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B205" t="s">
-        <v>290</v>
+        <v>568</v>
       </c>
       <c r="C205" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D205" s="1">
-        <v>6.9</v>
+        <v>99</v>
       </c>
       <c r="E205">
         <v>1</v>
       </c>
       <c r="F205" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="G205" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B206" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="C206" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="D206" s="1">
         <v>39</v>
@@ -7431,662 +7431,501 @@
         <v>1</v>
       </c>
       <c r="F206" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="G206" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B207" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="C207" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D207" s="1">
-        <v>39.9</v>
+        <v>45</v>
       </c>
       <c r="E207">
         <v>1</v>
       </c>
       <c r="F207" t="s">
-        <v>536</v>
-      </c>
-      <c r="G207" s="5" t="s">
-        <v>295</v>
+        <v>542</v>
+      </c>
+      <c r="G207" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B208" t="s">
-        <v>568</v>
+        <v>301</v>
       </c>
       <c r="C208" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D208" s="1">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="E208">
         <v>1</v>
       </c>
       <c r="F208" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="G208" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B209" t="s">
-        <v>568</v>
+        <v>307</v>
       </c>
       <c r="C209" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="D209" s="1">
-        <v>12.9</v>
+        <v>25</v>
       </c>
       <c r="E209">
         <v>1</v>
       </c>
       <c r="F209" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="G209" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B210" t="s">
-        <v>568</v>
+        <v>307</v>
       </c>
       <c r="C210" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="D210" s="1">
-        <v>34.5</v>
+        <v>25</v>
       </c>
       <c r="E210">
         <v>1</v>
       </c>
       <c r="F210" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="G210" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B211" t="s">
-        <v>568</v>
+        <v>307</v>
       </c>
       <c r="C211" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="D211" s="1">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="E211">
         <v>1</v>
       </c>
       <c r="F211" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="G211" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B212" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C212" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="D212" s="1">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E212">
         <v>1</v>
       </c>
       <c r="F212" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="G212" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B213" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C213" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D213" s="1">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E213">
         <v>1</v>
       </c>
       <c r="F213" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="G213" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B214" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="C214" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="D214" s="1">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="E214">
         <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="G214" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B215" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="C215" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D215" s="1">
-        <v>399</v>
-      </c>
-      <c r="E215" s="2">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
       </c>
       <c r="F215" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="G215" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B216" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C216" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="D216" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E216">
         <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="G216" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B217" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C217" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="D217" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E217">
         <v>1</v>
       </c>
       <c r="F217" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="G217" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B218" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C218" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D218" s="1">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E218">
         <v>1</v>
       </c>
       <c r="F218" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="G218" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B219" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C219" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="D219" s="1">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E219">
         <v>1</v>
       </c>
       <c r="F219" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="G219" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B220" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="C220" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="D220" s="1">
-        <v>25</v>
+        <v>9.9</v>
       </c>
       <c r="E220">
         <v>1</v>
       </c>
       <c r="F220" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="G220" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B221" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C221" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="D221" s="1">
-        <v>19</v>
+        <v>9.9</v>
       </c>
       <c r="E221">
         <v>1</v>
       </c>
       <c r="F221" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="G221" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B222" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C222" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="D222" s="1">
-        <v>19</v>
+        <v>9.9</v>
       </c>
       <c r="E222">
         <v>1</v>
       </c>
       <c r="F222" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="G222" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B223" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C223" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="D223" s="1">
-        <v>19</v>
+        <v>9.9</v>
       </c>
       <c r="E223">
         <v>1</v>
       </c>
       <c r="F223" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="G223" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B224" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C224" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="D224" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E224">
         <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="G224" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B225" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C225" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="D225" s="1">
-        <v>6</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E225">
         <v>1</v>
       </c>
       <c r="F225" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="G225" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B226" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C226" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="D226" s="1">
-        <v>6</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E226">
         <v>1</v>
       </c>
       <c r="F226" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="G226" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>232</v>
+        <v>94</v>
       </c>
       <c r="B227" t="s">
-        <v>322</v>
+        <v>581</v>
       </c>
       <c r="C227" t="s">
-        <v>324</v>
+        <v>127</v>
       </c>
       <c r="D227" s="1">
-        <v>9.9</v>
+        <v>999</v>
       </c>
       <c r="E227">
         <v>1</v>
       </c>
       <c r="F227" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="G227" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A228">
-        <v>233</v>
-      </c>
-      <c r="B228" t="s">
-        <v>322</v>
-      </c>
-      <c r="C228" t="s">
-        <v>325</v>
-      </c>
-      <c r="D228" s="1">
-        <v>9.9</v>
-      </c>
-      <c r="E228">
-        <v>1</v>
-      </c>
-      <c r="F228" t="s">
-        <v>554</v>
-      </c>
-      <c r="G228" t="s">
-        <v>323</v>
+        <v>126</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A229">
-        <v>234</v>
-      </c>
-      <c r="B229" t="s">
-        <v>322</v>
-      </c>
-      <c r="C229" t="s">
-        <v>327</v>
-      </c>
-      <c r="D229" s="1">
-        <v>9.9</v>
-      </c>
-      <c r="E229">
-        <v>1</v>
-      </c>
-      <c r="F229" t="s">
-        <v>555</v>
-      </c>
-      <c r="G229" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A230">
-        <v>235</v>
-      </c>
-      <c r="B230" t="s">
-        <v>322</v>
-      </c>
-      <c r="C230" t="s">
-        <v>328</v>
-      </c>
-      <c r="D230" s="1">
-        <v>9.9</v>
-      </c>
-      <c r="E230">
-        <v>1</v>
-      </c>
-      <c r="F230" t="s">
-        <v>556</v>
-      </c>
-      <c r="G230" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A231">
-        <v>236</v>
-      </c>
-      <c r="B231" t="s">
-        <v>322</v>
-      </c>
-      <c r="C231" t="s">
-        <v>330</v>
-      </c>
-      <c r="D231" s="1">
-        <v>12</v>
-      </c>
-      <c r="E231">
-        <v>1</v>
-      </c>
-      <c r="F231" t="s">
-        <v>557</v>
-      </c>
-      <c r="G231" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A232">
-        <v>237</v>
-      </c>
-      <c r="B232" t="s">
-        <v>322</v>
-      </c>
-      <c r="C232" t="s">
-        <v>332</v>
-      </c>
-      <c r="D232" s="1">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E232">
-        <v>1</v>
-      </c>
-      <c r="F232" t="s">
-        <v>558</v>
-      </c>
-      <c r="G232" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A233">
-        <v>238</v>
-      </c>
-      <c r="B233" t="s">
-        <v>322</v>
-      </c>
-      <c r="C233" t="s">
-        <v>334</v>
-      </c>
-      <c r="D233" s="1">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E233">
-        <v>1</v>
-      </c>
-      <c r="F233" t="s">
-        <v>559</v>
-      </c>
-      <c r="G233" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A234">
-        <v>94</v>
-      </c>
-      <c r="B234" t="s">
-        <v>581</v>
-      </c>
-      <c r="C234" t="s">
-        <v>127</v>
-      </c>
-      <c r="D234" s="1">
-        <v>999</v>
-      </c>
-      <c r="E234">
-        <v>1</v>
-      </c>
-      <c r="F234" t="s">
-        <v>570</v>
-      </c>
-      <c r="G234" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D236" s="1"/>
+      <c r="D229" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A212:G215">
-    <sortCondition ref="D212:D215"/>
+  <sortState ref="A206:G208">
+    <sortCondition ref="D206:D208"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8095,10 +7934,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8130,6 +7969,167 @@
         <v>242</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>177</v>
+      </c>
+      <c r="B2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D2" s="1">
+        <v>999</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>506</v>
+      </c>
+      <c r="G2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>174</v>
+      </c>
+      <c r="B3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="1">
+        <v>499</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>503</v>
+      </c>
+      <c r="G3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" s="1">
+        <v>599</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>417</v>
+      </c>
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>403</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="1">
+        <v>499</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>410</v>
+      </c>
+      <c r="G6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2499</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>220</v>
+      </c>
+      <c r="B8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D8" s="1">
+        <v>399</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>544</v>
+      </c>
+      <c r="G8" t="s">
+        <v>305</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Cintamani\Website 2017\react-cintamani\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\code\react-cintamani\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E8267210-1CA4-4BBC-AD78-5ECBBDE01FC7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690FE0BB-CA41-4F05-BF4D-BDE00AD9DAB8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2076" yWindow="684" windowWidth="23040" windowHeight="9636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="690" windowWidth="23040" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalog_product_bearbeitet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="595">
   <si>
     <t>Name</t>
   </si>
@@ -1618,9 +1618,6 @@
     <t>WBWT028.JPG, WBWT029.JPG</t>
   </si>
   <si>
-    <t>WBWT012.JPG, WBWT011.JPG, WBWT014.JPG, WBWT013.JPG, WBWT016.JPG, WBWT017.JPG, WBWT015.JPG,</t>
-  </si>
-  <si>
     <t>WG001.JPG</t>
   </si>
   <si>
@@ -1812,6 +1809,15 @@
   </si>
   <si>
     <t xml:space="preserve">Stupa Stein 27cm </t>
+  </si>
+  <si>
+    <t>WBWT012.JPG, WBWT011.JPG, WBWT014.JPG, WBWT013.JPG, WBWT016.JPG, WBWT017.JPG, WBWT015.JPG</t>
+  </si>
+  <si>
+    <t>FriendlyCategoryName</t>
+  </si>
+  <si>
+    <t>weiteres - Raeucherzubehoer</t>
   </si>
 </sst>
 </file>
@@ -2684,18 +2690,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A209" sqref="A209:XFD209"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.109375" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" customWidth="1"/>
-    <col min="6" max="6" width="65.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" customWidth="1"/>
+    <col min="6" max="6" width="41.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>354</v>
       </c>
@@ -2717,8 +2724,11 @@
       <c r="G1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2741,7 +2751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2764,7 +2774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2787,7 +2797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2810,7 +2820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2833,7 +2843,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2856,7 +2866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2879,7 +2889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2902,7 +2912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2925,7 +2935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2948,7 +2958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2971,7 +2981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2994,7 +3004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3017,7 +3027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3040,7 +3050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3063,7 +3073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3086,7 +3096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3109,7 +3119,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3132,7 +3142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3155,7 +3165,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3178,7 +3188,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3201,7 +3211,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3224,7 +3234,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3247,7 +3257,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3270,7 +3280,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3293,7 +3303,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -3316,7 +3326,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
@@ -3339,7 +3349,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
@@ -3362,7 +3372,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -3385,7 +3395,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
@@ -3408,7 +3418,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
@@ -3431,7 +3441,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
@@ -3454,7 +3464,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -3477,7 +3487,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
@@ -3500,7 +3510,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
@@ -3523,7 +3533,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
@@ -3546,7 +3556,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
@@ -3569,7 +3579,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
@@ -3592,7 +3602,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
@@ -3615,7 +3625,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
@@ -3638,7 +3648,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
@@ -3661,7 +3671,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
@@ -3684,7 +3694,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
@@ -3707,7 +3717,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
@@ -3730,7 +3740,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
@@ -3753,7 +3763,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>49</v>
       </c>
@@ -3776,7 +3786,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>241</v>
       </c>
@@ -3784,7 +3794,7 @@
         <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D48" s="1">
         <v>250</v>
@@ -3793,13 +3803,13 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
+        <v>586</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="G48" s="6" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>50</v>
       </c>
@@ -3822,7 +3832,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>51</v>
       </c>
@@ -3845,7 +3855,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>52</v>
       </c>
@@ -3868,7 +3878,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>53</v>
       </c>
@@ -3891,7 +3901,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>54</v>
       </c>
@@ -3914,7 +3924,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>56</v>
       </c>
@@ -3937,7 +3947,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>57</v>
       </c>
@@ -3960,7 +3970,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>58</v>
       </c>
@@ -3983,7 +3993,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>59</v>
       </c>
@@ -4006,7 +4016,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>60</v>
       </c>
@@ -4029,7 +4039,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>61</v>
       </c>
@@ -4037,7 +4047,7 @@
         <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D59" s="1">
         <v>499</v>
@@ -4052,7 +4062,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>63</v>
       </c>
@@ -4075,7 +4085,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>240</v>
       </c>
@@ -4083,7 +4093,7 @@
         <v>79</v>
       </c>
       <c r="C61" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D61" s="1">
         <v>1000</v>
@@ -4092,13 +4102,13 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>66</v>
       </c>
@@ -4121,7 +4131,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>67</v>
       </c>
@@ -4144,7 +4154,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>68</v>
       </c>
@@ -4167,7 +4177,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>69</v>
       </c>
@@ -4190,7 +4200,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>70</v>
       </c>
@@ -4207,13 +4217,13 @@
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G66" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>71</v>
       </c>
@@ -4230,13 +4240,13 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G67" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>72</v>
       </c>
@@ -4253,13 +4263,13 @@
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G68" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>73</v>
       </c>
@@ -4276,13 +4286,13 @@
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>74</v>
       </c>
@@ -4299,13 +4309,13 @@
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G70" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>75</v>
       </c>
@@ -4322,13 +4332,13 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G71" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>76</v>
       </c>
@@ -4345,13 +4355,13 @@
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G72" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>77</v>
       </c>
@@ -4368,13 +4378,13 @@
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G73" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>78</v>
       </c>
@@ -4391,13 +4401,13 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G74" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>79</v>
       </c>
@@ -4414,13 +4424,13 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G75" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>80</v>
       </c>
@@ -4437,18 +4447,18 @@
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G76" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C77" t="s">
         <v>121</v>
@@ -4466,12 +4476,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C78" t="s">
         <v>129</v>
@@ -4489,12 +4499,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C79" t="s">
         <v>128</v>
@@ -4512,12 +4522,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C80" t="s">
         <v>125</v>
@@ -4535,12 +4545,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C81" t="s">
         <v>123</v>
@@ -4558,12 +4568,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C82" t="s">
         <v>124</v>
@@ -4581,12 +4591,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C83" t="s">
         <v>118</v>
@@ -4604,12 +4614,12 @@
         <v>340</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C84" t="s">
         <v>131</v>
@@ -4627,12 +4637,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C85" t="s">
         <v>118</v>
@@ -4650,12 +4660,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C86" t="s">
         <v>341</v>
@@ -4673,12 +4683,12 @@
         <v>341</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C87" t="s">
         <v>120</v>
@@ -4696,12 +4706,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>95</v>
       </c>
       <c r="B88" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C88" t="s">
         <v>135</v>
@@ -4719,12 +4729,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C89" t="s">
         <v>342</v>
@@ -4742,12 +4752,12 @@
         <v>342</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C90" t="s">
         <v>134</v>
@@ -4765,12 +4775,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>98</v>
       </c>
       <c r="B91" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C91" t="s">
         <v>136</v>
@@ -4788,12 +4798,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C92" t="s">
         <v>343</v>
@@ -4811,12 +4821,12 @@
         <v>343</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>100</v>
       </c>
       <c r="B93" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C93" t="s">
         <v>133</v>
@@ -4834,12 +4844,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>101</v>
       </c>
       <c r="B94" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C94" t="s">
         <v>344</v>
@@ -4857,12 +4867,12 @@
         <v>345</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>103</v>
       </c>
       <c r="B95" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>137</v>
@@ -4884,12 +4894,12 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C96" t="s">
         <v>139</v>
@@ -4907,7 +4917,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>105</v>
       </c>
@@ -4930,7 +4940,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>106</v>
       </c>
@@ -4953,7 +4963,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>107</v>
       </c>
@@ -4976,7 +4986,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>108</v>
       </c>
@@ -4999,7 +5009,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>109</v>
       </c>
@@ -5022,7 +5032,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>110</v>
       </c>
@@ -5045,7 +5055,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>111</v>
       </c>
@@ -5068,7 +5078,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>112</v>
       </c>
@@ -5091,7 +5101,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>113</v>
       </c>
@@ -5114,7 +5124,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>114</v>
       </c>
@@ -5137,7 +5147,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>115</v>
       </c>
@@ -5160,7 +5170,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>116</v>
       </c>
@@ -5183,7 +5193,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>117</v>
       </c>
@@ -5206,7 +5216,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>118</v>
       </c>
@@ -5229,7 +5239,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>119</v>
       </c>
@@ -5252,7 +5262,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>120</v>
       </c>
@@ -5275,7 +5285,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>121</v>
       </c>
@@ -5298,7 +5308,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>122</v>
       </c>
@@ -5321,7 +5331,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>123</v>
       </c>
@@ -5344,7 +5354,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>124</v>
       </c>
@@ -5367,7 +5377,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>125</v>
       </c>
@@ -5390,7 +5400,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>126</v>
       </c>
@@ -5413,7 +5423,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>127</v>
       </c>
@@ -5436,7 +5446,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>128</v>
       </c>
@@ -5459,7 +5469,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>129</v>
       </c>
@@ -5482,7 +5492,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>130</v>
       </c>
@@ -5505,7 +5515,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>131</v>
       </c>
@@ -5528,7 +5538,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>132</v>
       </c>
@@ -5551,7 +5561,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>133</v>
       </c>
@@ -5574,7 +5584,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>134</v>
       </c>
@@ -5597,7 +5607,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>135</v>
       </c>
@@ -5620,7 +5630,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>136</v>
       </c>
@@ -5643,7 +5653,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>137</v>
       </c>
@@ -5666,7 +5676,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>138</v>
       </c>
@@ -5689,7 +5699,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>139</v>
       </c>
@@ -5712,7 +5722,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>140</v>
       </c>
@@ -5735,7 +5745,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>141</v>
       </c>
@@ -5758,7 +5768,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>142</v>
       </c>
@@ -5781,7 +5791,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>143</v>
       </c>
@@ -5804,7 +5814,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>144</v>
       </c>
@@ -5827,7 +5837,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>145</v>
       </c>
@@ -5850,12 +5860,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>146</v>
       </c>
       <c r="B138" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C138" t="s">
         <v>201</v>
@@ -5867,18 +5877,18 @@
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G138" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>147</v>
       </c>
       <c r="B139" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C139" t="s">
         <v>202</v>
@@ -5890,18 +5900,18 @@
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G139" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>148</v>
       </c>
       <c r="B140" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C140" t="s">
         <v>203</v>
@@ -5913,18 +5923,18 @@
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G140" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>149</v>
       </c>
       <c r="B141" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C141" t="s">
         <v>195</v>
@@ -5936,18 +5946,18 @@
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G141" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>150</v>
       </c>
       <c r="B142" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C142" t="s">
         <v>196</v>
@@ -5959,18 +5969,18 @@
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G142" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>151</v>
       </c>
       <c r="B143" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C143" t="s">
         <v>197</v>
@@ -5982,18 +5992,18 @@
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G143" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>152</v>
       </c>
       <c r="B144" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C144" t="s">
         <v>199</v>
@@ -6005,18 +6015,18 @@
         <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G144" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>153</v>
       </c>
       <c r="B145" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C145" t="s">
         <v>193</v>
@@ -6028,13 +6038,13 @@
         <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G145" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>154</v>
       </c>
@@ -6057,7 +6067,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>155</v>
       </c>
@@ -6080,7 +6090,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>156</v>
       </c>
@@ -6103,7 +6113,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>157</v>
       </c>
@@ -6126,7 +6136,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>158</v>
       </c>
@@ -6149,7 +6159,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>159</v>
       </c>
@@ -6172,7 +6182,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>160</v>
       </c>
@@ -6195,7 +6205,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>161</v>
       </c>
@@ -6218,7 +6228,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>162</v>
       </c>
@@ -6241,7 +6251,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>163</v>
       </c>
@@ -6264,7 +6274,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>164</v>
       </c>
@@ -6287,7 +6297,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>165</v>
       </c>
@@ -6310,7 +6320,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>166</v>
       </c>
@@ -6333,7 +6343,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>167</v>
       </c>
@@ -6356,7 +6366,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>168</v>
       </c>
@@ -6379,7 +6389,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>169</v>
       </c>
@@ -6402,7 +6412,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>170</v>
       </c>
@@ -6425,7 +6435,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>171</v>
       </c>
@@ -6448,7 +6458,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>172</v>
       </c>
@@ -6471,7 +6481,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>173</v>
       </c>
@@ -6494,7 +6504,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>175</v>
       </c>
@@ -6517,7 +6527,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>176</v>
       </c>
@@ -6540,7 +6550,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>239</v>
       </c>
@@ -6548,7 +6558,7 @@
         <v>237</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D168" s="4">
         <v>400</v>
@@ -6557,13 +6567,13 @@
         <v>1</v>
       </c>
       <c r="F168" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="G168" t="s">
         <v>584</v>
       </c>
-      <c r="G168" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>178</v>
       </c>
@@ -6586,12 +6596,12 @@
         <v>243</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>179</v>
       </c>
       <c r="B170" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C170" t="s">
         <v>346</v>
@@ -6609,12 +6619,12 @@
         <v>346</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>180</v>
       </c>
       <c r="B171" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C171" t="s">
         <v>257</v>
@@ -6632,12 +6642,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>181</v>
       </c>
       <c r="B172" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C172" t="s">
         <v>252</v>
@@ -6655,12 +6665,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>182</v>
       </c>
       <c r="B173" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C173" t="s">
         <v>261</v>
@@ -6678,12 +6688,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>183</v>
       </c>
       <c r="B174" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C174" t="s">
         <v>250</v>
@@ -6701,12 +6711,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>184</v>
       </c>
       <c r="B175" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C175" t="s">
         <v>260</v>
@@ -6724,12 +6734,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>186</v>
       </c>
       <c r="B176" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C176" t="s">
         <v>259</v>
@@ -6747,12 +6757,12 @@
         <v>258</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>187</v>
       </c>
       <c r="B177" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C177" t="s">
         <v>251</v>
@@ -6770,12 +6780,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>188</v>
       </c>
       <c r="B178" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C178" t="s">
         <v>255</v>
@@ -6793,12 +6803,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>189</v>
       </c>
       <c r="B179" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C179" t="s">
         <v>254</v>
@@ -6816,12 +6826,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>190</v>
       </c>
       <c r="B180" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C180" t="s">
         <v>249</v>
@@ -6839,12 +6849,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>191</v>
       </c>
       <c r="B181" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C181" t="s">
         <v>256</v>
@@ -6862,12 +6872,12 @@
         <v>256</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>192</v>
       </c>
       <c r="B182" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C182" t="s">
         <v>268</v>
@@ -6885,12 +6895,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>193</v>
       </c>
       <c r="B183" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C183" t="s">
         <v>266</v>
@@ -6908,12 +6918,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>194</v>
       </c>
       <c r="B184" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C184" t="s">
         <v>267</v>
@@ -6931,12 +6941,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>195</v>
       </c>
       <c r="B185" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C185" t="s">
         <v>265</v>
@@ -6954,12 +6964,12 @@
         <v>264</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>196</v>
       </c>
       <c r="B186" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C186" t="s">
         <v>270</v>
@@ -6977,12 +6987,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>197</v>
       </c>
       <c r="B187" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C187" t="s">
         <v>271</v>
@@ -7000,12 +7010,12 @@
         <v>271</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>199</v>
       </c>
       <c r="B188" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C188" t="s">
         <v>263</v>
@@ -7023,12 +7033,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>200</v>
       </c>
       <c r="B189" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C189" t="s">
         <v>269</v>
@@ -7046,12 +7056,12 @@
         <v>269</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>201</v>
       </c>
       <c r="B190" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C190" t="s">
         <v>273</v>
@@ -7069,12 +7079,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>202</v>
       </c>
       <c r="B191" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C191" t="s">
         <v>275</v>
@@ -7086,13 +7096,13 @@
         <v>1</v>
       </c>
       <c r="F191" t="s">
-        <v>528</v>
+        <v>592</v>
       </c>
       <c r="G191" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>203</v>
       </c>
@@ -7109,13 +7119,13 @@
         <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G192" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>204</v>
       </c>
@@ -7132,13 +7142,13 @@
         <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G193" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>205</v>
       </c>
@@ -7155,13 +7165,13 @@
         <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G194" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>206</v>
       </c>
@@ -7178,13 +7188,13 @@
         <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G195" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>207</v>
       </c>
@@ -7201,13 +7211,13 @@
         <v>1</v>
       </c>
       <c r="F196" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G196" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>208</v>
       </c>
@@ -7224,13 +7234,13 @@
         <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G197" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>209</v>
       </c>
@@ -7247,13 +7257,13 @@
         <v>1</v>
       </c>
       <c r="F198" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G198" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>210</v>
       </c>
@@ -7270,13 +7280,13 @@
         <v>1</v>
       </c>
       <c r="F199" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G199" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>211</v>
       </c>
@@ -7293,13 +7303,13 @@
         <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G200" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>212</v>
       </c>
@@ -7316,18 +7326,18 @@
         <v>1</v>
       </c>
       <c r="F201" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>213</v>
       </c>
       <c r="B202" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C202" t="s">
         <v>299</v>
@@ -7339,18 +7349,21 @@
         <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G202" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H202" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>214</v>
       </c>
       <c r="B203" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C203" t="s">
         <v>298</v>
@@ -7362,18 +7375,21 @@
         <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G203" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H203" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>215</v>
       </c>
       <c r="B204" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C204" t="s">
         <v>300</v>
@@ -7385,18 +7401,21 @@
         <v>1</v>
       </c>
       <c r="F204" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G204" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H204" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>216</v>
       </c>
       <c r="B205" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C205" t="s">
         <v>297</v>
@@ -7408,13 +7427,16 @@
         <v>1</v>
       </c>
       <c r="F205" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G205" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H205" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>217</v>
       </c>
@@ -7431,13 +7453,13 @@
         <v>1</v>
       </c>
       <c r="F206" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G206" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>218</v>
       </c>
@@ -7454,13 +7476,13 @@
         <v>1</v>
       </c>
       <c r="F207" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G207" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>219</v>
       </c>
@@ -7477,13 +7499,13 @@
         <v>1</v>
       </c>
       <c r="F208" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G208" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>221</v>
       </c>
@@ -7500,13 +7522,13 @@
         <v>1</v>
       </c>
       <c r="F209" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G209" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>222</v>
       </c>
@@ -7523,13 +7545,13 @@
         <v>1</v>
       </c>
       <c r="F210" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G210" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>223</v>
       </c>
@@ -7546,13 +7568,13 @@
         <v>1</v>
       </c>
       <c r="F211" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G211" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>224</v>
       </c>
@@ -7569,13 +7591,13 @@
         <v>1</v>
       </c>
       <c r="F212" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G212" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>225</v>
       </c>
@@ -7592,13 +7614,13 @@
         <v>1</v>
       </c>
       <c r="F213" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G213" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>226</v>
       </c>
@@ -7615,13 +7637,13 @@
         <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G214" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>227</v>
       </c>
@@ -7638,13 +7660,13 @@
         <v>1</v>
       </c>
       <c r="F215" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G215" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>228</v>
       </c>
@@ -7661,13 +7683,13 @@
         <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G216" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>229</v>
       </c>
@@ -7684,13 +7706,13 @@
         <v>1</v>
       </c>
       <c r="F217" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G217" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>230</v>
       </c>
@@ -7707,13 +7729,13 @@
         <v>1</v>
       </c>
       <c r="F218" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G218" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>231</v>
       </c>
@@ -7730,13 +7752,13 @@
         <v>1</v>
       </c>
       <c r="F219" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G219" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>232</v>
       </c>
@@ -7753,13 +7775,13 @@
         <v>1</v>
       </c>
       <c r="F220" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G220" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>233</v>
       </c>
@@ -7776,13 +7798,13 @@
         <v>1</v>
       </c>
       <c r="F221" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G221" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>234</v>
       </c>
@@ -7799,13 +7821,13 @@
         <v>1</v>
       </c>
       <c r="F222" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G222" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>235</v>
       </c>
@@ -7822,13 +7844,13 @@
         <v>1</v>
       </c>
       <c r="F223" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G223" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>236</v>
       </c>
@@ -7845,13 +7867,13 @@
         <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G224" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>237</v>
       </c>
@@ -7868,13 +7890,13 @@
         <v>1</v>
       </c>
       <c r="F225" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G225" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>238</v>
       </c>
@@ -7891,18 +7913,18 @@
         <v>1</v>
       </c>
       <c r="F226" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G226" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>94</v>
       </c>
       <c r="B227" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C227" t="s">
         <v>127</v>
@@ -7914,13 +7936,13 @@
         <v>1</v>
       </c>
       <c r="F227" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G227" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D229" s="1"/>
     </row>
   </sheetData>
@@ -7940,13 +7962,13 @@
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>177</v>
       </c>
@@ -7954,7 +7976,7 @@
         <v>237</v>
       </c>
       <c r="C1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D1" s="1">
         <v>999</v>
@@ -7969,7 +7991,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>177</v>
       </c>
@@ -7977,7 +7999,7 @@
         <v>237</v>
       </c>
       <c r="C2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D2" s="1">
         <v>999</v>
@@ -7992,7 +8014,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>174</v>
       </c>
@@ -8015,7 +8037,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>62</v>
       </c>
@@ -8038,7 +8060,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>48</v>
       </c>
@@ -8061,7 +8083,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>55</v>
       </c>
@@ -8084,7 +8106,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>64</v>
       </c>
@@ -8107,7 +8129,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>220</v>
       </c>
@@ -8124,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G8" t="s">
         <v>305</v>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\code\react-cintamani\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Cintamani\Website 2017\react-cintamani\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690FE0BB-CA41-4F05-BF4D-BDE00AD9DAB8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4B711F05-0365-4EE8-9F3A-74A6354B5C5B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="690" windowWidth="23040" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2076" yWindow="696" windowWidth="23040" windowHeight="9636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalog_product_bearbeitet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="672">
   <si>
     <t>Name</t>
   </si>
@@ -1818,6 +1818,248 @@
   </si>
   <si>
     <t>weiteres - Raeucherzubehoer</t>
+  </si>
+  <si>
+    <t>Buddhas - Raritäten</t>
+  </si>
+  <si>
+    <t>5 Bodhisattvas</t>
+  </si>
+  <si>
+    <t>BRa001.JPG, BRa002.JPG, BRa003.JPG, BRa004.JPG, BRa005.JPG, BRa006.JPG, BRa007.JPG, BRa008.JPG, BRa009.JPG, BRa010.JPG, BRa011.JPG, BRa012.JPG, BRa013.JPG, BRa014.JPG, BRa015.JPG, BRa016.JPG, BRa017.JPG, BRa018.JPG, BRa019.JPG, BRa020.JPG,  BRa021.JPG,  BRa022.JPG,  BRa023.JPG,  BRa024.JPG,  BRa025.JPG,  BRa026.JPG,  BRa027.JPG,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bodhisattva Set bestehend aus 5 einmaligen (22cm hoch) Bodhisattvas, ich habe diese 5 Sonderanfertigungen in Nepal anfertigen lassen die Vorlagen sind in den Büchern von Lokes Chandra und H. W.Schuhmann (Blockdrucke) alle 5 Statuen sind einmal angefertigt worden und werden nur im Set verkauft ihre Namen sind:
+Bodhisattva Padmapani sitzend
+(Wunschgewährung)
+Bodhisattva Ratnapani
+(Cintamani in der Hand)
+Bodhisattva Sarvanivaranaviskambhin               
+(Mond / Bannungsgeste von Dämonen)
+Bodhisattva Aksagrabha
+(Sonne / Wunschgewährung)
+Bodhisattva Samantabhadra
+(Vajra und Lotos)</t>
+  </si>
+  <si>
+    <t>Vajrapani</t>
+  </si>
+  <si>
+    <t>BRa029.JPG, BRa30.JPG, BRa31.JPG, BRa32.JPG, BRa33.JPG, BRa34.JPG, BRa35.JPG, BRa36.JPG, BRa37.JPG, BRa38.JPG,</t>
+  </si>
+  <si>
+    <t>Bodhisattva Vajrapani  ist nach einem Vorbild in Stockhholm angefertigt worden, ein Meistewerk. Das Orginal war der Beschützer in der Ausstellung Weisheit und Liebe. Die Statue ist 70cm hoch.</t>
+  </si>
+  <si>
+    <t>Räuchergefäß Drache</t>
+  </si>
+  <si>
+    <t>BRa039.JPG, BRa40.JPG, BRa41.JPG, BRa42.JPG,</t>
+  </si>
+  <si>
+    <t>Räuchergefäß Drache ist circa 40cm hoch</t>
+  </si>
+  <si>
+    <t>Maitreya</t>
+  </si>
+  <si>
+    <t>BRa043.JPG,  BRa044.JPG,  BRa045.JPG,  BRa046.JPG,  BRa047.JPG</t>
+  </si>
+  <si>
+    <t>Buddha Maitreya, diese Statue ist nach einem Vorbild nach dem Ausstellungskatalog Weisheit und Liebe angefertigt worden, ein Meisterwerk</t>
+  </si>
+  <si>
+    <t>Sahasrabhuja Lokesvara</t>
+  </si>
+  <si>
+    <t>BRa048.JPG, BRa049.JPG, BRa050.JPG, BRa051.JPG, BRa052.JPG, BRa053.JPG, BRa054.JPG, BRa055.JPG, BRa056.JPG, BRa057.JPG, BRa058.JPG, BRa059.JPG</t>
+  </si>
+  <si>
+    <t>Bodhisattva Avalokitesvara als Sahasrabhuja Lokesvara feuervergoldet mit Kaltgold bemalten Gesichtern, und Augen in den Händen. Sie ist aus einem verlorenen Wachsmodell hergestellt worden (Kupferstatue anschliesend Feuervergoldet) die Aura ist aus Kupferblech geformt worden. Die Statue ist 112cm hoch und 80 cm breit (gemessen an der Aura),  ein Meisterwerk. Die Statue wiegt circa 36kg und ist aus 4 Teilen zusammengesetzt.</t>
+  </si>
+  <si>
+    <t>Vajrakila</t>
+  </si>
+  <si>
+    <t>BRa060.JPG, BRa061.JPG, BRa062.JPG, BRa063.JPG, BRa064.JPG, BRa065.JPG, BRa066.JPG, BRa067.JPG, BRa068.JPG, BRa069.JPG, BRa070.JPG,  BRa071.JPG</t>
+  </si>
+  <si>
+    <t>Buddha Vajrakila Stele mit Vajrapani und 3 Formen von Mahakala 42cm x 42cm</t>
+  </si>
+  <si>
+    <t>Prajnaparamita</t>
+  </si>
+  <si>
+    <t>BRa083.JPG, BRa084.JPG, BRa085.JPG, BRa086.JPG, BRa087.JPG</t>
+  </si>
+  <si>
+    <t>Bodhisattva Prajnaparamita absolut selten, wunderschöne 16cm Kupferstatue</t>
+  </si>
+  <si>
+    <t>Bodhisattva</t>
+  </si>
+  <si>
+    <t>BRa072.JPG, BRa073.JPG</t>
+  </si>
+  <si>
+    <t>Bodhisattva 20cm hoch vollvergoldete Kupferstatue</t>
+  </si>
+  <si>
+    <t>Stupa Set</t>
+  </si>
+  <si>
+    <t>BRa074.JPG, BRa075.JPG, BRa076.JPG, BRa077.JPG, BRa078.JPG</t>
+  </si>
+  <si>
+    <t>Stupaset 24 cm/11cm hoch feuervergoldet Beste Qualität</t>
+  </si>
+  <si>
+    <t>Shakyamuni vor dem Mahabodhi Tempel</t>
+  </si>
+  <si>
+    <t>BRa079.JPG, BRa080.JPG,  BRa081.JPG,  BRa082.JPG</t>
+  </si>
+  <si>
+    <t>Die Stupa befindet sich in Indien, wird er Bodihgaya-Stupa genannt. Der Überlieferung nach wurde er 100 Jahre nach dem Tode Buddhas errichtet. Seine Gestalt ist einzigartig, er steht auf einem breiten Fundament und ist geschichtsträchtig. Der Stupa hat ca. 1000 Kämmerchen, das jeweils eine Buddha-Statue beherbergt. In dem Haupttempel des Stupas gibt es eine lebensgroße Statue des Buddha.. Diese Figur wird auf Tibetisch "Jowo Jangchub Chenpo" genannt". Sie ist umgeben von unzähligen kleinen Stupas. Für die Herstellung dieser Thangka wird ca ein halbes Jahr benötigt. auch bei dieser Thangka war die Vorlage der Katalog Weisheit und Liebe.
+Die Größe der Thangka ist :Innen 85breit 111 hoch, Außen 117breit 202hoch (cm). Die Zeit um eine Thangka dieser größe zu "Malen" ist circa 6 Monate diese ist in hervorragender Qualität gemalt.</t>
+  </si>
+  <si>
+    <t>Cundi Avalokitesvara</t>
+  </si>
+  <si>
+    <t>BRa088.JPG, BRa089.JPG, BRa090.JPG,  BRa091.JPG,  BRa092.JPG</t>
+  </si>
+  <si>
+    <t>Cundi - Avalokitesvara ist aus 90% Silber gefertigt und ist 16,5cm hoch. Cundi ist eine weitere Erscheinungsform des Bodhisattvas Guan er gilt als Lösungs und Friedensbringer für die Welt.</t>
+  </si>
+  <si>
+    <t>Amoghapasa - Lokesvara</t>
+  </si>
+  <si>
+    <t>BRa093.JPG, BRa094.JPG, BRa095.JPG, BRa096.JPG</t>
+  </si>
+  <si>
+    <t>Amoghapasa - Lokesvara ist aus 90% Silber gefertigt und ist 20cm hoch. Er gilt als Wahrheits und Erlösungsbringer, die Attribute seiner 4 Händepaare haben Bezug auf die Abwehr von Gegnern und das Verkünden der erlösenden Weisheit.</t>
+  </si>
+  <si>
+    <t>Buddhas - Zornvolle Erscheinungsformen</t>
+  </si>
+  <si>
+    <t>BZe001.JPG, BZe002.JPG, BZe003.JPG, BZe004.JPG, BZe005.JPG</t>
+  </si>
+  <si>
+    <t>Vajrapani ist 25cm hoch und komplett feuervergoldet. Er gilt als Hüter der tantrischen Geheimlehren.</t>
+  </si>
+  <si>
+    <t>Heruka</t>
+  </si>
+  <si>
+    <t>BZe006.JPG, BZe007.JPG, BZe008.JPG, BZe009.JPG</t>
+  </si>
+  <si>
+    <t>Der Sadhita - Hevajra (Heruka) ist 20 cm hoch und ist teilweise feuervergoldet und hat ein antikes finished. Durch Rituale soll das Absolute (Vajra) erlebnishaft gegenwätig werden, durch die Silbe he soll das Absolute angerufen werden.</t>
+  </si>
+  <si>
+    <t>Hayagriva</t>
+  </si>
+  <si>
+    <t>BZe010.JPG, BZe011.JPG, BZe012.JPG, BZe013.JPG, BZe014.JPG</t>
+  </si>
+  <si>
+    <t>Der Dharmapala Hayagriva ist 25cm hoch und komplett feuervergoldet. Hayagriva gilt als beschützer der heiligen Schriften und beschützt diese durch Wiehern.</t>
+  </si>
+  <si>
+    <t>Rahu</t>
+  </si>
+  <si>
+    <t>BZe016.JPG, BZe017.JPG, BZe018.JPG, BZe019.JPG</t>
+  </si>
+  <si>
+    <t>Der Planetengott Rahu ist 20cm hoch und komplett feuervergoldet. Er ist der Herr der neun Planeten und gilt als Urheber der Himmelsphänomenen.</t>
+  </si>
+  <si>
+    <t>Mahakala</t>
+  </si>
+  <si>
+    <t>BZe020.JPG, BZe021.JPG, BZe022.JPG, BZe023.JPG, BZe024.JPG</t>
+  </si>
+  <si>
+    <t>Mahakala ist 25cm hoch teilweise feuervergoldet und hat ein kaltgold bemaltes Gesicht. Mahakala gilt als Weisheitshüter.</t>
+  </si>
+  <si>
+    <t>Amida 40cm</t>
+  </si>
+  <si>
+    <t>BAmi020.JPG, BAmi021.JPG, BAmi022.JPG, BAmi023.JPG, BAmi024.JPG, BAmi025.JPG</t>
+  </si>
+  <si>
+    <t>Diese  Amida Statue hat eine wunderschöne Krone mit den 5 Buddhas, und eine wunderbare Ausstrahlung der Ruhe.</t>
+  </si>
+  <si>
+    <t>Amoghasiddhi 48cm</t>
+  </si>
+  <si>
+    <t>BAmo020.JPG, BAmo021.JPG</t>
+  </si>
+  <si>
+    <t>Die Amoghasiddhi Statue ist aus Messing und ist 48cm hoch, die rechte Hand hält er in der Ermutigungsgeste.</t>
+  </si>
+  <si>
+    <t>Padmapani 20cm</t>
+  </si>
+  <si>
+    <t>Die Padmapani Statue ist 20cm hoch und komplett feuervergoldet mit einem kaltgold bemalten Gesicht. Padmapani gilt als die älteste Form von Avalokitesvara.</t>
+  </si>
+  <si>
+    <t>Padmapani 41cm</t>
+  </si>
+  <si>
+    <t>MBAva054.JPG, MBAva055.JPG, MBAva056.JPG, MBAva057.JPG</t>
+  </si>
+  <si>
+    <t>Die Padmapani Statue ist 41cm hoch. Padmapani gilt als die älteste Form von Avalokitesvara.</t>
+  </si>
+  <si>
+    <t>Sadaksari</t>
+  </si>
+  <si>
+    <t>MBAva058.JPG, MBAva059.JPG, MBAva060.JPG, MBAva061.JPG, MBAva062.JPG</t>
+  </si>
+  <si>
+    <t>Dieser Avalokitesvara als Sadaksari - Lokesvara ist 33cm hoch und ist eine reine Kupferstatue, diese kann man auch in der Natur aufstellen.</t>
+  </si>
+  <si>
+    <t>Dipankara</t>
+  </si>
+  <si>
+    <t>BRa100.JPG, BRa101.JPG, BRa102.JPG, BRa103.JPG</t>
+  </si>
+  <si>
+    <t>Diese Dipankara Statue ist 23 cm hoch. Dipankara war der erste Buddha.</t>
+  </si>
+  <si>
+    <t>Medizinbuddha 28cm</t>
+  </si>
+  <si>
+    <t>BMed100.JPG, BMed101.JPG, BMed102.JPG, BMed103.JPG, BMed104.JPG</t>
+  </si>
+  <si>
+    <t>Dieser Medizinbuddha ist 28cm hoch und ist eine reine Kupferstatue, diese kann man auch in der Natur aufstellen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manjusri 20cm </t>
+  </si>
+  <si>
+    <t>MBMan100.JPG, MBMan101.JPG, MBMan102.JPG, MBMan103.JPG, MBMan104.JPG</t>
+  </si>
+  <si>
+    <t>Dieser Manjushri ist von höchster Qualität und bester Verarbeitung.</t>
+  </si>
+  <si>
+    <t>Buddhas - Raritaeten</t>
+  </si>
+  <si>
+    <t>MBAva063.JPG, MBAva064.JPG, MBAva065.JPG, MBAva066.JPG</t>
   </si>
 </sst>
 </file>
@@ -2688,21 +2930,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K229"/>
+  <dimension ref="A1:K252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A231" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E254" sqref="E254"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" customWidth="1"/>
-    <col min="6" max="6" width="41.85546875" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" customWidth="1"/>
+    <col min="6" max="6" width="41.88671875" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>354</v>
       </c>
@@ -2728,7 +2970,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2751,7 +2993,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2774,7 +3016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2797,7 +3039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2820,7 +3062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2843,7 +3085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2866,7 +3108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2889,7 +3131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2912,7 +3154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2935,7 +3177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2958,7 +3200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2981,7 +3223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3004,7 +3246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3027,7 +3269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3050,7 +3292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3073,7 +3315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3096,7 +3338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3119,7 +3361,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3142,7 +3384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3165,7 +3407,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3188,7 +3430,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3211,7 +3453,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3234,7 +3476,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3257,7 +3499,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3280,7 +3522,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3303,7 +3545,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -3326,7 +3568,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -3349,7 +3591,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -3372,7 +3614,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -3395,7 +3637,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -3418,7 +3660,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -3441,7 +3683,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -3464,7 +3706,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -3487,7 +3729,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -3510,7 +3752,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -3533,7 +3775,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -3556,7 +3798,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -3579,7 +3821,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -3602,7 +3844,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -3625,7 +3867,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
@@ -3648,7 +3890,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -3671,7 +3913,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -3694,7 +3936,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>44</v>
       </c>
@@ -3717,7 +3959,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
@@ -3740,7 +3982,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>46</v>
       </c>
@@ -3763,7 +4005,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>49</v>
       </c>
@@ -3786,7 +4028,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>241</v>
       </c>
@@ -3809,7 +4051,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>50</v>
       </c>
@@ -3832,7 +4074,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>51</v>
       </c>
@@ -3855,7 +4097,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>52</v>
       </c>
@@ -3878,7 +4120,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>53</v>
       </c>
@@ -3901,7 +4143,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>54</v>
       </c>
@@ -3924,7 +4166,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>56</v>
       </c>
@@ -3947,7 +4189,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>57</v>
       </c>
@@ -3970,7 +4212,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>58</v>
       </c>
@@ -3993,7 +4235,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>59</v>
       </c>
@@ -4016,7 +4258,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>60</v>
       </c>
@@ -4039,7 +4281,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>61</v>
       </c>
@@ -4062,7 +4304,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>63</v>
       </c>
@@ -4085,7 +4327,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>240</v>
       </c>
@@ -4108,7 +4350,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>66</v>
       </c>
@@ -4131,7 +4373,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>67</v>
       </c>
@@ -4154,7 +4396,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>68</v>
       </c>
@@ -4177,7 +4419,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>69</v>
       </c>
@@ -4200,7 +4442,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>70</v>
       </c>
@@ -4223,7 +4465,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>71</v>
       </c>
@@ -4246,7 +4488,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>72</v>
       </c>
@@ -4269,7 +4511,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>73</v>
       </c>
@@ -4292,7 +4534,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>74</v>
       </c>
@@ -4315,7 +4557,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>75</v>
       </c>
@@ -4338,7 +4580,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>76</v>
       </c>
@@ -4361,7 +4603,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>77</v>
       </c>
@@ -4384,7 +4626,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>78</v>
       </c>
@@ -4407,7 +4649,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>79</v>
       </c>
@@ -4430,7 +4672,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>80</v>
       </c>
@@ -4453,7 +4695,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>81</v>
       </c>
@@ -4476,7 +4718,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>82</v>
       </c>
@@ -4499,7 +4741,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>83</v>
       </c>
@@ -4522,7 +4764,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>84</v>
       </c>
@@ -4545,7 +4787,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>85</v>
       </c>
@@ -4568,7 +4810,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>86</v>
       </c>
@@ -4591,7 +4833,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>87</v>
       </c>
@@ -4614,7 +4856,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>88</v>
       </c>
@@ -4637,7 +4879,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>89</v>
       </c>
@@ -4660,7 +4902,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>91</v>
       </c>
@@ -4683,7 +4925,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>93</v>
       </c>
@@ -4706,7 +4948,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>95</v>
       </c>
@@ -4729,7 +4971,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>96</v>
       </c>
@@ -4752,7 +4994,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>97</v>
       </c>
@@ -4775,7 +5017,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>98</v>
       </c>
@@ -4798,7 +5040,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>99</v>
       </c>
@@ -4821,7 +5063,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>100</v>
       </c>
@@ -4844,7 +5086,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>101</v>
       </c>
@@ -4867,7 +5109,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>103</v>
       </c>
@@ -4894,7 +5136,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>104</v>
       </c>
@@ -4917,7 +5159,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>105</v>
       </c>
@@ -4940,7 +5182,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>106</v>
       </c>
@@ -4963,7 +5205,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>107</v>
       </c>
@@ -4986,7 +5228,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>108</v>
       </c>
@@ -5009,7 +5251,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>109</v>
       </c>
@@ -5032,7 +5274,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>110</v>
       </c>
@@ -5055,7 +5297,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>111</v>
       </c>
@@ -5078,7 +5320,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>112</v>
       </c>
@@ -5101,7 +5343,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>113</v>
       </c>
@@ -5124,7 +5366,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>114</v>
       </c>
@@ -5147,7 +5389,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>115</v>
       </c>
@@ -5170,7 +5412,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>116</v>
       </c>
@@ -5193,7 +5435,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>117</v>
       </c>
@@ -5216,7 +5458,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>118</v>
       </c>
@@ -5239,7 +5481,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>119</v>
       </c>
@@ -5262,7 +5504,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>120</v>
       </c>
@@ -5285,7 +5527,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>121</v>
       </c>
@@ -5308,7 +5550,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>122</v>
       </c>
@@ -5331,7 +5573,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>123</v>
       </c>
@@ -5354,7 +5596,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>124</v>
       </c>
@@ -5377,7 +5619,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>125</v>
       </c>
@@ -5400,7 +5642,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>126</v>
       </c>
@@ -5423,7 +5665,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>127</v>
       </c>
@@ -5446,7 +5688,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>128</v>
       </c>
@@ -5469,7 +5711,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>129</v>
       </c>
@@ -5492,7 +5734,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>130</v>
       </c>
@@ -5515,7 +5757,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>131</v>
       </c>
@@ -5538,7 +5780,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>132</v>
       </c>
@@ -5561,7 +5803,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>133</v>
       </c>
@@ -5584,7 +5826,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>134</v>
       </c>
@@ -5607,7 +5849,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>135</v>
       </c>
@@ -5630,7 +5872,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>136</v>
       </c>
@@ -5653,7 +5895,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>137</v>
       </c>
@@ -5676,7 +5918,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>138</v>
       </c>
@@ -5699,7 +5941,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>139</v>
       </c>
@@ -5722,7 +5964,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>140</v>
       </c>
@@ -5745,7 +5987,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>141</v>
       </c>
@@ -5768,7 +6010,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>142</v>
       </c>
@@ -5791,7 +6033,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>143</v>
       </c>
@@ -5814,7 +6056,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>144</v>
       </c>
@@ -5837,7 +6079,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>145</v>
       </c>
@@ -5860,7 +6102,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>146</v>
       </c>
@@ -5883,7 +6125,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>147</v>
       </c>
@@ -5906,7 +6148,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>148</v>
       </c>
@@ -5929,7 +6171,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>149</v>
       </c>
@@ -5952,7 +6194,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>150</v>
       </c>
@@ -5975,7 +6217,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>151</v>
       </c>
@@ -5998,7 +6240,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>152</v>
       </c>
@@ -6021,7 +6263,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>153</v>
       </c>
@@ -6044,7 +6286,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>154</v>
       </c>
@@ -6067,7 +6309,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>155</v>
       </c>
@@ -6090,7 +6332,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>156</v>
       </c>
@@ -6113,7 +6355,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>157</v>
       </c>
@@ -6136,7 +6378,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>158</v>
       </c>
@@ -6159,7 +6401,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>159</v>
       </c>
@@ -6182,7 +6424,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>160</v>
       </c>
@@ -6205,7 +6447,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>161</v>
       </c>
@@ -6228,7 +6470,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>162</v>
       </c>
@@ -6251,7 +6493,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>163</v>
       </c>
@@ -6274,7 +6516,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>164</v>
       </c>
@@ -6297,7 +6539,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>165</v>
       </c>
@@ -6320,7 +6562,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>166</v>
       </c>
@@ -6343,7 +6585,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>167</v>
       </c>
@@ -6366,7 +6608,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>168</v>
       </c>
@@ -6389,7 +6631,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>169</v>
       </c>
@@ -6412,7 +6654,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>170</v>
       </c>
@@ -6435,7 +6677,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>171</v>
       </c>
@@ -6458,7 +6700,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>172</v>
       </c>
@@ -6481,7 +6723,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>173</v>
       </c>
@@ -6504,7 +6746,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>175</v>
       </c>
@@ -6527,7 +6769,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>176</v>
       </c>
@@ -6550,7 +6792,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>239</v>
       </c>
@@ -6573,7 +6815,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>178</v>
       </c>
@@ -6596,7 +6838,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>179</v>
       </c>
@@ -6619,7 +6861,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>180</v>
       </c>
@@ -6642,7 +6884,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>181</v>
       </c>
@@ -6665,7 +6907,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>182</v>
       </c>
@@ -6688,7 +6930,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>183</v>
       </c>
@@ -6711,7 +6953,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>184</v>
       </c>
@@ -6734,7 +6976,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>186</v>
       </c>
@@ -6757,7 +6999,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>187</v>
       </c>
@@ -6780,7 +7022,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>188</v>
       </c>
@@ -6803,7 +7045,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>189</v>
       </c>
@@ -6826,7 +7068,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>190</v>
       </c>
@@ -6849,7 +7091,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>191</v>
       </c>
@@ -6872,7 +7114,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>192</v>
       </c>
@@ -6895,7 +7137,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>193</v>
       </c>
@@ -6918,7 +7160,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>194</v>
       </c>
@@ -6941,7 +7183,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>195</v>
       </c>
@@ -6964,7 +7206,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>196</v>
       </c>
@@ -6987,7 +7229,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>197</v>
       </c>
@@ -7010,7 +7252,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>199</v>
       </c>
@@ -7033,7 +7275,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>200</v>
       </c>
@@ -7056,7 +7298,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>201</v>
       </c>
@@ -7079,7 +7321,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>202</v>
       </c>
@@ -7102,7 +7344,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>203</v>
       </c>
@@ -7125,7 +7367,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>204</v>
       </c>
@@ -7148,7 +7390,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>205</v>
       </c>
@@ -7171,7 +7413,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>206</v>
       </c>
@@ -7194,7 +7436,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>207</v>
       </c>
@@ -7217,7 +7459,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>208</v>
       </c>
@@ -7240,7 +7482,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>209</v>
       </c>
@@ -7263,7 +7505,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>210</v>
       </c>
@@ -7286,7 +7528,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>211</v>
       </c>
@@ -7309,7 +7551,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>212</v>
       </c>
@@ -7332,7 +7574,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>213</v>
       </c>
@@ -7358,7 +7600,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>214</v>
       </c>
@@ -7384,7 +7626,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>215</v>
       </c>
@@ -7410,7 +7652,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>216</v>
       </c>
@@ -7436,7 +7678,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>217</v>
       </c>
@@ -7459,7 +7701,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>218</v>
       </c>
@@ -7482,7 +7724,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>219</v>
       </c>
@@ -7505,7 +7747,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>221</v>
       </c>
@@ -7528,7 +7770,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>222</v>
       </c>
@@ -7551,7 +7793,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>223</v>
       </c>
@@ -7574,7 +7816,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>224</v>
       </c>
@@ -7597,7 +7839,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>225</v>
       </c>
@@ -7620,7 +7862,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>226</v>
       </c>
@@ -7643,7 +7885,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>227</v>
       </c>
@@ -7666,7 +7908,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>228</v>
       </c>
@@ -7689,7 +7931,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>229</v>
       </c>
@@ -7712,7 +7954,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>230</v>
       </c>
@@ -7735,7 +7977,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>231</v>
       </c>
@@ -7758,7 +8000,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>232</v>
       </c>
@@ -7781,7 +8023,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>233</v>
       </c>
@@ -7804,7 +8046,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>234</v>
       </c>
@@ -7827,7 +8069,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>235</v>
       </c>
@@ -7850,7 +8092,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>236</v>
       </c>
@@ -7873,7 +8115,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>237</v>
       </c>
@@ -7896,7 +8138,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>238</v>
       </c>
@@ -7919,7 +8161,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>94</v>
       </c>
@@ -7942,8 +8184,619 @@
         <v>126</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D229" s="1"/>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>250</v>
+      </c>
+      <c r="B228" t="s">
+        <v>595</v>
+      </c>
+      <c r="C228" t="s">
+        <v>596</v>
+      </c>
+      <c r="D228">
+        <v>7800</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228" t="s">
+        <v>597</v>
+      </c>
+      <c r="G228" t="s">
+        <v>598</v>
+      </c>
+      <c r="H228" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>251</v>
+      </c>
+      <c r="B229" t="s">
+        <v>595</v>
+      </c>
+      <c r="C229" t="s">
+        <v>599</v>
+      </c>
+      <c r="D229" s="1">
+        <v>14800</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229" t="s">
+        <v>600</v>
+      </c>
+      <c r="G229" t="s">
+        <v>601</v>
+      </c>
+      <c r="H229" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>252</v>
+      </c>
+      <c r="B230" t="s">
+        <v>595</v>
+      </c>
+      <c r="C230" t="s">
+        <v>602</v>
+      </c>
+      <c r="D230">
+        <v>580</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230" t="s">
+        <v>603</v>
+      </c>
+      <c r="G230" t="s">
+        <v>604</v>
+      </c>
+      <c r="H230" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>253</v>
+      </c>
+      <c r="B231" t="s">
+        <v>595</v>
+      </c>
+      <c r="C231" t="s">
+        <v>605</v>
+      </c>
+      <c r="D231">
+        <v>3800</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231" t="s">
+        <v>606</v>
+      </c>
+      <c r="G231" t="s">
+        <v>607</v>
+      </c>
+      <c r="H231" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>254</v>
+      </c>
+      <c r="B232" t="s">
+        <v>595</v>
+      </c>
+      <c r="C232" t="s">
+        <v>608</v>
+      </c>
+      <c r="D232">
+        <v>29800</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232" t="s">
+        <v>609</v>
+      </c>
+      <c r="G232" t="s">
+        <v>610</v>
+      </c>
+      <c r="H232" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>255</v>
+      </c>
+      <c r="B233" t="s">
+        <v>595</v>
+      </c>
+      <c r="C233" t="s">
+        <v>611</v>
+      </c>
+      <c r="D233">
+        <v>6800</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233" t="s">
+        <v>612</v>
+      </c>
+      <c r="G233" t="s">
+        <v>613</v>
+      </c>
+      <c r="H233" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>256</v>
+      </c>
+      <c r="B234" t="s">
+        <v>595</v>
+      </c>
+      <c r="C234" t="s">
+        <v>614</v>
+      </c>
+      <c r="D234">
+        <v>599</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
+      </c>
+      <c r="F234" t="s">
+        <v>615</v>
+      </c>
+      <c r="G234" t="s">
+        <v>616</v>
+      </c>
+      <c r="H234" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>257</v>
+      </c>
+      <c r="B235" t="s">
+        <v>595</v>
+      </c>
+      <c r="C235" t="s">
+        <v>617</v>
+      </c>
+      <c r="D235">
+        <v>799</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235" t="s">
+        <v>618</v>
+      </c>
+      <c r="G235" t="s">
+        <v>619</v>
+      </c>
+      <c r="H235" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>258</v>
+      </c>
+      <c r="B236" t="s">
+        <v>595</v>
+      </c>
+      <c r="C236" t="s">
+        <v>620</v>
+      </c>
+      <c r="D236">
+        <v>1700</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236" t="s">
+        <v>621</v>
+      </c>
+      <c r="G236" t="s">
+        <v>622</v>
+      </c>
+      <c r="H236" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>259</v>
+      </c>
+      <c r="B237" t="s">
+        <v>595</v>
+      </c>
+      <c r="C237" t="s">
+        <v>623</v>
+      </c>
+      <c r="D237">
+        <v>6800</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237" t="s">
+        <v>624</v>
+      </c>
+      <c r="G237" t="s">
+        <v>625</v>
+      </c>
+      <c r="H237" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>260</v>
+      </c>
+      <c r="B238" t="s">
+        <v>595</v>
+      </c>
+      <c r="C238" t="s">
+        <v>626</v>
+      </c>
+      <c r="D238">
+        <v>1990</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238" t="s">
+        <v>627</v>
+      </c>
+      <c r="G238" t="s">
+        <v>628</v>
+      </c>
+      <c r="H238" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>261</v>
+      </c>
+      <c r="B239" t="s">
+        <v>595</v>
+      </c>
+      <c r="C239" t="s">
+        <v>629</v>
+      </c>
+      <c r="D239">
+        <v>2999</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239" t="s">
+        <v>630</v>
+      </c>
+      <c r="G239" t="s">
+        <v>631</v>
+      </c>
+      <c r="H239" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>262</v>
+      </c>
+      <c r="B240" t="s">
+        <v>632</v>
+      </c>
+      <c r="C240" t="s">
+        <v>599</v>
+      </c>
+      <c r="D240">
+        <v>1400</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240" t="s">
+        <v>633</v>
+      </c>
+      <c r="G240" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>263</v>
+      </c>
+      <c r="B241" t="s">
+        <v>632</v>
+      </c>
+      <c r="C241" t="s">
+        <v>635</v>
+      </c>
+      <c r="D241">
+        <v>999</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241" t="s">
+        <v>636</v>
+      </c>
+      <c r="G241" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>264</v>
+      </c>
+      <c r="B242" t="s">
+        <v>632</v>
+      </c>
+      <c r="C242" t="s">
+        <v>638</v>
+      </c>
+      <c r="D242">
+        <v>1500</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242" t="s">
+        <v>639</v>
+      </c>
+      <c r="G242" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>265</v>
+      </c>
+      <c r="B243" t="s">
+        <v>632</v>
+      </c>
+      <c r="C243" t="s">
+        <v>641</v>
+      </c>
+      <c r="D243">
+        <v>1299</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243" t="s">
+        <v>642</v>
+      </c>
+      <c r="G243" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>266</v>
+      </c>
+      <c r="B244" t="s">
+        <v>632</v>
+      </c>
+      <c r="C244" t="s">
+        <v>644</v>
+      </c>
+      <c r="D244">
+        <v>799</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244" t="s">
+        <v>645</v>
+      </c>
+      <c r="G244" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>267</v>
+      </c>
+      <c r="B245" t="s">
+        <v>27</v>
+      </c>
+      <c r="C245" t="s">
+        <v>647</v>
+      </c>
+      <c r="D245">
+        <v>799</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245" t="s">
+        <v>648</v>
+      </c>
+      <c r="G245" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>268</v>
+      </c>
+      <c r="B246" t="s">
+        <v>37</v>
+      </c>
+      <c r="C246" t="s">
+        <v>650</v>
+      </c>
+      <c r="D246">
+        <v>450</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246" t="s">
+        <v>651</v>
+      </c>
+      <c r="G246" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>269</v>
+      </c>
+      <c r="B247" t="s">
+        <v>580</v>
+      </c>
+      <c r="C247" t="s">
+        <v>653</v>
+      </c>
+      <c r="D247">
+        <v>699</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247" t="s">
+        <v>671</v>
+      </c>
+      <c r="G247" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>270</v>
+      </c>
+      <c r="B248" t="s">
+        <v>580</v>
+      </c>
+      <c r="C248" t="s">
+        <v>655</v>
+      </c>
+      <c r="D248">
+        <v>1090</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248" t="s">
+        <v>656</v>
+      </c>
+      <c r="G248" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>271</v>
+      </c>
+      <c r="B249" t="s">
+        <v>580</v>
+      </c>
+      <c r="C249" t="s">
+        <v>658</v>
+      </c>
+      <c r="D249">
+        <v>999</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249" t="s">
+        <v>659</v>
+      </c>
+      <c r="G249" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>272</v>
+      </c>
+      <c r="B250" t="s">
+        <v>595</v>
+      </c>
+      <c r="C250" t="s">
+        <v>661</v>
+      </c>
+      <c r="D250">
+        <v>499</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250" t="s">
+        <v>662</v>
+      </c>
+      <c r="G250" t="s">
+        <v>663</v>
+      </c>
+      <c r="H250" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>273</v>
+      </c>
+      <c r="B251" t="s">
+        <v>62</v>
+      </c>
+      <c r="C251" t="s">
+        <v>664</v>
+      </c>
+      <c r="D251">
+        <v>1100</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251" t="s">
+        <v>665</v>
+      </c>
+      <c r="G251" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>274</v>
+      </c>
+      <c r="B252" t="s">
+        <v>581</v>
+      </c>
+      <c r="C252" t="s">
+        <v>667</v>
+      </c>
+      <c r="D252">
+        <v>1999</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252" t="s">
+        <v>668</v>
+      </c>
+      <c r="G252" t="s">
+        <v>669</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A206:G208">
@@ -7959,16 +8812,16 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>177</v>
       </c>
@@ -7991,7 +8844,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>177</v>
       </c>
@@ -8014,7 +8867,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>174</v>
       </c>
@@ -8037,7 +8890,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>62</v>
       </c>
@@ -8060,7 +8913,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>48</v>
       </c>
@@ -8083,7 +8936,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>55</v>
       </c>
@@ -8106,7 +8959,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>64</v>
       </c>
@@ -8129,7 +8982,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>220</v>
       </c>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Cintamani\Website 2017\react-cintamani\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4B711F05-0365-4EE8-9F3A-74A6354B5C5B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DDC2E70F-6033-411C-B9C2-63569329B068}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2076" yWindow="696" windowWidth="23040" windowHeight="9636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2930,16 +2930,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K252"/>
+  <dimension ref="A1:K254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E254" sqref="E254"/>
+    <sheetView tabSelected="1" topLeftCell="A237" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D254" sqref="D254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="38.109375" customWidth="1"/>
     <col min="3" max="3" width="48.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.88671875" customWidth="1"/>
     <col min="7" max="7" width="6.33203125" customWidth="1"/>
   </cols>
@@ -8194,7 +8195,7 @@
       <c r="C228" t="s">
         <v>596</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="1">
         <v>7800</v>
       </c>
       <c r="E228">
@@ -8246,7 +8247,7 @@
       <c r="C230" t="s">
         <v>602</v>
       </c>
-      <c r="D230">
+      <c r="D230" s="1">
         <v>580</v>
       </c>
       <c r="E230">
@@ -8272,7 +8273,7 @@
       <c r="C231" t="s">
         <v>605</v>
       </c>
-      <c r="D231">
+      <c r="D231" s="1">
         <v>3800</v>
       </c>
       <c r="E231">
@@ -8298,7 +8299,7 @@
       <c r="C232" t="s">
         <v>608</v>
       </c>
-      <c r="D232">
+      <c r="D232" s="1">
         <v>29800</v>
       </c>
       <c r="E232">
@@ -8324,7 +8325,7 @@
       <c r="C233" t="s">
         <v>611</v>
       </c>
-      <c r="D233">
+      <c r="D233" s="1">
         <v>6800</v>
       </c>
       <c r="E233">
@@ -8350,7 +8351,7 @@
       <c r="C234" t="s">
         <v>614</v>
       </c>
-      <c r="D234">
+      <c r="D234" s="1">
         <v>599</v>
       </c>
       <c r="E234">
@@ -8376,7 +8377,7 @@
       <c r="C235" t="s">
         <v>617</v>
       </c>
-      <c r="D235">
+      <c r="D235" s="1">
         <v>799</v>
       </c>
       <c r="E235">
@@ -8402,7 +8403,7 @@
       <c r="C236" t="s">
         <v>620</v>
       </c>
-      <c r="D236">
+      <c r="D236" s="1">
         <v>1700</v>
       </c>
       <c r="E236">
@@ -8428,7 +8429,7 @@
       <c r="C237" t="s">
         <v>623</v>
       </c>
-      <c r="D237">
+      <c r="D237" s="1">
         <v>6800</v>
       </c>
       <c r="E237">
@@ -8454,7 +8455,7 @@
       <c r="C238" t="s">
         <v>626</v>
       </c>
-      <c r="D238">
+      <c r="D238" s="1">
         <v>1990</v>
       </c>
       <c r="E238">
@@ -8480,7 +8481,7 @@
       <c r="C239" t="s">
         <v>629</v>
       </c>
-      <c r="D239">
+      <c r="D239" s="1">
         <v>2999</v>
       </c>
       <c r="E239">
@@ -8506,7 +8507,7 @@
       <c r="C240" t="s">
         <v>599</v>
       </c>
-      <c r="D240">
+      <c r="D240" s="1">
         <v>1400</v>
       </c>
       <c r="E240">
@@ -8529,7 +8530,7 @@
       <c r="C241" t="s">
         <v>635</v>
       </c>
-      <c r="D241">
+      <c r="D241" s="1">
         <v>999</v>
       </c>
       <c r="E241">
@@ -8552,7 +8553,7 @@
       <c r="C242" t="s">
         <v>638</v>
       </c>
-      <c r="D242">
+      <c r="D242" s="1">
         <v>1500</v>
       </c>
       <c r="E242">
@@ -8575,7 +8576,7 @@
       <c r="C243" t="s">
         <v>641</v>
       </c>
-      <c r="D243">
+      <c r="D243" s="1">
         <v>1299</v>
       </c>
       <c r="E243">
@@ -8598,7 +8599,7 @@
       <c r="C244" t="s">
         <v>644</v>
       </c>
-      <c r="D244">
+      <c r="D244" s="1">
         <v>799</v>
       </c>
       <c r="E244">
@@ -8621,7 +8622,7 @@
       <c r="C245" t="s">
         <v>647</v>
       </c>
-      <c r="D245">
+      <c r="D245" s="1">
         <v>799</v>
       </c>
       <c r="E245">
@@ -8644,7 +8645,7 @@
       <c r="C246" t="s">
         <v>650</v>
       </c>
-      <c r="D246">
+      <c r="D246" s="1">
         <v>450</v>
       </c>
       <c r="E246">
@@ -8667,7 +8668,7 @@
       <c r="C247" t="s">
         <v>653</v>
       </c>
-      <c r="D247">
+      <c r="D247" s="1">
         <v>699</v>
       </c>
       <c r="E247">
@@ -8690,7 +8691,7 @@
       <c r="C248" t="s">
         <v>655</v>
       </c>
-      <c r="D248">
+      <c r="D248" s="1">
         <v>1090</v>
       </c>
       <c r="E248">
@@ -8713,7 +8714,7 @@
       <c r="C249" t="s">
         <v>658</v>
       </c>
-      <c r="D249">
+      <c r="D249" s="1">
         <v>999</v>
       </c>
       <c r="E249">
@@ -8736,7 +8737,7 @@
       <c r="C250" t="s">
         <v>661</v>
       </c>
-      <c r="D250">
+      <c r="D250" s="1">
         <v>499</v>
       </c>
       <c r="E250">
@@ -8762,7 +8763,7 @@
       <c r="C251" t="s">
         <v>664</v>
       </c>
-      <c r="D251">
+      <c r="D251" s="1">
         <v>1100</v>
       </c>
       <c r="E251">
@@ -8785,7 +8786,7 @@
       <c r="C252" t="s">
         <v>667</v>
       </c>
-      <c r="D252">
+      <c r="D252" s="1">
         <v>1999</v>
       </c>
       <c r="E252">
@@ -8797,6 +8798,9 @@
       <c r="G252" t="s">
         <v>669</v>
       </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D254" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A206:G208">

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Cintamani\Website 2017\react-cintamani\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DDC2E70F-6033-411C-B9C2-63569329B068}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A4430B-13A1-4C59-8E49-E6DF199C3D6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2076" yWindow="696" windowWidth="23040" windowHeight="9636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2211,7 +2211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2403,6 +2403,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2564,7 +2570,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -2575,6 +2581,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2932,8 +2939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D254" sqref="D254"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3143,7 +3150,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="1">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3258,7 +3265,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="1">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3304,7 +3311,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="1">
-        <v>649</v>
+        <v>699</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3327,7 +3334,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>699</v>
+        <v>799</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3350,7 +3357,7 @@
         <v>23</v>
       </c>
       <c r="D18" s="1">
-        <v>699</v>
+        <v>799</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3373,7 +3380,7 @@
         <v>24</v>
       </c>
       <c r="D19" s="1">
-        <v>899</v>
+        <v>1199</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3465,7 +3472,7 @@
         <v>28</v>
       </c>
       <c r="D23" s="1">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -3534,7 +3541,7 @@
         <v>29</v>
       </c>
       <c r="D26" s="1">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3672,7 +3679,7 @@
         <v>45</v>
       </c>
       <c r="D32" s="1">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3695,7 +3702,7 @@
         <v>46</v>
       </c>
       <c r="D33" s="1">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3718,7 +3725,7 @@
         <v>47</v>
       </c>
       <c r="D34" s="1">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3741,7 +3748,7 @@
         <v>44</v>
       </c>
       <c r="D35" s="1">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3868,29 +3875,6 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="1">
-        <v>59.9</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41" t="s">
-        <v>397</v>
-      </c>
-      <c r="G41" t="s">
-        <v>56</v>
-      </c>
-    </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
@@ -4201,7 +4185,7 @@
         <v>82</v>
       </c>
       <c r="D55" s="1">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -4224,7 +4208,7 @@
         <v>84</v>
       </c>
       <c r="D56" s="1">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -4316,7 +4300,7 @@
         <v>81</v>
       </c>
       <c r="D60" s="1">
-        <v>449</v>
+        <v>599</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4326,29 +4310,6 @@
       </c>
       <c r="G60" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>240</v>
-      </c>
-      <c r="B61" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" t="s">
-        <v>588</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61" t="s">
-        <v>589</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -7034,7 +6995,7 @@
         <v>255</v>
       </c>
       <c r="D178" s="1">
-        <v>799</v>
+        <v>899</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -7044,29 +7005,6 @@
       </c>
       <c r="G178" s="5" t="s">
         <v>248</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179">
-        <v>189</v>
-      </c>
-      <c r="B179" t="s">
-        <v>578</v>
-      </c>
-      <c r="C179" t="s">
-        <v>254</v>
-      </c>
-      <c r="D179" s="1">
-        <v>999</v>
-      </c>
-      <c r="E179">
-        <v>1</v>
-      </c>
-      <c r="F179" t="s">
-        <v>516</v>
-      </c>
-      <c r="G179" s="5" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
@@ -7080,7 +7018,7 @@
         <v>249</v>
       </c>
       <c r="D180" s="1">
-        <v>1299</v>
+        <v>1799</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -7103,7 +7041,7 @@
         <v>256</v>
       </c>
       <c r="D181" s="1">
-        <v>1399</v>
+        <v>1599</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -7322,29 +7260,6 @@
         <v>272</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A191">
-        <v>202</v>
-      </c>
-      <c r="B191" t="s">
-        <v>579</v>
-      </c>
-      <c r="C191" t="s">
-        <v>275</v>
-      </c>
-      <c r="D191" s="1">
-        <v>999</v>
-      </c>
-      <c r="E191">
-        <v>1</v>
-      </c>
-      <c r="F191" t="s">
-        <v>592</v>
-      </c>
-      <c r="G191" t="s">
-        <v>274</v>
-      </c>
-    </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>203</v>
@@ -8162,55 +8077,6 @@
         <v>333</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A227">
-        <v>94</v>
-      </c>
-      <c r="B227" t="s">
-        <v>580</v>
-      </c>
-      <c r="C227" t="s">
-        <v>127</v>
-      </c>
-      <c r="D227" s="1">
-        <v>999</v>
-      </c>
-      <c r="E227">
-        <v>1</v>
-      </c>
-      <c r="F227" t="s">
-        <v>569</v>
-      </c>
-      <c r="G227" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A228">
-        <v>250</v>
-      </c>
-      <c r="B228" t="s">
-        <v>595</v>
-      </c>
-      <c r="C228" t="s">
-        <v>596</v>
-      </c>
-      <c r="D228" s="1">
-        <v>7800</v>
-      </c>
-      <c r="E228">
-        <v>1</v>
-      </c>
-      <c r="F228" t="s">
-        <v>597</v>
-      </c>
-      <c r="G228" t="s">
-        <v>598</v>
-      </c>
-      <c r="H228" t="s">
-        <v>670</v>
-      </c>
-    </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>251</v>
@@ -8289,32 +8155,6 @@
         <v>670</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A232">
-        <v>254</v>
-      </c>
-      <c r="B232" t="s">
-        <v>595</v>
-      </c>
-      <c r="C232" t="s">
-        <v>608</v>
-      </c>
-      <c r="D232" s="1">
-        <v>29800</v>
-      </c>
-      <c r="E232">
-        <v>1</v>
-      </c>
-      <c r="F232" t="s">
-        <v>609</v>
-      </c>
-      <c r="G232" t="s">
-        <v>610</v>
-      </c>
-      <c r="H232" t="s">
-        <v>670</v>
-      </c>
-    </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>255</v>
@@ -8419,32 +8259,6 @@
         <v>670</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A237">
-        <v>259</v>
-      </c>
-      <c r="B237" t="s">
-        <v>595</v>
-      </c>
-      <c r="C237" t="s">
-        <v>623</v>
-      </c>
-      <c r="D237" s="1">
-        <v>6800</v>
-      </c>
-      <c r="E237">
-        <v>1</v>
-      </c>
-      <c r="F237" t="s">
-        <v>624</v>
-      </c>
-      <c r="G237" t="s">
-        <v>625</v>
-      </c>
-      <c r="H237" t="s">
-        <v>670</v>
-      </c>
-    </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>260</v>
@@ -8623,7 +8437,7 @@
         <v>647</v>
       </c>
       <c r="D245" s="1">
-        <v>799</v>
+        <v>849</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -8681,29 +8495,6 @@
         <v>654</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A248">
-        <v>270</v>
-      </c>
-      <c r="B248" t="s">
-        <v>580</v>
-      </c>
-      <c r="C248" t="s">
-        <v>655</v>
-      </c>
-      <c r="D248" s="1">
-        <v>1090</v>
-      </c>
-      <c r="E248">
-        <v>1</v>
-      </c>
-      <c r="F248" t="s">
-        <v>656</v>
-      </c>
-      <c r="G248" t="s">
-        <v>657</v>
-      </c>
-    </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>271</v>
@@ -8738,7 +8529,7 @@
         <v>661</v>
       </c>
       <c r="D250" s="1">
-        <v>499</v>
+        <v>599</v>
       </c>
       <c r="E250">
         <v>1</v>
@@ -8813,10 +8604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8825,7 +8616,7 @@
     <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>177</v>
       </c>
@@ -8848,7 +8639,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>177</v>
       </c>
@@ -8871,7 +8662,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>174</v>
       </c>
@@ -8894,7 +8685,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>62</v>
       </c>
@@ -8917,7 +8708,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>48</v>
       </c>
@@ -8940,7 +8731,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>55</v>
       </c>
@@ -8963,7 +8754,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>64</v>
       </c>
@@ -8986,7 +8777,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>220</v>
       </c>
@@ -9007,6 +8798,222 @@
       </c>
       <c r="G8" t="s">
         <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>259</v>
+      </c>
+      <c r="B9" t="s">
+        <v>595</v>
+      </c>
+      <c r="C9" t="s">
+        <v>623</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9800</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>624</v>
+      </c>
+      <c r="G9" t="s">
+        <v>625</v>
+      </c>
+      <c r="H9" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1299</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>569</v>
+      </c>
+      <c r="G10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>202</v>
+      </c>
+      <c r="B11" t="s">
+        <v>579</v>
+      </c>
+      <c r="C11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1299</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>592</v>
+      </c>
+      <c r="G11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>189</v>
+      </c>
+      <c r="B12" t="s">
+        <v>578</v>
+      </c>
+      <c r="C12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1299</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>516</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1">
+        <v>59.9</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>397</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>250</v>
+      </c>
+      <c r="B14" t="s">
+        <v>595</v>
+      </c>
+      <c r="C14" t="s">
+        <v>596</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7800</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>597</v>
+      </c>
+      <c r="G14" t="s">
+        <v>598</v>
+      </c>
+      <c r="H14" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>254</v>
+      </c>
+      <c r="B15" t="s">
+        <v>595</v>
+      </c>
+      <c r="C15" t="s">
+        <v>608</v>
+      </c>
+      <c r="D15" s="1">
+        <v>29800</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>609</v>
+      </c>
+      <c r="G15" t="s">
+        <v>610</v>
+      </c>
+      <c r="H15" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>270</v>
+      </c>
+      <c r="B16" t="s">
+        <v>580</v>
+      </c>
+      <c r="C16" t="s">
+        <v>655</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1090</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>656</v>
+      </c>
+      <c r="G16" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>240</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>588</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>589</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>587</v>
       </c>
     </row>
   </sheetData>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Cintamani\Website 2017\react-cintamani\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A4430B-13A1-4C59-8E49-E6DF199C3D6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8D4C85-87BB-4403-B269-FBAE5646EAA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2076" yWindow="696" windowWidth="23040" windowHeight="9636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="672">
   <si>
     <t>Name</t>
   </si>
@@ -2937,10 +2937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K254"/>
+  <dimension ref="A1:K245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A240" sqref="A240:XFD240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3875,245 +3875,266 @@
         <v>49</v>
       </c>
     </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="1">
+        <v>399</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>398</v>
+      </c>
+      <c r="G41" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
         <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D42" s="1">
+        <v>499</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
         <v>399</v>
       </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s">
-        <v>398</v>
-      </c>
       <c r="G42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D43" s="1">
-        <v>499</v>
+        <v>19.5</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G43" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
         <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D44" s="1">
-        <v>19.5</v>
+        <v>39.9</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
         <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D45" s="1">
-        <v>39.9</v>
+        <v>299</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D46" s="1">
-        <v>299</v>
+        <v>49</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G46" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>49</v>
+        <v>241</v>
       </c>
       <c r="B47" t="s">
         <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>585</v>
       </c>
       <c r="D47" s="1">
-        <v>49</v>
+        <v>250</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>404</v>
-      </c>
-      <c r="G47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>241</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
         <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>585</v>
+        <v>70</v>
       </c>
       <c r="D48" s="1">
-        <v>250</v>
+        <v>59</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>586</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>587</v>
+        <v>405</v>
+      </c>
+      <c r="G48" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D49" s="1">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
         <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D50" s="1">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G50" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>52</v>
-      </c>
-      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C51" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="1">
-        <v>99</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51" t="s">
-        <v>407</v>
-      </c>
-      <c r="G51" t="s">
-        <v>72</v>
+      <c r="C51" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="4">
+        <v>399</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>74</v>
+        <v>336</v>
       </c>
       <c r="D52" s="4">
         <v>399</v>
@@ -4122,67 +4143,67 @@
         <v>1</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>335</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>54</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D53" s="4">
-        <v>399</v>
-      </c>
-      <c r="E53" s="3">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>75</v>
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="1">
+        <v>59</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>411</v>
+      </c>
+      <c r="G53" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s">
         <v>79</v>
       </c>
       <c r="C54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D54" s="1">
-        <v>59</v>
+        <v>229</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s">
         <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D55" s="1">
         <v>229</v>
@@ -4191,392 +4212,415 @@
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G55" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
         <v>79</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D56" s="1">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G56" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
         <v>79</v>
       </c>
       <c r="C57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D57" s="1">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
         <v>79</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>591</v>
       </c>
       <c r="D58" s="1">
-        <v>280</v>
+        <v>499</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G58" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59" t="s">
         <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>591</v>
+        <v>81</v>
       </c>
       <c r="D59" s="1">
-        <v>499</v>
+        <v>599</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G59" t="s">
-        <v>338</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C60" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D60" s="1">
-        <v>599</v>
+        <v>19.5</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="G60" t="s">
-        <v>80</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>67</v>
+      </c>
+      <c r="B61" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61" s="1">
+        <v>49</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>422</v>
+      </c>
+      <c r="G61" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
         <v>92</v>
       </c>
       <c r="C62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D62" s="1">
-        <v>19.5</v>
+        <v>59</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63" t="s">
         <v>92</v>
       </c>
       <c r="C63" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D63" s="1">
-        <v>49</v>
+        <v>250</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G63" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>353</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="D64" s="1">
-        <v>59</v>
+        <v>6.5</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>423</v>
+        <v>570</v>
       </c>
       <c r="G64" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>353</v>
       </c>
       <c r="C65" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="D65" s="1">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>424</v>
+        <v>571</v>
       </c>
       <c r="G65" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
         <v>353</v>
       </c>
       <c r="C66" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D66" s="1">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G66" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
         <v>353</v>
       </c>
       <c r="C67" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D67" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G67" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
         <v>353</v>
       </c>
       <c r="C68" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D68" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G68" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
         <v>353</v>
       </c>
       <c r="C69" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D69" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G69" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
         <v>353</v>
       </c>
       <c r="C70" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D70" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="G70" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71" t="s">
         <v>353</v>
       </c>
       <c r="C71" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D71" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G71" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
         <v>353</v>
       </c>
       <c r="C72" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D72" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G72" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
         <v>353</v>
       </c>
       <c r="C73" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D73" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4590,16 +4634,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74" t="s">
         <v>353</v>
       </c>
       <c r="C74" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D74" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4613,191 +4657,191 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>353</v>
+        <v>580</v>
       </c>
       <c r="C75" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D75" s="1">
-        <v>200</v>
+        <v>19.5</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>576</v>
+        <v>425</v>
       </c>
       <c r="G75" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>353</v>
+        <v>580</v>
       </c>
       <c r="C76" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="D76" s="1">
-        <v>300</v>
+        <v>59</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>576</v>
+        <v>426</v>
       </c>
       <c r="G76" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
         <v>580</v>
       </c>
       <c r="C77" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D77" s="1">
-        <v>19.5</v>
+        <v>69</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G77" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
         <v>580</v>
       </c>
       <c r="C78" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D78" s="1">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G78" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79" t="s">
         <v>580</v>
       </c>
       <c r="C79" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D79" s="1">
-        <v>69</v>
+        <v>199</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G79" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80" t="s">
         <v>580</v>
       </c>
       <c r="C80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D80" s="1">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
         <v>580</v>
       </c>
       <c r="C81" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D81" s="1">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G81" t="s">
-        <v>122</v>
+        <v>340</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82" t="s">
         <v>580</v>
       </c>
       <c r="C82" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D82" s="1">
-        <v>179</v>
+        <v>249</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G82" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83" t="s">
         <v>580</v>
@@ -4806,330 +4850,330 @@
         <v>118</v>
       </c>
       <c r="D83" s="1">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G83" t="s">
-        <v>340</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84" t="s">
         <v>580</v>
       </c>
       <c r="C84" t="s">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="D84" s="1">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G84" t="s">
-        <v>130</v>
+        <v>341</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85" t="s">
         <v>580</v>
       </c>
       <c r="C85" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D85" s="1">
-        <v>259</v>
+        <v>999</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G85" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C86" t="s">
-        <v>341</v>
+        <v>135</v>
       </c>
       <c r="D86" s="1">
-        <v>299</v>
+        <v>19.5</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G86" t="s">
-        <v>341</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C87" t="s">
-        <v>120</v>
+        <v>342</v>
       </c>
       <c r="D87" s="1">
-        <v>999</v>
+        <v>59</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G87" t="s">
-        <v>119</v>
+        <v>342</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B88" t="s">
         <v>581</v>
       </c>
       <c r="C88" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D88" s="1">
-        <v>19.5</v>
+        <v>69</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G88" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B89" t="s">
         <v>581</v>
       </c>
       <c r="C89" t="s">
-        <v>342</v>
+        <v>136</v>
       </c>
       <c r="D89" s="1">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G89" t="s">
-        <v>342</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B90" t="s">
         <v>581</v>
       </c>
       <c r="C90" t="s">
-        <v>134</v>
+        <v>343</v>
       </c>
       <c r="D90" s="1">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="E90">
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G90" t="s">
-        <v>134</v>
+        <v>343</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B91" t="s">
         <v>581</v>
       </c>
       <c r="C91" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D91" s="1">
-        <v>99</v>
+        <v>269</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>439</v>
-      </c>
-      <c r="G91" t="s">
-        <v>136</v>
+        <v>441</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B92" t="s">
         <v>581</v>
       </c>
       <c r="C92" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D92" s="1">
-        <v>179</v>
+        <v>399</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G92" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B93" t="s">
         <v>581</v>
       </c>
-      <c r="C93" t="s">
-        <v>133</v>
-      </c>
-      <c r="D93" s="1">
-        <v>269</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93" t="s">
-        <v>441</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>132</v>
-      </c>
+      <c r="C93" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D93" s="4">
+        <v>999</v>
+      </c>
+      <c r="E93" s="3">
+        <v>1</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B94" t="s">
         <v>581</v>
       </c>
       <c r="C94" t="s">
-        <v>344</v>
+        <v>139</v>
       </c>
       <c r="D94" s="1">
-        <v>399</v>
+        <v>1999</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>442</v>
-      </c>
-      <c r="G94" t="s">
-        <v>345</v>
+        <v>444</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B95" t="s">
-        <v>581</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D95" s="4">
-        <v>999</v>
-      </c>
-      <c r="E95" s="3">
-        <v>1</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="C95" t="s">
+        <v>159</v>
+      </c>
+      <c r="D95" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>445</v>
+      </c>
+      <c r="G95" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B96" t="s">
-        <v>581</v>
+        <v>140</v>
       </c>
       <c r="C96" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="D96" s="1">
-        <v>1999</v>
+        <v>5.9</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>444</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>138</v>
+        <v>446</v>
+      </c>
+      <c r="G96" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B97" t="s">
         <v>140</v>
       </c>
       <c r="C97" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D97" s="1">
         <v>5.9</v>
@@ -5138,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G97" t="s">
         <v>158</v>
@@ -5146,13 +5190,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B98" t="s">
         <v>140</v>
       </c>
       <c r="C98" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D98" s="1">
         <v>5.9</v>
@@ -5161,7 +5205,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G98" t="s">
         <v>158</v>
@@ -5169,13 +5213,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B99" t="s">
         <v>140</v>
       </c>
       <c r="C99" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D99" s="1">
         <v>5.9</v>
@@ -5184,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G99" t="s">
         <v>158</v>
@@ -5192,13 +5236,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B100" t="s">
         <v>140</v>
       </c>
       <c r="C100" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D100" s="1">
         <v>5.9</v>
@@ -5207,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G100" t="s">
         <v>158</v>
@@ -5215,105 +5259,105 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B101" t="s">
         <v>140</v>
       </c>
       <c r="C101" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="D101" s="1">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G101" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B102" t="s">
         <v>140</v>
       </c>
       <c r="C102" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D102" s="1">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G102" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B103" t="s">
         <v>140</v>
       </c>
       <c r="C103" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D103" s="1">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G103" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B104" t="s">
         <v>140</v>
       </c>
       <c r="C104" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D104" s="1">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G104" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B105" t="s">
         <v>140</v>
       </c>
       <c r="C105" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D105" s="1">
         <v>7.5</v>
@@ -5322,21 +5366,21 @@
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G105" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B106" t="s">
         <v>140</v>
       </c>
       <c r="C106" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D106" s="1">
         <v>7.5</v>
@@ -5345,7 +5389,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G106" t="s">
         <v>153</v>
@@ -5353,197 +5397,197 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B107" t="s">
         <v>140</v>
       </c>
       <c r="C107" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D107" s="1">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="E107">
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G107" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B108" t="s">
         <v>140</v>
       </c>
       <c r="C108" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D108" s="1">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="E108">
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G108" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B109" t="s">
         <v>140</v>
       </c>
       <c r="C109" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="D109" s="1">
-        <v>8</v>
+        <v>9.9</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="G109" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B110" t="s">
         <v>140</v>
       </c>
       <c r="C110" t="s">
-        <v>152</v>
+        <v>352</v>
       </c>
       <c r="D110" s="1">
-        <v>8.5</v>
+        <v>9.9</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G110" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B111" t="s">
         <v>140</v>
       </c>
       <c r="C111" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D111" s="1">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G111" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B112" t="s">
         <v>140</v>
       </c>
       <c r="C112" t="s">
-        <v>352</v>
+        <v>146</v>
       </c>
       <c r="D112" s="1">
-        <v>9.9</v>
+        <v>11.5</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G112" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B113" t="s">
         <v>140</v>
       </c>
       <c r="C113" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D113" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E113">
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G113" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B114" t="s">
         <v>140</v>
       </c>
       <c r="C114" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D114" s="1">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="E114">
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G114" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B115" t="s">
         <v>140</v>
       </c>
       <c r="C115" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D115" s="1">
         <v>12</v>
@@ -5552,76 +5596,76 @@
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G115" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B116" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="C116" t="s">
-        <v>150</v>
+        <v>351</v>
       </c>
       <c r="D116" s="1">
-        <v>12</v>
+        <v>9.9</v>
       </c>
       <c r="E116">
         <v>1</v>
       </c>
       <c r="F116" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G116" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B117" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="C117" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="D117" s="1">
-        <v>12</v>
+        <v>9.9</v>
       </c>
       <c r="E117">
         <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G117" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B118" t="s">
         <v>167</v>
       </c>
       <c r="C118" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
       <c r="D118" s="1">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G118" t="s">
         <v>168</v>
@@ -5629,22 +5673,22 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B119" t="s">
         <v>167</v>
       </c>
       <c r="C119" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D119" s="1">
-        <v>9.9</v>
+        <v>14</v>
       </c>
       <c r="E119">
         <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G119" t="s">
         <v>168</v>
@@ -5652,22 +5696,22 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B120" t="s">
         <v>167</v>
       </c>
       <c r="C120" t="s">
-        <v>276</v>
+        <v>173</v>
       </c>
       <c r="D120" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E120">
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G120" t="s">
         <v>168</v>
@@ -5675,22 +5719,22 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B121" t="s">
         <v>167</v>
       </c>
       <c r="C121" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D121" s="1">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="E121">
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G121" t="s">
         <v>168</v>
@@ -5698,45 +5742,45 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B122" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C122" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="D122" s="1">
-        <v>14</v>
+        <v>16.8</v>
       </c>
       <c r="E122">
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G122" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B123" t="s">
         <v>167</v>
       </c>
       <c r="C123" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D123" s="1">
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="E123">
         <v>1</v>
       </c>
       <c r="F123" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G123" t="s">
         <v>168</v>
@@ -5744,45 +5788,45 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B124" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C124" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="D124" s="1">
-        <v>16.8</v>
+        <v>19.5</v>
       </c>
       <c r="E124">
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G124" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B125" t="s">
         <v>167</v>
       </c>
       <c r="C125" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D125" s="1">
-        <v>19.5</v>
+        <v>24.5</v>
       </c>
       <c r="E125">
         <v>1</v>
       </c>
       <c r="F125" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G125" t="s">
         <v>168</v>
@@ -5790,114 +5834,114 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B126" t="s">
         <v>167</v>
       </c>
       <c r="C126" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D126" s="1">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="E126">
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="G126" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B127" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C127" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D127" s="1">
-        <v>24.5</v>
+        <v>28.2</v>
       </c>
       <c r="E127">
         <v>1</v>
       </c>
       <c r="F127" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G127" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B128" t="s">
         <v>167</v>
       </c>
       <c r="C128" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D128" s="1">
-        <v>25</v>
+        <v>29.5</v>
       </c>
       <c r="E128">
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G128" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B129" t="s">
         <v>186</v>
       </c>
       <c r="C129" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D129" s="1">
-        <v>28.2</v>
+        <v>29.9</v>
       </c>
       <c r="E129">
         <v>1</v>
       </c>
       <c r="F129" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G129" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B130" t="s">
         <v>167</v>
       </c>
       <c r="C130" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D130" s="1">
-        <v>29.5</v>
+        <v>34</v>
       </c>
       <c r="E130">
         <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G130" t="s">
         <v>168</v>
@@ -5905,174 +5949,174 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B131" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C131" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="D131" s="1">
-        <v>29.9</v>
+        <v>34.5</v>
       </c>
       <c r="E131">
         <v>1</v>
       </c>
       <c r="F131" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G131" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B132" t="s">
         <v>167</v>
       </c>
       <c r="C132" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D132" s="1">
-        <v>34</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="E132">
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G132" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B133" t="s">
         <v>167</v>
       </c>
       <c r="C133" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D133" s="1">
-        <v>34.5</v>
+        <v>89.9</v>
       </c>
       <c r="E133">
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G133" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B134" t="s">
         <v>167</v>
       </c>
       <c r="C134" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D134" s="1">
-        <v>79.900000000000006</v>
+        <v>89.9</v>
       </c>
       <c r="E134">
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G134" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B135" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="C135" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="D135" s="1">
-        <v>89.9</v>
+        <v>49.9</v>
       </c>
       <c r="E135">
         <v>1</v>
       </c>
       <c r="F135" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G135" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B136" t="s">
-        <v>167</v>
+        <v>559</v>
       </c>
       <c r="C136" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="D136" s="1">
-        <v>89.9</v>
+        <v>89</v>
       </c>
       <c r="E136">
         <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>481</v>
+        <v>560</v>
       </c>
       <c r="G136" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B137" t="s">
-        <v>204</v>
+        <v>559</v>
       </c>
       <c r="C137" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D137" s="1">
-        <v>49.9</v>
+        <v>89</v>
       </c>
       <c r="E137">
         <v>1</v>
       </c>
       <c r="F137" t="s">
-        <v>482</v>
+        <v>568</v>
       </c>
       <c r="G137" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B138" t="s">
         <v>559</v>
       </c>
       <c r="C138" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D138" s="1">
         <v>89</v>
@@ -6081,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G138" t="s">
         <v>200</v>
@@ -6089,59 +6133,59 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B139" t="s">
         <v>559</v>
       </c>
       <c r="C139" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D139" s="1">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E139">
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G139" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B140" t="s">
         <v>559</v>
       </c>
       <c r="C140" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D140" s="1">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E140">
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G140" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B141" t="s">
         <v>559</v>
       </c>
       <c r="C141" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D141" s="1">
         <v>99</v>
@@ -6150,7 +6194,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G141" t="s">
         <v>194</v>
@@ -6158,13 +6202,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B142" t="s">
         <v>559</v>
       </c>
       <c r="C142" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D142" s="1">
         <v>99</v>
@@ -6173,90 +6217,90 @@
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="G142" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B143" t="s">
         <v>559</v>
       </c>
       <c r="C143" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D143" s="1">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="E143">
         <v>1</v>
       </c>
       <c r="F143" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="G143" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B144" t="s">
-        <v>559</v>
+        <v>204</v>
       </c>
       <c r="C144" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="D144" s="1">
-        <v>99</v>
+        <v>49.9</v>
       </c>
       <c r="E144">
         <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>565</v>
+        <v>483</v>
       </c>
       <c r="G144" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B145" t="s">
-        <v>559</v>
+        <v>204</v>
       </c>
       <c r="C145" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="D145" s="1">
-        <v>179</v>
+        <v>49.9</v>
       </c>
       <c r="E145">
         <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>566</v>
+        <v>484</v>
       </c>
       <c r="G145" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B146" t="s">
         <v>204</v>
       </c>
       <c r="C146" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D146" s="1">
         <v>49.9</v>
@@ -6265,21 +6309,21 @@
         <v>1</v>
       </c>
       <c r="F146" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G146" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B147" t="s">
         <v>204</v>
       </c>
       <c r="C147" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D147" s="1">
         <v>49.9</v>
@@ -6288,21 +6332,21 @@
         <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G147" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B148" t="s">
         <v>204</v>
       </c>
       <c r="C148" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D148" s="1">
         <v>49.9</v>
@@ -6311,21 +6355,21 @@
         <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G148" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B149" t="s">
         <v>204</v>
       </c>
       <c r="C149" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D149" s="1">
         <v>49.9</v>
@@ -6334,21 +6378,21 @@
         <v>1</v>
       </c>
       <c r="F149" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G149" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B150" t="s">
         <v>204</v>
       </c>
       <c r="C150" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D150" s="1">
         <v>49.9</v>
@@ -6357,21 +6401,21 @@
         <v>1</v>
       </c>
       <c r="F150" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G150" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B151" t="s">
         <v>204</v>
       </c>
       <c r="C151" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D151" s="1">
         <v>49.9</v>
@@ -6380,21 +6424,21 @@
         <v>1</v>
       </c>
       <c r="F151" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G151" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B152" t="s">
         <v>204</v>
       </c>
       <c r="C152" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D152" s="1">
         <v>49.9</v>
@@ -6403,67 +6447,67 @@
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G152" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B153" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="C153" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D153" s="1">
-        <v>49.9</v>
+        <v>199</v>
       </c>
       <c r="E153">
         <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G153" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B154" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="C154" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D154" s="1">
-        <v>49.9</v>
+        <v>199</v>
       </c>
       <c r="E154">
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G154" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B155" t="s">
         <v>225</v>
       </c>
       <c r="C155" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D155" s="1">
         <v>199</v>
@@ -6472,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G155" t="s">
         <v>226</v>
@@ -6480,13 +6524,13 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B156" t="s">
         <v>225</v>
       </c>
       <c r="C156" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D156" s="1">
         <v>199</v>
@@ -6495,67 +6539,67 @@
         <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G156" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B157" t="s">
         <v>225</v>
       </c>
       <c r="C157" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D157" s="1">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="E157">
         <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G157" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B158" t="s">
         <v>225</v>
       </c>
       <c r="C158" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D158" s="1">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="E158">
         <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G158" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B159" t="s">
         <v>225</v>
       </c>
       <c r="C159" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D159" s="1">
         <v>249</v>
@@ -6564,90 +6608,90 @@
         <v>1</v>
       </c>
       <c r="F159" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G159" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B160" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="C160" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D160" s="1">
-        <v>249</v>
+        <v>399</v>
       </c>
       <c r="E160">
         <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G160" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>169</v>
-      </c>
-      <c r="B161" t="s">
-        <v>225</v>
-      </c>
-      <c r="C161" t="s">
-        <v>235</v>
-      </c>
-      <c r="D161" s="1">
-        <v>249</v>
-      </c>
-      <c r="E161">
-        <v>1</v>
-      </c>
-      <c r="F161" t="s">
-        <v>498</v>
-      </c>
-      <c r="G161" t="s">
-        <v>234</v>
+        <v>171</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D161" s="4">
+        <v>399</v>
+      </c>
+      <c r="E161" s="3">
+        <v>1</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>170</v>
-      </c>
-      <c r="B162" t="s">
+        <v>172</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C162" t="s">
-        <v>239</v>
-      </c>
-      <c r="D162" s="1">
+      <c r="C162" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D162" s="4">
         <v>399</v>
       </c>
-      <c r="E162">
-        <v>1</v>
-      </c>
-      <c r="F162" t="s">
-        <v>499</v>
-      </c>
-      <c r="G162" t="s">
+      <c r="E162" s="3">
+        <v>1</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="G162" s="3" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>240</v>
+        <v>348</v>
       </c>
       <c r="D163" s="4">
         <v>399</v>
@@ -6656,1022 +6700,1068 @@
         <v>1</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>238</v>
+        <v>347</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>241</v>
+        <v>349</v>
       </c>
       <c r="D164" s="4">
-        <v>399</v>
+        <v>499</v>
       </c>
       <c r="E164" s="3">
         <v>1</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D165" s="4">
-        <v>399</v>
+        <v>799</v>
       </c>
       <c r="E165" s="3">
         <v>1</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>347</v>
+        <v>247</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>349</v>
+        <v>582</v>
       </c>
       <c r="D166" s="4">
-        <v>499</v>
+        <v>400</v>
       </c>
       <c r="E166" s="3">
         <v>1</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="G166" s="3" t="s">
-        <v>246</v>
+        <v>583</v>
+      </c>
+      <c r="G166" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>176</v>
-      </c>
-      <c r="B167" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B167" t="s">
         <v>237</v>
       </c>
-      <c r="C167" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D167" s="4">
-        <v>799</v>
-      </c>
-      <c r="E167" s="3">
-        <v>1</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="G167" s="3" t="s">
-        <v>247</v>
+      <c r="C167" t="s">
+        <v>244</v>
+      </c>
+      <c r="D167" s="1">
+        <v>999</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167" t="s">
+        <v>507</v>
+      </c>
+      <c r="G167" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>239</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="D168" s="4">
-        <v>400</v>
-      </c>
-      <c r="E168" s="3">
-        <v>1</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>583</v>
+        <v>179</v>
+      </c>
+      <c r="B168" t="s">
+        <v>577</v>
+      </c>
+      <c r="C168" t="s">
+        <v>346</v>
+      </c>
+      <c r="D168" s="1">
+        <v>499</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168" t="s">
+        <v>420</v>
       </c>
       <c r="G168" t="s">
-        <v>584</v>
+        <v>346</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B169" t="s">
-        <v>237</v>
+        <v>578</v>
       </c>
       <c r="C169" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="D169" s="1">
-        <v>999</v>
+        <v>19.5</v>
       </c>
       <c r="E169">
         <v>1</v>
       </c>
       <c r="F169" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G169" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B170" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C170" t="s">
-        <v>346</v>
+        <v>252</v>
       </c>
       <c r="D170" s="1">
-        <v>499</v>
+        <v>59</v>
       </c>
       <c r="E170">
         <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>420</v>
+        <v>509</v>
       </c>
       <c r="G170" t="s">
-        <v>346</v>
+        <v>252</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B171" t="s">
         <v>578</v>
       </c>
       <c r="C171" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D171" s="1">
-        <v>19.5</v>
+        <v>69</v>
       </c>
       <c r="E171">
         <v>1</v>
       </c>
       <c r="F171" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G171" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B172" t="s">
         <v>578</v>
       </c>
       <c r="C172" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D172" s="1">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="E172">
         <v>1</v>
       </c>
       <c r="F172" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G172" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B173" t="s">
         <v>578</v>
       </c>
       <c r="C173" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D173" s="1">
-        <v>69</v>
+        <v>229</v>
       </c>
       <c r="E173">
         <v>1</v>
       </c>
       <c r="F173" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G173" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B174" t="s">
         <v>578</v>
       </c>
       <c r="C174" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D174" s="1">
-        <v>99</v>
+        <v>269</v>
       </c>
       <c r="E174">
         <v>1</v>
       </c>
       <c r="F174" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G174" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B175" t="s">
         <v>578</v>
       </c>
       <c r="C175" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D175" s="1">
-        <v>229</v>
+        <v>399</v>
       </c>
       <c r="E175">
         <v>1</v>
       </c>
       <c r="F175" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G175" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B176" t="s">
         <v>578</v>
       </c>
       <c r="C176" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D176" s="1">
-        <v>269</v>
+        <v>899</v>
       </c>
       <c r="E176">
         <v>1</v>
       </c>
       <c r="F176" t="s">
-        <v>513</v>
-      </c>
-      <c r="G176" t="s">
-        <v>258</v>
+        <v>515</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B177" t="s">
         <v>578</v>
       </c>
       <c r="C177" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D177" s="1">
-        <v>399</v>
+        <v>1799</v>
       </c>
       <c r="E177">
         <v>1</v>
       </c>
       <c r="F177" t="s">
-        <v>514</v>
-      </c>
-      <c r="G177" t="s">
-        <v>251</v>
+        <v>517</v>
+      </c>
+      <c r="G177" s="5" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B178" t="s">
         <v>578</v>
       </c>
       <c r="C178" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D178" s="1">
-        <v>899</v>
+        <v>1599</v>
       </c>
       <c r="E178">
         <v>1</v>
       </c>
       <c r="F178" t="s">
-        <v>515</v>
-      </c>
-      <c r="G178" s="5" t="s">
-        <v>248</v>
+        <v>518</v>
+      </c>
+      <c r="G178" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>192</v>
+      </c>
+      <c r="B179" t="s">
+        <v>579</v>
+      </c>
+      <c r="C179" t="s">
+        <v>268</v>
+      </c>
+      <c r="D179" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179" t="s">
+        <v>519</v>
+      </c>
+      <c r="G179" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B180" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C180" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="D180" s="1">
-        <v>1799</v>
+        <v>59</v>
       </c>
       <c r="E180">
         <v>1</v>
       </c>
       <c r="F180" t="s">
-        <v>517</v>
-      </c>
-      <c r="G180" s="5" t="s">
-        <v>248</v>
+        <v>520</v>
+      </c>
+      <c r="G180" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B181" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C181" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D181" s="1">
-        <v>1599</v>
+        <v>69</v>
       </c>
       <c r="E181">
         <v>1</v>
       </c>
       <c r="F181" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="G181" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B182" t="s">
         <v>579</v>
       </c>
       <c r="C182" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D182" s="1">
-        <v>19.5</v>
+        <v>179</v>
       </c>
       <c r="E182">
         <v>1</v>
       </c>
       <c r="F182" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="G182" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B183" t="s">
         <v>579</v>
       </c>
       <c r="C183" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D183" s="1">
-        <v>59</v>
+        <v>229</v>
       </c>
       <c r="E183">
         <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="G183" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B184" t="s">
         <v>579</v>
       </c>
       <c r="C184" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D184" s="1">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="E184">
         <v>1</v>
       </c>
       <c r="F184" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G184" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B185" t="s">
         <v>579</v>
       </c>
       <c r="C185" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D185" s="1">
-        <v>179</v>
+        <v>399</v>
       </c>
       <c r="E185">
         <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>522</v>
-      </c>
-      <c r="G185" t="s">
-        <v>264</v>
+        <v>525</v>
+      </c>
+      <c r="G185" s="5" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B186" t="s">
         <v>579</v>
       </c>
       <c r="C186" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D186" s="1">
-        <v>229</v>
+        <v>399</v>
       </c>
       <c r="E186">
         <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="G186" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B187" t="s">
         <v>579</v>
       </c>
       <c r="C187" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D187" s="1">
-        <v>269</v>
+        <v>599</v>
       </c>
       <c r="E187">
         <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>524</v>
-      </c>
-      <c r="G187" t="s">
-        <v>271</v>
+        <v>527</v>
+      </c>
+      <c r="G187" s="5" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B188" t="s">
-        <v>579</v>
+        <v>277</v>
       </c>
       <c r="C188" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="D188" s="1">
-        <v>399</v>
+        <v>5.2</v>
       </c>
       <c r="E188">
         <v>1</v>
       </c>
       <c r="F188" t="s">
-        <v>525</v>
-      </c>
-      <c r="G188" s="5" t="s">
-        <v>262</v>
+        <v>528</v>
+      </c>
+      <c r="G188" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B189" t="s">
-        <v>579</v>
+        <v>277</v>
       </c>
       <c r="C189" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="D189" s="1">
-        <v>399</v>
+        <v>7.15</v>
       </c>
       <c r="E189">
         <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G189" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B190" t="s">
-        <v>579</v>
+        <v>277</v>
       </c>
       <c r="C190" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="D190" s="1">
-        <v>599</v>
+        <v>12.95</v>
       </c>
       <c r="E190">
         <v>1</v>
       </c>
       <c r="F190" t="s">
-        <v>527</v>
-      </c>
-      <c r="G190" s="5" t="s">
-        <v>272</v>
+        <v>529</v>
+      </c>
+      <c r="G190" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>206</v>
+      </c>
+      <c r="B191" t="s">
+        <v>277</v>
+      </c>
+      <c r="C191" t="s">
+        <v>279</v>
+      </c>
+      <c r="D191" s="1">
+        <v>16.25</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191" t="s">
+        <v>528</v>
+      </c>
+      <c r="G191" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B192" t="s">
         <v>277</v>
       </c>
       <c r="C192" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D192" s="1">
-        <v>5.2</v>
+        <v>25</v>
       </c>
       <c r="E192">
         <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G192" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B193" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C193" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D193" s="1">
-        <v>7.15</v>
+        <v>100</v>
       </c>
       <c r="E193">
         <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G193" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B194" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C194" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="D194" s="1">
-        <v>12.95</v>
+        <v>3.9</v>
       </c>
       <c r="E194">
         <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="G194" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B195" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C195" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="D195" s="1">
-        <v>16.25</v>
+        <v>6.9</v>
       </c>
       <c r="E195">
         <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="G195" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B196" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C196" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D196" s="1">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E196">
         <v>1</v>
       </c>
       <c r="F196" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G196" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B197" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C197" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D197" s="1">
-        <v>100</v>
+        <v>39.9</v>
       </c>
       <c r="E197">
         <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>531</v>
-      </c>
-      <c r="G197" t="s">
-        <v>288</v>
+        <v>535</v>
+      </c>
+      <c r="G197" s="5" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B198" t="s">
-        <v>290</v>
+        <v>567</v>
       </c>
       <c r="C198" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D198" s="1">
-        <v>3.9</v>
+        <v>7</v>
       </c>
       <c r="E198">
         <v>1</v>
       </c>
       <c r="F198" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="G198" t="s">
-        <v>291</v>
+        <v>299</v>
+      </c>
+      <c r="H198" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B199" t="s">
-        <v>290</v>
+        <v>567</v>
       </c>
       <c r="C199" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D199" s="1">
-        <v>6.9</v>
+        <v>12.9</v>
       </c>
       <c r="E199">
         <v>1</v>
       </c>
       <c r="F199" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="G199" t="s">
-        <v>291</v>
+        <v>298</v>
+      </c>
+      <c r="H199" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B200" t="s">
-        <v>290</v>
+        <v>567</v>
       </c>
       <c r="C200" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D200" s="1">
-        <v>39</v>
+        <v>34.5</v>
       </c>
       <c r="E200">
         <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="G200" t="s">
-        <v>291</v>
+        <v>300</v>
+      </c>
+      <c r="H200" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B201" t="s">
-        <v>290</v>
+        <v>567</v>
       </c>
       <c r="C201" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D201" s="1">
-        <v>39.9</v>
+        <v>99</v>
       </c>
       <c r="E201">
         <v>1</v>
       </c>
       <c r="F201" t="s">
-        <v>535</v>
-      </c>
-      <c r="G201" s="5" t="s">
-        <v>295</v>
+        <v>539</v>
+      </c>
+      <c r="G201" t="s">
+        <v>297</v>
+      </c>
+      <c r="H201" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B202" t="s">
-        <v>567</v>
+        <v>301</v>
       </c>
       <c r="C202" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="D202" s="1">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E202">
         <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G202" t="s">
-        <v>299</v>
-      </c>
-      <c r="H202" t="s">
-        <v>594</v>
+        <v>339</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B203" t="s">
-        <v>567</v>
+        <v>301</v>
       </c>
       <c r="C203" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D203" s="1">
-        <v>12.9</v>
+        <v>45</v>
       </c>
       <c r="E203">
         <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="G203" t="s">
-        <v>298</v>
-      </c>
-      <c r="H203" t="s">
-        <v>594</v>
+        <v>302</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B204" t="s">
-        <v>567</v>
+        <v>301</v>
       </c>
       <c r="C204" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D204" s="1">
-        <v>34.5</v>
+        <v>100</v>
       </c>
       <c r="E204">
         <v>1</v>
       </c>
       <c r="F204" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="G204" t="s">
-        <v>300</v>
-      </c>
-      <c r="H204" t="s">
-        <v>594</v>
+        <v>303</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B205" t="s">
-        <v>567</v>
+        <v>307</v>
       </c>
       <c r="C205" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="D205" s="1">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="E205">
         <v>1</v>
       </c>
       <c r="F205" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="G205" t="s">
-        <v>297</v>
-      </c>
-      <c r="H205" t="s">
-        <v>594</v>
+        <v>308</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B206" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C206" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="D206" s="1">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E206">
         <v>1</v>
       </c>
       <c r="F206" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="G206" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B207" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C207" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="D207" s="1">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E207">
         <v>1</v>
       </c>
       <c r="F207" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="G207" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B208" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C208" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="D208" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E208">
         <v>1</v>
       </c>
       <c r="F208" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="G208" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B209" t="s">
         <v>307</v>
       </c>
       <c r="C209" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D209" s="1">
         <v>25</v>
@@ -7680,424 +7770,488 @@
         <v>1</v>
       </c>
       <c r="F209" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="G209" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B210" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C210" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D210" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E210">
         <v>1</v>
       </c>
       <c r="F210" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="G210" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B211" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C211" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D211" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E211">
         <v>1</v>
       </c>
       <c r="F211" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="G211" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B212" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C212" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D212" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E212">
         <v>1</v>
       </c>
       <c r="F212" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G212" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B213" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C213" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D213" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E213">
         <v>1</v>
       </c>
       <c r="F213" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G213" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B214" t="s">
         <v>313</v>
       </c>
       <c r="C214" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D214" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E214">
         <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G214" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B215" t="s">
         <v>313</v>
       </c>
       <c r="C215" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D215" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E215">
         <v>1</v>
       </c>
       <c r="F215" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G215" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B216" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C216" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D216" s="1">
-        <v>19</v>
+        <v>9.9</v>
       </c>
       <c r="E216">
         <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="G216" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B217" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C217" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D217" s="1">
-        <v>19</v>
+        <v>9.9</v>
       </c>
       <c r="E217">
         <v>1</v>
       </c>
       <c r="F217" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="G217" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B218" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C218" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="D218" s="1">
-        <v>6</v>
+        <v>9.9</v>
       </c>
       <c r="E218">
         <v>1</v>
       </c>
       <c r="F218" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="G218" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B219" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C219" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="D219" s="1">
-        <v>6</v>
+        <v>9.9</v>
       </c>
       <c r="E219">
         <v>1</v>
       </c>
       <c r="F219" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="G219" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B220" t="s">
         <v>322</v>
       </c>
       <c r="C220" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D220" s="1">
-        <v>9.9</v>
+        <v>12</v>
       </c>
       <c r="E220">
         <v>1</v>
       </c>
       <c r="F220" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="G220" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B221" t="s">
         <v>322</v>
       </c>
       <c r="C221" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="D221" s="1">
-        <v>9.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E221">
         <v>1</v>
       </c>
       <c r="F221" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="G221" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B222" t="s">
         <v>322</v>
       </c>
       <c r="C222" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D222" s="1">
-        <v>9.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E222">
         <v>1</v>
       </c>
       <c r="F222" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="G222" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="B223" t="s">
-        <v>322</v>
+        <v>595</v>
       </c>
       <c r="C223" t="s">
-        <v>328</v>
+        <v>599</v>
       </c>
       <c r="D223" s="1">
-        <v>9.9</v>
+        <v>14800</v>
       </c>
       <c r="E223">
         <v>1</v>
       </c>
       <c r="F223" t="s">
-        <v>555</v>
+        <v>600</v>
       </c>
       <c r="G223" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+      <c r="H223" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="B224" t="s">
-        <v>322</v>
+        <v>595</v>
       </c>
       <c r="C224" t="s">
-        <v>330</v>
+        <v>602</v>
       </c>
       <c r="D224" s="1">
-        <v>12</v>
+        <v>580</v>
       </c>
       <c r="E224">
         <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>556</v>
+        <v>603</v>
       </c>
       <c r="G224" t="s">
-        <v>329</v>
+        <v>604</v>
+      </c>
+      <c r="H224" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="B225" t="s">
-        <v>322</v>
+        <v>595</v>
       </c>
       <c r="C225" t="s">
-        <v>332</v>
+        <v>605</v>
       </c>
       <c r="D225" s="1">
-        <v>18.899999999999999</v>
+        <v>3800</v>
       </c>
       <c r="E225">
         <v>1</v>
       </c>
       <c r="F225" t="s">
-        <v>557</v>
+        <v>606</v>
       </c>
       <c r="G225" t="s">
-        <v>331</v>
+        <v>607</v>
+      </c>
+      <c r="H225" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="B226" t="s">
-        <v>322</v>
+        <v>595</v>
       </c>
       <c r="C226" t="s">
-        <v>334</v>
+        <v>611</v>
       </c>
       <c r="D226" s="1">
-        <v>18.899999999999999</v>
+        <v>6800</v>
       </c>
       <c r="E226">
         <v>1</v>
       </c>
       <c r="F226" t="s">
-        <v>558</v>
+        <v>612</v>
       </c>
       <c r="G226" t="s">
-        <v>333</v>
+        <v>613</v>
+      </c>
+      <c r="H226" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>256</v>
+      </c>
+      <c r="B227" t="s">
+        <v>595</v>
+      </c>
+      <c r="C227" t="s">
+        <v>614</v>
+      </c>
+      <c r="D227" s="1">
+        <v>599</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227" t="s">
+        <v>615</v>
+      </c>
+      <c r="G227" t="s">
+        <v>616</v>
+      </c>
+      <c r="H227" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>257</v>
+      </c>
+      <c r="B228" t="s">
+        <v>595</v>
+      </c>
+      <c r="C228" t="s">
+        <v>617</v>
+      </c>
+      <c r="D228" s="1">
+        <v>799</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228" t="s">
+        <v>618</v>
+      </c>
+      <c r="G228" t="s">
+        <v>619</v>
+      </c>
+      <c r="H228" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B229" t="s">
         <v>595</v>
       </c>
       <c r="C229" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="D229" s="1">
-        <v>14800</v>
+        <v>1700</v>
       </c>
       <c r="E229">
         <v>1</v>
       </c>
       <c r="F229" t="s">
-        <v>600</v>
+        <v>621</v>
       </c>
       <c r="G229" t="s">
-        <v>601</v>
+        <v>622</v>
       </c>
       <c r="H229" t="s">
         <v>670</v>
@@ -8105,25 +8259,25 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B230" t="s">
         <v>595</v>
       </c>
       <c r="C230" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="D230" s="1">
-        <v>580</v>
+        <v>1990</v>
       </c>
       <c r="E230">
         <v>1</v>
       </c>
       <c r="F230" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
       <c r="G230" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="H230" t="s">
         <v>670</v>
@@ -8131,471 +8285,315 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B231" t="s">
         <v>595</v>
       </c>
       <c r="C231" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="D231" s="1">
-        <v>3800</v>
+        <v>2999</v>
       </c>
       <c r="E231">
         <v>1</v>
       </c>
       <c r="F231" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="G231" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="H231" t="s">
         <v>670</v>
       </c>
     </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>262</v>
+      </c>
+      <c r="B232" t="s">
+        <v>632</v>
+      </c>
+      <c r="C232" t="s">
+        <v>599</v>
+      </c>
+      <c r="D232" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232" t="s">
+        <v>633</v>
+      </c>
+      <c r="G232" t="s">
+        <v>634</v>
+      </c>
+    </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B233" t="s">
-        <v>595</v>
+        <v>632</v>
       </c>
       <c r="C233" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="D233" s="1">
-        <v>6800</v>
+        <v>999</v>
       </c>
       <c r="E233">
         <v>1</v>
       </c>
       <c r="F233" t="s">
-        <v>612</v>
+        <v>636</v>
       </c>
       <c r="G233" t="s">
-        <v>613</v>
-      </c>
-      <c r="H233" t="s">
-        <v>670</v>
+        <v>637</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B234" t="s">
-        <v>595</v>
+        <v>632</v>
       </c>
       <c r="C234" t="s">
-        <v>614</v>
+        <v>638</v>
       </c>
       <c r="D234" s="1">
-        <v>599</v>
+        <v>1500</v>
       </c>
       <c r="E234">
         <v>1</v>
       </c>
       <c r="F234" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="G234" t="s">
-        <v>616</v>
-      </c>
-      <c r="H234" t="s">
-        <v>670</v>
+        <v>640</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B235" t="s">
-        <v>595</v>
+        <v>632</v>
       </c>
       <c r="C235" t="s">
-        <v>617</v>
+        <v>641</v>
       </c>
       <c r="D235" s="1">
-        <v>799</v>
+        <v>1299</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
       <c r="G235" t="s">
-        <v>619</v>
-      </c>
-      <c r="H235" t="s">
-        <v>670</v>
+        <v>643</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B236" t="s">
-        <v>595</v>
+        <v>632</v>
       </c>
       <c r="C236" t="s">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="D236" s="1">
-        <v>1700</v>
+        <v>799</v>
       </c>
       <c r="E236">
         <v>1</v>
       </c>
       <c r="F236" t="s">
-        <v>621</v>
+        <v>645</v>
       </c>
       <c r="G236" t="s">
-        <v>622</v>
-      </c>
-      <c r="H236" t="s">
-        <v>670</v>
+        <v>646</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>267</v>
+      </c>
+      <c r="B237" t="s">
+        <v>27</v>
+      </c>
+      <c r="C237" t="s">
+        <v>647</v>
+      </c>
+      <c r="D237" s="1">
+        <v>849</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237" t="s">
+        <v>648</v>
+      </c>
+      <c r="G237" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B238" t="s">
-        <v>595</v>
+        <v>37</v>
       </c>
       <c r="C238" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="D238" s="1">
-        <v>1990</v>
+        <v>450</v>
       </c>
       <c r="E238">
         <v>1</v>
       </c>
       <c r="F238" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="G238" t="s">
-        <v>628</v>
-      </c>
-      <c r="H238" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B239" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="C239" t="s">
-        <v>629</v>
+        <v>653</v>
       </c>
       <c r="D239" s="1">
-        <v>2999</v>
+        <v>699</v>
       </c>
       <c r="E239">
         <v>1</v>
       </c>
       <c r="F239" t="s">
-        <v>630</v>
+        <v>671</v>
       </c>
       <c r="G239" t="s">
-        <v>631</v>
-      </c>
-      <c r="H239" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B240" t="s">
-        <v>632</v>
+        <v>580</v>
       </c>
       <c r="C240" t="s">
-        <v>599</v>
+        <v>658</v>
       </c>
       <c r="D240" s="1">
-        <v>1400</v>
+        <v>999</v>
       </c>
       <c r="E240">
         <v>1</v>
       </c>
       <c r="F240" t="s">
-        <v>633</v>
+        <v>659</v>
       </c>
       <c r="G240" t="s">
-        <v>634</v>
+        <v>660</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B241" t="s">
-        <v>632</v>
+        <v>595</v>
       </c>
       <c r="C241" t="s">
-        <v>635</v>
+        <v>661</v>
       </c>
       <c r="D241" s="1">
-        <v>999</v>
+        <v>599</v>
       </c>
       <c r="E241">
         <v>1</v>
       </c>
       <c r="F241" t="s">
-        <v>636</v>
+        <v>662</v>
       </c>
       <c r="G241" t="s">
-        <v>637</v>
+        <v>663</v>
+      </c>
+      <c r="H241" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B242" t="s">
-        <v>632</v>
+        <v>62</v>
       </c>
       <c r="C242" t="s">
-        <v>638</v>
+        <v>664</v>
       </c>
       <c r="D242" s="1">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="E242">
         <v>1</v>
       </c>
       <c r="F242" t="s">
-        <v>639</v>
+        <v>665</v>
       </c>
       <c r="G242" t="s">
-        <v>640</v>
+        <v>666</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B243" t="s">
-        <v>632</v>
+        <v>581</v>
       </c>
       <c r="C243" t="s">
-        <v>641</v>
+        <v>667</v>
       </c>
       <c r="D243" s="1">
-        <v>1299</v>
+        <v>1999</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243" t="s">
-        <v>642</v>
+        <v>668</v>
       </c>
       <c r="G243" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A244">
-        <v>266</v>
-      </c>
-      <c r="B244" t="s">
-        <v>632</v>
-      </c>
-      <c r="C244" t="s">
-        <v>644</v>
-      </c>
-      <c r="D244" s="1">
-        <v>799</v>
-      </c>
-      <c r="E244">
-        <v>1</v>
-      </c>
-      <c r="F244" t="s">
-        <v>645</v>
-      </c>
-      <c r="G244" t="s">
-        <v>646</v>
+        <v>669</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A245">
-        <v>267</v>
-      </c>
-      <c r="B245" t="s">
-        <v>27</v>
-      </c>
-      <c r="C245" t="s">
-        <v>647</v>
-      </c>
-      <c r="D245" s="1">
-        <v>849</v>
-      </c>
-      <c r="E245">
-        <v>1</v>
-      </c>
-      <c r="F245" t="s">
-        <v>648</v>
-      </c>
-      <c r="G245" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A246">
-        <v>268</v>
-      </c>
-      <c r="B246" t="s">
-        <v>37</v>
-      </c>
-      <c r="C246" t="s">
-        <v>650</v>
-      </c>
-      <c r="D246" s="1">
-        <v>450</v>
-      </c>
-      <c r="E246">
-        <v>1</v>
-      </c>
-      <c r="F246" t="s">
-        <v>651</v>
-      </c>
-      <c r="G246" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A247">
-        <v>269</v>
-      </c>
-      <c r="B247" t="s">
-        <v>580</v>
-      </c>
-      <c r="C247" t="s">
-        <v>653</v>
-      </c>
-      <c r="D247" s="1">
-        <v>699</v>
-      </c>
-      <c r="E247">
-        <v>1</v>
-      </c>
-      <c r="F247" t="s">
-        <v>671</v>
-      </c>
-      <c r="G247" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A249">
-        <v>271</v>
-      </c>
-      <c r="B249" t="s">
-        <v>580</v>
-      </c>
-      <c r="C249" t="s">
-        <v>658</v>
-      </c>
-      <c r="D249" s="1">
-        <v>999</v>
-      </c>
-      <c r="E249">
-        <v>1</v>
-      </c>
-      <c r="F249" t="s">
-        <v>659</v>
-      </c>
-      <c r="G249" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A250">
-        <v>272</v>
-      </c>
-      <c r="B250" t="s">
-        <v>595</v>
-      </c>
-      <c r="C250" t="s">
-        <v>661</v>
-      </c>
-      <c r="D250" s="1">
-        <v>599</v>
-      </c>
-      <c r="E250">
-        <v>1</v>
-      </c>
-      <c r="F250" t="s">
-        <v>662</v>
-      </c>
-      <c r="G250" t="s">
-        <v>663</v>
-      </c>
-      <c r="H250" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A251">
-        <v>273</v>
-      </c>
-      <c r="B251" t="s">
-        <v>62</v>
-      </c>
-      <c r="C251" t="s">
-        <v>664</v>
-      </c>
-      <c r="D251" s="1">
-        <v>1100</v>
-      </c>
-      <c r="E251">
-        <v>1</v>
-      </c>
-      <c r="F251" t="s">
-        <v>665</v>
-      </c>
-      <c r="G251" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A252">
-        <v>274</v>
-      </c>
-      <c r="B252" t="s">
-        <v>581</v>
-      </c>
-      <c r="C252" t="s">
-        <v>667</v>
-      </c>
-      <c r="D252" s="1">
-        <v>1999</v>
-      </c>
-      <c r="E252">
-        <v>1</v>
-      </c>
-      <c r="F252" t="s">
-        <v>668</v>
-      </c>
-      <c r="G252" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D254" s="1"/>
+      <c r="D245" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A206:G208">
-    <sortCondition ref="D206:D208"/>
+  <sortState ref="A202:G204">
+    <sortCondition ref="D202:D204"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8993,7 +8991,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>240</v>
       </c>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Cintamani\Website 2017\react-cintamani\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8D4C85-87BB-4403-B269-FBAE5646EAA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770170FB-5DBB-402A-8DF8-371AB539402B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2076" yWindow="696" windowWidth="23040" windowHeight="9636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2076" yWindow="696" windowWidth="23040" windowHeight="9636" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalog_product_bearbeitet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="671">
   <si>
     <t>Name</t>
   </si>
@@ -1793,10 +1793,6 @@
   </si>
   <si>
     <t>BRat003.JPG</t>
-  </si>
-  <si>
-    <t>Der Silberanteil ist 90%.
- Das Gewicht der Statue ist 80 Gramm, das bedeutet der Wert des Materials beträgt schon ca. 90 Euro( Preisbasis 100 g. Silber 120 Euro).Außerdem sollte berücksichtigt werden, dass die Verarbeitung von einer Silberstatue viel aufwendiger ist.</t>
   </si>
   <si>
     <t>Die Fünf Buddhas ( Jinas ) in Silber</t>
@@ -2939,7 +2935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A240" sqref="A240:XFD240"/>
     </sheetView>
   </sheetViews>
@@ -2975,7 +2971,7 @@
         <v>359</v>
       </c>
       <c r="H1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -4272,7 +4268,7 @@
         <v>79</v>
       </c>
       <c r="C58" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D58" s="1">
         <v>499</v>
@@ -7511,7 +7507,7 @@
         <v>299</v>
       </c>
       <c r="H198" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
@@ -7537,7 +7533,7 @@
         <v>298</v>
       </c>
       <c r="H199" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
@@ -7563,7 +7559,7 @@
         <v>300</v>
       </c>
       <c r="H200" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
@@ -7589,7 +7585,7 @@
         <v>297</v>
       </c>
       <c r="H201" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
@@ -8080,10 +8076,10 @@
         <v>251</v>
       </c>
       <c r="B223" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C223" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D223" s="1">
         <v>14800</v>
@@ -8092,13 +8088,13 @@
         <v>1</v>
       </c>
       <c r="F223" t="s">
+        <v>599</v>
+      </c>
+      <c r="G223" t="s">
         <v>600</v>
       </c>
-      <c r="G223" t="s">
-        <v>601</v>
-      </c>
       <c r="H223" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
@@ -8106,10 +8102,10 @@
         <v>252</v>
       </c>
       <c r="B224" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C224" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D224" s="1">
         <v>580</v>
@@ -8118,13 +8114,13 @@
         <v>1</v>
       </c>
       <c r="F224" t="s">
+        <v>602</v>
+      </c>
+      <c r="G224" t="s">
         <v>603</v>
       </c>
-      <c r="G224" t="s">
-        <v>604</v>
-      </c>
       <c r="H224" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
@@ -8132,10 +8128,10 @@
         <v>253</v>
       </c>
       <c r="B225" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C225" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D225" s="1">
         <v>3800</v>
@@ -8144,13 +8140,13 @@
         <v>1</v>
       </c>
       <c r="F225" t="s">
+        <v>605</v>
+      </c>
+      <c r="G225" t="s">
         <v>606</v>
       </c>
-      <c r="G225" t="s">
-        <v>607</v>
-      </c>
       <c r="H225" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
@@ -8158,10 +8154,10 @@
         <v>255</v>
       </c>
       <c r="B226" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C226" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D226" s="1">
         <v>6800</v>
@@ -8170,13 +8166,13 @@
         <v>1</v>
       </c>
       <c r="F226" t="s">
+        <v>611</v>
+      </c>
+      <c r="G226" t="s">
         <v>612</v>
       </c>
-      <c r="G226" t="s">
-        <v>613</v>
-      </c>
       <c r="H226" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
@@ -8184,10 +8180,10 @@
         <v>256</v>
       </c>
       <c r="B227" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C227" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D227" s="1">
         <v>599</v>
@@ -8196,13 +8192,13 @@
         <v>1</v>
       </c>
       <c r="F227" t="s">
+        <v>614</v>
+      </c>
+      <c r="G227" t="s">
         <v>615</v>
       </c>
-      <c r="G227" t="s">
-        <v>616</v>
-      </c>
       <c r="H227" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
@@ -8210,10 +8206,10 @@
         <v>257</v>
       </c>
       <c r="B228" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C228" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D228" s="1">
         <v>799</v>
@@ -8222,13 +8218,13 @@
         <v>1</v>
       </c>
       <c r="F228" t="s">
+        <v>617</v>
+      </c>
+      <c r="G228" t="s">
         <v>618</v>
       </c>
-      <c r="G228" t="s">
-        <v>619</v>
-      </c>
       <c r="H228" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
@@ -8236,10 +8232,10 @@
         <v>258</v>
       </c>
       <c r="B229" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C229" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D229" s="1">
         <v>1700</v>
@@ -8248,13 +8244,13 @@
         <v>1</v>
       </c>
       <c r="F229" t="s">
+        <v>620</v>
+      </c>
+      <c r="G229" t="s">
         <v>621</v>
       </c>
-      <c r="G229" t="s">
-        <v>622</v>
-      </c>
       <c r="H229" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
@@ -8262,10 +8258,10 @@
         <v>260</v>
       </c>
       <c r="B230" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C230" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D230" s="1">
         <v>1990</v>
@@ -8274,13 +8270,13 @@
         <v>1</v>
       </c>
       <c r="F230" t="s">
+        <v>626</v>
+      </c>
+      <c r="G230" t="s">
         <v>627</v>
       </c>
-      <c r="G230" t="s">
-        <v>628</v>
-      </c>
       <c r="H230" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
@@ -8288,10 +8284,10 @@
         <v>261</v>
       </c>
       <c r="B231" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C231" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D231" s="1">
         <v>2999</v>
@@ -8300,13 +8296,13 @@
         <v>1</v>
       </c>
       <c r="F231" t="s">
+        <v>629</v>
+      </c>
+      <c r="G231" t="s">
         <v>630</v>
       </c>
-      <c r="G231" t="s">
-        <v>631</v>
-      </c>
       <c r="H231" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
@@ -8314,10 +8310,10 @@
         <v>262</v>
       </c>
       <c r="B232" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C232" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D232" s="1">
         <v>1400</v>
@@ -8326,10 +8322,10 @@
         <v>1</v>
       </c>
       <c r="F232" t="s">
+        <v>632</v>
+      </c>
+      <c r="G232" t="s">
         <v>633</v>
-      </c>
-      <c r="G232" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
@@ -8337,10 +8333,10 @@
         <v>263</v>
       </c>
       <c r="B233" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C233" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D233" s="1">
         <v>999</v>
@@ -8349,10 +8345,10 @@
         <v>1</v>
       </c>
       <c r="F233" t="s">
+        <v>635</v>
+      </c>
+      <c r="G233" t="s">
         <v>636</v>
-      </c>
-      <c r="G233" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
@@ -8360,10 +8356,10 @@
         <v>264</v>
       </c>
       <c r="B234" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C234" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D234" s="1">
         <v>1500</v>
@@ -8372,10 +8368,10 @@
         <v>1</v>
       </c>
       <c r="F234" t="s">
+        <v>638</v>
+      </c>
+      <c r="G234" t="s">
         <v>639</v>
-      </c>
-      <c r="G234" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
@@ -8383,10 +8379,10 @@
         <v>265</v>
       </c>
       <c r="B235" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C235" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D235" s="1">
         <v>1299</v>
@@ -8395,10 +8391,10 @@
         <v>0</v>
       </c>
       <c r="F235" t="s">
+        <v>641</v>
+      </c>
+      <c r="G235" t="s">
         <v>642</v>
-      </c>
-      <c r="G235" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
@@ -8406,10 +8402,10 @@
         <v>266</v>
       </c>
       <c r="B236" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C236" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D236" s="1">
         <v>799</v>
@@ -8418,10 +8414,10 @@
         <v>1</v>
       </c>
       <c r="F236" t="s">
+        <v>644</v>
+      </c>
+      <c r="G236" t="s">
         <v>645</v>
-      </c>
-      <c r="G236" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
@@ -8432,7 +8428,7 @@
         <v>27</v>
       </c>
       <c r="C237" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D237" s="1">
         <v>849</v>
@@ -8441,10 +8437,10 @@
         <v>1</v>
       </c>
       <c r="F237" t="s">
+        <v>647</v>
+      </c>
+      <c r="G237" t="s">
         <v>648</v>
-      </c>
-      <c r="G237" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
@@ -8455,7 +8451,7 @@
         <v>37</v>
       </c>
       <c r="C238" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D238" s="1">
         <v>450</v>
@@ -8464,10 +8460,10 @@
         <v>1</v>
       </c>
       <c r="F238" t="s">
+        <v>650</v>
+      </c>
+      <c r="G238" t="s">
         <v>651</v>
-      </c>
-      <c r="G238" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
@@ -8478,7 +8474,7 @@
         <v>580</v>
       </c>
       <c r="C239" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D239" s="1">
         <v>699</v>
@@ -8487,10 +8483,10 @@
         <v>1</v>
       </c>
       <c r="F239" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G239" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
@@ -8501,7 +8497,7 @@
         <v>580</v>
       </c>
       <c r="C240" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D240" s="1">
         <v>999</v>
@@ -8510,10 +8506,10 @@
         <v>1</v>
       </c>
       <c r="F240" t="s">
+        <v>658</v>
+      </c>
+      <c r="G240" t="s">
         <v>659</v>
-      </c>
-      <c r="G240" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
@@ -8521,10 +8517,10 @@
         <v>272</v>
       </c>
       <c r="B241" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C241" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D241" s="1">
         <v>599</v>
@@ -8533,13 +8529,13 @@
         <v>1</v>
       </c>
       <c r="F241" t="s">
+        <v>661</v>
+      </c>
+      <c r="G241" t="s">
         <v>662</v>
       </c>
-      <c r="G241" t="s">
-        <v>663</v>
-      </c>
       <c r="H241" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
@@ -8550,7 +8546,7 @@
         <v>62</v>
       </c>
       <c r="C242" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D242" s="1">
         <v>1100</v>
@@ -8559,10 +8555,10 @@
         <v>1</v>
       </c>
       <c r="F242" t="s">
+        <v>664</v>
+      </c>
+      <c r="G242" t="s">
         <v>665</v>
-      </c>
-      <c r="G242" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
@@ -8573,7 +8569,7 @@
         <v>581</v>
       </c>
       <c r="C243" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D243" s="1">
         <v>1999</v>
@@ -8582,10 +8578,10 @@
         <v>1</v>
       </c>
       <c r="F243" t="s">
+        <v>667</v>
+      </c>
+      <c r="G243" t="s">
         <v>668</v>
-      </c>
-      <c r="G243" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
@@ -8602,10 +8598,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8622,7 +8618,7 @@
         <v>237</v>
       </c>
       <c r="C1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D1" s="1">
         <v>999</v>
@@ -8645,7 +8641,7 @@
         <v>237</v>
       </c>
       <c r="C2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D2" s="1">
         <v>999</v>
@@ -8803,25 +8799,25 @@
         <v>259</v>
       </c>
       <c r="B9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D9" s="1">
         <v>9800</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
+        <v>623</v>
+      </c>
+      <c r="G9" t="s">
         <v>624</v>
       </c>
-      <c r="G9" t="s">
-        <v>625</v>
-      </c>
       <c r="H9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -8838,7 +8834,7 @@
         <v>1299</v>
       </c>
       <c r="E10" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>569</v>
@@ -8861,10 +8857,10 @@
         <v>1299</v>
       </c>
       <c r="E11" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G11" t="s">
         <v>274</v>
@@ -8884,7 +8880,7 @@
         <v>1299</v>
       </c>
       <c r="E12" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
         <v>516</v>
@@ -8907,7 +8903,7 @@
         <v>59.9</v>
       </c>
       <c r="E13" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="s">
         <v>397</v>
@@ -8921,25 +8917,25 @@
         <v>250</v>
       </c>
       <c r="B14" t="s">
+        <v>594</v>
+      </c>
+      <c r="C14" t="s">
         <v>595</v>
-      </c>
-      <c r="C14" t="s">
-        <v>596</v>
       </c>
       <c r="D14" s="1">
         <v>7800</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
+        <v>596</v>
+      </c>
+      <c r="G14" t="s">
         <v>597</v>
       </c>
-      <c r="G14" t="s">
-        <v>598</v>
-      </c>
       <c r="H14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -8947,25 +8943,25 @@
         <v>254</v>
       </c>
       <c r="B15" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D15" s="1">
         <v>29800</v>
       </c>
       <c r="E15" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="s">
+        <v>608</v>
+      </c>
+      <c r="G15" t="s">
         <v>609</v>
       </c>
-      <c r="G15" t="s">
-        <v>610</v>
-      </c>
       <c r="H15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -8976,43 +8972,41 @@
         <v>580</v>
       </c>
       <c r="C16" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D16" s="1">
         <v>1090</v>
       </c>
       <c r="E16" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="s">
+        <v>655</v>
+      </c>
+      <c r="G16" t="s">
         <v>656</v>
       </c>
-      <c r="G16" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="388.8" x14ac:dyDescent="0.3">
-      <c r="A29">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>240</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B17" t="s">
         <v>79</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C17" t="s">
+        <v>587</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
         <v>588</v>
       </c>
-      <c r="D29" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
-        <v>589</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>587</v>
-      </c>
+      <c r="G17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Cintamani\Website 2017\react-cintamani\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770170FB-5DBB-402A-8DF8-371AB539402B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E26E585-07A0-4D72-8A7F-202FB8993BE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2076" yWindow="696" windowWidth="23040" windowHeight="9636" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2076" yWindow="696" windowWidth="23040" windowHeight="9636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalog_product_bearbeitet" sheetId="1" r:id="rId1"/>
@@ -2935,8 +2935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K245"/>
   <sheetViews>
-    <sheetView topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A240" sqref="A240:XFD240"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4122,29 +4122,6 @@
         <v>335</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>54</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D52" s="4">
-        <v>399</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>56</v>
@@ -6621,7 +6598,7 @@
         <v>239</v>
       </c>
       <c r="D160" s="1">
-        <v>399</v>
+        <v>450</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -6644,7 +6621,7 @@
         <v>240</v>
       </c>
       <c r="D161" s="4">
-        <v>399</v>
+        <v>500</v>
       </c>
       <c r="E161" s="3">
         <v>1</v>
@@ -6667,7 +6644,7 @@
         <v>241</v>
       </c>
       <c r="D162" s="4">
-        <v>399</v>
+        <v>500</v>
       </c>
       <c r="E162" s="3">
         <v>1</v>
@@ -6759,7 +6736,7 @@
         <v>582</v>
       </c>
       <c r="D166" s="4">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E166" s="3">
         <v>1</v>
@@ -6769,29 +6746,6 @@
       </c>
       <c r="G166" t="s">
         <v>584</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167">
-        <v>178</v>
-      </c>
-      <c r="B167" t="s">
-        <v>237</v>
-      </c>
-      <c r="C167" t="s">
-        <v>244</v>
-      </c>
-      <c r="D167" s="1">
-        <v>999</v>
-      </c>
-      <c r="E167">
-        <v>1</v>
-      </c>
-      <c r="F167" t="s">
-        <v>507</v>
-      </c>
-      <c r="G167" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -8598,10 +8552,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9008,6 +8962,52 @@
       </c>
       <c r="G17" s="6"/>
     </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>54</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D18" s="4">
+        <v>399</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>178</v>
+      </c>
+      <c r="B19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="1">
+        <v>999</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>507</v>
+      </c>
+      <c r="G19" t="s">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Cintamani\Website 2017\react-cintamani\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E26E585-07A0-4D72-8A7F-202FB8993BE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9DA326-2C95-40FA-99EE-53DBD4E769FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2076" yWindow="696" windowWidth="23040" windowHeight="9636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalog_product_bearbeitet" sheetId="1" r:id="rId1"/>
@@ -2933,22 +2933,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K245"/>
+  <dimension ref="A1:K244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D161" sqref="D161"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.109375" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.88671875" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>354</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>42</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>43</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>44</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>45</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>46</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>49</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>241</v>
       </c>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>50</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>51</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>52</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>53</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>56</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>57</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>58</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>59</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>60</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>61</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>63</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>66</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>67</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>68</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>69</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>70</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>71</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>72</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>73</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>74</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>75</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>76</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>77</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>78</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>79</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>80</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>81</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>82</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>83</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>84</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>85</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>86</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>87</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>88</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>89</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>91</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>93</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>95</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>96</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>97</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>98</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>99</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>100</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>101</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>103</v>
       </c>
@@ -5069,7 +5069,7 @@
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>104</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>105</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>106</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>107</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>108</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>109</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>110</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>111</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>112</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>113</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>114</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>115</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>116</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>117</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>118</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>119</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>120</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>121</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>122</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>123</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>124</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>125</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>126</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>127</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>128</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>129</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>130</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>131</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>132</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>133</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>134</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>135</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>136</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>137</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>138</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>139</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>140</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>141</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>142</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>143</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>144</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>145</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>146</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>147</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>148</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>149</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>150</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>151</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>152</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>153</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>154</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>155</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>156</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>157</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>158</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>159</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>160</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>161</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>162</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>163</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>164</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>165</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>166</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>167</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>168</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>169</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>170</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>239</v>
       </c>
       <c r="D160" s="1">
-        <v>450</v>
+        <v>450.2</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -6610,7 +6610,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>171</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>240</v>
       </c>
       <c r="D161" s="4">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E161" s="3">
         <v>1</v>
@@ -6633,7 +6633,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>172</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>500</v>
       </c>
       <c r="E162" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" s="3" t="s">
         <v>501</v>
@@ -6656,7 +6656,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>173</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>348</v>
       </c>
       <c r="D163" s="4">
-        <v>399</v>
+        <v>399.1</v>
       </c>
       <c r="E163" s="3">
         <v>1</v>
@@ -6679,7 +6679,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>175</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>349</v>
       </c>
       <c r="D164" s="4">
-        <v>499</v>
+        <v>499.1</v>
       </c>
       <c r="E164" s="3">
         <v>1</v>
@@ -6702,7 +6702,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>176</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>350</v>
       </c>
       <c r="D165" s="4">
-        <v>799</v>
+        <v>799.1</v>
       </c>
       <c r="E165" s="3">
         <v>1</v>
@@ -6725,7 +6725,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>239</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>582</v>
       </c>
       <c r="D166" s="4">
-        <v>500</v>
+        <v>500.1</v>
       </c>
       <c r="E166" s="3">
         <v>1</v>
@@ -6748,406 +6748,429 @@
         <v>584</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>179</v>
+      </c>
+      <c r="B167" t="s">
+        <v>577</v>
+      </c>
+      <c r="C167" t="s">
+        <v>346</v>
+      </c>
+      <c r="D167" s="1">
+        <v>499</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167" t="s">
+        <v>420</v>
+      </c>
+      <c r="G167" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B168" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C168" t="s">
-        <v>346</v>
+        <v>257</v>
       </c>
       <c r="D168" s="1">
-        <v>499</v>
+        <v>19.5</v>
       </c>
       <c r="E168">
         <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>420</v>
+        <v>508</v>
       </c>
       <c r="G168" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B169" t="s">
         <v>578</v>
       </c>
       <c r="C169" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D169" s="1">
-        <v>19.5</v>
+        <v>59</v>
       </c>
       <c r="E169">
         <v>1</v>
       </c>
       <c r="F169" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G169" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B170" t="s">
         <v>578</v>
       </c>
       <c r="C170" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="D170" s="1">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E170">
         <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G170" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B171" t="s">
         <v>578</v>
       </c>
       <c r="C171" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D171" s="1">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="E171">
         <v>1</v>
       </c>
       <c r="F171" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G171" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B172" t="s">
         <v>578</v>
       </c>
       <c r="C172" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D172" s="1">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="E172">
         <v>1</v>
       </c>
       <c r="F172" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G172" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B173" t="s">
         <v>578</v>
       </c>
       <c r="C173" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D173" s="1">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="E173">
         <v>1</v>
       </c>
       <c r="F173" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G173" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B174" t="s">
         <v>578</v>
       </c>
       <c r="C174" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D174" s="1">
-        <v>269</v>
+        <v>399</v>
       </c>
       <c r="E174">
         <v>1</v>
       </c>
       <c r="F174" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G174" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B175" t="s">
         <v>578</v>
       </c>
       <c r="C175" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D175" s="1">
-        <v>399</v>
+        <v>899</v>
       </c>
       <c r="E175">
         <v>1</v>
       </c>
       <c r="F175" t="s">
-        <v>514</v>
-      </c>
-      <c r="G175" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B176" t="s">
         <v>578</v>
       </c>
       <c r="C176" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D176" s="1">
-        <v>899</v>
+        <v>1799</v>
       </c>
       <c r="E176">
         <v>1</v>
       </c>
       <c r="F176" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B177" t="s">
         <v>578</v>
       </c>
       <c r="C177" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D177" s="1">
-        <v>1799</v>
+        <v>1599</v>
       </c>
       <c r="E177">
         <v>1</v>
       </c>
       <c r="F177" t="s">
-        <v>517</v>
-      </c>
-      <c r="G177" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+      <c r="G177" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B178" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C178" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D178" s="1">
-        <v>1599</v>
+        <v>19.5</v>
       </c>
       <c r="E178">
         <v>1</v>
       </c>
       <c r="F178" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G178" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B179" t="s">
         <v>579</v>
       </c>
       <c r="C179" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D179" s="1">
-        <v>19.5</v>
+        <v>59</v>
       </c>
       <c r="E179">
         <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G179" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B180" t="s">
         <v>579</v>
       </c>
       <c r="C180" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D180" s="1">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E180">
         <v>1</v>
       </c>
       <c r="F180" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G180" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B181" t="s">
         <v>579</v>
       </c>
       <c r="C181" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D181" s="1">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="E181">
         <v>1</v>
       </c>
       <c r="F181" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G181" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B182" t="s">
         <v>579</v>
       </c>
       <c r="C182" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D182" s="1">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="E182">
         <v>1</v>
       </c>
       <c r="F182" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G182" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B183" t="s">
         <v>579</v>
       </c>
       <c r="C183" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D183" s="1">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="E183">
         <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G183" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B184" t="s">
         <v>579</v>
       </c>
       <c r="C184" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D184" s="1">
-        <v>269</v>
+        <v>399</v>
       </c>
       <c r="E184">
         <v>1</v>
       </c>
       <c r="F184" t="s">
-        <v>524</v>
-      </c>
-      <c r="G184" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B185" t="s">
         <v>579</v>
       </c>
       <c r="C185" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D185" s="1">
         <v>399</v>
@@ -7156,70 +7179,70 @@
         <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>525</v>
-      </c>
-      <c r="G185" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+      <c r="G185" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B186" t="s">
         <v>579</v>
       </c>
       <c r="C186" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D186" s="1">
-        <v>399</v>
+        <v>599</v>
       </c>
       <c r="E186">
         <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>526</v>
-      </c>
-      <c r="G186" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+      <c r="G186" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B187" t="s">
-        <v>579</v>
+        <v>277</v>
       </c>
       <c r="C187" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="D187" s="1">
-        <v>599</v>
+        <v>5.2</v>
       </c>
       <c r="E187">
         <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>527</v>
-      </c>
-      <c r="G187" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+        <v>528</v>
+      </c>
+      <c r="G187" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B188" t="s">
         <v>277</v>
       </c>
       <c r="C188" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D188" s="1">
-        <v>5.2</v>
+        <v>7.15</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -7228,398 +7251,398 @@
         <v>528</v>
       </c>
       <c r="G188" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B189" t="s">
         <v>277</v>
       </c>
       <c r="C189" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D189" s="1">
-        <v>7.15</v>
+        <v>12.95</v>
       </c>
       <c r="E189">
         <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G189" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B190" t="s">
         <v>277</v>
       </c>
       <c r="C190" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D190" s="1">
-        <v>12.95</v>
+        <v>16.25</v>
       </c>
       <c r="E190">
         <v>1</v>
       </c>
       <c r="F190" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G190" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B191" t="s">
         <v>277</v>
       </c>
       <c r="C191" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D191" s="1">
-        <v>16.25</v>
+        <v>25</v>
       </c>
       <c r="E191">
         <v>1</v>
       </c>
       <c r="F191" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G191" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B192" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C192" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D192" s="1">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E192">
         <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G192" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B193" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C193" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D193" s="1">
-        <v>100</v>
+        <v>3.9</v>
       </c>
       <c r="E193">
         <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G193" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B194" t="s">
         <v>290</v>
       </c>
       <c r="C194" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D194" s="1">
-        <v>3.9</v>
+        <v>6.9</v>
       </c>
       <c r="E194">
         <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G194" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B195" t="s">
         <v>290</v>
       </c>
       <c r="C195" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D195" s="1">
-        <v>6.9</v>
+        <v>39</v>
       </c>
       <c r="E195">
         <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G195" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B196" t="s">
         <v>290</v>
       </c>
       <c r="C196" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D196" s="1">
-        <v>39</v>
+        <v>39.9</v>
       </c>
       <c r="E196">
         <v>1</v>
       </c>
       <c r="F196" t="s">
-        <v>534</v>
-      </c>
-      <c r="G196" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+      <c r="G196" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B197" t="s">
-        <v>290</v>
+        <v>567</v>
       </c>
       <c r="C197" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D197" s="1">
-        <v>39.9</v>
+        <v>7</v>
       </c>
       <c r="E197">
         <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>535</v>
-      </c>
-      <c r="G197" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+      <c r="G197" t="s">
+        <v>299</v>
+      </c>
+      <c r="H197" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B198" t="s">
         <v>567</v>
       </c>
       <c r="C198" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D198" s="1">
-        <v>7</v>
+        <v>12.9</v>
       </c>
       <c r="E198">
         <v>1</v>
       </c>
       <c r="F198" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G198" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H198" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B199" t="s">
         <v>567</v>
       </c>
       <c r="C199" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D199" s="1">
-        <v>12.9</v>
+        <v>34.5</v>
       </c>
       <c r="E199">
         <v>1</v>
       </c>
       <c r="F199" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G199" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H199" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B200" t="s">
         <v>567</v>
       </c>
       <c r="C200" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D200" s="1">
-        <v>34.5</v>
+        <v>99</v>
       </c>
       <c r="E200">
         <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G200" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H200" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B201" t="s">
-        <v>567</v>
+        <v>301</v>
       </c>
       <c r="C201" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="D201" s="1">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="E201">
         <v>1</v>
       </c>
       <c r="F201" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G201" t="s">
-        <v>297</v>
-      </c>
-      <c r="H201" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B202" t="s">
         <v>301</v>
       </c>
       <c r="C202" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="D202" s="1">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E202">
         <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G202" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B203" t="s">
         <v>301</v>
       </c>
       <c r="C203" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D203" s="1">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="E203">
         <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G203" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B204" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C204" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D204" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E204">
         <v>1</v>
       </c>
       <c r="F204" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G204" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B205" t="s">
         <v>307</v>
       </c>
       <c r="C205" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D205" s="1">
         <v>25</v>
@@ -7628,21 +7651,21 @@
         <v>1</v>
       </c>
       <c r="F205" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G205" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B206" t="s">
         <v>307</v>
       </c>
       <c r="C206" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D206" s="1">
         <v>25</v>
@@ -7651,21 +7674,21 @@
         <v>1</v>
       </c>
       <c r="F206" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G206" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B207" t="s">
         <v>307</v>
       </c>
       <c r="C207" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D207" s="1">
         <v>25</v>
@@ -7674,21 +7697,21 @@
         <v>1</v>
       </c>
       <c r="F207" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G207" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B208" t="s">
         <v>307</v>
       </c>
       <c r="C208" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D208" s="1">
         <v>25</v>
@@ -7697,44 +7720,44 @@
         <v>1</v>
       </c>
       <c r="F208" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G208" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B209" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C209" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D209" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E209">
         <v>1</v>
       </c>
       <c r="F209" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G209" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B210" t="s">
         <v>313</v>
       </c>
       <c r="C210" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D210" s="1">
         <v>19</v>
@@ -7749,15 +7772,15 @@
         <v>314</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B211" t="s">
         <v>313</v>
       </c>
       <c r="C211" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D211" s="1">
         <v>19</v>
@@ -7772,15 +7795,15 @@
         <v>314</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B212" t="s">
         <v>313</v>
       </c>
       <c r="C212" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D212" s="1">
         <v>19</v>
@@ -7795,38 +7818,38 @@
         <v>314</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B213" t="s">
         <v>313</v>
       </c>
       <c r="C213" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D213" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E213">
         <v>1</v>
       </c>
       <c r="F213" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G213" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B214" t="s">
         <v>313</v>
       </c>
       <c r="C214" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D214" s="1">
         <v>6</v>
@@ -7835,44 +7858,44 @@
         <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G214" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B215" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C215" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D215" s="1">
-        <v>6</v>
+        <v>9.9</v>
       </c>
       <c r="E215">
         <v>1</v>
       </c>
       <c r="F215" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G215" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B216" t="s">
         <v>322</v>
       </c>
       <c r="C216" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D216" s="1">
         <v>9.9</v>
@@ -7881,21 +7904,21 @@
         <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G216" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B217" t="s">
         <v>322</v>
       </c>
       <c r="C217" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D217" s="1">
         <v>9.9</v>
@@ -7904,21 +7927,21 @@
         <v>1</v>
       </c>
       <c r="F217" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G217" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B218" t="s">
         <v>322</v>
       </c>
       <c r="C218" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D218" s="1">
         <v>9.9</v>
@@ -7927,67 +7950,67 @@
         <v>1</v>
       </c>
       <c r="F218" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G218" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B219" t="s">
         <v>322</v>
       </c>
       <c r="C219" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D219" s="1">
-        <v>9.9</v>
+        <v>12</v>
       </c>
       <c r="E219">
         <v>1</v>
       </c>
       <c r="F219" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G219" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B220" t="s">
         <v>322</v>
       </c>
       <c r="C220" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D220" s="1">
-        <v>12</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E220">
         <v>1</v>
       </c>
       <c r="F220" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G220" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B221" t="s">
         <v>322</v>
       </c>
       <c r="C221" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D221" s="1">
         <v>18.899999999999999</v>
@@ -7996,554 +8019,531 @@
         <v>1</v>
       </c>
       <c r="F221" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G221" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="B222" t="s">
-        <v>322</v>
+        <v>594</v>
       </c>
       <c r="C222" t="s">
-        <v>334</v>
+        <v>598</v>
       </c>
       <c r="D222" s="1">
-        <v>18.899999999999999</v>
+        <v>14800</v>
       </c>
       <c r="E222">
         <v>1</v>
       </c>
       <c r="F222" t="s">
-        <v>558</v>
+        <v>599</v>
       </c>
       <c r="G222" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+      <c r="H222" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B223" t="s">
         <v>594</v>
       </c>
       <c r="C223" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D223" s="1">
-        <v>14800</v>
+        <v>580</v>
       </c>
       <c r="E223">
         <v>1</v>
       </c>
       <c r="F223" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="G223" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H223" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B224" t="s">
         <v>594</v>
       </c>
       <c r="C224" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D224" s="1">
-        <v>580</v>
+        <v>3800</v>
       </c>
       <c r="E224">
         <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="G224" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="H224" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B225" t="s">
         <v>594</v>
       </c>
       <c r="C225" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="D225" s="1">
-        <v>3800</v>
+        <v>6800</v>
       </c>
       <c r="E225">
         <v>1</v>
       </c>
       <c r="F225" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="G225" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="H225" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B226" t="s">
         <v>594</v>
       </c>
       <c r="C226" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D226" s="1">
-        <v>6800</v>
+        <v>599</v>
       </c>
       <c r="E226">
         <v>1</v>
       </c>
       <c r="F226" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="G226" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="H226" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B227" t="s">
         <v>594</v>
       </c>
       <c r="C227" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D227" s="1">
-        <v>599</v>
+        <v>799</v>
       </c>
       <c r="E227">
         <v>1</v>
       </c>
       <c r="F227" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="G227" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="H227" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B228" t="s">
         <v>594</v>
       </c>
       <c r="C228" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="D228" s="1">
-        <v>799</v>
+        <v>1700</v>
       </c>
       <c r="E228">
         <v>1</v>
       </c>
       <c r="F228" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="G228" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="H228" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B229" t="s">
         <v>594</v>
       </c>
       <c r="C229" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="D229" s="1">
-        <v>1700</v>
+        <v>1990</v>
       </c>
       <c r="E229">
         <v>1</v>
       </c>
       <c r="F229" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="G229" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="H229" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B230" t="s">
         <v>594</v>
       </c>
       <c r="C230" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="D230" s="1">
-        <v>1990</v>
+        <v>2999</v>
       </c>
       <c r="E230">
         <v>1</v>
       </c>
       <c r="F230" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="G230" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="H230" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B231" t="s">
-        <v>594</v>
+        <v>631</v>
       </c>
       <c r="C231" t="s">
-        <v>628</v>
+        <v>598</v>
       </c>
       <c r="D231" s="1">
-        <v>2999</v>
+        <v>1400</v>
       </c>
       <c r="E231">
         <v>1</v>
       </c>
       <c r="F231" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="G231" t="s">
-        <v>630</v>
-      </c>
-      <c r="H231" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B232" t="s">
         <v>631</v>
       </c>
       <c r="C232" t="s">
-        <v>598</v>
+        <v>634</v>
       </c>
       <c r="D232" s="1">
-        <v>1400</v>
+        <v>999</v>
       </c>
       <c r="E232">
         <v>1</v>
       </c>
       <c r="F232" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="G232" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B233" t="s">
         <v>631</v>
       </c>
       <c r="C233" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="D233" s="1">
-        <v>999</v>
+        <v>1500</v>
       </c>
       <c r="E233">
         <v>1</v>
       </c>
       <c r="F233" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="G233" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B234" t="s">
         <v>631</v>
       </c>
       <c r="C234" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D234" s="1">
-        <v>1500</v>
+        <v>1299</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="G234" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B235" t="s">
         <v>631</v>
       </c>
       <c r="C235" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="D235" s="1">
-        <v>1299</v>
+        <v>799</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G235" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B236" t="s">
-        <v>631</v>
+        <v>27</v>
       </c>
       <c r="C236" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D236" s="1">
-        <v>799</v>
+        <v>849</v>
       </c>
       <c r="E236">
         <v>1</v>
       </c>
       <c r="F236" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="G236" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B237" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C237" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="D237" s="1">
-        <v>849</v>
+        <v>450</v>
       </c>
       <c r="E237">
         <v>1</v>
       </c>
       <c r="F237" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="G237" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B238" t="s">
-        <v>37</v>
+        <v>580</v>
       </c>
       <c r="C238" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="D238" s="1">
-        <v>450</v>
+        <v>699</v>
       </c>
       <c r="E238">
         <v>1</v>
       </c>
       <c r="F238" t="s">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="G238" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B239" t="s">
         <v>580</v>
       </c>
       <c r="C239" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="D239" s="1">
-        <v>699</v>
+        <v>999</v>
       </c>
       <c r="E239">
         <v>1</v>
       </c>
       <c r="F239" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="G239" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B240" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="C240" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D240" s="1">
-        <v>999</v>
+        <v>599</v>
       </c>
       <c r="E240">
         <v>1</v>
       </c>
       <c r="F240" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="G240" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+      <c r="H240" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B241" t="s">
-        <v>594</v>
+        <v>62</v>
       </c>
       <c r="C241" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="D241" s="1">
-        <v>599</v>
+        <v>1100</v>
       </c>
       <c r="E241">
         <v>1</v>
       </c>
       <c r="F241" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="G241" t="s">
-        <v>662</v>
-      </c>
-      <c r="H241" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B242" t="s">
-        <v>62</v>
+        <v>581</v>
       </c>
       <c r="C242" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="D242" s="1">
-        <v>1100</v>
+        <v>1999</v>
       </c>
       <c r="E242">
         <v>1</v>
       </c>
       <c r="F242" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="G242" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A243">
-        <v>274</v>
-      </c>
-      <c r="B243" t="s">
-        <v>581</v>
-      </c>
-      <c r="C243" t="s">
-        <v>666</v>
-      </c>
-      <c r="D243" s="1">
-        <v>1999</v>
-      </c>
-      <c r="E243">
-        <v>1</v>
-      </c>
-      <c r="F243" t="s">
-        <v>667</v>
-      </c>
-      <c r="G243" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D245" s="1"/>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D244" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A202:G204">
-    <sortCondition ref="D202:D204"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A201:G203">
+    <sortCondition ref="D201:D203"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8558,13 +8558,13 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>177</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>177</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>174</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>62</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>48</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>55</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>64</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>220</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>259</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>94</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>202</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>189</v>
       </c>
@@ -8843,7 +8843,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>41</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>250</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>254</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>270</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>240</v>
       </c>
@@ -8962,7 +8962,7 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>54</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>178</v>
       </c>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Cintamani\Website 2017\react-cintamani\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonasosterle/Documents/code/react-cintamani/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E26E585-07A0-4D72-8A7F-202FB8993BE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A200069C-FAEB-9D4C-A2BF-BDE7D774D26E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2076" yWindow="696" windowWidth="23040" windowHeight="9636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15980" yWindow="3840" windowWidth="29000" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalog_product_bearbeitet" sheetId="1" r:id="rId1"/>
@@ -2580,48 +2580,48 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2637,7 +2637,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2935,20 +2935,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.109375" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" customWidth="1"/>
     <col min="3" max="3" width="48.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.83203125" customWidth="1"/>
     <col min="7" max="7" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>354</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>27</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>28</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>33</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>35</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>36</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>38</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>39</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>40</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>42</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>43</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>44</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>45</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>46</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>49</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>241</v>
       </c>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>50</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>51</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>52</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>53</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>56</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>57</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>58</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>59</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>60</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>61</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>63</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>66</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>67</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>68</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>69</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>70</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>71</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>72</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>73</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>74</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>75</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>76</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>77</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>78</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>79</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>80</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>81</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>82</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>83</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>84</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>85</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>86</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>87</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>88</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>89</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>91</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>93</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>95</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>96</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>97</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>98</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>99</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>100</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>101</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>103</v>
       </c>
@@ -5069,7 +5069,7 @@
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>104</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>105</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>106</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>107</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>108</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>109</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>110</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>111</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>112</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>113</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>114</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>115</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>116</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>117</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>118</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>119</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>120</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>121</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>122</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>123</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>124</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>125</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>126</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>127</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>128</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>129</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>130</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>131</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>132</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>133</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>134</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>135</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>136</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>137</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>138</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>139</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>140</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>141</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>142</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>143</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>144</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>145</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>146</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>147</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>148</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>149</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>150</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>151</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>152</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>153</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>154</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>155</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>156</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>157</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>158</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>159</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>160</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>161</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>162</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>163</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>164</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>165</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>166</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>167</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>168</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>169</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>170</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>171</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>172</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>173</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>175</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>176</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>239</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>179</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>180</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>181</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>182</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>183</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>184</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>186</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>187</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>188</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>190</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>191</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>192</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>193</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>194</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>195</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>196</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>197</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>199</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>200</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>201</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>203</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>204</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>205</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>206</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>207</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>208</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>209</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>210</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>211</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>212</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>213</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>214</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>215</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>216</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>217</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>218</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>219</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>221</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>222</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>223</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>224</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>225</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>226</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>227</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>228</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>229</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>230</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>231</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>232</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>233</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>234</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>235</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>236</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>237</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>238</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>251</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>252</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>253</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>255</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>256</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>257</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>258</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>260</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>261</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>262</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>263</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>264</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>265</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>266</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>267</v>
       </c>
@@ -8397,7 +8397,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>268</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>269</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>271</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>272</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>273</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>274</v>
       </c>
@@ -8538,11 +8538,11 @@
         <v>668</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D245" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A202:G204">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A202:G204">
     <sortCondition ref="D202:D204"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -8558,13 +8558,13 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>177</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>177</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>174</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>62</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>48</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>55</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>64</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>220</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>259</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>94</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>202</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>189</v>
       </c>
@@ -8843,7 +8843,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>41</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>250</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>254</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>270</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>240</v>
       </c>
@@ -8962,7 +8962,7 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>54</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>178</v>
       </c>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonasosterle/Documents/code/react-cintamani/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Cintamani\Website 2017\react-cintamani\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A200069C-FAEB-9D4C-A2BF-BDE7D774D26E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9DA326-2C95-40FA-99EE-53DBD4E769FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15980" yWindow="3840" windowWidth="29000" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="catalog_product_bearbeitet" sheetId="1" r:id="rId1"/>
@@ -2580,48 +2580,48 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2637,7 +2637,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2933,22 +2933,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K245"/>
+  <dimension ref="A1:K244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D161" sqref="D161"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.1640625" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.83203125" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>354</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>42</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>43</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>44</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>45</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>46</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>49</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>241</v>
       </c>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>50</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>51</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>52</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>53</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>56</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>57</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>58</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>59</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>60</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>61</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>63</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>66</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>67</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>68</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>69</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>70</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>71</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>72</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>73</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>74</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>75</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>76</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>77</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>78</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>79</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>80</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>81</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>82</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>83</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>84</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>85</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>86</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>87</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>88</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>89</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>91</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>93</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>95</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>96</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>97</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>98</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>99</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>100</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>101</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>103</v>
       </c>
@@ -5069,7 +5069,7 @@
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>104</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>105</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>106</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>107</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>108</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>109</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>110</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>111</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>112</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>113</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>114</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>115</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>116</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>117</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>118</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>119</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>120</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>121</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>122</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>123</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>124</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>125</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>126</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>127</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>128</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>129</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>130</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>131</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>132</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>133</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>134</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>135</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>136</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>137</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>138</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>139</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>140</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>141</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>142</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>143</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>144</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>145</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>146</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>147</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>148</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>149</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>150</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>151</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>152</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>153</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>154</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>155</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>156</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>157</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>158</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>159</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>160</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>161</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>162</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>163</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>164</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>165</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>166</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>167</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>168</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>169</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>170</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>239</v>
       </c>
       <c r="D160" s="1">
-        <v>450</v>
+        <v>450.2</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -6610,7 +6610,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>171</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>240</v>
       </c>
       <c r="D161" s="4">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E161" s="3">
         <v>1</v>
@@ -6633,7 +6633,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>172</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>500</v>
       </c>
       <c r="E162" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" s="3" t="s">
         <v>501</v>
@@ -6656,7 +6656,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>173</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>348</v>
       </c>
       <c r="D163" s="4">
-        <v>399</v>
+        <v>399.1</v>
       </c>
       <c r="E163" s="3">
         <v>1</v>
@@ -6679,7 +6679,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>175</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>349</v>
       </c>
       <c r="D164" s="4">
-        <v>499</v>
+        <v>499.1</v>
       </c>
       <c r="E164" s="3">
         <v>1</v>
@@ -6702,7 +6702,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>176</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>350</v>
       </c>
       <c r="D165" s="4">
-        <v>799</v>
+        <v>799.1</v>
       </c>
       <c r="E165" s="3">
         <v>1</v>
@@ -6725,7 +6725,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>239</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>582</v>
       </c>
       <c r="D166" s="4">
-        <v>500</v>
+        <v>500.1</v>
       </c>
       <c r="E166" s="3">
         <v>1</v>
@@ -6748,406 +6748,429 @@
         <v>584</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>179</v>
+      </c>
+      <c r="B167" t="s">
+        <v>577</v>
+      </c>
+      <c r="C167" t="s">
+        <v>346</v>
+      </c>
+      <c r="D167" s="1">
+        <v>499</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167" t="s">
+        <v>420</v>
+      </c>
+      <c r="G167" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B168" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C168" t="s">
-        <v>346</v>
+        <v>257</v>
       </c>
       <c r="D168" s="1">
-        <v>499</v>
+        <v>19.5</v>
       </c>
       <c r="E168">
         <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>420</v>
+        <v>508</v>
       </c>
       <c r="G168" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B169" t="s">
         <v>578</v>
       </c>
       <c r="C169" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D169" s="1">
-        <v>19.5</v>
+        <v>59</v>
       </c>
       <c r="E169">
         <v>1</v>
       </c>
       <c r="F169" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G169" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B170" t="s">
         <v>578</v>
       </c>
       <c r="C170" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="D170" s="1">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E170">
         <v>1</v>
       </c>
       <c r="F170" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G170" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B171" t="s">
         <v>578</v>
       </c>
       <c r="C171" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D171" s="1">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="E171">
         <v>1</v>
       </c>
       <c r="F171" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G171" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B172" t="s">
         <v>578</v>
       </c>
       <c r="C172" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D172" s="1">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="E172">
         <v>1</v>
       </c>
       <c r="F172" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G172" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B173" t="s">
         <v>578</v>
       </c>
       <c r="C173" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D173" s="1">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="E173">
         <v>1</v>
       </c>
       <c r="F173" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G173" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B174" t="s">
         <v>578</v>
       </c>
       <c r="C174" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D174" s="1">
-        <v>269</v>
+        <v>399</v>
       </c>
       <c r="E174">
         <v>1</v>
       </c>
       <c r="F174" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G174" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B175" t="s">
         <v>578</v>
       </c>
       <c r="C175" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D175" s="1">
-        <v>399</v>
+        <v>899</v>
       </c>
       <c r="E175">
         <v>1</v>
       </c>
       <c r="F175" t="s">
-        <v>514</v>
-      </c>
-      <c r="G175" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+        <v>515</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B176" t="s">
         <v>578</v>
       </c>
       <c r="C176" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D176" s="1">
-        <v>899</v>
+        <v>1799</v>
       </c>
       <c r="E176">
         <v>1</v>
       </c>
       <c r="F176" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B177" t="s">
         <v>578</v>
       </c>
       <c r="C177" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D177" s="1">
-        <v>1799</v>
+        <v>1599</v>
       </c>
       <c r="E177">
         <v>1</v>
       </c>
       <c r="F177" t="s">
-        <v>517</v>
-      </c>
-      <c r="G177" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+      <c r="G177" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B178" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C178" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D178" s="1">
-        <v>1599</v>
+        <v>19.5</v>
       </c>
       <c r="E178">
         <v>1</v>
       </c>
       <c r="F178" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G178" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B179" t="s">
         <v>579</v>
       </c>
       <c r="C179" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D179" s="1">
-        <v>19.5</v>
+        <v>59</v>
       </c>
       <c r="E179">
         <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G179" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B180" t="s">
         <v>579</v>
       </c>
       <c r="C180" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D180" s="1">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E180">
         <v>1</v>
       </c>
       <c r="F180" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G180" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B181" t="s">
         <v>579</v>
       </c>
       <c r="C181" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D181" s="1">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="E181">
         <v>1</v>
       </c>
       <c r="F181" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G181" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B182" t="s">
         <v>579</v>
       </c>
       <c r="C182" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D182" s="1">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="E182">
         <v>1</v>
       </c>
       <c r="F182" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G182" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B183" t="s">
         <v>579</v>
       </c>
       <c r="C183" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D183" s="1">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="E183">
         <v>1</v>
       </c>
       <c r="F183" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G183" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B184" t="s">
         <v>579</v>
       </c>
       <c r="C184" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D184" s="1">
-        <v>269</v>
+        <v>399</v>
       </c>
       <c r="E184">
         <v>1</v>
       </c>
       <c r="F184" t="s">
-        <v>524</v>
-      </c>
-      <c r="G184" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+        <v>525</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B185" t="s">
         <v>579</v>
       </c>
       <c r="C185" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D185" s="1">
         <v>399</v>
@@ -7156,70 +7179,70 @@
         <v>1</v>
       </c>
       <c r="F185" t="s">
-        <v>525</v>
-      </c>
-      <c r="G185" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+      <c r="G185" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B186" t="s">
         <v>579</v>
       </c>
       <c r="C186" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D186" s="1">
-        <v>399</v>
+        <v>599</v>
       </c>
       <c r="E186">
         <v>1</v>
       </c>
       <c r="F186" t="s">
-        <v>526</v>
-      </c>
-      <c r="G186" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+      <c r="G186" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B187" t="s">
-        <v>579</v>
+        <v>277</v>
       </c>
       <c r="C187" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="D187" s="1">
-        <v>599</v>
+        <v>5.2</v>
       </c>
       <c r="E187">
         <v>1</v>
       </c>
       <c r="F187" t="s">
-        <v>527</v>
-      </c>
-      <c r="G187" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+      <c r="G187" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B188" t="s">
         <v>277</v>
       </c>
       <c r="C188" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D188" s="1">
-        <v>5.2</v>
+        <v>7.15</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -7228,398 +7251,398 @@
         <v>528</v>
       </c>
       <c r="G188" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B189" t="s">
         <v>277</v>
       </c>
       <c r="C189" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D189" s="1">
-        <v>7.15</v>
+        <v>12.95</v>
       </c>
       <c r="E189">
         <v>1</v>
       </c>
       <c r="F189" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G189" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B190" t="s">
         <v>277</v>
       </c>
       <c r="C190" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D190" s="1">
-        <v>12.95</v>
+        <v>16.25</v>
       </c>
       <c r="E190">
         <v>1</v>
       </c>
       <c r="F190" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G190" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B191" t="s">
         <v>277</v>
       </c>
       <c r="C191" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D191" s="1">
-        <v>16.25</v>
+        <v>25</v>
       </c>
       <c r="E191">
         <v>1</v>
       </c>
       <c r="F191" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G191" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B192" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C192" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D192" s="1">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E192">
         <v>1</v>
       </c>
       <c r="F192" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G192" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B193" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C193" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D193" s="1">
-        <v>100</v>
+        <v>3.9</v>
       </c>
       <c r="E193">
         <v>1</v>
       </c>
       <c r="F193" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G193" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B194" t="s">
         <v>290</v>
       </c>
       <c r="C194" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D194" s="1">
-        <v>3.9</v>
+        <v>6.9</v>
       </c>
       <c r="E194">
         <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G194" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B195" t="s">
         <v>290</v>
       </c>
       <c r="C195" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D195" s="1">
-        <v>6.9</v>
+        <v>39</v>
       </c>
       <c r="E195">
         <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G195" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B196" t="s">
         <v>290</v>
       </c>
       <c r="C196" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D196" s="1">
-        <v>39</v>
+        <v>39.9</v>
       </c>
       <c r="E196">
         <v>1</v>
       </c>
       <c r="F196" t="s">
-        <v>534</v>
-      </c>
-      <c r="G196" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+        <v>535</v>
+      </c>
+      <c r="G196" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B197" t="s">
-        <v>290</v>
+        <v>567</v>
       </c>
       <c r="C197" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D197" s="1">
-        <v>39.9</v>
+        <v>7</v>
       </c>
       <c r="E197">
         <v>1</v>
       </c>
       <c r="F197" t="s">
-        <v>535</v>
-      </c>
-      <c r="G197" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+        <v>536</v>
+      </c>
+      <c r="G197" t="s">
+        <v>299</v>
+      </c>
+      <c r="H197" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B198" t="s">
         <v>567</v>
       </c>
       <c r="C198" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D198" s="1">
-        <v>7</v>
+        <v>12.9</v>
       </c>
       <c r="E198">
         <v>1</v>
       </c>
       <c r="F198" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G198" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H198" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B199" t="s">
         <v>567</v>
       </c>
       <c r="C199" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D199" s="1">
-        <v>12.9</v>
+        <v>34.5</v>
       </c>
       <c r="E199">
         <v>1</v>
       </c>
       <c r="F199" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G199" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H199" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B200" t="s">
         <v>567</v>
       </c>
       <c r="C200" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D200" s="1">
-        <v>34.5</v>
+        <v>99</v>
       </c>
       <c r="E200">
         <v>1</v>
       </c>
       <c r="F200" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G200" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H200" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B201" t="s">
-        <v>567</v>
+        <v>301</v>
       </c>
       <c r="C201" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="D201" s="1">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="E201">
         <v>1</v>
       </c>
       <c r="F201" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G201" t="s">
-        <v>297</v>
-      </c>
-      <c r="H201" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B202" t="s">
         <v>301</v>
       </c>
       <c r="C202" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="D202" s="1">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E202">
         <v>1</v>
       </c>
       <c r="F202" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G202" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B203" t="s">
         <v>301</v>
       </c>
       <c r="C203" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D203" s="1">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="E203">
         <v>1</v>
       </c>
       <c r="F203" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G203" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B204" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C204" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D204" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E204">
         <v>1</v>
       </c>
       <c r="F204" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G204" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B205" t="s">
         <v>307</v>
       </c>
       <c r="C205" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D205" s="1">
         <v>25</v>
@@ -7628,21 +7651,21 @@
         <v>1</v>
       </c>
       <c r="F205" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G205" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B206" t="s">
         <v>307</v>
       </c>
       <c r="C206" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D206" s="1">
         <v>25</v>
@@ -7651,21 +7674,21 @@
         <v>1</v>
       </c>
       <c r="F206" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G206" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B207" t="s">
         <v>307</v>
       </c>
       <c r="C207" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D207" s="1">
         <v>25</v>
@@ -7674,21 +7697,21 @@
         <v>1</v>
       </c>
       <c r="F207" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="G207" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B208" t="s">
         <v>307</v>
       </c>
       <c r="C208" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D208" s="1">
         <v>25</v>
@@ -7697,44 +7720,44 @@
         <v>1</v>
       </c>
       <c r="F208" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G208" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B209" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C209" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D209" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E209">
         <v>1</v>
       </c>
       <c r="F209" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G209" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B210" t="s">
         <v>313</v>
       </c>
       <c r="C210" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D210" s="1">
         <v>19</v>
@@ -7749,15 +7772,15 @@
         <v>314</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B211" t="s">
         <v>313</v>
       </c>
       <c r="C211" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D211" s="1">
         <v>19</v>
@@ -7772,15 +7795,15 @@
         <v>314</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B212" t="s">
         <v>313</v>
       </c>
       <c r="C212" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D212" s="1">
         <v>19</v>
@@ -7795,38 +7818,38 @@
         <v>314</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B213" t="s">
         <v>313</v>
       </c>
       <c r="C213" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D213" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E213">
         <v>1</v>
       </c>
       <c r="F213" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G213" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B214" t="s">
         <v>313</v>
       </c>
       <c r="C214" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D214" s="1">
         <v>6</v>
@@ -7835,44 +7858,44 @@
         <v>1</v>
       </c>
       <c r="F214" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G214" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B215" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C215" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D215" s="1">
-        <v>6</v>
+        <v>9.9</v>
       </c>
       <c r="E215">
         <v>1</v>
       </c>
       <c r="F215" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G215" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B216" t="s">
         <v>322</v>
       </c>
       <c r="C216" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D216" s="1">
         <v>9.9</v>
@@ -7881,21 +7904,21 @@
         <v>1</v>
       </c>
       <c r="F216" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G216" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B217" t="s">
         <v>322</v>
       </c>
       <c r="C217" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D217" s="1">
         <v>9.9</v>
@@ -7904,21 +7927,21 @@
         <v>1</v>
       </c>
       <c r="F217" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G217" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B218" t="s">
         <v>322</v>
       </c>
       <c r="C218" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D218" s="1">
         <v>9.9</v>
@@ -7927,67 +7950,67 @@
         <v>1</v>
       </c>
       <c r="F218" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G218" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B219" t="s">
         <v>322</v>
       </c>
       <c r="C219" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D219" s="1">
-        <v>9.9</v>
+        <v>12</v>
       </c>
       <c r="E219">
         <v>1</v>
       </c>
       <c r="F219" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G219" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B220" t="s">
         <v>322</v>
       </c>
       <c r="C220" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D220" s="1">
-        <v>12</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E220">
         <v>1</v>
       </c>
       <c r="F220" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G220" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B221" t="s">
         <v>322</v>
       </c>
       <c r="C221" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D221" s="1">
         <v>18.899999999999999</v>
@@ -7996,554 +8019,531 @@
         <v>1</v>
       </c>
       <c r="F221" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G221" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="B222" t="s">
-        <v>322</v>
+        <v>594</v>
       </c>
       <c r="C222" t="s">
-        <v>334</v>
+        <v>598</v>
       </c>
       <c r="D222" s="1">
-        <v>18.899999999999999</v>
+        <v>14800</v>
       </c>
       <c r="E222">
         <v>1</v>
       </c>
       <c r="F222" t="s">
-        <v>558</v>
+        <v>599</v>
       </c>
       <c r="G222" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+        <v>600</v>
+      </c>
+      <c r="H222" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B223" t="s">
         <v>594</v>
       </c>
       <c r="C223" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D223" s="1">
-        <v>14800</v>
+        <v>580</v>
       </c>
       <c r="E223">
         <v>1</v>
       </c>
       <c r="F223" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="G223" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H223" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B224" t="s">
         <v>594</v>
       </c>
       <c r="C224" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D224" s="1">
-        <v>580</v>
+        <v>3800</v>
       </c>
       <c r="E224">
         <v>1</v>
       </c>
       <c r="F224" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="G224" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="H224" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B225" t="s">
         <v>594</v>
       </c>
       <c r="C225" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="D225" s="1">
-        <v>3800</v>
+        <v>6800</v>
       </c>
       <c r="E225">
         <v>1</v>
       </c>
       <c r="F225" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="G225" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="H225" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B226" t="s">
         <v>594</v>
       </c>
       <c r="C226" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D226" s="1">
-        <v>6800</v>
+        <v>599</v>
       </c>
       <c r="E226">
         <v>1</v>
       </c>
       <c r="F226" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="G226" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="H226" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B227" t="s">
         <v>594</v>
       </c>
       <c r="C227" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D227" s="1">
-        <v>599</v>
+        <v>799</v>
       </c>
       <c r="E227">
         <v>1</v>
       </c>
       <c r="F227" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="G227" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="H227" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B228" t="s">
         <v>594</v>
       </c>
       <c r="C228" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="D228" s="1">
-        <v>799</v>
+        <v>1700</v>
       </c>
       <c r="E228">
         <v>1</v>
       </c>
       <c r="F228" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="G228" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="H228" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    